--- a/app/config/tables/CHILDREN/Forms/CHILDREN/CHILDREN.xlsx
+++ b/app/config/tables/CHILDREN/Forms/CHILDREN/CHILDREN.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{778B5D51-8AB5-4D13-9D8A-4A101A4DD275}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3F5AD63-E5AC-428F-A331-1A17BD5ABAC4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="728" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="728" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="228">
   <si>
     <t>setting_name</t>
   </si>
@@ -299,9 +299,6 @@
     <t>DOB</t>
   </si>
   <si>
-    <t>POB</t>
-  </si>
-  <si>
     <t>BCG</t>
   </si>
   <si>
@@ -356,18 +353,9 @@
     <t>Date of birth</t>
   </si>
   <si>
-    <t>Place of birth</t>
-  </si>
-  <si>
     <t>Data de nascimento</t>
   </si>
   <si>
-    <t>Local de nascimento</t>
-  </si>
-  <si>
-    <t>PlaceOfBirth</t>
-  </si>
-  <si>
     <t>Male</t>
   </si>
   <si>
@@ -380,21 +368,6 @@
     <t>Fêmea</t>
   </si>
   <si>
-    <t>Home</t>
-  </si>
-  <si>
-    <t>Health centre</t>
-  </si>
-  <si>
-    <t>Hospital</t>
-  </si>
-  <si>
-    <t>Casa</t>
-  </si>
-  <si>
-    <t>Centro de Saúde</t>
-  </si>
-  <si>
     <t>VACINAS</t>
   </si>
   <si>
@@ -491,9 +464,6 @@
     <t>A criança recebeu vaccina contra polio (VPO-0)?</t>
   </si>
   <si>
-    <t>data("POLIO0") != "2"</t>
-  </si>
-  <si>
     <t>Has the child been hospitalised since birth?</t>
   </si>
   <si>
@@ -587,9 +557,6 @@
     <t>data("BCG") != null || data("VACINAS") !=1</t>
   </si>
   <si>
-    <t>data("POLIO0") != null || data("VACINAS") !=1</t>
-  </si>
-  <si>
     <t>data("VACINASOU") != null || data("VACINAS") !=1</t>
   </si>
   <si>
@@ -605,12 +572,6 @@
     <t>VACINASIMG</t>
   </si>
   <si>
-    <t>data("VACINASOU") == "1" &amp;&amp; data("VACINFO") != "3"</t>
-  </si>
-  <si>
-    <t>data("VACINASIMG_url") != null ||  data("VACINFO") ==3 || data("VACINASOU") !=1</t>
-  </si>
-  <si>
     <t>(data("MUAC")&gt;49 &amp;&amp; data("MUAC")&lt;343 &amp;&amp; data("MUAC")%2 == 0) || data("MUAC") == 999  || data("MUAC") == "11" || data('ESTADOCRI') != 1</t>
   </si>
   <si>
@@ -632,9 +593,6 @@
     <t>(data("BCGDATA") != null &amp;&amp; adate.ageInYears(data("BCGDATA")) != -9999 &amp;&amp; adate.ageInYears(data("BCGDATA")) &lt; 2019) || data("BCG") != 1</t>
   </si>
   <si>
-    <t>(data("POLIO0DATA") != null &amp;&amp; adate.ageInYears(data("POLIO0DATA")) != -9999 &amp;&amp; adate.ageInYears(data("POLIO0DATA")) &lt; 2019) || data("BCG") != 1</t>
-  </si>
-  <si>
     <t>(data("HOSPDATA") != null &amp;&amp; adate.ageInYears(data("HOSPDATA")) != -9999 &amp;&amp; adate.ageInYears(data("HOSPDATA")) &lt; 2019) || data("HOSP") != 1</t>
   </si>
   <si>
@@ -654,6 +612,111 @@
   </si>
   <si>
     <t>fu</t>
+  </si>
+  <si>
+    <t>POLIO</t>
+  </si>
+  <si>
+    <t>POLIODATA</t>
+  </si>
+  <si>
+    <t>data("POLIO") != null || data("VACINAS") !=1</t>
+  </si>
+  <si>
+    <t>data("POLIO") != "2"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> data("VACINFO") != "3"</t>
+  </si>
+  <si>
+    <t>data("VACINASOU") == "1"</t>
+  </si>
+  <si>
+    <t>select_multiple</t>
+  </si>
+  <si>
+    <t>Vaccines</t>
+  </si>
+  <si>
+    <t>OUTROVAC</t>
+  </si>
+  <si>
+    <t>OUTRODATA</t>
+  </si>
+  <si>
+    <t>What is the first vaccine the child received after polio or BCG?</t>
+  </si>
+  <si>
+    <t>Qual é a primeira vacina que a criança recebeu após a poliomielite ou BCG?</t>
+  </si>
+  <si>
+    <t>data("OUTROVAC") != null || data("VACINASOU") !=1</t>
+  </si>
+  <si>
+    <t>Date of first vaccine received after polio or BCG</t>
+  </si>
+  <si>
+    <t>Data da primeira vacina recebida após a poliomielite ou BCG</t>
+  </si>
+  <si>
+    <t>data("OUTRODATA") != null || data("VACINASOU") !=1</t>
+  </si>
+  <si>
+    <t>(data("POLIODATA") != null &amp;&amp; adate.ageInYears(data("POLIODATA")) != -9999 &amp;&amp; adate.ageInYears(data("POLIODATA")) &lt; 2019) || data("POLIO") != 1</t>
+  </si>
+  <si>
+    <t>Polio (1, 2 or 3)</t>
+  </si>
+  <si>
+    <t>Penta</t>
+  </si>
+  <si>
+    <t>PCV</t>
+  </si>
+  <si>
+    <t>ROTA</t>
+  </si>
+  <si>
+    <t>VPI</t>
+  </si>
+  <si>
+    <t>IPV</t>
+  </si>
+  <si>
+    <t>PCV (1, 2 or 3)</t>
+  </si>
+  <si>
+    <t>Penta (1, 2 or 3)</t>
+  </si>
+  <si>
+    <t>ROTA (1 or 2)</t>
+  </si>
+  <si>
+    <t>Penta (1, 2 ou 3)</t>
+  </si>
+  <si>
+    <t>PCV (1, 2 ou 3)</t>
+  </si>
+  <si>
+    <t>VPO (1, 2 ou 3)</t>
+  </si>
+  <si>
+    <t>ROTA (1 ou 2)</t>
+  </si>
+  <si>
+    <t>Polio</t>
+  </si>
+  <si>
+    <t>The questionnaire is now finished.</t>
+  </si>
+  <si>
+    <t>O questionário está concluído.</t>
+  </si>
+  <si>
+    <t>Thank you for your time.</t>
+  </si>
+  <si>
+    <t>Obrigado pelo seu tempo.</t>
   </si>
 </sst>
 </file>
@@ -757,7 +820,7 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -773,7 +836,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1115,7 +1177,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -1131,7 +1193,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -1140,10 +1202,10 @@
       </c>
       <c r="B5" s="3"/>
       <c r="C5" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="D5" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -1183,34 +1245,34 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB5FB9AA-D433-6046-85E1-401DEB18B3FD}">
-  <dimension ref="A1:R73"/>
+  <dimension ref="A1:R84"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G78" sqref="G78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" style="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" style="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26" style="15" customWidth="1"/>
-    <col min="4" max="4" width="22" style="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.85546875" style="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="46.28515625" style="19" customWidth="1"/>
-    <col min="8" max="8" width="41" style="15" customWidth="1"/>
-    <col min="9" max="9" width="29.85546875" style="15" customWidth="1"/>
-    <col min="10" max="10" width="8.7109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" style="15" customWidth="1"/>
-    <col min="12" max="12" width="33.85546875" style="15" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.85546875" style="15" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="37.42578125" style="15" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="30.28515625" style="15" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="23.42578125" style="15" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="19.5703125" style="15" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="20.7109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="11.42578125" style="15"/>
+    <col min="1" max="1" width="12.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26" style="14" customWidth="1"/>
+    <col min="4" max="4" width="22" style="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="46.28515625" style="18" customWidth="1"/>
+    <col min="8" max="8" width="41" style="14" customWidth="1"/>
+    <col min="9" max="9" width="29.85546875" style="14" customWidth="1"/>
+    <col min="10" max="10" width="8.7109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" style="14" customWidth="1"/>
+    <col min="12" max="12" width="33.85546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.85546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="37.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="30.28515625" style="14" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="23.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="19.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="20.7109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="11.42578125" style="14"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1232,7 +1294,7 @@
       <c r="F1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="G1" s="17" t="s">
         <v>31</v>
       </c>
       <c r="H1" s="2" t="s">
@@ -1266,45 +1328,45 @@
         <v>44</v>
       </c>
       <c r="R1" s="9" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
     </row>
     <row r="2" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B2" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="G2" s="25"/>
+      <c r="G2" s="24"/>
     </row>
     <row r="3" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D3" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="G3" s="19" t="s">
-        <v>161</v>
+      <c r="G3" s="18" t="s">
+        <v>151</v>
       </c>
       <c r="H3" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
     </row>
     <row r="4" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D4" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="G4" s="25" t="s">
-        <v>163</v>
-      </c>
-      <c r="H4" s="25" t="s">
-        <v>164</v>
+      <c r="G4" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="H4" s="24" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="5" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D5" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="G5" s="25" t="s">
+      <c r="G5" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="H5" s="25" t="s">
+      <c r="H5" s="24" t="s">
         <v>82</v>
       </c>
     </row>
@@ -1312,10 +1374,10 @@
       <c r="D6" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="G6" s="25" t="s">
+      <c r="G6" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="H6" s="25" t="s">
+      <c r="H6" s="24" t="s">
         <v>83</v>
       </c>
     </row>
@@ -1323,10 +1385,10 @@
       <c r="D7" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="G7" s="25" t="s">
+      <c r="G7" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="H7" s="25" t="s">
+      <c r="H7" s="24" t="s">
         <v>80</v>
       </c>
     </row>
@@ -1334,10 +1396,10 @@
       <c r="D8" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="G8" s="25" t="s">
+      <c r="G8" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="H8" s="25" t="s">
+      <c r="H8" s="24" t="s">
         <v>84</v>
       </c>
     </row>
@@ -1345,11 +1407,11 @@
       <c r="D9" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="G9" s="25" t="s">
-        <v>165</v>
-      </c>
-      <c r="H9" s="25" t="s">
-        <v>166</v>
+      <c r="G9" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="H9" s="24" t="s">
+        <v>156</v>
       </c>
       <c r="J9" s="12" t="b">
         <v>1</v>
@@ -1359,745 +1421,836 @@
       <c r="D10" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="G10" s="25" t="s">
-        <v>167</v>
-      </c>
-      <c r="H10" s="25" t="s">
-        <v>168</v>
+      <c r="G10" s="24" t="s">
+        <v>157</v>
+      </c>
+      <c r="H10" s="24" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="11" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="G11" s="25"/>
+      <c r="G11" s="24"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="14" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="D13" s="16" t="s">
+      <c r="D13" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="G13" s="19" t="s">
-        <v>161</v>
+      <c r="G13" s="18" t="s">
+        <v>151</v>
       </c>
       <c r="H13" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="D14" s="16" t="s">
+      <c r="D14" s="15" t="s">
         <v>28</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="G14" s="19" t="s">
-        <v>159</v>
-      </c>
-      <c r="H14" s="15" t="s">
-        <v>160</v>
+        <v>99</v>
+      </c>
+      <c r="G14" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="H14" s="14" t="s">
+        <v>150</v>
       </c>
       <c r="J14" t="b">
         <v>1</v>
       </c>
       <c r="K14" t="s">
+        <v>182</v>
+      </c>
+      <c r="P14" s="14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B15" s="14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B16" s="14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D17" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="G17" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="H17" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D18" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="F18" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="G18" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="H18" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="J18" s="14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D19" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="F19" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="G19" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="H19" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="J19" s="14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D20" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F20" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="G20" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="H20" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="J20" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="K20" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="P20" s="14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B21" s="14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B22" s="14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D23" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="G23" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="H23" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="24" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D24" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="E24" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="F24" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="G24" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="H24" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="J24" s="14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B25" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="D25" s="14"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="23"/>
+      <c r="H25" s="23"/>
+    </row>
+    <row r="26" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D26" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="F26" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="G26" t="s">
+        <v>159</v>
+      </c>
+      <c r="H26" t="s">
+        <v>160</v>
+      </c>
+      <c r="K26" t="s">
+        <v>184</v>
+      </c>
+      <c r="P26" s="14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B27" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="D27" s="14"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="23"/>
+      <c r="H27" s="23"/>
+    </row>
+    <row r="28" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B28" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D28" s="14"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="23"/>
+    </row>
+    <row r="29" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B29" s="14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D30" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="G30" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="H30" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="31" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D31" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="E31" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="G31" s="23" t="s">
+        <v>119</v>
+      </c>
+      <c r="H31" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="J31" s="14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D32" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="E32" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="F32" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="G32" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="H32" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="J32" s="14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B33" s="14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B34" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="C34" s="14" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B35" s="14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="36" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D36" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="G36" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="H36" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D37" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="E37" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="F37" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="G37" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="H37" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="K37" s="14" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="38" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B38" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="C38" s="14" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D39" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F39" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="G39" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="H39" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="K39" s="14" t="s">
+        <v>185</v>
+      </c>
+      <c r="P39" s="14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B40" s="14" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D41" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="E41" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="G41" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="H41" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="K41" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="P14" s="15" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B15" s="15" t="s">
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B42" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="C42" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="F42" s="3"/>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D43" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F43" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="G43" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="H43" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="K43" s="14" t="s">
+        <v>209</v>
+      </c>
+      <c r="P43" s="14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B44" s="14" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B45" s="14" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B16" s="15" t="s">
+    <row r="46" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B46" s="14" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D17" s="16" t="s">
+    <row r="47" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D47" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="G17" s="19" t="s">
+      <c r="G47" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="H47" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D48" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="E48" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="F48" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="H17" t="s">
+      <c r="G48" s="23" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D18" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="F18" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="G18" s="19" t="s">
-        <v>101</v>
-      </c>
-      <c r="H18" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="J18" s="15" t="b">
+      <c r="H48" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="K48" s="14" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="49" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B49" s="14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="50" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B50" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="C50" s="14" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="51" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B51" s="14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="52" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="D52" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="G52" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="H52" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="53" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="D53" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="E53" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="F53" s="14" t="s">
+        <v>201</v>
+      </c>
+      <c r="G53" s="18" t="s">
+        <v>203</v>
+      </c>
+      <c r="H53" s="14" t="s">
+        <v>204</v>
+      </c>
+      <c r="K53" s="14" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="54" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="D54" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F54" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="G54" s="18" t="s">
+        <v>206</v>
+      </c>
+      <c r="H54" s="14" t="s">
+        <v>207</v>
+      </c>
+      <c r="K54" s="14" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="55" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B55" s="14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="56" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B56" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="C56" s="14" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="57" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B57" s="14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="58" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="D58" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="G58" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="H58" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="59" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="D59" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="F59" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="G59" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="H59" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="L59" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="M59" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="R59" s="14" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="60" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B60" s="14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="61" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B61" s="14" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="62" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B62" s="14" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="63" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B63" s="14" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="64" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B64" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="C64" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="D64" s="14"/>
+      <c r="F64" s="15"/>
+      <c r="G64" s="23"/>
+      <c r="H64" s="23"/>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B65" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D65" s="14"/>
+      <c r="F65" s="15"/>
+      <c r="G65" s="23"/>
+      <c r="H65" s="23"/>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D66" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="G66" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="H66" t="s">
+        <v>152</v>
+      </c>
+      <c r="K66"/>
+      <c r="L66"/>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D67" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="F67" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="G67" s="23" t="s">
+        <v>134</v>
+      </c>
+      <c r="H67" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="K67" t="s">
+        <v>179</v>
+      </c>
+      <c r="L67" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="M67" t="s">
+        <v>181</v>
+      </c>
+      <c r="N67" t="s">
+        <v>175</v>
+      </c>
+      <c r="O67" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B68" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="C68" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="D68" s="14"/>
+      <c r="F68" s="15"/>
+      <c r="G68" s="23"/>
+      <c r="H68" s="23"/>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D69" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E69" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="F69" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="G69" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="H69" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="K69" s="14" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B70" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="D70" s="14"/>
+      <c r="G70" s="14"/>
+      <c r="H70" s="23"/>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B71" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D71" s="14"/>
+      <c r="F71" s="15"/>
+      <c r="G71" s="23"/>
+      <c r="H71" s="23"/>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B72" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="D72" s="14"/>
+      <c r="F72" s="15"/>
+      <c r="G72" s="23"/>
+      <c r="H72" s="23"/>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B73" s="14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D74" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="G74" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="H74" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D75" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="E75" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="F75" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="G75" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="H75" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="J75" s="14" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D19" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="E19" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="F19" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="G19" s="19" t="s">
-        <v>104</v>
-      </c>
-      <c r="H19" s="19" t="s">
-        <v>105</v>
-      </c>
-      <c r="J19" s="15" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D20" s="16" t="s">
+    <row r="76" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B76" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="C76" s="14" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D77" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="F20" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="G20" s="19" t="s">
-        <v>106</v>
-      </c>
-      <c r="H20" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="J20" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="K20" s="15" t="s">
-        <v>196</v>
-      </c>
-      <c r="P20" s="15" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D21" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="E21" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="F21" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="G21" s="19" t="s">
-        <v>107</v>
-      </c>
-      <c r="H21" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="J21" s="15" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B22" s="15" t="s">
+      <c r="F77" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="G77" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="H77" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="K77" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="P77" s="14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B78" s="14" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B79" s="14" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B23" s="15" t="s">
+    <row r="80" spans="2:16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B80" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D24" s="16" t="s">
+    <row r="81" spans="2:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D81" t="s">
         <v>35</v>
       </c>
-      <c r="G24" s="19" t="s">
-        <v>161</v>
-      </c>
-      <c r="H24" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D25" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="E25" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="F25" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="G25" s="24" t="s">
-        <v>103</v>
-      </c>
-      <c r="H25" s="24" t="s">
-        <v>137</v>
-      </c>
-      <c r="J25" s="15" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B26" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="C26" s="15" t="s">
-        <v>138</v>
-      </c>
-      <c r="D26" s="15"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="24"/>
-      <c r="H26" s="24"/>
-    </row>
-    <row r="27" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D27" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="F27" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="G27" t="s">
-        <v>169</v>
-      </c>
-      <c r="H27" t="s">
-        <v>170</v>
-      </c>
-      <c r="K27" t="s">
-        <v>197</v>
-      </c>
-      <c r="P27" s="15" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B28" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="D28" s="15"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="24"/>
-      <c r="H28" s="24"/>
-    </row>
-    <row r="29" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B29" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="D29" s="15"/>
-      <c r="F29" s="16"/>
-      <c r="G29" s="24"/>
-      <c r="H29" s="24"/>
-    </row>
-    <row r="30" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B30" s="15" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="31" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D31" s="16" t="s">
+      <c r="G81" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="H81" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="82" spans="2:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D82" t="s">
         <v>35</v>
       </c>
-      <c r="G31" s="19" t="s">
-        <v>161</v>
-      </c>
-      <c r="H31" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="32" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D32" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="E32" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="G32" s="24" t="s">
-        <v>128</v>
-      </c>
-      <c r="H32" s="15" t="s">
-        <v>129</v>
-      </c>
-      <c r="J32" s="15" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D33" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="E33" s="15" t="s">
-        <v>121</v>
-      </c>
-      <c r="F33" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="G33" s="24" t="s">
-        <v>130</v>
-      </c>
-      <c r="H33" s="15" t="s">
-        <v>131</v>
-      </c>
-      <c r="J33" s="15" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B34" s="15" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B35" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="C35" s="15" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="36" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B36" s="15" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D37" s="16" t="s">
+      <c r="G82" t="s">
+        <v>224</v>
+      </c>
+      <c r="H82" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="83" spans="2:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D83" t="s">
         <v>35</v>
       </c>
-      <c r="G37" s="19" t="s">
-        <v>161</v>
-      </c>
-      <c r="H37" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D38" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="E38" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="F38" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="G38" s="19" t="s">
-        <v>146</v>
-      </c>
-      <c r="H38" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="K38" s="15" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B39" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="C39" s="15" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D40" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="F40" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="G40" s="19" t="s">
-        <v>148</v>
-      </c>
-      <c r="H40" s="15" t="s">
-        <v>149</v>
-      </c>
-      <c r="K40" s="15" t="s">
-        <v>198</v>
-      </c>
-      <c r="P40" s="15" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B41" s="15" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D42" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="E42" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="G42" s="19" t="s">
-        <v>150</v>
-      </c>
-      <c r="H42" s="15" t="s">
-        <v>151</v>
-      </c>
-      <c r="K42" s="15" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B43" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="C43" s="15" t="s">
-        <v>152</v>
-      </c>
-      <c r="F43" s="3"/>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D44" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="F44" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="G44" s="19" t="s">
-        <v>148</v>
-      </c>
-      <c r="H44" s="15" t="s">
-        <v>149</v>
-      </c>
-      <c r="K44" s="15" t="s">
-        <v>199</v>
-      </c>
-      <c r="P44" s="15" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B45" s="15" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B46" s="15" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B47" s="15" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D48" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="G48" s="19" t="s">
-        <v>161</v>
-      </c>
-      <c r="H48" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="49" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="D49" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="E49" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="G49" s="24" t="s">
-        <v>172</v>
-      </c>
-      <c r="H49" s="15" t="s">
-        <v>173</v>
-      </c>
-      <c r="K49" s="15" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="50" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B50" s="15" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="51" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B51" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="C51" s="15" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="52" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B52" s="15" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="53" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="D53" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="G53" s="19" t="s">
-        <v>161</v>
-      </c>
-      <c r="H53" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="54" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="D54" s="16" t="s">
-        <v>174</v>
-      </c>
-      <c r="F54" s="15" t="s">
-        <v>189</v>
-      </c>
-      <c r="G54" s="19" t="s">
-        <v>175</v>
-      </c>
-      <c r="H54" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="K54" s="15" t="s">
-        <v>191</v>
-      </c>
-      <c r="L54" s="15" t="s">
-        <v>181</v>
-      </c>
-      <c r="M54" s="15" t="s">
-        <v>182</v>
-      </c>
-      <c r="R54" s="15" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="55" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B55" s="15" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="56" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B56" s="15" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="57" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B57" s="15" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="58" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B58" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="C58" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="D58" s="15"/>
-      <c r="F58" s="16"/>
-      <c r="G58" s="24"/>
-      <c r="H58" s="24"/>
-    </row>
-    <row r="59" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B59" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="D59" s="15"/>
-      <c r="F59" s="16"/>
-      <c r="G59" s="24"/>
-      <c r="H59" s="24"/>
-    </row>
-    <row r="60" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="D60" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="G60" s="19" t="s">
-        <v>161</v>
-      </c>
-      <c r="H60" t="s">
-        <v>162</v>
-      </c>
-      <c r="K60"/>
-      <c r="L60"/>
-    </row>
-    <row r="61" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="D61" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="F61" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="G61" s="24" t="s">
-        <v>143</v>
-      </c>
-      <c r="H61" s="24" t="s">
-        <v>144</v>
-      </c>
-      <c r="K61" t="s">
-        <v>192</v>
-      </c>
-      <c r="L61" s="15" t="s">
-        <v>193</v>
-      </c>
-      <c r="M61" t="s">
-        <v>194</v>
-      </c>
-      <c r="N61" t="s">
-        <v>186</v>
-      </c>
-      <c r="O61" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="62" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B62" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="C62" s="15" t="s">
-        <v>140</v>
-      </c>
-      <c r="D62" s="15"/>
-      <c r="F62" s="16"/>
-      <c r="G62" s="24"/>
-      <c r="H62" s="24"/>
-    </row>
-    <row r="63" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="D63" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E63" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="F63" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="G63" s="24" t="s">
-        <v>141</v>
-      </c>
-      <c r="H63" s="24" t="s">
-        <v>142</v>
-      </c>
-      <c r="K63" s="15" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="64" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B64" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="D64" s="15"/>
-      <c r="G64" s="15"/>
-      <c r="H64" s="24"/>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B65" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="D65" s="15"/>
-      <c r="F65" s="16"/>
-      <c r="G65" s="24"/>
-      <c r="H65" s="24"/>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B66" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="D66" s="15"/>
-      <c r="F66" s="16"/>
-      <c r="G66" s="24"/>
-      <c r="H66" s="24"/>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B67" s="15" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D68" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="G68" s="19" t="s">
-        <v>161</v>
-      </c>
-      <c r="H68" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D69" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="E69" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="F69" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="G69" s="19" t="s">
-        <v>153</v>
-      </c>
-      <c r="H69" s="15" t="s">
-        <v>157</v>
-      </c>
-      <c r="J69" s="15" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B70" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="C70" s="15" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D71" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="F71" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="G71" s="19" t="s">
-        <v>155</v>
-      </c>
-      <c r="H71" s="15" t="s">
-        <v>156</v>
-      </c>
-      <c r="K71" s="15" t="s">
-        <v>200</v>
-      </c>
-      <c r="P71" s="15" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B72" s="15" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B73" s="15" t="s">
+      <c r="G83" t="s">
+        <v>226</v>
+      </c>
+      <c r="H83" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="84" spans="2:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B84" t="s">
         <v>38</v>
       </c>
     </row>
@@ -2109,11 +2262,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:F142"/>
+  <dimension ref="A1:F137"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A11" sqref="A11:D15"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2140,37 +2293,37 @@
     </row>
     <row r="2" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B2" s="12" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B3" s="12" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B4" s="12" t="str">
         <f>"3"</f>
@@ -2183,939 +2336,941 @@
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="12"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-    </row>
-    <row r="6" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="B6" s="12" t="str">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="14"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="B6" s="14" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
-      <c r="C6" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="B7" s="12" t="str">
+      <c r="C6" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="B7" s="14" t="str">
+        <f>"4"</f>
+        <v>4</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="B8" s="14" t="str">
+        <f>"5"</f>
+        <v>5</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="B9" s="14" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
-      <c r="C7" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="B8" s="12" t="str">
+      <c r="C9" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="B10" s="14" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
-      <c r="C8" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="B9" s="12" t="str">
-        <f>"33"</f>
-        <v>33</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="15"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
+      <c r="C10" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="B11" s="15" t="str">
+      <c r="A11" s="14"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12" s="14" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
-      <c r="C11" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="D11" s="15" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="B12" s="15" t="str">
-        <f>"4"</f>
-        <v>4</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="D12" s="15" t="s">
-        <v>68</v>
+      <c r="C12" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="B13" s="15" t="str">
-        <f>"5"</f>
-        <v>5</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="D13" s="15" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="B14" s="15" t="str">
+      <c r="A13" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13" s="14" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
-      <c r="C14" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="D14" s="15" t="s">
-        <v>134</v>
-      </c>
+      <c r="C13" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="14"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="B15" s="15" t="str">
+      <c r="A15" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="B15" s="14" t="str">
+        <f>"1"</f>
+        <v>1</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="B16" s="14" t="str">
+        <f>"2"</f>
+        <v>2</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="B17" s="14" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
-      <c r="C15" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="D15" s="15" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="15"/>
-      <c r="B16" s="15"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="B17" s="15" t="str">
+      <c r="C17" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="14"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="B19" s="14" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
-      <c r="C17" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="D17" s="15" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="B18" s="15" t="str">
+      <c r="C19" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="B20" s="14" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
-      <c r="C18" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="D18" s="15" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="15"/>
-      <c r="B19" s="15"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="B20" s="15" t="str">
-        <f>"1"</f>
-        <v>1</v>
-      </c>
-      <c r="C20" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="D20" s="15" t="s">
-        <v>60</v>
+      <c r="C20" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="B21" s="15" t="str">
-        <f>"2"</f>
-        <v>2</v>
-      </c>
-      <c r="C21" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="D21" s="15" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="B22" s="15" t="str">
+      <c r="A21" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="B21" s="14" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
-      <c r="C22" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="D22" s="15" t="s">
-        <v>62</v>
-      </c>
+      <c r="C21" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="14"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="15"/>
-      <c r="B23" s="15"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="15" t="s">
-        <v>121</v>
-      </c>
-      <c r="B24" s="15" t="str">
-        <f>"1"</f>
-        <v>1</v>
-      </c>
-      <c r="C24" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="D24" s="15" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="15" t="s">
-        <v>121</v>
-      </c>
-      <c r="B25" s="15" t="str">
-        <f>"2"</f>
-        <v>2</v>
-      </c>
-      <c r="C25" s="15" t="s">
-        <v>123</v>
-      </c>
-      <c r="D25" s="15" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="15" t="s">
-        <v>121</v>
-      </c>
-      <c r="B26" s="15" t="str">
-        <f>"3"</f>
-        <v>3</v>
-      </c>
-      <c r="C26" s="15" t="s">
-        <v>124</v>
-      </c>
-      <c r="D26" s="15" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="15"/>
-      <c r="B27" s="15"/>
-      <c r="C27" s="15"/>
-      <c r="D27" s="15"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="15"/>
-      <c r="B28" s="15"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
-    </row>
-    <row r="29" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="13"/>
-      <c r="B29" s="13"/>
+      <c r="A23" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>211</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>217</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>210</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="14"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+    </row>
+    <row r="29" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="14"/>
+      <c r="B29" s="14"/>
       <c r="C29" s="12"/>
       <c r="D29" s="12"/>
     </row>
     <row r="30" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="15"/>
-      <c r="B30" s="15"/>
+      <c r="A30" s="12"/>
+      <c r="B30" s="12"/>
       <c r="C30" s="12"/>
       <c r="D30" s="12"/>
     </row>
     <row r="31" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="15"/>
-      <c r="B31" s="15"/>
-      <c r="C31" s="12"/>
-      <c r="D31" s="12"/>
+      <c r="A31" s="14"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
     </row>
     <row r="32" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="15"/>
-      <c r="B32" s="15"/>
-      <c r="C32" s="12"/>
-      <c r="D32" s="12"/>
+      <c r="A32" s="14"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="15"/>
     </row>
     <row r="33" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="15"/>
-      <c r="B33" s="15"/>
-      <c r="C33" s="12"/>
-      <c r="D33" s="12"/>
-    </row>
-    <row r="34" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="15"/>
-      <c r="B34" s="15"/>
-      <c r="C34" s="12"/>
-      <c r="D34" s="12"/>
-    </row>
-    <row r="35" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="12"/>
-      <c r="B35" s="12"/>
-      <c r="C35" s="12"/>
-      <c r="D35" s="12"/>
-    </row>
-    <row r="36" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="15"/>
-      <c r="B36" s="15"/>
-      <c r="C36" s="16"/>
-      <c r="D36" s="16"/>
-    </row>
-    <row r="37" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="15"/>
-      <c r="B37" s="15"/>
-      <c r="C37" s="16"/>
-      <c r="D37" s="16"/>
-    </row>
-    <row r="38" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="15"/>
-      <c r="B38" s="15"/>
-      <c r="C38" s="16"/>
-      <c r="D38" s="16"/>
+      <c r="A33" s="14"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="15"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="14"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="19"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="14"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="15"/>
+      <c r="F35" s="14"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="14"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="15"/>
+      <c r="D36" s="15"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="14"/>
+      <c r="B37" s="12"/>
+      <c r="C37" s="15"/>
+      <c r="D37" s="15"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="14"/>
+      <c r="B38" s="12"/>
+      <c r="C38" s="15"/>
+      <c r="D38" s="15"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="15"/>
-      <c r="B39" s="15"/>
-      <c r="C39" s="16"/>
-      <c r="D39" s="20"/>
+      <c r="A39" s="14"/>
+      <c r="B39" s="12"/>
+      <c r="C39" s="15"/>
+      <c r="D39" s="15"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="15"/>
-      <c r="B40" s="15"/>
-      <c r="C40" s="16"/>
-      <c r="D40" s="16"/>
-      <c r="F40" s="15"/>
+      <c r="A40" s="14"/>
+      <c r="B40" s="12"/>
+      <c r="C40" s="15"/>
+      <c r="D40" s="15"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="15"/>
-      <c r="B41" s="15"/>
-      <c r="C41" s="16"/>
-      <c r="D41" s="16"/>
+      <c r="A41" s="14"/>
+      <c r="B41" s="14"/>
+      <c r="C41" s="15"/>
+      <c r="D41" s="15"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="15"/>
-      <c r="B42" s="12"/>
-      <c r="C42" s="16"/>
-      <c r="D42" s="16"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="15"/>
-      <c r="B43" s="12"/>
-      <c r="C43" s="16"/>
-      <c r="D43" s="16"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="15"/>
-      <c r="B44" s="12"/>
-      <c r="C44" s="16"/>
-      <c r="D44" s="16"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="15"/>
+      <c r="A42" s="14"/>
+      <c r="B42" s="14"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
+    </row>
+    <row r="43" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="14"/>
+      <c r="B43" s="14"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="14"/>
+    </row>
+    <row r="44" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="14"/>
+      <c r="B44" s="14"/>
+      <c r="C44" s="14"/>
+      <c r="D44" s="14"/>
+    </row>
+    <row r="45" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="14"/>
       <c r="B45" s="12"/>
-      <c r="C45" s="16"/>
-      <c r="D45" s="16"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="15"/>
-      <c r="B46" s="15"/>
-      <c r="C46" s="16"/>
-      <c r="D46" s="16"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="15"/>
-      <c r="B47" s="15"/>
-      <c r="C47" s="15"/>
-      <c r="D47" s="15"/>
-    </row>
-    <row r="48" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="15"/>
-      <c r="B48" s="15"/>
+      <c r="C45" s="14"/>
+      <c r="D45" s="14"/>
+    </row>
+    <row r="46" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="14"/>
+      <c r="B46" s="12"/>
+      <c r="C46" s="14"/>
+      <c r="D46" s="14"/>
+    </row>
+    <row r="47" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="12"/>
+      <c r="B47" s="12"/>
+      <c r="C47" s="12"/>
+      <c r="D47" s="12"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="14"/>
+      <c r="B48" s="14"/>
       <c r="C48" s="15"/>
       <c r="D48" s="15"/>
     </row>
-    <row r="49" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="15"/>
-      <c r="B49" s="15"/>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="14"/>
+      <c r="B49" s="14"/>
       <c r="C49" s="15"/>
       <c r="D49" s="15"/>
     </row>
-    <row r="50" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="15"/>
-      <c r="B50" s="12"/>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="14"/>
+      <c r="B50" s="14"/>
       <c r="C50" s="15"/>
       <c r="D50" s="15"/>
     </row>
-    <row r="51" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="15"/>
-      <c r="B51" s="12"/>
+      <c r="B51" s="14"/>
       <c r="C51" s="15"/>
       <c r="D51" s="15"/>
     </row>
-    <row r="52" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="12"/>
-      <c r="B52" s="12"/>
-      <c r="C52" s="12"/>
-      <c r="D52" s="12"/>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="14"/>
+      <c r="B52" s="14"/>
+      <c r="C52" s="15"/>
+      <c r="D52" s="15"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="15"/>
-      <c r="B53" s="15"/>
-      <c r="C53" s="16"/>
-      <c r="D53" s="16"/>
+      <c r="A53" s="14"/>
+      <c r="B53" s="14"/>
+      <c r="C53" s="15"/>
+      <c r="D53" s="15"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="15"/>
-      <c r="B54" s="15"/>
-      <c r="C54" s="16"/>
-      <c r="D54" s="16"/>
+      <c r="A54" s="14"/>
+      <c r="B54" s="14"/>
+      <c r="C54" s="15"/>
+      <c r="D54" s="15"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="15"/>
-      <c r="B55" s="15"/>
-      <c r="C55" s="16"/>
-      <c r="D55" s="16"/>
+      <c r="A55" s="14"/>
+      <c r="B55" s="14"/>
+      <c r="C55" s="15"/>
+      <c r="D55" s="15"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="16"/>
-      <c r="B56" s="15"/>
-      <c r="C56" s="16"/>
-      <c r="D56" s="16"/>
+      <c r="A56" s="14"/>
+      <c r="B56" s="14"/>
+      <c r="C56" s="15"/>
+      <c r="D56" s="15"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="15"/>
-      <c r="B57" s="15"/>
-      <c r="C57" s="16"/>
-      <c r="D57" s="16"/>
+      <c r="A57" s="14"/>
+      <c r="B57" s="20"/>
+      <c r="C57" s="15"/>
+      <c r="D57" s="15"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="15"/>
-      <c r="B58" s="15"/>
-      <c r="C58" s="16"/>
-      <c r="D58" s="16"/>
+      <c r="A58" s="14"/>
+      <c r="B58" s="20"/>
+      <c r="C58" s="15"/>
+      <c r="D58" s="15"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="15"/>
-      <c r="B59" s="15"/>
-      <c r="C59" s="16"/>
-      <c r="D59" s="16"/>
+      <c r="A59" s="14"/>
+      <c r="B59" s="21"/>
+      <c r="C59" s="22"/>
+      <c r="D59" s="22"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="15"/>
-      <c r="B60" s="15"/>
-      <c r="C60" s="16"/>
-      <c r="D60" s="16"/>
+      <c r="A60" s="14"/>
+      <c r="B60" s="21"/>
+      <c r="C60" s="22"/>
+      <c r="D60" s="22"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="15"/>
-      <c r="B61" s="15"/>
-      <c r="C61" s="16"/>
-      <c r="D61" s="16"/>
+      <c r="A61" s="14"/>
+      <c r="B61" s="21"/>
+      <c r="C61" s="22"/>
+      <c r="D61" s="22"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="15"/>
+      <c r="A62" s="14"/>
       <c r="B62" s="21"/>
-      <c r="C62" s="16"/>
-      <c r="D62" s="16"/>
+      <c r="C62" s="22"/>
+      <c r="D62" s="22"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="15"/>
+      <c r="A63" s="14"/>
       <c r="B63" s="21"/>
-      <c r="C63" s="16"/>
-      <c r="D63" s="16"/>
+      <c r="C63" s="22"/>
+      <c r="D63" s="22"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="15"/>
-      <c r="B64" s="22"/>
-      <c r="C64" s="23"/>
-      <c r="D64" s="23"/>
+      <c r="A64" s="14"/>
+      <c r="B64" s="21"/>
+      <c r="C64" s="22"/>
+      <c r="D64" s="22"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="15"/>
-      <c r="B65" s="22"/>
-      <c r="C65" s="23"/>
-      <c r="D65" s="23"/>
+      <c r="A65" s="14"/>
+      <c r="B65" s="21"/>
+      <c r="C65" s="22"/>
+      <c r="D65" s="22"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="15"/>
-      <c r="B66" s="22"/>
-      <c r="C66" s="23"/>
-      <c r="D66" s="23"/>
+      <c r="A66" s="14"/>
+      <c r="B66" s="21"/>
+      <c r="C66" s="22"/>
+      <c r="D66" s="22"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="15"/>
-      <c r="B67" s="22"/>
-      <c r="C67" s="23"/>
-      <c r="D67" s="23"/>
+      <c r="A67" s="14"/>
+      <c r="B67" s="21"/>
+      <c r="C67" s="22"/>
+      <c r="D67" s="22"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="15"/>
-      <c r="B68" s="22"/>
-      <c r="C68" s="23"/>
-      <c r="D68" s="23"/>
+      <c r="A68" s="14"/>
+      <c r="B68" s="21"/>
+      <c r="C68" s="22"/>
+      <c r="D68" s="22"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="15"/>
-      <c r="B69" s="22"/>
-      <c r="C69" s="23"/>
-      <c r="D69" s="23"/>
+      <c r="A69" s="14"/>
+      <c r="B69" s="21"/>
+      <c r="C69" s="22"/>
+      <c r="D69" s="22"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="15"/>
-      <c r="B70" s="22"/>
-      <c r="C70" s="23"/>
-      <c r="D70" s="23"/>
+      <c r="A70" s="14"/>
+      <c r="B70" s="21"/>
+      <c r="C70" s="22"/>
+      <c r="D70" s="22"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="15"/>
-      <c r="B71" s="22"/>
-      <c r="C71" s="23"/>
-      <c r="D71" s="23"/>
+      <c r="A71" s="14"/>
+      <c r="B71" s="21"/>
+      <c r="C71" s="22"/>
+      <c r="D71" s="22"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="15"/>
-      <c r="B72" s="22"/>
-      <c r="C72" s="23"/>
-      <c r="D72" s="23"/>
+      <c r="A72" s="14"/>
+      <c r="B72" s="21"/>
+      <c r="C72" s="22"/>
+      <c r="D72" s="22"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="15"/>
-      <c r="B73" s="22"/>
-      <c r="C73" s="23"/>
-      <c r="D73" s="23"/>
+      <c r="A73" s="14"/>
+      <c r="B73" s="21"/>
+      <c r="C73" s="22"/>
+      <c r="D73" s="22"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="15"/>
-      <c r="B74" s="22"/>
-      <c r="C74" s="23"/>
-      <c r="D74" s="23"/>
+      <c r="A74" s="14"/>
+      <c r="B74" s="21"/>
+      <c r="C74" s="22"/>
+      <c r="D74" s="22"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="15"/>
-      <c r="B75" s="22"/>
-      <c r="C75" s="23"/>
-      <c r="D75" s="23"/>
+      <c r="A75" s="14"/>
+      <c r="B75" s="21"/>
+      <c r="C75" s="22"/>
+      <c r="D75" s="22"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" s="15"/>
-      <c r="B76" s="22"/>
-      <c r="C76" s="23"/>
-      <c r="D76" s="23"/>
+      <c r="A76" s="14"/>
+      <c r="B76" s="21"/>
+      <c r="C76" s="22"/>
+      <c r="D76" s="22"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="15"/>
-      <c r="B77" s="22"/>
-      <c r="C77" s="23"/>
-      <c r="D77" s="23"/>
+      <c r="A77" s="14"/>
+      <c r="B77" s="21"/>
+      <c r="C77" s="22"/>
+      <c r="D77" s="22"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" s="15"/>
-      <c r="B78" s="22"/>
-      <c r="C78" s="23"/>
-      <c r="D78" s="23"/>
+      <c r="A78" s="14"/>
+      <c r="B78" s="21"/>
+      <c r="C78" s="22"/>
+      <c r="D78" s="22"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" s="15"/>
-      <c r="B79" s="22"/>
-      <c r="C79" s="23"/>
-      <c r="D79" s="23"/>
+      <c r="A79" s="14"/>
+      <c r="B79" s="21"/>
+      <c r="C79" s="22"/>
+      <c r="D79" s="22"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" s="15"/>
-      <c r="B80" s="22"/>
-      <c r="C80" s="23"/>
-      <c r="D80" s="23"/>
+      <c r="A80" s="14"/>
+      <c r="B80" s="21"/>
+      <c r="C80" s="22"/>
+      <c r="D80" s="22"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" s="15"/>
-      <c r="B81" s="22"/>
-      <c r="C81" s="23"/>
-      <c r="D81" s="23"/>
+      <c r="A81" s="14"/>
+      <c r="B81" s="20"/>
+      <c r="C81" s="15"/>
+      <c r="D81" s="15"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" s="15"/>
-      <c r="B82" s="22"/>
-      <c r="C82" s="23"/>
-      <c r="D82" s="23"/>
+      <c r="A82" s="14"/>
+      <c r="B82" s="20"/>
+      <c r="C82" s="15"/>
+      <c r="D82" s="15"/>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" s="15"/>
-      <c r="B83" s="22"/>
-      <c r="C83" s="23"/>
-      <c r="D83" s="23"/>
+      <c r="A83" s="14"/>
+      <c r="B83" s="20"/>
+      <c r="C83" s="22"/>
+      <c r="D83" s="22"/>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" s="15"/>
-      <c r="B84" s="22"/>
-      <c r="C84" s="23"/>
-      <c r="D84" s="23"/>
+      <c r="A84" s="14"/>
+      <c r="B84" s="20"/>
+      <c r="C84" s="22"/>
+      <c r="D84" s="15"/>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" s="15"/>
-      <c r="B85" s="22"/>
-      <c r="C85" s="23"/>
-      <c r="D85" s="23"/>
+      <c r="A85" s="14"/>
+      <c r="B85" s="20"/>
+      <c r="C85" s="22"/>
+      <c r="D85" s="15"/>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" s="15"/>
-      <c r="B86" s="21"/>
+      <c r="A86" s="14"/>
+      <c r="B86" s="20"/>
       <c r="C86" s="16"/>
-      <c r="D86" s="16"/>
+      <c r="D86" s="15"/>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87" s="15"/>
-      <c r="B87" s="21"/>
+      <c r="A87" s="14"/>
+      <c r="B87" s="20"/>
       <c r="C87" s="16"/>
-      <c r="D87" s="16"/>
+      <c r="D87" s="15"/>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88" s="15"/>
-      <c r="B88" s="21"/>
-      <c r="C88" s="23"/>
-      <c r="D88" s="23"/>
+      <c r="A88" s="14"/>
+      <c r="B88" s="20"/>
+      <c r="C88" s="15"/>
+      <c r="D88" s="15"/>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89" s="15"/>
-      <c r="B89" s="21"/>
-      <c r="C89" s="23"/>
-      <c r="D89" s="16"/>
+      <c r="A89" s="14"/>
+      <c r="B89" s="20"/>
+      <c r="C89" s="16"/>
+      <c r="D89" s="15"/>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90" s="15"/>
-      <c r="B90" s="21"/>
-      <c r="C90" s="23"/>
-      <c r="D90" s="16"/>
+      <c r="A90" s="14"/>
+      <c r="B90" s="20"/>
+      <c r="C90" s="16"/>
+      <c r="D90" s="15"/>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" s="15"/>
-      <c r="B91" s="21"/>
-      <c r="C91" s="17"/>
-      <c r="D91" s="16"/>
+      <c r="A91" s="14"/>
+      <c r="B91" s="20"/>
+      <c r="C91" s="16"/>
+      <c r="D91" s="15"/>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A92" s="15"/>
-      <c r="B92" s="21"/>
-      <c r="C92" s="17"/>
-      <c r="D92" s="16"/>
+      <c r="A92" s="14"/>
+      <c r="B92" s="20"/>
+      <c r="C92" s="16"/>
+      <c r="D92" s="15"/>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93" s="15"/>
-      <c r="B93" s="21"/>
+      <c r="A93" s="14"/>
+      <c r="B93" s="20"/>
       <c r="C93" s="16"/>
-      <c r="D93" s="16"/>
+      <c r="D93" s="15"/>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A94" s="15"/>
-      <c r="B94" s="21"/>
-      <c r="C94" s="17"/>
-      <c r="D94" s="16"/>
+      <c r="A94" s="14"/>
+      <c r="B94" s="20"/>
+      <c r="C94" s="16"/>
+      <c r="D94" s="15"/>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A95" s="15"/>
-      <c r="B95" s="21"/>
-      <c r="C95" s="17"/>
-      <c r="D95" s="16"/>
+      <c r="A95" s="14"/>
+      <c r="B95" s="14"/>
+      <c r="C95" s="16"/>
+      <c r="D95" s="15"/>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A96" s="15"/>
-      <c r="B96" s="21"/>
-      <c r="C96" s="17"/>
-      <c r="D96" s="16"/>
+      <c r="A96" s="14"/>
+      <c r="B96" s="14"/>
+      <c r="C96" s="16"/>
+      <c r="D96" s="15"/>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97" s="15"/>
-      <c r="B97" s="21"/>
-      <c r="C97" s="17"/>
-      <c r="D97" s="16"/>
+      <c r="A97" s="14"/>
+      <c r="B97" s="14"/>
+      <c r="C97" s="16"/>
+      <c r="D97" s="15"/>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A98" s="15"/>
-      <c r="B98" s="21"/>
-      <c r="C98" s="17"/>
-      <c r="D98" s="16"/>
+      <c r="A98" s="14"/>
+      <c r="B98" s="14"/>
+      <c r="C98" s="16"/>
+      <c r="D98" s="15"/>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A99" s="15"/>
-      <c r="B99" s="21"/>
-      <c r="C99" s="17"/>
-      <c r="D99" s="16"/>
+      <c r="A99" s="14"/>
+      <c r="B99" s="20"/>
+      <c r="C99" s="16"/>
+      <c r="D99" s="15"/>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A100" s="15"/>
-      <c r="B100" s="15"/>
-      <c r="C100" s="17"/>
-      <c r="D100" s="16"/>
+      <c r="A100" s="14"/>
+      <c r="B100" s="20"/>
+      <c r="C100" s="16"/>
+      <c r="D100" s="15"/>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A101" s="15"/>
-      <c r="B101" s="15"/>
-      <c r="C101" s="17"/>
-      <c r="D101" s="16"/>
+      <c r="A101" s="14"/>
+      <c r="B101" s="14"/>
+      <c r="C101" s="16"/>
+      <c r="D101" s="15"/>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A102" s="15"/>
-      <c r="B102" s="15"/>
-      <c r="C102" s="17"/>
-      <c r="D102" s="16"/>
+      <c r="A102" s="14"/>
+      <c r="B102" s="14"/>
+      <c r="C102" s="16"/>
+      <c r="D102" s="15"/>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A103" s="15"/>
-      <c r="B103" s="15"/>
-      <c r="C103" s="17"/>
-      <c r="D103" s="16"/>
+      <c r="A103" s="14"/>
+      <c r="B103" s="20"/>
+      <c r="C103" s="16"/>
+      <c r="D103" s="15"/>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A104" s="15"/>
-      <c r="B104" s="21"/>
-      <c r="C104" s="17"/>
-      <c r="D104" s="16"/>
+      <c r="A104" s="14"/>
+      <c r="B104" s="14"/>
+      <c r="C104" s="16"/>
+      <c r="D104" s="15"/>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A105" s="15"/>
-      <c r="B105" s="21"/>
-      <c r="C105" s="17"/>
-      <c r="D105" s="16"/>
+      <c r="A105" s="14"/>
+      <c r="B105" s="14"/>
+      <c r="C105" s="16"/>
+      <c r="D105" s="15"/>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A106" s="15"/>
-      <c r="B106" s="15"/>
-      <c r="C106" s="17"/>
-      <c r="D106" s="16"/>
+      <c r="A106" s="14"/>
+      <c r="B106" s="14"/>
+      <c r="C106" s="16"/>
+      <c r="D106" s="15"/>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A107" s="15"/>
-      <c r="B107" s="15"/>
-      <c r="C107" s="17"/>
-      <c r="D107" s="16"/>
+      <c r="A107" s="14"/>
+      <c r="B107" s="20"/>
+      <c r="C107" s="16"/>
+      <c r="D107" s="15"/>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A108" s="15"/>
-      <c r="B108" s="21"/>
-      <c r="C108" s="17"/>
-      <c r="D108" s="16"/>
+      <c r="A108" s="14"/>
+      <c r="B108" s="14"/>
+      <c r="C108" s="16"/>
+      <c r="D108" s="15"/>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A109" s="15"/>
-      <c r="B109" s="15"/>
-      <c r="C109" s="17"/>
-      <c r="D109" s="16"/>
+      <c r="A109" s="14"/>
+      <c r="B109" s="14"/>
+      <c r="C109" s="16"/>
+      <c r="D109" s="15"/>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A110" s="15"/>
-      <c r="B110" s="15"/>
-      <c r="C110" s="17"/>
-      <c r="D110" s="16"/>
+      <c r="A110" s="14"/>
+      <c r="B110" s="14"/>
+      <c r="C110" s="15"/>
+      <c r="D110" s="15"/>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A111" s="15"/>
-      <c r="B111" s="15"/>
-      <c r="C111" s="17"/>
-      <c r="D111" s="16"/>
+      <c r="A111" s="14"/>
+      <c r="B111" s="20"/>
+      <c r="C111" s="16"/>
+      <c r="D111" s="15"/>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A112" s="15"/>
-      <c r="B112" s="21"/>
-      <c r="C112" s="17"/>
-      <c r="D112" s="16"/>
+      <c r="A112" s="14"/>
+      <c r="B112" s="14"/>
+      <c r="C112" s="16"/>
+      <c r="D112" s="15"/>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A113" s="15"/>
-      <c r="B113" s="15"/>
-      <c r="C113" s="17"/>
-      <c r="D113" s="16"/>
+      <c r="A113" s="14"/>
+      <c r="B113" s="14"/>
+      <c r="C113" s="16"/>
+      <c r="D113" s="15"/>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A114" s="15"/>
-      <c r="B114" s="15"/>
-      <c r="C114" s="17"/>
-      <c r="D114" s="16"/>
+      <c r="A114" s="14"/>
+      <c r="B114" s="14"/>
+      <c r="C114" s="16"/>
+      <c r="D114" s="15"/>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A115" s="15"/>
-      <c r="B115" s="15"/>
+      <c r="A115" s="14"/>
+      <c r="B115" s="14"/>
       <c r="C115" s="16"/>
-      <c r="D115" s="16"/>
+      <c r="D115" s="15"/>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A116" s="15"/>
-      <c r="B116" s="21"/>
-      <c r="C116" s="17"/>
-      <c r="D116" s="16"/>
+      <c r="A116" s="14"/>
+      <c r="B116" s="20"/>
+      <c r="C116" s="16"/>
+      <c r="D116" s="15"/>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A117" s="15"/>
-      <c r="B117" s="15"/>
-      <c r="C117" s="17"/>
-      <c r="D117" s="16"/>
+      <c r="A117" s="14"/>
+      <c r="B117" s="14"/>
+      <c r="C117" s="16"/>
+      <c r="D117" s="15"/>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A118" s="15"/>
-      <c r="B118" s="15"/>
-      <c r="C118" s="17"/>
-      <c r="D118" s="16"/>
+      <c r="A118" s="14"/>
+      <c r="B118" s="14"/>
+      <c r="C118" s="16"/>
+      <c r="D118" s="15"/>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A119" s="15"/>
-      <c r="B119" s="15"/>
-      <c r="C119" s="17"/>
-      <c r="D119" s="16"/>
+      <c r="A119" s="14"/>
+      <c r="B119" s="14"/>
+      <c r="C119" s="15"/>
+      <c r="D119" s="15"/>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A120" s="15"/>
-      <c r="B120" s="15"/>
-      <c r="C120" s="17"/>
-      <c r="D120" s="16"/>
+      <c r="A120" s="14"/>
+      <c r="B120" s="14"/>
+      <c r="C120" s="15"/>
+      <c r="D120" s="15"/>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A121" s="15"/>
-      <c r="B121" s="21"/>
-      <c r="C121" s="17"/>
-      <c r="D121" s="16"/>
+      <c r="A121" s="14"/>
+      <c r="B121" s="20"/>
+      <c r="C121" s="15"/>
+      <c r="D121" s="15"/>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A122" s="15"/>
-      <c r="B122" s="15"/>
-      <c r="C122" s="17"/>
-      <c r="D122" s="16"/>
+      <c r="B122" s="7"/>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A123" s="15"/>
-      <c r="B123" s="15"/>
-      <c r="C123" s="17"/>
-      <c r="D123" s="16"/>
+      <c r="B123" s="7"/>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A124" s="15"/>
-      <c r="B124" s="15"/>
-      <c r="C124" s="16"/>
-      <c r="D124" s="16"/>
+      <c r="B124" s="7"/>
+      <c r="C124"/>
+      <c r="D124"/>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A125" s="15"/>
-      <c r="B125" s="15"/>
-      <c r="C125" s="16"/>
-      <c r="D125" s="16"/>
+      <c r="B125" s="7"/>
+      <c r="C125"/>
+      <c r="D125"/>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A126" s="15"/>
-      <c r="B126" s="21"/>
-      <c r="C126" s="16"/>
-      <c r="D126" s="16"/>
+      <c r="B126" s="7"/>
+      <c r="C126"/>
+      <c r="D126"/>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B127" s="7"/>
+      <c r="C127"/>
+      <c r="D127"/>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B128" s="7"/>
-    </row>
-    <row r="129" spans="2:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C128"/>
+      <c r="D128"/>
+    </row>
+    <row r="129" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B129" s="7"/>
-    </row>
-    <row r="130" spans="2:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C129"/>
+      <c r="D129"/>
+    </row>
+    <row r="130" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B130" s="7"/>
-    </row>
-    <row r="131" spans="2:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C130"/>
+      <c r="D130"/>
+    </row>
+    <row r="131" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B131" s="7"/>
-    </row>
-    <row r="132" spans="2:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C131"/>
+      <c r="D131"/>
+    </row>
+    <row r="132" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B132" s="7"/>
-    </row>
-    <row r="133" spans="2:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C132"/>
+      <c r="D132"/>
+    </row>
+    <row r="133" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B133" s="7"/>
-    </row>
-    <row r="134" spans="2:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C133"/>
+      <c r="D133"/>
+    </row>
+    <row r="134" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B134" s="7"/>
-    </row>
-    <row r="135" spans="2:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C134"/>
+      <c r="D134"/>
+    </row>
+    <row r="135" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B135" s="7"/>
-    </row>
-    <row r="136" spans="2:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C135"/>
+      <c r="D135"/>
+    </row>
+    <row r="136" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B136" s="7"/>
-    </row>
-    <row r="137" spans="2:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C136"/>
+      <c r="D136"/>
+    </row>
+    <row r="137" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B137" s="7"/>
-    </row>
-    <row r="138" spans="2:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B138" s="7"/>
-    </row>
-    <row r="139" spans="2:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B139" s="7"/>
-    </row>
-    <row r="140" spans="2:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B140" s="7"/>
-    </row>
-    <row r="141" spans="2:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B141" s="7"/>
-    </row>
-    <row r="142" spans="2:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B142" s="7"/>
+      <c r="C137"/>
+      <c r="D137"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -3130,7 +3285,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD4"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3210,11 +3365,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:D44"/>
+  <dimension ref="A1:E45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E38" sqref="E38"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A21" sqref="A21:XFD21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3341,7 +3496,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>63</v>
@@ -3385,7 +3540,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>28</v>
@@ -3394,7 +3549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>85</v>
       </c>
@@ -3405,18 +3560,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="B19" s="15" t="s">
+      <c r="B19" s="14" t="s">
         <v>53</v>
       </c>
       <c r="C19" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>87</v>
       </c>
@@ -3427,9 +3582,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>53</v>
@@ -3438,31 +3593,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>94</v>
       </c>
       <c r="B22" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B23" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C22" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>28</v>
-      </c>
       <c r="C23" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>120</v>
+        <v>92</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>53</v>
@@ -3471,9 +3626,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>53</v>
@@ -3482,78 +3637,80 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>89</v>
       </c>
       <c r="B26" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="B27" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C26" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
+      <c r="C27" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="14" t="s">
+        <v>201</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="C28" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E28" s="14"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C29" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E29" s="14"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="C30" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B31" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C31" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B32" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="C27" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C28" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="15" t="s">
-        <v>189</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="C29" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C30" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C31" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>49</v>
       </c>
       <c r="C32" s="3" t="b">
         <v>0</v>
@@ -3561,10 +3718,10 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C33" s="3" t="b">
         <v>0</v>
@@ -3572,7 +3729,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>53</v>
@@ -3582,33 +3739,30 @@
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="15" t="s">
-        <v>99</v>
+      <c r="A35" s="3" t="s">
+        <v>97</v>
       </c>
       <c r="B35" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C35" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="B36" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C35" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>202</v>
-      </c>
-      <c r="B37" t="s">
-        <v>53</v>
-      </c>
-      <c r="C37" t="b">
-        <v>0</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>206</v>
+      <c r="C36" s="3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
       <c r="B38" t="s">
         <v>53</v>
@@ -3616,10 +3770,13 @@
       <c r="C38" t="b">
         <v>0</v>
       </c>
+      <c r="D38" s="3" t="s">
+        <v>192</v>
+      </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>204</v>
+        <v>189</v>
       </c>
       <c r="B39" t="s">
         <v>53</v>
@@ -3630,7 +3787,7 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="B40" t="s">
         <v>53</v>
@@ -3640,9 +3797,15 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41"/>
-      <c r="B41"/>
-      <c r="C41"/>
+      <c r="A41" t="s">
+        <v>191</v>
+      </c>
+      <c r="B41" t="s">
+        <v>53</v>
+      </c>
+      <c r="C41" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42"/>
@@ -3658,6 +3821,11 @@
       <c r="A44"/>
       <c r="B44"/>
       <c r="C44"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45"/>
+      <c r="B45"/>
+      <c r="C45"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>

--- a/app/config/tables/CHILDREN/Forms/CHILDREN/CHILDREN.xlsx
+++ b/app/config/tables/CHILDREN/Forms/CHILDREN/CHILDREN.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3F5AD63-E5AC-428F-A331-1A17BD5ABAC4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC65D9CA-F048-4D29-8DA5-1B257433E871}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="728" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19320" yWindow="-2100" windowWidth="19440" windowHeight="15000" tabRatio="728" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="231">
   <si>
     <t>setting_name</t>
   </si>
@@ -257,9 +257,6 @@
     <t>required</t>
   </si>
   <si>
-    <t>Health centre area: {{data.HCNOME}}</t>
-  </si>
-  <si>
     <t>HCAREANOME</t>
   </si>
   <si>
@@ -272,24 +269,6 @@
     <t>REGNOME</t>
   </si>
   <si>
-    <t>Region: {{data.REGNOME}}</t>
-  </si>
-  <si>
-    <t>Subarea: {{data.SUBAREANOME}}</t>
-  </si>
-  <si>
-    <t>Village: {{data.TABNOME}}</t>
-  </si>
-  <si>
-    <t>Região: {{data.REGNOME}}</t>
-  </si>
-  <si>
-    <t>Área sanitárias: {{data.HCNOME}}</t>
-  </si>
-  <si>
-    <t>Tabanca: {{data.TABNOME}}</t>
-  </si>
-  <si>
     <t>NOMECRI</t>
   </si>
   <si>
@@ -305,12 +284,6 @@
     <t>BCGDATA</t>
   </si>
   <si>
-    <t>POLIO0</t>
-  </si>
-  <si>
-    <t>POLIO0DATA</t>
-  </si>
-  <si>
     <t>VACINFO</t>
   </si>
   <si>
@@ -500,18 +473,6 @@
     <t>Você está prestes a registrar uma nova criança em:</t>
   </si>
   <si>
-    <t>Household: {{data.MOR}}</t>
-  </si>
-  <si>
-    <t>Morança: {{data.MOR}}</t>
-  </si>
-  <si>
-    <t>Name of mother: {{data.NOME}}</t>
-  </si>
-  <si>
-    <t>Nome da mãe: {{data.NOME}}</t>
-  </si>
-  <si>
     <t>Date of move / death</t>
   </si>
   <si>
@@ -717,6 +678,54 @@
   </si>
   <si>
     <t>Obrigado pelo seu tempo.</t>
+  </si>
+  <si>
+    <t>Region: &lt;b&gt;{{data.REGNOME}}&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t>Região: &lt;b&gt;{{data.REGNOME}}&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t>Health centre area: &lt;b&gt;{{data.HCAREANOME}}&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t>Área sanitárias: &lt;b&gt;{{data.HCAREANOME}}&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t>Subarea: &lt;b&gt;{{data.SUBAREANOME}}&lt;b&gt;</t>
+  </si>
+  <si>
+    <t>Subarea: &lt;b&gt;{{data.SUBAREANOME}}&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t>Village: &lt;b&gt;{{data.TABNOME}}&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t>Tabanca: &lt;b&gt;{{data.TABNOME}}&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t>Household: &lt;b&gt;{{data.MOR}}&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t>Name of mother: &lt;b&gt;{{data.NOME}}&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t>Nome da mãe: &lt;b&gt;{{data.NOME}}&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t>Morança: &lt;b&gt;{{data.MOR}}&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t>GRAV</t>
+  </si>
+  <si>
+    <t>REGDIACRI</t>
+  </si>
+  <si>
+    <t>NUMESTCRI</t>
+  </si>
+  <si>
+    <t>instance_name</t>
   </si>
 </sst>
 </file>
@@ -788,12 +797,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -827,9 +842,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -852,6 +864,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Excel Built-in Normal" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -1139,7 +1152,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E13" sqref="E13"/>
+      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1177,14 +1190,14 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="11">
+      <c r="B3" s="10">
         <v>7122020</v>
       </c>
     </row>
@@ -1193,7 +1206,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -1202,10 +1215,10 @@
       </c>
       <c r="B5" s="3"/>
       <c r="C5" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="D5" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -1231,8 +1244,12 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
+      <c r="A8" t="s">
+        <v>230</v>
+      </c>
+      <c r="B8" t="s">
+        <v>78</v>
+      </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="G12:G24">
@@ -1247,32 +1264,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB5FB9AA-D433-6046-85E1-401DEB18B3FD}">
   <dimension ref="A1:R84"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G78" sqref="G78"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F28" sqref="F27:F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" style="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" style="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26" style="14" customWidth="1"/>
-    <col min="4" max="4" width="22" style="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.85546875" style="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="46.28515625" style="18" customWidth="1"/>
-    <col min="8" max="8" width="41" style="14" customWidth="1"/>
-    <col min="9" max="9" width="29.85546875" style="14" customWidth="1"/>
-    <col min="10" max="10" width="8.7109375" style="14" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" style="14" customWidth="1"/>
-    <col min="12" max="12" width="33.85546875" style="14" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.85546875" style="14" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="37.42578125" style="14" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="30.28515625" style="14" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="23.42578125" style="14" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="19.5703125" style="14" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="20.7109375" style="14" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="11.42578125" style="14"/>
+    <col min="1" max="1" width="12.42578125" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26" style="13" customWidth="1"/>
+    <col min="4" max="4" width="22" style="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="46.28515625" style="17" customWidth="1"/>
+    <col min="8" max="8" width="41" style="13" customWidth="1"/>
+    <col min="9" max="9" width="29.85546875" style="13" customWidth="1"/>
+    <col min="10" max="10" width="8.7109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" style="13" customWidth="1"/>
+    <col min="12" max="12" width="33.85546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.85546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="37.42578125" style="13" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="30.28515625" style="13" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="23.42578125" style="13" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="19.5703125" style="13" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="20.7109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="11.42578125" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1294,7 +1311,7 @@
       <c r="F1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="16" t="s">
         <v>31</v>
       </c>
       <c r="H1" s="2" t="s">
@@ -1327,887 +1344,887 @@
       <c r="Q1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="R1" s="9" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="12" t="s">
+      <c r="R1" s="8" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="G2" s="24"/>
-    </row>
-    <row r="3" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D3" s="12" t="s">
+      <c r="G2" s="23"/>
+    </row>
+    <row r="3" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D3" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="G3" s="18" t="s">
-        <v>151</v>
+      <c r="G3" s="17" t="s">
+        <v>142</v>
       </c>
       <c r="H3" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D4" s="12" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D4" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="G4" s="24" t="s">
-        <v>153</v>
-      </c>
-      <c r="H4" s="24" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D5" s="12" t="s">
+      <c r="G4" s="23" t="s">
+        <v>144</v>
+      </c>
+      <c r="H4" s="23" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D5" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="G5" s="24" t="s">
-        <v>79</v>
-      </c>
-      <c r="H5" s="24" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D6" s="12" t="s">
+      <c r="G5" t="s">
+        <v>215</v>
+      </c>
+      <c r="H5" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D6" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="G6" s="24" t="s">
-        <v>74</v>
-      </c>
-      <c r="H6" s="24" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D7" s="12" t="s">
+      <c r="G6" t="s">
+        <v>217</v>
+      </c>
+      <c r="H6" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D7" s="11" t="s">
         <v>35</v>
       </c>
       <c r="G7" s="24" t="s">
-        <v>80</v>
+        <v>219</v>
       </c>
       <c r="H7" s="24" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D8" s="12" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D8" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="G8" s="24" t="s">
-        <v>81</v>
-      </c>
-      <c r="H8" s="24" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D9" s="12" t="s">
+      <c r="G8" t="s">
+        <v>221</v>
+      </c>
+      <c r="H8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D9" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="G9" s="24" t="s">
-        <v>155</v>
-      </c>
-      <c r="H9" s="24" t="s">
-        <v>156</v>
-      </c>
-      <c r="J9" s="12" t="b">
+      <c r="G9" s="23" t="s">
+        <v>223</v>
+      </c>
+      <c r="H9" s="23" t="s">
+        <v>226</v>
+      </c>
+      <c r="J9" s="11" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D10" s="12" t="s">
+    <row r="10" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D10" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="G10" s="24" t="s">
-        <v>157</v>
-      </c>
-      <c r="H10" s="24" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="12" t="s">
+      <c r="G10" s="23" t="s">
+        <v>224</v>
+      </c>
+      <c r="H10" s="23" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="G11" s="24"/>
+      <c r="G11" s="23"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="13" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="D13" s="15" t="s">
+      <c r="D13" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="G13" s="18" t="s">
-        <v>151</v>
+      <c r="G13" s="17" t="s">
+        <v>142</v>
       </c>
       <c r="H13" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="D14" s="15" t="s">
+      <c r="D14" s="14" t="s">
         <v>28</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="G14" s="18" t="s">
-        <v>149</v>
-      </c>
-      <c r="H14" s="14" t="s">
-        <v>150</v>
+        <v>90</v>
+      </c>
+      <c r="G14" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="H14" s="13" t="s">
+        <v>141</v>
       </c>
       <c r="J14" t="b">
         <v>1</v>
       </c>
       <c r="K14" t="s">
+        <v>169</v>
+      </c>
+      <c r="P14" s="13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B15" s="13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B16" s="13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D17" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="G17" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="H17" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D18" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="F18" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="G18" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="H18" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="J18" s="13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D19" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="F19" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="G19" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="H19" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="J19" s="13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D20" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="F20" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="G20" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="H20" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="J20" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="K20" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="P20" s="13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B21" s="13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B22" s="13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D23" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="G23" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="H23" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="24" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D24" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="F24" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="G24" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="H24" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="J24" s="13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B25" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="D25" s="13"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="22"/>
+    </row>
+    <row r="26" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D26" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="F26" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="G26" t="s">
+        <v>146</v>
+      </c>
+      <c r="H26" t="s">
+        <v>147</v>
+      </c>
+      <c r="K26" t="s">
+        <v>171</v>
+      </c>
+      <c r="P26" s="13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B27" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="D27" s="13"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="22"/>
+    </row>
+    <row r="28" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B28" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D28" s="13"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="22"/>
+    </row>
+    <row r="29" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B29" s="13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D30" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="G30" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="H30" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="31" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D31" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="E31" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="G31" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="H31" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="J31" s="13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D32" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="E32" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="F32" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="G32" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="H32" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="J32" s="13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B33" s="13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B34" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="C34" s="13" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B35" s="13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="36" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D36" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="G36" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="H36" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D37" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="E37" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="F37" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="G37" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="H37" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="K37" s="13" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="38" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B38" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="C38" s="13" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D39" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="F39" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="G39" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="H39" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="K39" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="P39" s="13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B40" s="13" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D41" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="E41" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="G41" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="H41" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="K41" s="13" t="s">
         <v>182</v>
       </c>
-      <c r="P14" s="14" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B15" s="14" t="s">
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B42" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="C42" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="F42" s="3"/>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D43" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="F43" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="G43" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="H43" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="K43" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="P43" s="13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B44" s="13" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B45" s="13" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B16" s="14" t="s">
+    <row r="46" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B46" s="13" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D17" s="15" t="s">
+    <row r="47" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D47" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="G17" s="18" t="s">
+      <c r="G47" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="H47" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D48" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="E48" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="G48" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="H48" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="K48" s="13" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="49" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B49" s="13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="50" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B50" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="C50" s="13" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="51" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B51" s="13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="52" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="D52" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="G52" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="H52" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="53" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="D53" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="E53" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="F53" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="G53" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="H53" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="K53" s="13" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="54" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="D54" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="F54" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="G54" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="H54" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="K54" s="13" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="55" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B55" s="13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="56" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B56" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="C56" s="13" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="57" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B57" s="13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="58" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="D58" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="G58" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="H58" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="59" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="D59" s="14" t="s">
         <v>151</v>
       </c>
-      <c r="H17" t="s">
+      <c r="F59" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="G59" s="17" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D18" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="F18" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="G18" s="18" t="s">
-        <v>100</v>
-      </c>
-      <c r="H18" s="18" t="s">
-        <v>101</v>
-      </c>
-      <c r="J18" s="14" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D19" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="E19" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="F19" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="G19" s="18" t="s">
-        <v>103</v>
-      </c>
-      <c r="H19" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="J19" s="14" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D20" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="F20" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="G20" s="18" t="s">
-        <v>105</v>
-      </c>
-      <c r="H20" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="J20" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="K20" s="14" t="s">
-        <v>183</v>
-      </c>
-      <c r="P20" s="14" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B21" s="14" t="s">
+      <c r="H59" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="L59" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="M59" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="R59" s="13" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="60" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B60" s="13" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B22" s="14" t="s">
+    <row r="61" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B61" s="13" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="62" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B62" s="13" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="63" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B63" s="13" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="64" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B64" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="C64" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="D64" s="13"/>
+      <c r="F64" s="14"/>
+      <c r="G64" s="22"/>
+      <c r="H64" s="22"/>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B65" s="13" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D23" s="15" t="s">
+      <c r="D65" s="13"/>
+      <c r="F65" s="14"/>
+      <c r="G65" s="22"/>
+      <c r="H65" s="22"/>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D66" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="G23" s="18" t="s">
-        <v>151</v>
-      </c>
-      <c r="H23" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D24" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="E24" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="F24" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="G24" s="23" t="s">
-        <v>102</v>
-      </c>
-      <c r="H24" s="23" t="s">
-        <v>128</v>
-      </c>
-      <c r="J24" s="14" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B25" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="C25" s="14" t="s">
-        <v>129</v>
-      </c>
-      <c r="D25" s="14"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="23"/>
-      <c r="H25" s="23"/>
-    </row>
-    <row r="26" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D26" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="F26" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="G26" t="s">
-        <v>159</v>
-      </c>
-      <c r="H26" t="s">
-        <v>160</v>
-      </c>
-      <c r="K26" t="s">
-        <v>184</v>
-      </c>
-      <c r="P26" s="14" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B27" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="D27" s="14"/>
-      <c r="F27" s="15"/>
-      <c r="G27" s="23"/>
-      <c r="H27" s="23"/>
-    </row>
-    <row r="28" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B28" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="D28" s="14"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="23"/>
-      <c r="H28" s="23"/>
-    </row>
-    <row r="29" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B29" s="14" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="30" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D30" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="G30" s="18" t="s">
-        <v>151</v>
-      </c>
-      <c r="H30" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="31" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D31" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="E31" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="G31" s="23" t="s">
-        <v>119</v>
-      </c>
-      <c r="H31" s="14" t="s">
-        <v>120</v>
-      </c>
-      <c r="J31" s="14" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D32" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="E32" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="F32" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="G32" s="23" t="s">
-        <v>121</v>
-      </c>
-      <c r="H32" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="J32" s="14" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B33" s="14" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B34" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="C34" s="14" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B35" s="14" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="36" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D36" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="G36" s="18" t="s">
-        <v>151</v>
-      </c>
-      <c r="H36" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D37" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="E37" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="F37" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="G37" s="18" t="s">
-        <v>137</v>
-      </c>
-      <c r="H37" s="14" t="s">
-        <v>136</v>
-      </c>
-      <c r="K37" s="14" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B38" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="C38" s="14" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D39" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="F39" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="G39" s="18" t="s">
-        <v>139</v>
-      </c>
-      <c r="H39" s="14" t="s">
-        <v>140</v>
-      </c>
-      <c r="K39" s="14" t="s">
-        <v>185</v>
-      </c>
-      <c r="P39" s="14" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B40" s="14" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D41" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="E41" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="G41" s="18" t="s">
-        <v>141</v>
-      </c>
-      <c r="H41" s="14" t="s">
+      <c r="G66" s="17" t="s">
         <v>142</v>
       </c>
-      <c r="K41" s="14" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B42" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="C42" s="14" t="s">
-        <v>196</v>
-      </c>
-      <c r="F42" s="3"/>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D43" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="F43" s="14" t="s">
-        <v>194</v>
-      </c>
-      <c r="G43" s="18" t="s">
-        <v>139</v>
-      </c>
-      <c r="H43" s="14" t="s">
-        <v>140</v>
-      </c>
-      <c r="K43" s="14" t="s">
-        <v>209</v>
-      </c>
-      <c r="P43" s="14" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B44" s="14" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B45" s="14" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B46" s="14" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D47" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="G47" s="18" t="s">
-        <v>151</v>
-      </c>
-      <c r="H47" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D48" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="E48" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="G48" s="23" t="s">
-        <v>162</v>
-      </c>
-      <c r="H48" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="K48" s="14" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="49" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B49" s="14" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="50" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B50" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="C50" s="14" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="51" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B51" s="14" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="52" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="D52" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="G52" s="18" t="s">
-        <v>151</v>
-      </c>
-      <c r="H52" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="53" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="D53" s="15" t="s">
-        <v>199</v>
-      </c>
-      <c r="E53" s="14" t="s">
-        <v>200</v>
-      </c>
-      <c r="F53" s="14" t="s">
-        <v>201</v>
-      </c>
-      <c r="G53" s="18" t="s">
-        <v>203</v>
-      </c>
-      <c r="H53" s="14" t="s">
-        <v>204</v>
-      </c>
-      <c r="K53" s="14" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="54" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="D54" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="F54" s="14" t="s">
-        <v>202</v>
-      </c>
-      <c r="G54" s="18" t="s">
-        <v>206</v>
-      </c>
-      <c r="H54" s="14" t="s">
-        <v>207</v>
-      </c>
-      <c r="K54" s="14" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="55" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B55" s="14" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="56" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B56" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="C56" s="14" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="57" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B57" s="14" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="58" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="D58" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="G58" s="18" t="s">
-        <v>151</v>
-      </c>
-      <c r="H58" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="59" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="D59" s="15" t="s">
-        <v>164</v>
-      </c>
-      <c r="F59" s="14" t="s">
-        <v>178</v>
-      </c>
-      <c r="G59" s="18" t="s">
-        <v>165</v>
-      </c>
-      <c r="H59" s="14" t="s">
-        <v>166</v>
-      </c>
-      <c r="L59" s="14" t="s">
-        <v>171</v>
-      </c>
-      <c r="M59" s="14" t="s">
-        <v>172</v>
-      </c>
-      <c r="R59" s="14" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="60" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B60" s="14" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="61" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B61" s="14" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="62" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B62" s="14" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="63" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B63" s="14" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="64" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B64" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="C64" s="14" t="s">
-        <v>130</v>
-      </c>
-      <c r="D64" s="14"/>
-      <c r="F64" s="15"/>
-      <c r="G64" s="23"/>
-      <c r="H64" s="23"/>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B65" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="D65" s="14"/>
-      <c r="F65" s="15"/>
-      <c r="G65" s="23"/>
-      <c r="H65" s="23"/>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D66" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="G66" s="18" t="s">
-        <v>151</v>
-      </c>
       <c r="H66" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="K66"/>
       <c r="L66"/>
     </row>
     <row r="67" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D67" s="14" t="s">
+      <c r="D67" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="F67" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="G67" s="23" t="s">
-        <v>134</v>
-      </c>
-      <c r="H67" s="23" t="s">
-        <v>135</v>
+      <c r="F67" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="G67" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="H67" s="22" t="s">
+        <v>126</v>
       </c>
       <c r="K67" t="s">
-        <v>179</v>
-      </c>
-      <c r="L67" s="14" t="s">
-        <v>180</v>
+        <v>166</v>
+      </c>
+      <c r="L67" s="13" t="s">
+        <v>167</v>
       </c>
       <c r="M67" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="N67" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="O67" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
     </row>
     <row r="68" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B68" s="14" t="s">
+      <c r="B68" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="C68" s="14" t="s">
-        <v>131</v>
-      </c>
-      <c r="D68" s="14"/>
-      <c r="F68" s="15"/>
-      <c r="G68" s="23"/>
-      <c r="H68" s="23"/>
+      <c r="C68" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="D68" s="13"/>
+      <c r="F68" s="14"/>
+      <c r="G68" s="22"/>
+      <c r="H68" s="22"/>
     </row>
     <row r="69" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D69" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="E69" s="14" t="s">
+      <c r="E69" s="13" t="s">
         <v>55</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="G69" s="23" t="s">
-        <v>132</v>
-      </c>
-      <c r="H69" s="23" t="s">
-        <v>133</v>
-      </c>
-      <c r="K69" s="14" t="s">
-        <v>177</v>
+        <v>87</v>
+      </c>
+      <c r="G69" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="H69" s="22" t="s">
+        <v>124</v>
+      </c>
+      <c r="K69" s="13" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="70" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B70" s="14" t="s">
+      <c r="B70" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="D70" s="14"/>
-      <c r="G70" s="14"/>
-      <c r="H70" s="23"/>
+      <c r="D70" s="13"/>
+      <c r="G70" s="13"/>
+      <c r="H70" s="22"/>
     </row>
     <row r="71" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B71" s="14" t="s">
+      <c r="B71" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="D71" s="14"/>
-      <c r="F71" s="15"/>
-      <c r="G71" s="23"/>
-      <c r="H71" s="23"/>
+      <c r="D71" s="13"/>
+      <c r="F71" s="14"/>
+      <c r="G71" s="22"/>
+      <c r="H71" s="22"/>
     </row>
     <row r="72" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B72" s="14" t="s">
+      <c r="B72" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="D72" s="14"/>
-      <c r="F72" s="15"/>
-      <c r="G72" s="23"/>
-      <c r="H72" s="23"/>
+      <c r="D72" s="13"/>
+      <c r="F72" s="14"/>
+      <c r="G72" s="22"/>
+      <c r="H72" s="22"/>
     </row>
     <row r="73" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B73" s="14" t="s">
+      <c r="B73" s="13" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="74" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D74" s="15" t="s">
+      <c r="D74" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="G74" s="18" t="s">
-        <v>151</v>
+      <c r="G74" s="17" t="s">
+        <v>142</v>
       </c>
       <c r="H74" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
     </row>
     <row r="75" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D75" s="15" t="s">
+      <c r="D75" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="E75" s="14" t="s">
+      <c r="E75" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="F75" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="G75" s="18" t="s">
-        <v>143</v>
-      </c>
-      <c r="H75" s="14" t="s">
-        <v>147</v>
-      </c>
-      <c r="J75" s="14" t="b">
+      <c r="F75" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="G75" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="H75" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="J75" s="13" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="76" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B76" s="14" t="s">
+      <c r="B76" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="C76" s="14" t="s">
-        <v>144</v>
+      <c r="C76" s="13" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="77" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D77" s="15" t="s">
+      <c r="D77" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="F77" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="G77" s="18" t="s">
-        <v>145</v>
-      </c>
-      <c r="H77" s="14" t="s">
-        <v>146</v>
-      </c>
-      <c r="K77" s="14" t="s">
-        <v>186</v>
-      </c>
-      <c r="P77" s="14" t="b">
+      <c r="F77" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="G77" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="H77" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="K77" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="P77" s="13" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="78" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B78" s="14" t="s">
+      <c r="B78" s="13" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="79" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B79" s="14" t="s">
+      <c r="B79" s="13" t="s">
         <v>38</v>
       </c>
     </row>
@@ -2220,11 +2237,11 @@
       <c r="D81" t="s">
         <v>35</v>
       </c>
-      <c r="G81" s="18" t="s">
-        <v>151</v>
+      <c r="G81" s="17" t="s">
+        <v>142</v>
       </c>
       <c r="H81" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
     </row>
     <row r="82" spans="2:8" customFormat="1" x14ac:dyDescent="0.25">
@@ -2232,10 +2249,10 @@
         <v>35</v>
       </c>
       <c r="G82" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="H82" t="s">
-        <v>225</v>
+        <v>212</v>
       </c>
     </row>
     <row r="83" spans="2:8" customFormat="1" x14ac:dyDescent="0.25">
@@ -2243,10 +2260,10 @@
         <v>35</v>
       </c>
       <c r="G83" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="H83" t="s">
-        <v>227</v>
+        <v>214</v>
       </c>
     </row>
     <row r="84" spans="2:8" customFormat="1" x14ac:dyDescent="0.25">
@@ -2291,984 +2308,984 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="B2" s="12" t="str">
+    <row r="2" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="B2" s="11" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
-      <c r="C2" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="B3" s="12" t="str">
+      <c r="C2" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="B3" s="11" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
-      <c r="C3" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="B4" s="12" t="str">
+      <c r="C3" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="B4" s="11" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="11" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="14"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
+      <c r="A5" s="13"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="B6" s="14" t="str">
+      <c r="B6" s="13" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="13" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="B7" s="14" t="str">
+      <c r="B7" s="13" t="str">
         <f>"4"</f>
         <v>4</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="13" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="B8" s="14" t="str">
+      <c r="B8" s="13" t="str">
         <f>"5"</f>
         <v>5</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="13" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="B9" s="14" t="str">
+      <c r="B9" s="13" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
-      <c r="C9" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>125</v>
+      <c r="C9" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="B10" s="14" t="str">
+      <c r="B10" s="13" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
-      <c r="C10" s="14" t="s">
-        <v>127</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>126</v>
+      <c r="C10" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="14"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
+      <c r="A11" s="13"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="B12" s="14" t="str">
+      <c r="B12" s="13" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="D12" s="14" t="s">
+      <c r="D12" s="13" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="B13" s="14" t="str">
+      <c r="B13" s="13" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="C13" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="D13" s="14" t="s">
+      <c r="D13" s="13" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="14"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
+      <c r="A14" s="13"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="14" t="s">
+      <c r="A15" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="B15" s="14" t="str">
+      <c r="B15" s="13" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
-      <c r="C15" s="14" t="s">
+      <c r="C15" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="D15" s="14" t="s">
+      <c r="D15" s="13" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="14" t="s">
+      <c r="A16" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="B16" s="14" t="str">
+      <c r="B16" s="13" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
-      <c r="C16" s="14" t="s">
+      <c r="C16" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="D16" s="14" t="s">
+      <c r="D16" s="13" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="14" t="s">
+      <c r="A17" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="B17" s="14" t="str">
+      <c r="B17" s="13" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
-      <c r="C17" s="14" t="s">
+      <c r="C17" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="D17" s="14" t="s">
+      <c r="D17" s="13" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="14"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
+      <c r="A18" s="13"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="B19" s="14" t="str">
+      <c r="A19" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="B19" s="13" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
-      <c r="C19" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="D19" s="14" t="s">
-        <v>116</v>
+      <c r="C19" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="B20" s="14" t="str">
+      <c r="A20" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="B20" s="13" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
-      <c r="C20" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="D20" s="14" t="s">
-        <v>117</v>
+      <c r="C20" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="B21" s="14" t="str">
+      <c r="A21" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="B21" s="13" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
-      <c r="C21" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="D21" s="14" t="s">
-        <v>118</v>
+      <c r="C21" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="14"/>
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
+      <c r="A22" s="13"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="14" t="s">
+      <c r="A23" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="B26" s="11" t="s">
         <v>200</v>
       </c>
-      <c r="B23" s="14" t="s">
-        <v>211</v>
-      </c>
-      <c r="C23" s="14" t="s">
-        <v>217</v>
-      </c>
-      <c r="D23" s="14" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="14" t="s">
-        <v>200</v>
-      </c>
-      <c r="B24" s="12" t="s">
-        <v>223</v>
-      </c>
-      <c r="C24" s="14" t="s">
-        <v>210</v>
-      </c>
-      <c r="D24" s="12" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="14" t="s">
-        <v>200</v>
-      </c>
-      <c r="B25" s="12" t="s">
-        <v>212</v>
-      </c>
-      <c r="C25" s="12" t="s">
-        <v>216</v>
-      </c>
-      <c r="D25" s="12" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="14" t="s">
-        <v>200</v>
-      </c>
-      <c r="B26" s="12" t="s">
-        <v>213</v>
-      </c>
-      <c r="C26" s="12" t="s">
-        <v>218</v>
-      </c>
-      <c r="D26" s="12" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="14" t="s">
-        <v>200</v>
-      </c>
-      <c r="B27" s="12" t="s">
-        <v>215</v>
-      </c>
-      <c r="C27" s="12" t="s">
-        <v>215</v>
-      </c>
-      <c r="D27" s="12" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="14"/>
-      <c r="B28" s="14"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
-    </row>
-    <row r="29" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="14"/>
-      <c r="B29" s="14"/>
-      <c r="C29" s="12"/>
-      <c r="D29" s="12"/>
-    </row>
-    <row r="30" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="12"/>
-      <c r="B30" s="12"/>
-      <c r="C30" s="12"/>
-      <c r="D30" s="12"/>
-    </row>
-    <row r="31" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="14"/>
-      <c r="B31" s="14"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="15"/>
-    </row>
-    <row r="32" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="14"/>
-      <c r="B32" s="14"/>
-      <c r="C32" s="15"/>
-      <c r="D32" s="15"/>
-    </row>
-    <row r="33" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="14"/>
-      <c r="B33" s="14"/>
-      <c r="C33" s="15"/>
-      <c r="D33" s="15"/>
+      <c r="C26" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="13"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+    </row>
+    <row r="29" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="13"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+    </row>
+    <row r="30" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="11"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+    </row>
+    <row r="31" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="13"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+    </row>
+    <row r="32" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="13"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+    </row>
+    <row r="33" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="13"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="14"/>
-      <c r="B34" s="14"/>
-      <c r="C34" s="15"/>
-      <c r="D34" s="19"/>
+      <c r="A34" s="13"/>
+      <c r="B34" s="13"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="18"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="14"/>
-      <c r="B35" s="14"/>
-      <c r="C35" s="15"/>
-      <c r="D35" s="15"/>
-      <c r="F35" s="14"/>
+      <c r="A35" s="13"/>
+      <c r="B35" s="13"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="F35" s="13"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="14"/>
-      <c r="B36" s="14"/>
-      <c r="C36" s="15"/>
-      <c r="D36" s="15"/>
+      <c r="A36" s="13"/>
+      <c r="B36" s="13"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="14"/>
-      <c r="B37" s="12"/>
-      <c r="C37" s="15"/>
-      <c r="D37" s="15"/>
+      <c r="A37" s="13"/>
+      <c r="B37" s="11"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="14"/>
-      <c r="B38" s="12"/>
-      <c r="C38" s="15"/>
-      <c r="D38" s="15"/>
+      <c r="A38" s="13"/>
+      <c r="B38" s="11"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="14"/>
-      <c r="B39" s="12"/>
-      <c r="C39" s="15"/>
-      <c r="D39" s="15"/>
+      <c r="A39" s="13"/>
+      <c r="B39" s="11"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="14"/>
-      <c r="B40" s="12"/>
-      <c r="C40" s="15"/>
-      <c r="D40" s="15"/>
+      <c r="A40" s="13"/>
+      <c r="B40" s="11"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="14"/>
-      <c r="B41" s="14"/>
-      <c r="C41" s="15"/>
-      <c r="D41" s="15"/>
+      <c r="A41" s="13"/>
+      <c r="B41" s="13"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="14"/>
-      <c r="B42" s="14"/>
-      <c r="C42" s="14"/>
-      <c r="D42" s="14"/>
-    </row>
-    <row r="43" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="14"/>
-      <c r="B43" s="14"/>
-      <c r="C43" s="14"/>
-      <c r="D43" s="14"/>
-    </row>
-    <row r="44" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="14"/>
-      <c r="B44" s="14"/>
-      <c r="C44" s="14"/>
-      <c r="D44" s="14"/>
-    </row>
-    <row r="45" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="14"/>
-      <c r="B45" s="12"/>
-      <c r="C45" s="14"/>
-      <c r="D45" s="14"/>
-    </row>
-    <row r="46" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="14"/>
-      <c r="B46" s="12"/>
-      <c r="C46" s="14"/>
-      <c r="D46" s="14"/>
-    </row>
-    <row r="47" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="12"/>
-      <c r="B47" s="12"/>
-      <c r="C47" s="12"/>
-      <c r="D47" s="12"/>
+      <c r="A42" s="13"/>
+      <c r="B42" s="13"/>
+      <c r="C42" s="13"/>
+      <c r="D42" s="13"/>
+    </row>
+    <row r="43" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="13"/>
+      <c r="B43" s="13"/>
+      <c r="C43" s="13"/>
+      <c r="D43" s="13"/>
+    </row>
+    <row r="44" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="13"/>
+      <c r="B44" s="13"/>
+      <c r="C44" s="13"/>
+      <c r="D44" s="13"/>
+    </row>
+    <row r="45" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="13"/>
+      <c r="B45" s="11"/>
+      <c r="C45" s="13"/>
+      <c r="D45" s="13"/>
+    </row>
+    <row r="46" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="13"/>
+      <c r="B46" s="11"/>
+      <c r="C46" s="13"/>
+      <c r="D46" s="13"/>
+    </row>
+    <row r="47" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="11"/>
+      <c r="B47" s="11"/>
+      <c r="C47" s="11"/>
+      <c r="D47" s="11"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="14"/>
-      <c r="B48" s="14"/>
-      <c r="C48" s="15"/>
-      <c r="D48" s="15"/>
+      <c r="A48" s="13"/>
+      <c r="B48" s="13"/>
+      <c r="C48" s="14"/>
+      <c r="D48" s="14"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="14"/>
-      <c r="B49" s="14"/>
-      <c r="C49" s="15"/>
-      <c r="D49" s="15"/>
+      <c r="A49" s="13"/>
+      <c r="B49" s="13"/>
+      <c r="C49" s="14"/>
+      <c r="D49" s="14"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="14"/>
-      <c r="B50" s="14"/>
-      <c r="C50" s="15"/>
-      <c r="D50" s="15"/>
+      <c r="A50" s="13"/>
+      <c r="B50" s="13"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="14"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="15"/>
-      <c r="B51" s="14"/>
-      <c r="C51" s="15"/>
-      <c r="D51" s="15"/>
+      <c r="A51" s="14"/>
+      <c r="B51" s="13"/>
+      <c r="C51" s="14"/>
+      <c r="D51" s="14"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="14"/>
-      <c r="B52" s="14"/>
-      <c r="C52" s="15"/>
-      <c r="D52" s="15"/>
+      <c r="A52" s="13"/>
+      <c r="B52" s="13"/>
+      <c r="C52" s="14"/>
+      <c r="D52" s="14"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="14"/>
-      <c r="B53" s="14"/>
-      <c r="C53" s="15"/>
-      <c r="D53" s="15"/>
+      <c r="A53" s="13"/>
+      <c r="B53" s="13"/>
+      <c r="C53" s="14"/>
+      <c r="D53" s="14"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="14"/>
-      <c r="B54" s="14"/>
-      <c r="C54" s="15"/>
-      <c r="D54" s="15"/>
+      <c r="A54" s="13"/>
+      <c r="B54" s="13"/>
+      <c r="C54" s="14"/>
+      <c r="D54" s="14"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="14"/>
-      <c r="B55" s="14"/>
-      <c r="C55" s="15"/>
-      <c r="D55" s="15"/>
+      <c r="A55" s="13"/>
+      <c r="B55" s="13"/>
+      <c r="C55" s="14"/>
+      <c r="D55" s="14"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="14"/>
-      <c r="B56" s="14"/>
-      <c r="C56" s="15"/>
-      <c r="D56" s="15"/>
+      <c r="A56" s="13"/>
+      <c r="B56" s="13"/>
+      <c r="C56" s="14"/>
+      <c r="D56" s="14"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="14"/>
-      <c r="B57" s="20"/>
-      <c r="C57" s="15"/>
-      <c r="D57" s="15"/>
+      <c r="A57" s="13"/>
+      <c r="B57" s="19"/>
+      <c r="C57" s="14"/>
+      <c r="D57" s="14"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="14"/>
-      <c r="B58" s="20"/>
-      <c r="C58" s="15"/>
-      <c r="D58" s="15"/>
+      <c r="A58" s="13"/>
+      <c r="B58" s="19"/>
+      <c r="C58" s="14"/>
+      <c r="D58" s="14"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="14"/>
-      <c r="B59" s="21"/>
-      <c r="C59" s="22"/>
-      <c r="D59" s="22"/>
+      <c r="A59" s="13"/>
+      <c r="B59" s="20"/>
+      <c r="C59" s="21"/>
+      <c r="D59" s="21"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="14"/>
-      <c r="B60" s="21"/>
-      <c r="C60" s="22"/>
-      <c r="D60" s="22"/>
+      <c r="A60" s="13"/>
+      <c r="B60" s="20"/>
+      <c r="C60" s="21"/>
+      <c r="D60" s="21"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="14"/>
-      <c r="B61" s="21"/>
-      <c r="C61" s="22"/>
-      <c r="D61" s="22"/>
+      <c r="A61" s="13"/>
+      <c r="B61" s="20"/>
+      <c r="C61" s="21"/>
+      <c r="D61" s="21"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="14"/>
-      <c r="B62" s="21"/>
-      <c r="C62" s="22"/>
-      <c r="D62" s="22"/>
+      <c r="A62" s="13"/>
+      <c r="B62" s="20"/>
+      <c r="C62" s="21"/>
+      <c r="D62" s="21"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="14"/>
-      <c r="B63" s="21"/>
-      <c r="C63" s="22"/>
-      <c r="D63" s="22"/>
+      <c r="A63" s="13"/>
+      <c r="B63" s="20"/>
+      <c r="C63" s="21"/>
+      <c r="D63" s="21"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="14"/>
-      <c r="B64" s="21"/>
-      <c r="C64" s="22"/>
-      <c r="D64" s="22"/>
+      <c r="A64" s="13"/>
+      <c r="B64" s="20"/>
+      <c r="C64" s="21"/>
+      <c r="D64" s="21"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="14"/>
-      <c r="B65" s="21"/>
-      <c r="C65" s="22"/>
-      <c r="D65" s="22"/>
+      <c r="A65" s="13"/>
+      <c r="B65" s="20"/>
+      <c r="C65" s="21"/>
+      <c r="D65" s="21"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="14"/>
-      <c r="B66" s="21"/>
-      <c r="C66" s="22"/>
-      <c r="D66" s="22"/>
+      <c r="A66" s="13"/>
+      <c r="B66" s="20"/>
+      <c r="C66" s="21"/>
+      <c r="D66" s="21"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="14"/>
-      <c r="B67" s="21"/>
-      <c r="C67" s="22"/>
-      <c r="D67" s="22"/>
+      <c r="A67" s="13"/>
+      <c r="B67" s="20"/>
+      <c r="C67" s="21"/>
+      <c r="D67" s="21"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="14"/>
-      <c r="B68" s="21"/>
-      <c r="C68" s="22"/>
-      <c r="D68" s="22"/>
+      <c r="A68" s="13"/>
+      <c r="B68" s="20"/>
+      <c r="C68" s="21"/>
+      <c r="D68" s="21"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="14"/>
-      <c r="B69" s="21"/>
-      <c r="C69" s="22"/>
-      <c r="D69" s="22"/>
+      <c r="A69" s="13"/>
+      <c r="B69" s="20"/>
+      <c r="C69" s="21"/>
+      <c r="D69" s="21"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="14"/>
-      <c r="B70" s="21"/>
-      <c r="C70" s="22"/>
-      <c r="D70" s="22"/>
+      <c r="A70" s="13"/>
+      <c r="B70" s="20"/>
+      <c r="C70" s="21"/>
+      <c r="D70" s="21"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="14"/>
-      <c r="B71" s="21"/>
-      <c r="C71" s="22"/>
-      <c r="D71" s="22"/>
+      <c r="A71" s="13"/>
+      <c r="B71" s="20"/>
+      <c r="C71" s="21"/>
+      <c r="D71" s="21"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="14"/>
-      <c r="B72" s="21"/>
-      <c r="C72" s="22"/>
-      <c r="D72" s="22"/>
+      <c r="A72" s="13"/>
+      <c r="B72" s="20"/>
+      <c r="C72" s="21"/>
+      <c r="D72" s="21"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="14"/>
-      <c r="B73" s="21"/>
-      <c r="C73" s="22"/>
-      <c r="D73" s="22"/>
+      <c r="A73" s="13"/>
+      <c r="B73" s="20"/>
+      <c r="C73" s="21"/>
+      <c r="D73" s="21"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="14"/>
-      <c r="B74" s="21"/>
-      <c r="C74" s="22"/>
-      <c r="D74" s="22"/>
+      <c r="A74" s="13"/>
+      <c r="B74" s="20"/>
+      <c r="C74" s="21"/>
+      <c r="D74" s="21"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="14"/>
-      <c r="B75" s="21"/>
-      <c r="C75" s="22"/>
-      <c r="D75" s="22"/>
+      <c r="A75" s="13"/>
+      <c r="B75" s="20"/>
+      <c r="C75" s="21"/>
+      <c r="D75" s="21"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" s="14"/>
-      <c r="B76" s="21"/>
-      <c r="C76" s="22"/>
-      <c r="D76" s="22"/>
+      <c r="A76" s="13"/>
+      <c r="B76" s="20"/>
+      <c r="C76" s="21"/>
+      <c r="D76" s="21"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="14"/>
-      <c r="B77" s="21"/>
-      <c r="C77" s="22"/>
-      <c r="D77" s="22"/>
+      <c r="A77" s="13"/>
+      <c r="B77" s="20"/>
+      <c r="C77" s="21"/>
+      <c r="D77" s="21"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" s="14"/>
-      <c r="B78" s="21"/>
-      <c r="C78" s="22"/>
-      <c r="D78" s="22"/>
+      <c r="A78" s="13"/>
+      <c r="B78" s="20"/>
+      <c r="C78" s="21"/>
+      <c r="D78" s="21"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" s="14"/>
-      <c r="B79" s="21"/>
-      <c r="C79" s="22"/>
-      <c r="D79" s="22"/>
+      <c r="A79" s="13"/>
+      <c r="B79" s="20"/>
+      <c r="C79" s="21"/>
+      <c r="D79" s="21"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" s="14"/>
-      <c r="B80" s="21"/>
-      <c r="C80" s="22"/>
-      <c r="D80" s="22"/>
+      <c r="A80" s="13"/>
+      <c r="B80" s="20"/>
+      <c r="C80" s="21"/>
+      <c r="D80" s="21"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" s="14"/>
-      <c r="B81" s="20"/>
-      <c r="C81" s="15"/>
-      <c r="D81" s="15"/>
+      <c r="A81" s="13"/>
+      <c r="B81" s="19"/>
+      <c r="C81" s="14"/>
+      <c r="D81" s="14"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" s="14"/>
-      <c r="B82" s="20"/>
-      <c r="C82" s="15"/>
-      <c r="D82" s="15"/>
+      <c r="A82" s="13"/>
+      <c r="B82" s="19"/>
+      <c r="C82" s="14"/>
+      <c r="D82" s="14"/>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" s="14"/>
-      <c r="B83" s="20"/>
-      <c r="C83" s="22"/>
-      <c r="D83" s="22"/>
+      <c r="A83" s="13"/>
+      <c r="B83" s="19"/>
+      <c r="C83" s="21"/>
+      <c r="D83" s="21"/>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" s="14"/>
-      <c r="B84" s="20"/>
-      <c r="C84" s="22"/>
-      <c r="D84" s="15"/>
+      <c r="A84" s="13"/>
+      <c r="B84" s="19"/>
+      <c r="C84" s="21"/>
+      <c r="D84" s="14"/>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" s="14"/>
-      <c r="B85" s="20"/>
-      <c r="C85" s="22"/>
-      <c r="D85" s="15"/>
+      <c r="A85" s="13"/>
+      <c r="B85" s="19"/>
+      <c r="C85" s="21"/>
+      <c r="D85" s="14"/>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" s="14"/>
-      <c r="B86" s="20"/>
-      <c r="C86" s="16"/>
-      <c r="D86" s="15"/>
+      <c r="A86" s="13"/>
+      <c r="B86" s="19"/>
+      <c r="C86" s="15"/>
+      <c r="D86" s="14"/>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87" s="14"/>
-      <c r="B87" s="20"/>
-      <c r="C87" s="16"/>
-      <c r="D87" s="15"/>
+      <c r="A87" s="13"/>
+      <c r="B87" s="19"/>
+      <c r="C87" s="15"/>
+      <c r="D87" s="14"/>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88" s="14"/>
-      <c r="B88" s="20"/>
-      <c r="C88" s="15"/>
-      <c r="D88" s="15"/>
+      <c r="A88" s="13"/>
+      <c r="B88" s="19"/>
+      <c r="C88" s="14"/>
+      <c r="D88" s="14"/>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89" s="14"/>
-      <c r="B89" s="20"/>
-      <c r="C89" s="16"/>
-      <c r="D89" s="15"/>
+      <c r="A89" s="13"/>
+      <c r="B89" s="19"/>
+      <c r="C89" s="15"/>
+      <c r="D89" s="14"/>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90" s="14"/>
-      <c r="B90" s="20"/>
-      <c r="C90" s="16"/>
-      <c r="D90" s="15"/>
+      <c r="A90" s="13"/>
+      <c r="B90" s="19"/>
+      <c r="C90" s="15"/>
+      <c r="D90" s="14"/>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" s="14"/>
-      <c r="B91" s="20"/>
-      <c r="C91" s="16"/>
-      <c r="D91" s="15"/>
+      <c r="A91" s="13"/>
+      <c r="B91" s="19"/>
+      <c r="C91" s="15"/>
+      <c r="D91" s="14"/>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A92" s="14"/>
-      <c r="B92" s="20"/>
-      <c r="C92" s="16"/>
-      <c r="D92" s="15"/>
+      <c r="A92" s="13"/>
+      <c r="B92" s="19"/>
+      <c r="C92" s="15"/>
+      <c r="D92" s="14"/>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93" s="14"/>
-      <c r="B93" s="20"/>
-      <c r="C93" s="16"/>
-      <c r="D93" s="15"/>
+      <c r="A93" s="13"/>
+      <c r="B93" s="19"/>
+      <c r="C93" s="15"/>
+      <c r="D93" s="14"/>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A94" s="14"/>
-      <c r="B94" s="20"/>
-      <c r="C94" s="16"/>
-      <c r="D94" s="15"/>
+      <c r="A94" s="13"/>
+      <c r="B94" s="19"/>
+      <c r="C94" s="15"/>
+      <c r="D94" s="14"/>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A95" s="14"/>
-      <c r="B95" s="14"/>
-      <c r="C95" s="16"/>
-      <c r="D95" s="15"/>
+      <c r="A95" s="13"/>
+      <c r="B95" s="13"/>
+      <c r="C95" s="15"/>
+      <c r="D95" s="14"/>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A96" s="14"/>
-      <c r="B96" s="14"/>
-      <c r="C96" s="16"/>
-      <c r="D96" s="15"/>
+      <c r="A96" s="13"/>
+      <c r="B96" s="13"/>
+      <c r="C96" s="15"/>
+      <c r="D96" s="14"/>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97" s="14"/>
-      <c r="B97" s="14"/>
-      <c r="C97" s="16"/>
-      <c r="D97" s="15"/>
+      <c r="A97" s="13"/>
+      <c r="B97" s="13"/>
+      <c r="C97" s="15"/>
+      <c r="D97" s="14"/>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A98" s="14"/>
-      <c r="B98" s="14"/>
-      <c r="C98" s="16"/>
-      <c r="D98" s="15"/>
+      <c r="A98" s="13"/>
+      <c r="B98" s="13"/>
+      <c r="C98" s="15"/>
+      <c r="D98" s="14"/>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A99" s="14"/>
-      <c r="B99" s="20"/>
-      <c r="C99" s="16"/>
-      <c r="D99" s="15"/>
+      <c r="A99" s="13"/>
+      <c r="B99" s="19"/>
+      <c r="C99" s="15"/>
+      <c r="D99" s="14"/>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A100" s="14"/>
-      <c r="B100" s="20"/>
-      <c r="C100" s="16"/>
-      <c r="D100" s="15"/>
+      <c r="A100" s="13"/>
+      <c r="B100" s="19"/>
+      <c r="C100" s="15"/>
+      <c r="D100" s="14"/>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A101" s="14"/>
-      <c r="B101" s="14"/>
-      <c r="C101" s="16"/>
-      <c r="D101" s="15"/>
+      <c r="A101" s="13"/>
+      <c r="B101" s="13"/>
+      <c r="C101" s="15"/>
+      <c r="D101" s="14"/>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A102" s="14"/>
-      <c r="B102" s="14"/>
-      <c r="C102" s="16"/>
-      <c r="D102" s="15"/>
+      <c r="A102" s="13"/>
+      <c r="B102" s="13"/>
+      <c r="C102" s="15"/>
+      <c r="D102" s="14"/>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A103" s="14"/>
-      <c r="B103" s="20"/>
-      <c r="C103" s="16"/>
-      <c r="D103" s="15"/>
+      <c r="A103" s="13"/>
+      <c r="B103" s="19"/>
+      <c r="C103" s="15"/>
+      <c r="D103" s="14"/>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A104" s="14"/>
-      <c r="B104" s="14"/>
-      <c r="C104" s="16"/>
-      <c r="D104" s="15"/>
+      <c r="A104" s="13"/>
+      <c r="B104" s="13"/>
+      <c r="C104" s="15"/>
+      <c r="D104" s="14"/>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A105" s="14"/>
-      <c r="B105" s="14"/>
-      <c r="C105" s="16"/>
-      <c r="D105" s="15"/>
+      <c r="A105" s="13"/>
+      <c r="B105" s="13"/>
+      <c r="C105" s="15"/>
+      <c r="D105" s="14"/>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A106" s="14"/>
-      <c r="B106" s="14"/>
-      <c r="C106" s="16"/>
-      <c r="D106" s="15"/>
+      <c r="A106" s="13"/>
+      <c r="B106" s="13"/>
+      <c r="C106" s="15"/>
+      <c r="D106" s="14"/>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A107" s="14"/>
-      <c r="B107" s="20"/>
-      <c r="C107" s="16"/>
-      <c r="D107" s="15"/>
+      <c r="A107" s="13"/>
+      <c r="B107" s="19"/>
+      <c r="C107" s="15"/>
+      <c r="D107" s="14"/>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A108" s="14"/>
-      <c r="B108" s="14"/>
-      <c r="C108" s="16"/>
-      <c r="D108" s="15"/>
+      <c r="A108" s="13"/>
+      <c r="B108" s="13"/>
+      <c r="C108" s="15"/>
+      <c r="D108" s="14"/>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A109" s="14"/>
-      <c r="B109" s="14"/>
-      <c r="C109" s="16"/>
-      <c r="D109" s="15"/>
+      <c r="A109" s="13"/>
+      <c r="B109" s="13"/>
+      <c r="C109" s="15"/>
+      <c r="D109" s="14"/>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A110" s="14"/>
-      <c r="B110" s="14"/>
-      <c r="C110" s="15"/>
-      <c r="D110" s="15"/>
+      <c r="A110" s="13"/>
+      <c r="B110" s="13"/>
+      <c r="C110" s="14"/>
+      <c r="D110" s="14"/>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A111" s="14"/>
-      <c r="B111" s="20"/>
-      <c r="C111" s="16"/>
-      <c r="D111" s="15"/>
+      <c r="A111" s="13"/>
+      <c r="B111" s="19"/>
+      <c r="C111" s="15"/>
+      <c r="D111" s="14"/>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A112" s="14"/>
-      <c r="B112" s="14"/>
-      <c r="C112" s="16"/>
-      <c r="D112" s="15"/>
+      <c r="A112" s="13"/>
+      <c r="B112" s="13"/>
+      <c r="C112" s="15"/>
+      <c r="D112" s="14"/>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A113" s="14"/>
-      <c r="B113" s="14"/>
-      <c r="C113" s="16"/>
-      <c r="D113" s="15"/>
+      <c r="A113" s="13"/>
+      <c r="B113" s="13"/>
+      <c r="C113" s="15"/>
+      <c r="D113" s="14"/>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A114" s="14"/>
-      <c r="B114" s="14"/>
-      <c r="C114" s="16"/>
-      <c r="D114" s="15"/>
+      <c r="A114" s="13"/>
+      <c r="B114" s="13"/>
+      <c r="C114" s="15"/>
+      <c r="D114" s="14"/>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A115" s="14"/>
-      <c r="B115" s="14"/>
-      <c r="C115" s="16"/>
-      <c r="D115" s="15"/>
+      <c r="A115" s="13"/>
+      <c r="B115" s="13"/>
+      <c r="C115" s="15"/>
+      <c r="D115" s="14"/>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A116" s="14"/>
-      <c r="B116" s="20"/>
-      <c r="C116" s="16"/>
-      <c r="D116" s="15"/>
+      <c r="A116" s="13"/>
+      <c r="B116" s="19"/>
+      <c r="C116" s="15"/>
+      <c r="D116" s="14"/>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A117" s="14"/>
-      <c r="B117" s="14"/>
-      <c r="C117" s="16"/>
-      <c r="D117" s="15"/>
+      <c r="A117" s="13"/>
+      <c r="B117" s="13"/>
+      <c r="C117" s="15"/>
+      <c r="D117" s="14"/>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A118" s="14"/>
-      <c r="B118" s="14"/>
-      <c r="C118" s="16"/>
-      <c r="D118" s="15"/>
+      <c r="A118" s="13"/>
+      <c r="B118" s="13"/>
+      <c r="C118" s="15"/>
+      <c r="D118" s="14"/>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A119" s="14"/>
-      <c r="B119" s="14"/>
-      <c r="C119" s="15"/>
-      <c r="D119" s="15"/>
+      <c r="A119" s="13"/>
+      <c r="B119" s="13"/>
+      <c r="C119" s="14"/>
+      <c r="D119" s="14"/>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A120" s="14"/>
-      <c r="B120" s="14"/>
-      <c r="C120" s="15"/>
-      <c r="D120" s="15"/>
+      <c r="A120" s="13"/>
+      <c r="B120" s="13"/>
+      <c r="C120" s="14"/>
+      <c r="D120" s="14"/>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A121" s="14"/>
-      <c r="B121" s="20"/>
-      <c r="C121" s="15"/>
-      <c r="D121" s="15"/>
+      <c r="A121" s="13"/>
+      <c r="B121" s="19"/>
+      <c r="C121" s="14"/>
+      <c r="D121" s="14"/>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B122" s="7"/>
+      <c r="B122" s="6"/>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B123" s="7"/>
+      <c r="B123" s="6"/>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B124" s="7"/>
+      <c r="B124" s="6"/>
       <c r="C124"/>
       <c r="D124"/>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B125" s="7"/>
+      <c r="B125" s="6"/>
       <c r="C125"/>
       <c r="D125"/>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B126" s="7"/>
+      <c r="B126" s="6"/>
       <c r="C126"/>
       <c r="D126"/>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B127" s="7"/>
+      <c r="B127" s="6"/>
       <c r="C127"/>
       <c r="D127"/>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B128" s="7"/>
+      <c r="B128" s="6"/>
       <c r="C128"/>
       <c r="D128"/>
     </row>
     <row r="129" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B129" s="7"/>
+      <c r="B129" s="6"/>
       <c r="C129"/>
       <c r="D129"/>
     </row>
     <row r="130" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B130" s="7"/>
+      <c r="B130" s="6"/>
       <c r="C130"/>
       <c r="D130"/>
     </row>
     <row r="131" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B131" s="7"/>
+      <c r="B131" s="6"/>
       <c r="C131"/>
       <c r="D131"/>
     </row>
     <row r="132" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B132" s="7"/>
+      <c r="B132" s="6"/>
       <c r="C132"/>
       <c r="D132"/>
     </row>
     <row r="133" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B133" s="7"/>
+      <c r="B133" s="6"/>
       <c r="C133"/>
       <c r="D133"/>
     </row>
     <row r="134" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B134" s="7"/>
+      <c r="B134" s="6"/>
       <c r="C134"/>
       <c r="D134"/>
     </row>
     <row r="135" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B135" s="7"/>
+      <c r="B135" s="6"/>
       <c r="C135"/>
       <c r="D135"/>
     </row>
     <row r="136" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B136" s="7"/>
+      <c r="B136" s="6"/>
       <c r="C136"/>
       <c r="D136"/>
     </row>
     <row r="137" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B137" s="7"/>
+      <c r="B137" s="6"/>
       <c r="C137"/>
       <c r="D137"/>
     </row>
@@ -3295,16 +3312,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="11"/>
-      <c r="B2" s="11"/>
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3330,16 +3347,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>26</v>
       </c>
     </row>
@@ -3365,11 +3382,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:E45"/>
+  <dimension ref="A1:E49"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A21" sqref="A21:XFD21"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3408,7 +3425,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>63</v>
@@ -3430,7 +3447,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>63</v>
@@ -3452,7 +3469,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>63</v>
@@ -3474,7 +3491,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>63</v>
@@ -3496,32 +3513,32 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>187</v>
+        <v>227</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C11" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C13" s="3" t="b">
+      <c r="C12" s="3" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>28</v>
+        <v>63</v>
       </c>
       <c r="C14" s="3" t="b">
         <v>0</v>
@@ -3529,10 +3546,10 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>63</v>
+        <v>28</v>
       </c>
       <c r="C15" s="3" t="b">
         <v>0</v>
@@ -3540,10 +3557,10 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>99</v>
+        <v>51</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>28</v>
+        <v>63</v>
       </c>
       <c r="C16" s="3" t="b">
         <v>0</v>
@@ -3551,10 +3568,10 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>85</v>
+        <v>228</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>63</v>
+        <v>28</v>
       </c>
       <c r="C18" s="3" t="b">
         <v>0</v>
@@ -3562,10 +3579,10 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="B19" s="14" t="s">
-        <v>53</v>
+        <v>229</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>63</v>
       </c>
       <c r="C19" s="3" t="b">
         <v>0</v>
@@ -3573,7 +3590,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>28</v>
@@ -3582,23 +3599,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C21" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>28</v>
+        <v>63</v>
       </c>
       <c r="C22" s="3" t="b">
         <v>0</v>
@@ -3606,9 +3612,9 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="B23" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B23" s="13" t="s">
         <v>53</v>
       </c>
       <c r="C23" s="3" t="b">
@@ -3617,10 +3623,10 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="C24" s="3" t="b">
         <v>0</v>
@@ -3628,7 +3634,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>53</v>
@@ -3639,7 +3645,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>28</v>
@@ -3650,7 +3656,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>161</v>
+        <v>102</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>53</v>
@@ -3660,35 +3666,33 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="14" t="s">
-        <v>201</v>
+      <c r="A28" s="3" t="s">
+        <v>83</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>199</v>
+        <v>53</v>
       </c>
       <c r="C28" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="E28" s="14"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="14" t="s">
-        <v>202</v>
+      <c r="A29" s="3" t="s">
+        <v>81</v>
       </c>
       <c r="B29" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C29" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B30" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="C29" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="E29" s="14"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="14" t="s">
-        <v>178</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>164</v>
       </c>
       <c r="C30" s="3" t="b">
         <v>0</v>
@@ -3696,7 +3700,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>90</v>
+        <v>148</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>53</v>
@@ -3706,41 +3710,43 @@
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
-        <v>91</v>
+      <c r="A32" s="13" t="s">
+        <v>188</v>
       </c>
       <c r="B32" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="C32" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E32" s="13"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="B33" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C32" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>49</v>
-      </c>
       <c r="C33" s="3" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
-        <v>96</v>
+      <c r="E33" s="13"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="13" t="s">
+        <v>165</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>53</v>
+        <v>151</v>
       </c>
       <c r="C34" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>97</v>
+        <v>180</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>53</v>
@@ -3749,9 +3755,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="14" t="s">
-        <v>98</v>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
+        <v>181</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>28</v>
@@ -3760,74 +3766,121 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>188</v>
-      </c>
-      <c r="B38" t="s">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C37" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B38" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C38" t="b">
-        <v>0</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>189</v>
-      </c>
-      <c r="B39" t="s">
+      <c r="C38" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B39" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C39" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>190</v>
-      </c>
-      <c r="B40" t="s">
+      <c r="C39" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C40" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>175</v>
+      </c>
+      <c r="B42" t="s">
         <v>53</v>
       </c>
-      <c r="C40" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>191</v>
-      </c>
-      <c r="B41" t="s">
+      <c r="C42" t="b">
+        <v>0</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>176</v>
+      </c>
+      <c r="B43" t="s">
         <v>53</v>
       </c>
-      <c r="C41" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42"/>
-      <c r="B42"/>
-      <c r="C42"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43"/>
-      <c r="B43"/>
-      <c r="C43"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44"/>
-      <c r="B44"/>
-      <c r="C44"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45"/>
-      <c r="B45"/>
-      <c r="C45"/>
+      <c r="C43" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>177</v>
+      </c>
+      <c r="B44" t="s">
+        <v>53</v>
+      </c>
+      <c r="C44" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>178</v>
+      </c>
+      <c r="B45" t="s">
+        <v>53</v>
+      </c>
+      <c r="C45" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46"/>
+      <c r="B46"/>
+      <c r="C46"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47"/>
+      <c r="B47"/>
+      <c r="C47"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48"/>
+      <c r="B48"/>
+      <c r="C48"/>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49"/>
+      <c r="B49"/>
+      <c r="C49"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="H4:H22">
+    <sortCondition ref="H4:H22"/>
+  </sortState>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/app/config/tables/CHILDREN/Forms/CHILDREN/CHILDREN.xlsx
+++ b/app/config/tables/CHILDREN/Forms/CHILDREN/CHILDREN.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC65D9CA-F048-4D29-8DA5-1B257433E871}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8E5EE10-2E23-4D00-8B72-98D0A061F0B7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19320" yWindow="-2100" windowWidth="19440" windowHeight="15000" tabRatio="728" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19320" yWindow="-2100" windowWidth="19440" windowHeight="15000" tabRatio="728" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="234">
   <si>
     <t>setting_name</t>
   </si>
@@ -188,12 +188,6 @@
     <t>MOR</t>
   </si>
   <si>
-    <t>NOME</t>
-  </si>
-  <si>
-    <t>NUMEST</t>
-  </si>
-  <si>
     <t>select_one</t>
   </si>
   <si>
@@ -290,9 +284,6 @@
     <t>ESTADOCRI</t>
   </si>
   <si>
-    <t>DATASAI</t>
-  </si>
-  <si>
     <t>MUAC</t>
   </si>
   <si>
@@ -311,9 +302,6 @@
     <t>Name of child</t>
   </si>
   <si>
-    <t>Nome da criança</t>
-  </si>
-  <si>
     <t>Status of child</t>
   </si>
   <si>
@@ -461,12 +449,6 @@
     <t>Data de visita</t>
   </si>
   <si>
-    <t>&lt;b&gt;Follow-up on registered pregnancy to {{data.NOME}}&lt;/b&gt;</t>
-  </si>
-  <si>
-    <t>&lt;b&gt;Seguimento de gravidez registrada para {{data.NOME}}&lt;/b&gt;</t>
-  </si>
-  <si>
     <t>You are about to register a new child at:</t>
   </si>
   <si>
@@ -548,18 +530,12 @@
     <t>adate.ageInYears(data("DOB")) != -9999 &amp;&amp; adate.ageInYears(data("DOB")) &lt; 2019</t>
   </si>
   <si>
-    <t>(data("ESTADOCRI") != 2 &amp;&amp; data("ESTADOCRI") != 3) || ((data("ESTADOCRI") == 2 || data("ESTADOCRI") == 3) &amp;&amp; data("DATASAI") != null &amp;&amp; adate.ageInYears(data("DATASAI")) != -9999 &amp;&amp; adate.ageInYears(data("DATASAI")) &lt; 2019)</t>
-  </si>
-  <si>
     <t>(data("BCGDATA") != null &amp;&amp; adate.ageInYears(data("BCGDATA")) != -9999 &amp;&amp; adate.ageInYears(data("BCGDATA")) &lt; 2019) || data("BCG") != 1</t>
   </si>
   <si>
     <t>(data("HOSPDATA") != null &amp;&amp; adate.ageInYears(data("HOSPDATA")) != -9999 &amp;&amp; adate.ageInYears(data("HOSPDATA")) &lt; 2019) || data("HOSP") != 1</t>
   </si>
   <si>
-    <t>VISNO</t>
-  </si>
-  <si>
     <t>NOMECRICON</t>
   </si>
   <si>
@@ -572,9 +548,6 @@
     <t>POBCON</t>
   </si>
   <si>
-    <t>fu</t>
-  </si>
-  <si>
     <t>POLIO</t>
   </si>
   <si>
@@ -707,25 +680,61 @@
     <t>Household: &lt;b&gt;{{data.MOR}}&lt;/b&gt;</t>
   </si>
   <si>
-    <t>Name of mother: &lt;b&gt;{{data.NOME}}&lt;/b&gt;</t>
-  </si>
-  <si>
-    <t>Nome da mãe: &lt;b&gt;{{data.NOME}}&lt;/b&gt;</t>
-  </si>
-  <si>
     <t>Morança: &lt;b&gt;{{data.MOR}}&lt;/b&gt;</t>
   </si>
   <si>
     <t>GRAV</t>
   </si>
   <si>
-    <t>REGDIACRI</t>
-  </si>
-  <si>
-    <t>NUMESTCRI</t>
-  </si>
-  <si>
     <t>instance_name</t>
+  </si>
+  <si>
+    <t>DATASAICRI</t>
+  </si>
+  <si>
+    <t>ESTADOMUL</t>
+  </si>
+  <si>
+    <t>VISNOCRI</t>
+  </si>
+  <si>
+    <t>IDMUL</t>
+  </si>
+  <si>
+    <t>NOMEMUL</t>
+  </si>
+  <si>
+    <t>IDCRI</t>
+  </si>
+  <si>
+    <t>Name of mother: &lt;b&gt;{{data.NOMEMUL}}&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t>Nome da mãe: &lt;b&gt;{{data.NOMEMUL}}&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t>FU</t>
+  </si>
+  <si>
+    <t>From MUL</t>
+  </si>
+  <si>
+    <t>DATASAIMUL</t>
+  </si>
+  <si>
+    <t>First visit</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Follow-up on registered pregnancy to {{data.NOMEMUL}}&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Seguimento de gravidez registrada para {{data.NOMEMUL}}&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t>NOMEMUL da criança</t>
+  </si>
+  <si>
+    <t>(data("ESTADOCRI") != 2 &amp;&amp; data("ESTADOCRI") != 3) || ((data("ESTADOCRI") == 2 || data("ESTADOCRI") == 3) &amp;&amp; data("DATASAICRI") != null &amp;&amp; adate.ageInYears(data("DATASAICRI")) != -9999 &amp;&amp; adate.ageInYears(data("DATASAICRI")) &lt; 2019)</t>
   </si>
 </sst>
 </file>
@@ -1190,7 +1199,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -1206,7 +1215,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -1215,10 +1224,10 @@
       </c>
       <c r="B5" s="3"/>
       <c r="C5" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="D5" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -1245,10 +1254,10 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>230</v>
+        <v>217</v>
       </c>
       <c r="B8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -1264,9 +1273,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB5FB9AA-D433-6046-85E1-401DEB18B3FD}">
   <dimension ref="A1:R84"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F28" sqref="F27:F28"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1321,7 +1330,7 @@
         <v>22</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>39</v>
@@ -1345,7 +1354,7 @@
         <v>44</v>
       </c>
       <c r="R1" s="8" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
     </row>
     <row r="2" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -1359,10 +1368,10 @@
         <v>35</v>
       </c>
       <c r="G3" s="17" t="s">
-        <v>142</v>
+        <v>230</v>
       </c>
       <c r="H3" t="s">
-        <v>143</v>
+        <v>231</v>
       </c>
     </row>
     <row r="4" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -1370,10 +1379,10 @@
         <v>35</v>
       </c>
       <c r="G4" s="23" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="H4" s="23" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
     </row>
     <row r="5" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -1381,10 +1390,10 @@
         <v>35</v>
       </c>
       <c r="G5" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="H5" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
     </row>
     <row r="6" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -1392,10 +1401,10 @@
         <v>35</v>
       </c>
       <c r="G6" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="H6" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
     </row>
     <row r="7" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -1403,10 +1412,10 @@
         <v>35</v>
       </c>
       <c r="G7" s="24" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="H7" s="24" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
     </row>
     <row r="8" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -1414,10 +1423,10 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="H8" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
     </row>
     <row r="9" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -1425,10 +1434,10 @@
         <v>35</v>
       </c>
       <c r="G9" s="23" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="H9" s="23" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="J9" s="11" t="b">
         <v>1</v>
@@ -1461,10 +1470,10 @@
         <v>35</v>
       </c>
       <c r="G13" s="17" t="s">
-        <v>142</v>
+        <v>230</v>
       </c>
       <c r="H13" t="s">
-        <v>143</v>
+        <v>231</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
@@ -1472,19 +1481,19 @@
         <v>28</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="G14" s="17" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="H14" s="13" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="J14" t="b">
         <v>1</v>
       </c>
       <c r="K14" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="P14" s="13" t="b">
         <v>0</v>
@@ -1505,24 +1514,24 @@
         <v>35</v>
       </c>
       <c r="G17" s="17" t="s">
-        <v>142</v>
+        <v>230</v>
       </c>
       <c r="H17" t="s">
-        <v>143</v>
+        <v>231</v>
       </c>
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D18" s="14" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F18" s="13" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G18" s="17" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="H18" s="17" t="s">
-        <v>92</v>
+        <v>232</v>
       </c>
       <c r="J18" s="13" t="b">
         <v>1</v>
@@ -1530,19 +1539,19 @@
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D19" s="14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F19" s="13" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G19" s="17" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="H19" s="17" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="J19" s="13" t="b">
         <v>1</v>
@@ -1553,19 +1562,19 @@
         <v>28</v>
       </c>
       <c r="F20" s="13" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G20" s="17" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="H20" s="17" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="J20" s="13" t="b">
         <v>1</v>
       </c>
       <c r="K20" s="13" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="P20" s="13" t="b">
         <v>0</v>
@@ -1586,27 +1595,27 @@
         <v>35</v>
       </c>
       <c r="G23" s="17" t="s">
-        <v>142</v>
+        <v>230</v>
       </c>
       <c r="H23" t="s">
-        <v>143</v>
+        <v>231</v>
       </c>
     </row>
     <row r="24" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D24" s="13" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E24" s="13" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F24" s="14" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G24" s="22" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="H24" s="22" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="J24" s="13" t="b">
         <v>1</v>
@@ -1614,10 +1623,10 @@
     </row>
     <row r="25" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B25" s="13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D25" s="13"/>
       <c r="F25" s="14"/>
@@ -1629,16 +1638,16 @@
         <v>28</v>
       </c>
       <c r="F26" s="14" t="s">
-        <v>85</v>
+        <v>218</v>
       </c>
       <c r="G26" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="H26" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="K26" t="s">
-        <v>171</v>
+        <v>233</v>
       </c>
       <c r="P26" s="13" t="b">
         <v>0</v>
@@ -1646,7 +1655,7 @@
     </row>
     <row r="27" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B27" s="13" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D27" s="13"/>
       <c r="F27" s="14"/>
@@ -1672,27 +1681,27 @@
         <v>35</v>
       </c>
       <c r="G30" s="17" t="s">
-        <v>142</v>
+        <v>230</v>
       </c>
       <c r="H30" t="s">
-        <v>143</v>
+        <v>231</v>
       </c>
     </row>
     <row r="31" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D31" s="14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E31" s="13" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="G31" s="22" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="H31" s="13" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="J31" s="13" t="b">
         <v>1</v>
@@ -1700,19 +1709,19 @@
     </row>
     <row r="32" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D32" s="14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E32" s="13" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F32" s="13" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G32" s="22" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="H32" s="13" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="J32" s="13" t="b">
         <v>1</v>
@@ -1725,10 +1734,10 @@
     </row>
     <row r="34" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B34" s="13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="35" spans="2:16" x14ac:dyDescent="0.25">
@@ -1741,38 +1750,38 @@
         <v>35</v>
       </c>
       <c r="G36" s="17" t="s">
-        <v>142</v>
+        <v>230</v>
       </c>
       <c r="H36" t="s">
-        <v>143</v>
+        <v>231</v>
       </c>
     </row>
     <row r="37" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D37" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="E37" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="E37" s="13" t="s">
-        <v>55</v>
-      </c>
       <c r="F37" s="13" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G37" s="17" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="H37" s="13" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="K37" s="13" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="38" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B38" s="13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="39" spans="2:16" x14ac:dyDescent="0.25">
@@ -1780,16 +1789,16 @@
         <v>28</v>
       </c>
       <c r="F39" s="13" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G39" s="17" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="H39" s="13" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="K39" s="13" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="P39" s="13" t="b">
         <v>0</v>
@@ -1797,35 +1806,35 @@
     </row>
     <row r="40" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B40" s="13" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="41" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D41" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="E41" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="E41" s="13" t="s">
-        <v>55</v>
-      </c>
       <c r="F41" s="3" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="G41" s="17" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="H41" s="13" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="K41" s="13" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
     </row>
     <row r="42" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B42" s="13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C42" s="13" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="F42" s="3"/>
     </row>
@@ -1834,16 +1843,16 @@
         <v>28</v>
       </c>
       <c r="F43" s="13" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="G43" s="17" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="H43" s="13" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="K43" s="13" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="P43" s="13" t="b">
         <v>0</v>
@@ -1851,7 +1860,7 @@
     </row>
     <row r="44" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B44" s="13" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="45" spans="2:16" x14ac:dyDescent="0.25">
@@ -1869,30 +1878,30 @@
         <v>35</v>
       </c>
       <c r="G47" s="17" t="s">
-        <v>142</v>
+        <v>230</v>
       </c>
       <c r="H47" t="s">
-        <v>143</v>
+        <v>231</v>
       </c>
     </row>
     <row r="48" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D48" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="E48" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="E48" s="13" t="s">
-        <v>55</v>
-      </c>
       <c r="F48" s="3" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="G48" s="22" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="H48" s="13" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="K48" s="13" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
     </row>
     <row r="49" spans="2:18" x14ac:dyDescent="0.25">
@@ -1902,10 +1911,10 @@
     </row>
     <row r="50" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B50" s="13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C50" s="13" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
     </row>
     <row r="51" spans="2:18" x14ac:dyDescent="0.25">
@@ -1918,30 +1927,30 @@
         <v>35</v>
       </c>
       <c r="G52" s="17" t="s">
-        <v>142</v>
+        <v>230</v>
       </c>
       <c r="H52" t="s">
-        <v>143</v>
+        <v>231</v>
       </c>
     </row>
     <row r="53" spans="2:18" x14ac:dyDescent="0.25">
       <c r="D53" s="14" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="E53" s="13" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="F53" s="13" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="G53" s="17" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="H53" s="13" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="K53" s="13" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
     </row>
     <row r="54" spans="2:18" x14ac:dyDescent="0.25">
@@ -1949,16 +1958,16 @@
         <v>28</v>
       </c>
       <c r="F54" s="13" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="G54" s="17" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="H54" s="13" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="K54" s="13" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
     </row>
     <row r="55" spans="2:18" x14ac:dyDescent="0.25">
@@ -1968,10 +1977,10 @@
     </row>
     <row r="56" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B56" s="13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C56" s="13" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
     </row>
     <row r="57" spans="2:18" x14ac:dyDescent="0.25">
@@ -1984,33 +1993,33 @@
         <v>35</v>
       </c>
       <c r="G58" s="17" t="s">
-        <v>142</v>
+        <v>230</v>
       </c>
       <c r="H58" t="s">
-        <v>143</v>
+        <v>231</v>
       </c>
     </row>
     <row r="59" spans="2:18" x14ac:dyDescent="0.25">
       <c r="D59" s="14" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="F59" s="13" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="G59" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="H59" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="L59" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="H59" s="13" t="s">
+      <c r="M59" s="13" t="s">
         <v>153</v>
       </c>
-      <c r="L59" s="13" t="s">
-        <v>158</v>
-      </c>
-      <c r="M59" s="13" t="s">
-        <v>159</v>
-      </c>
       <c r="R59" s="13" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
     </row>
     <row r="60" spans="2:18" x14ac:dyDescent="0.25">
@@ -2020,25 +2029,25 @@
     </row>
     <row r="61" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B61" s="13" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="62" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B62" s="13" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="63" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B63" s="13" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="64" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B64" s="13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C64" s="13" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D64" s="13"/>
       <c r="F64" s="14"/>
@@ -2059,10 +2068,10 @@
         <v>35</v>
       </c>
       <c r="G66" s="17" t="s">
-        <v>142</v>
+        <v>230</v>
       </c>
       <c r="H66" t="s">
-        <v>143</v>
+        <v>231</v>
       </c>
       <c r="K66"/>
       <c r="L66"/>
@@ -2072,36 +2081,36 @@
         <v>49</v>
       </c>
       <c r="F67" s="14" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G67" s="22" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="H67" s="22" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="K67" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="L67" s="13" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="M67" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="N67" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="O67" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
     </row>
     <row r="68" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B68" s="13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C68" s="13" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D68" s="13"/>
       <c r="F68" s="14"/>
@@ -2110,27 +2119,27 @@
     </row>
     <row r="69" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D69" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E69" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="E69" s="13" t="s">
-        <v>55</v>
-      </c>
       <c r="F69" s="3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G69" s="22" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="H69" s="22" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="K69" s="13" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
     </row>
     <row r="70" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B70" s="13" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D70" s="13"/>
       <c r="G70" s="13"/>
@@ -2147,7 +2156,7 @@
     </row>
     <row r="72" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B72" s="13" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D72" s="13"/>
       <c r="F72" s="14"/>
@@ -2164,27 +2173,27 @@
         <v>35</v>
       </c>
       <c r="G74" s="17" t="s">
-        <v>142</v>
+        <v>230</v>
       </c>
       <c r="H74" t="s">
-        <v>143</v>
+        <v>231</v>
       </c>
     </row>
     <row r="75" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D75" s="14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E75" s="13" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F75" s="13" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="G75" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="H75" s="13" t="s">
         <v>134</v>
-      </c>
-      <c r="H75" s="13" t="s">
-        <v>138</v>
       </c>
       <c r="J75" s="13" t="b">
         <v>1</v>
@@ -2192,10 +2201,10 @@
     </row>
     <row r="76" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B76" s="13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C76" s="13" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="77" spans="2:16" x14ac:dyDescent="0.25">
@@ -2203,16 +2212,16 @@
         <v>28</v>
       </c>
       <c r="F77" s="13" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="G77" s="17" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="H77" s="13" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="K77" s="13" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="P77" s="13" t="b">
         <v>0</v>
@@ -2220,7 +2229,7 @@
     </row>
     <row r="78" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B78" s="13" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="79" spans="2:16" x14ac:dyDescent="0.25">
@@ -2238,10 +2247,10 @@
         <v>35</v>
       </c>
       <c r="G81" s="17" t="s">
-        <v>142</v>
+        <v>230</v>
       </c>
       <c r="H81" t="s">
-        <v>143</v>
+        <v>231</v>
       </c>
     </row>
     <row r="82" spans="2:8" customFormat="1" x14ac:dyDescent="0.25">
@@ -2249,10 +2258,10 @@
         <v>35</v>
       </c>
       <c r="G82" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="H82" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
     </row>
     <row r="83" spans="2:8" customFormat="1" x14ac:dyDescent="0.25">
@@ -2260,10 +2269,10 @@
         <v>35</v>
       </c>
       <c r="G83" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="H83" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
     </row>
     <row r="84" spans="2:8" customFormat="1" x14ac:dyDescent="0.25">
@@ -2310,47 +2319,47 @@
     </row>
     <row r="2" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B2" s="11" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B3" s="11" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B4" s="11" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -2361,77 +2370,77 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B6" s="13" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B7" s="13" t="str">
         <f>"4"</f>
         <v>4</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B8" s="13" t="str">
         <f>"5"</f>
         <v>5</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B9" s="13" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B10" s="13" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -2442,32 +2451,32 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B12" s="13" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B13" s="13" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -2478,47 +2487,47 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B15" s="13" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B16" s="13" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B17" s="13" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -2529,47 +2538,47 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B19" s="13" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="13" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B20" s="13" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B21" s="13" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -2580,72 +2589,72 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="13" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="D23" s="13" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
     </row>
     <row r="24" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
     </row>
     <row r="25" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="13" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
     </row>
     <row r="26" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="13" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="B26" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="D26" s="11" t="s">
         <v>200</v>
-      </c>
-      <c r="C26" s="11" t="s">
-        <v>205</v>
-      </c>
-      <c r="D26" s="11" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="27" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="13" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
     </row>
     <row r="28" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -3382,11 +3391,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:E49"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3422,13 +3431,16 @@
       <c r="C2" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="D2" s="3" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C3" s="3" t="b">
         <v>0</v>
@@ -3447,10 +3459,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C5" s="3" t="b">
         <v>0</v>
@@ -3469,10 +3481,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C7" s="3" t="b">
         <v>0</v>
@@ -3491,10 +3503,10 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C9" s="3" t="b">
         <v>0</v>
@@ -3505,7 +3517,7 @@
         <v>50</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C10" s="3" t="b">
         <v>0</v>
@@ -3513,7 +3525,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>49</v>
@@ -3524,10 +3536,10 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>174</v>
+        <v>220</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C12" s="3" t="b">
         <v>0</v>
@@ -3535,10 +3547,10 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>52</v>
+        <v>221</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C14" s="3" t="b">
         <v>0</v>
@@ -3546,7 +3558,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>28</v>
@@ -3557,16 +3569,27 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C16" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C16" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C17" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>228</v>
       </c>
@@ -3577,270 +3600,285 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D22" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C19" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="B20" s="3" t="s">
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C23" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D23" s="13"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C24" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D24" s="13"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B25" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C20" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C22" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="B23" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="C23" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="B24" s="3" t="s">
+      <c r="C25" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D25" s="13"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C26" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D26" s="14"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="B27" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C24" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C25" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C26" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>53</v>
-      </c>
       <c r="C27" s="3" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D27" s="14"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C28" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>81</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C29" s="3" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D29" s="13"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B30" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C30" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D30" s="13"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B31" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C30" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>53</v>
-      </c>
       <c r="C31" s="3" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="13" t="s">
-        <v>188</v>
+      <c r="D31" s="13"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>142</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>186</v>
+        <v>51</v>
       </c>
       <c r="C32" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="E32" s="13"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="13" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>28</v>
+        <v>177</v>
       </c>
       <c r="C33" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="E33" s="13"/>
+      <c r="D33" s="13"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="13" t="s">
-        <v>165</v>
+        <v>180</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>151</v>
+        <v>28</v>
       </c>
       <c r="C34" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="E34" s="14"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="3" t="s">
-        <v>180</v>
+      <c r="A35" s="13" t="s">
+        <v>159</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>53</v>
+        <v>145</v>
       </c>
       <c r="C35" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="D35" s="13"/>
+      <c r="E35" s="14"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="C36" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="D36" s="13"/>
+      <c r="E36" s="13"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>86</v>
+        <v>172</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="C37" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="D37" s="13"/>
+      <c r="E37" s="13"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C38" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="D38" s="14"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C39" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="E39" s="13"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="13" t="s">
-        <v>89</v>
+      <c r="A40" s="3" t="s">
+        <v>85</v>
       </c>
       <c r="B40" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C40" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D40" s="13"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="B41" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C40" s="3" t="b">
-        <v>0</v>
-      </c>
+      <c r="C41" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D41" s="13"/>
+      <c r="E41" s="13"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>175</v>
-      </c>
-      <c r="B42" t="s">
-        <v>53</v>
-      </c>
-      <c r="C42" t="b">
-        <v>0</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>179</v>
-      </c>
+      <c r="E42" s="13"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="B43" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C43" t="b">
         <v>0</v>
       </c>
+      <c r="D43" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="E43" s="13"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="B44" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C44" t="b">
         <v>0</v>
@@ -3848,38 +3886,58 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="B45" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C45" t="b">
         <v>0</v>
       </c>
+      <c r="E45" s="13"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46"/>
-      <c r="B46"/>
-      <c r="C46"/>
+      <c r="A46" t="s">
+        <v>170</v>
+      </c>
+      <c r="B46" t="s">
+        <v>51</v>
+      </c>
+      <c r="C46" t="b">
+        <v>0</v>
+      </c>
+      <c r="E46" s="13"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47"/>
       <c r="B47"/>
       <c r="C47"/>
+      <c r="E47" s="13"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48"/>
       <c r="B48"/>
       <c r="C48"/>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E48" s="13"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49"/>
       <c r="B49"/>
       <c r="C49"/>
+      <c r="E49" s="14"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50"/>
+      <c r="B50"/>
+      <c r="C50"/>
+      <c r="E50" s="14"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E51" s="13"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="H4:H22">
-    <sortCondition ref="H4:H22"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="H4:H23">
+    <sortCondition ref="H4:H23"/>
   </sortState>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/app/config/tables/CHILDREN/Forms/CHILDREN/CHILDREN.xlsx
+++ b/app/config/tables/CHILDREN/Forms/CHILDREN/CHILDREN.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8E5EE10-2E23-4D00-8B72-98D0A061F0B7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{290BB221-7283-4AD8-BCDC-E3FE0BF0DF18}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-19320" yWindow="-2100" windowWidth="19440" windowHeight="15000" tabRatio="728" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -302,6 +302,9 @@
     <t>Name of child</t>
   </si>
   <si>
+    <t>Nome da criança</t>
+  </si>
+  <si>
     <t>Status of child</t>
   </si>
   <si>
@@ -729,9 +732,6 @@
   </si>
   <si>
     <t>&lt;b&gt;Seguimento de gravidez registrada para {{data.NOMEMUL}}&lt;/b&gt;</t>
-  </si>
-  <si>
-    <t>NOMEMUL da criança</t>
   </si>
   <si>
     <t>(data("ESTADOCRI") != 2 &amp;&amp; data("ESTADOCRI") != 3) || ((data("ESTADOCRI") == 2 || data("ESTADOCRI") == 3) &amp;&amp; data("DATASAICRI") != null &amp;&amp; adate.ageInYears(data("DATASAICRI")) != -9999 &amp;&amp; adate.ageInYears(data("DATASAICRI")) &lt; 2019)</t>
@@ -1161,7 +1161,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
+      <selection pane="bottomLeft" activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1199,7 +1199,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -1215,7 +1215,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -1224,10 +1224,10 @@
       </c>
       <c r="B5" s="3"/>
       <c r="C5" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D5" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -1254,7 +1254,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B8" t="s">
         <v>76</v>
@@ -1273,9 +1273,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB5FB9AA-D433-6046-85E1-401DEB18B3FD}">
   <dimension ref="A1:R84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K14" sqref="K14"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1354,7 +1354,7 @@
         <v>44</v>
       </c>
       <c r="R1" s="8" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="2" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -1368,10 +1368,10 @@
         <v>35</v>
       </c>
       <c r="G3" s="17" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H3" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="4" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -1379,10 +1379,10 @@
         <v>35</v>
       </c>
       <c r="G4" s="23" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H4" s="23" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="5" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -1390,10 +1390,10 @@
         <v>35</v>
       </c>
       <c r="G5" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H5" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="6" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -1401,10 +1401,10 @@
         <v>35</v>
       </c>
       <c r="G6" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="H6" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="7" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -1412,10 +1412,10 @@
         <v>35</v>
       </c>
       <c r="G7" s="24" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="H7" s="24" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="8" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -1423,10 +1423,10 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="H8" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="9" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -1434,10 +1434,10 @@
         <v>35</v>
       </c>
       <c r="G9" s="23" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="H9" s="23" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="J9" s="11" t="b">
         <v>1</v>
@@ -1448,10 +1448,10 @@
         <v>35</v>
       </c>
       <c r="G10" s="23" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H10" s="23" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="11" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -1470,10 +1470,10 @@
         <v>35</v>
       </c>
       <c r="G13" s="17" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H13" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
@@ -1484,16 +1484,16 @@
         <v>87</v>
       </c>
       <c r="G14" s="17" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H14" s="13" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="J14" t="b">
         <v>1</v>
       </c>
       <c r="K14" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="P14" s="13" t="b">
         <v>0</v>
@@ -1514,10 +1514,10 @@
         <v>35</v>
       </c>
       <c r="G17" s="17" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H17" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.25">
@@ -1531,7 +1531,7 @@
         <v>88</v>
       </c>
       <c r="H18" s="17" t="s">
-        <v>232</v>
+        <v>89</v>
       </c>
       <c r="J18" s="13" t="b">
         <v>1</v>
@@ -1542,16 +1542,16 @@
         <v>51</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F19" s="13" t="s">
         <v>77</v>
       </c>
       <c r="G19" s="17" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H19" s="17" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J19" s="13" t="b">
         <v>1</v>
@@ -1565,16 +1565,16 @@
         <v>78</v>
       </c>
       <c r="G20" s="17" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H20" s="17" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="J20" s="13" t="b">
         <v>1</v>
       </c>
       <c r="K20" s="13" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="P20" s="13" t="b">
         <v>0</v>
@@ -1595,10 +1595,10 @@
         <v>35</v>
       </c>
       <c r="G23" s="17" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H23" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="24" spans="2:16" x14ac:dyDescent="0.25">
@@ -1612,10 +1612,10 @@
         <v>82</v>
       </c>
       <c r="G24" s="22" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H24" s="22" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="J24" s="13" t="b">
         <v>1</v>
@@ -1626,7 +1626,7 @@
         <v>68</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D25" s="13"/>
       <c r="F25" s="14"/>
@@ -1638,13 +1638,13 @@
         <v>28</v>
       </c>
       <c r="F26" s="14" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="G26" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H26" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="K26" t="s">
         <v>233</v>
@@ -1681,10 +1681,10 @@
         <v>35</v>
       </c>
       <c r="G30" s="17" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H30" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="31" spans="2:16" x14ac:dyDescent="0.25">
@@ -1695,13 +1695,13 @@
         <v>54</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G31" s="22" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H31" s="13" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="J31" s="13" t="b">
         <v>1</v>
@@ -1712,16 +1712,16 @@
         <v>51</v>
       </c>
       <c r="E32" s="13" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F32" s="13" t="s">
         <v>81</v>
       </c>
       <c r="G32" s="22" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H32" s="13" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="J32" s="13" t="b">
         <v>1</v>
@@ -1737,7 +1737,7 @@
         <v>68</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="35" spans="2:16" x14ac:dyDescent="0.25">
@@ -1750,10 +1750,10 @@
         <v>35</v>
       </c>
       <c r="G36" s="17" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H36" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="37" spans="2:16" x14ac:dyDescent="0.25">
@@ -1767,13 +1767,13 @@
         <v>79</v>
       </c>
       <c r="G37" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="H37" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="H37" s="13" t="s">
-        <v>123</v>
-      </c>
       <c r="K37" s="13" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="38" spans="2:16" x14ac:dyDescent="0.25">
@@ -1781,7 +1781,7 @@
         <v>68</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="39" spans="2:16" x14ac:dyDescent="0.25">
@@ -1792,13 +1792,13 @@
         <v>80</v>
       </c>
       <c r="G39" s="17" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H39" s="13" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K39" s="13" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="P39" s="13" t="b">
         <v>0</v>
@@ -1817,16 +1817,16 @@
         <v>53</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G41" s="17" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H41" s="13" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K41" s="13" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="42" spans="2:16" x14ac:dyDescent="0.25">
@@ -1834,7 +1834,7 @@
         <v>68</v>
       </c>
       <c r="C42" s="13" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F42" s="3"/>
     </row>
@@ -1843,16 +1843,16 @@
         <v>28</v>
       </c>
       <c r="F43" s="13" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="G43" s="17" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H43" s="13" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K43" s="13" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="P43" s="13" t="b">
         <v>0</v>
@@ -1878,10 +1878,10 @@
         <v>35</v>
       </c>
       <c r="G47" s="17" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H47" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="48" spans="2:16" x14ac:dyDescent="0.25">
@@ -1892,16 +1892,16 @@
         <v>53</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G48" s="22" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H48" s="13" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K48" s="13" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="49" spans="2:18" x14ac:dyDescent="0.25">
@@ -1914,7 +1914,7 @@
         <v>68</v>
       </c>
       <c r="C50" s="13" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="51" spans="2:18" x14ac:dyDescent="0.25">
@@ -1927,30 +1927,30 @@
         <v>35</v>
       </c>
       <c r="G52" s="17" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H52" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="53" spans="2:18" x14ac:dyDescent="0.25">
       <c r="D53" s="14" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E53" s="13" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F53" s="13" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="G53" s="17" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H53" s="13" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K53" s="13" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="54" spans="2:18" x14ac:dyDescent="0.25">
@@ -1958,16 +1958,16 @@
         <v>28</v>
       </c>
       <c r="F54" s="13" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G54" s="17" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="H54" s="13" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="K54" s="13" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="55" spans="2:18" x14ac:dyDescent="0.25">
@@ -1980,7 +1980,7 @@
         <v>68</v>
       </c>
       <c r="C56" s="13" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="57" spans="2:18" x14ac:dyDescent="0.25">
@@ -1993,33 +1993,33 @@
         <v>35</v>
       </c>
       <c r="G58" s="17" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H58" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="59" spans="2:18" x14ac:dyDescent="0.25">
       <c r="D59" s="14" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F59" s="13" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G59" s="17" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H59" s="13" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L59" s="13" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="M59" s="13" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="R59" s="13" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="60" spans="2:18" x14ac:dyDescent="0.25">
@@ -2047,7 +2047,7 @@
         <v>68</v>
       </c>
       <c r="C64" s="13" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D64" s="13"/>
       <c r="F64" s="14"/>
@@ -2068,10 +2068,10 @@
         <v>35</v>
       </c>
       <c r="G66" s="17" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H66" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="K66"/>
       <c r="L66"/>
@@ -2084,25 +2084,25 @@
         <v>83</v>
       </c>
       <c r="G67" s="22" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H67" s="22" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K67" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L67" s="13" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="M67" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="N67" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="O67" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="68" spans="2:16" x14ac:dyDescent="0.25">
@@ -2110,7 +2110,7 @@
         <v>68</v>
       </c>
       <c r="C68" s="13" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D68" s="13"/>
       <c r="F68" s="14"/>
@@ -2128,13 +2128,13 @@
         <v>84</v>
       </c>
       <c r="G69" s="22" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H69" s="22" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K69" s="13" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="70" spans="2:16" x14ac:dyDescent="0.25">
@@ -2173,10 +2173,10 @@
         <v>35</v>
       </c>
       <c r="G74" s="17" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H74" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="75" spans="2:16" x14ac:dyDescent="0.25">
@@ -2190,10 +2190,10 @@
         <v>85</v>
       </c>
       <c r="G75" s="17" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H75" s="13" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="J75" s="13" t="b">
         <v>1</v>
@@ -2204,7 +2204,7 @@
         <v>68</v>
       </c>
       <c r="C76" s="13" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="77" spans="2:16" x14ac:dyDescent="0.25">
@@ -2215,13 +2215,13 @@
         <v>86</v>
       </c>
       <c r="G77" s="17" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H77" s="13" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K77" s="13" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="P77" s="13" t="b">
         <v>0</v>
@@ -2247,10 +2247,10 @@
         <v>35</v>
       </c>
       <c r="G81" s="17" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H81" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="82" spans="2:8" customFormat="1" x14ac:dyDescent="0.25">
@@ -2258,10 +2258,10 @@
         <v>35</v>
       </c>
       <c r="G82" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="H82" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="83" spans="2:8" customFormat="1" x14ac:dyDescent="0.25">
@@ -2269,10 +2269,10 @@
         <v>35</v>
       </c>
       <c r="G83" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H83" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="84" spans="2:8" customFormat="1" x14ac:dyDescent="0.25">
@@ -2319,37 +2319,37 @@
     </row>
     <row r="2" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B2" s="11" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B3" s="11" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B4" s="11" t="str">
         <f>"3"</f>
@@ -2422,10 +2422,10 @@
         <v>2</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -2437,10 +2437,10 @@
         <v>3</v>
       </c>
       <c r="C10" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="D10" s="13" t="s">
         <v>114</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -2538,47 +2538,47 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B19" s="13" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="13" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B20" s="13" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B21" s="13" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -2589,72 +2589,72 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="13" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D23" s="13" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="24" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="25" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="13" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="26" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="13" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="27" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="13" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B27" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="D27" s="11" t="s">
         <v>193</v>
-      </c>
-      <c r="C27" s="11" t="s">
-        <v>193</v>
-      </c>
-      <c r="D27" s="11" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="28" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -3394,8 +3394,8 @@
   <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D23" sqref="D23"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3432,7 +3432,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -3525,7 +3525,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>49</v>
@@ -3536,7 +3536,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>61</v>
@@ -3547,7 +3547,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>61</v>
@@ -3569,7 +3569,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>61</v>
@@ -3580,7 +3580,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>51</v>
@@ -3591,7 +3591,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>28</v>
@@ -3602,7 +3602,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>61</v>
@@ -3622,7 +3622,7 @@
         <v>0</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -3675,7 +3675,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>28</v>
@@ -3687,7 +3687,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>51</v>
@@ -3734,7 +3734,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>51</v>
@@ -3745,10 +3745,10 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="13" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C33" s="3" t="b">
         <v>0</v>
@@ -3757,7 +3757,7 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="13" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>28</v>
@@ -3769,10 +3769,10 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="13" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C35" s="3" t="b">
         <v>0</v>
@@ -3782,7 +3782,7 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>51</v>
@@ -3795,7 +3795,7 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>28</v>
@@ -3860,7 +3860,7 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B43" t="s">
         <v>51</v>
@@ -3869,13 +3869,13 @@
         <v>0</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E43" s="13"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B44" t="s">
         <v>51</v>
@@ -3886,7 +3886,7 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B45" t="s">
         <v>51</v>
@@ -3898,7 +3898,7 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B46" t="s">
         <v>51</v>

--- a/app/config/tables/CHILDREN/Forms/CHILDREN/CHILDREN.xlsx
+++ b/app/config/tables/CHILDREN/Forms/CHILDREN/CHILDREN.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{290BB221-7283-4AD8-BCDC-E3FE0BF0DF18}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{929DAEF2-1567-4843-997D-4B85048205C3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19320" yWindow="-2100" windowWidth="19440" windowHeight="15000" tabRatio="728" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="728" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
     <sheet name="survey" sheetId="12" r:id="rId2"/>
     <sheet name="choices" sheetId="3" r:id="rId3"/>
-    <sheet name="calculates" sheetId="7" r:id="rId4"/>
-    <sheet name="prompt_types" sheetId="6" r:id="rId5"/>
-    <sheet name="model" sheetId="4" r:id="rId6"/>
+    <sheet name="queries" sheetId="13" r:id="rId4"/>
+    <sheet name="calculates" sheetId="7" r:id="rId5"/>
+    <sheet name="prompt_types" sheetId="6" r:id="rId6"/>
+    <sheet name="model" sheetId="4" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="266">
   <si>
     <t>setting_name</t>
   </si>
@@ -735,6 +736,102 @@
   </si>
   <si>
     <t>(data("ESTADOCRI") != 2 &amp;&amp; data("ESTADOCRI") != 3) || ((data("ESTADOCRI") == 2 || data("ESTADOCRI") == 3) &amp;&amp; data("DATASAICRI") != null &amp;&amp; adate.ageInYears(data("DATASAICRI")) != -9999 &amp;&amp; adate.ageInYears(data("DATASAICRI")) &lt; 2019)</t>
+  </si>
+  <si>
+    <t>STICKERS</t>
+  </si>
+  <si>
+    <t>data("STICKERS") == "1"</t>
+  </si>
+  <si>
+    <t>STICKERSIMG</t>
+  </si>
+  <si>
+    <t>Are there any stickers on the card?</t>
+  </si>
+  <si>
+    <t>Há algum adesivo no cartão?</t>
+  </si>
+  <si>
+    <t>Please take a photo of the stickers</t>
+  </si>
+  <si>
+    <t>Por favor, tire uma foto dos adesivos</t>
+  </si>
+  <si>
+    <t>stickers.jpg</t>
+  </si>
+  <si>
+    <t>data("VACINFO") != "3"</t>
+  </si>
+  <si>
+    <t>data("STICKERS") != null || data("VACINFO") == "3"</t>
+  </si>
+  <si>
+    <t>GEM</t>
+  </si>
+  <si>
+    <t>async_assign_count</t>
+  </si>
+  <si>
+    <t>id_exist</t>
+  </si>
+  <si>
+    <t>query_name</t>
+  </si>
+  <si>
+    <t>query_type</t>
+  </si>
+  <si>
+    <t>linked_form_id</t>
+  </si>
+  <si>
+    <t>linked_table_id</t>
+  </si>
+  <si>
+    <t>selection</t>
+  </si>
+  <si>
+    <t>selectionArgs</t>
+  </si>
+  <si>
+    <t>newRowInitialElementKeyToValueMap</t>
+  </si>
+  <si>
+    <t>openRowInitialElementKeyToValueMap</t>
+  </si>
+  <si>
+    <t>fieldName</t>
+  </si>
+  <si>
+    <t>linked_table</t>
+  </si>
+  <si>
+    <t>{}</t>
+  </si>
+  <si>
+    <t>[data('IDCRI') ]</t>
+  </si>
+  <si>
+    <t>IDCRI = ?</t>
+  </si>
+  <si>
+    <t>display.hide_adate</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> if</t>
+  </si>
+  <si>
+    <t>assign</t>
+  </si>
+  <si>
+    <t>parseInt(data("IDCRI"))+1</t>
+  </si>
+  <si>
+    <t>data("idcount") &gt;1</t>
+  </si>
+  <si>
+    <t>idcount</t>
   </si>
 </sst>
 </file>
@@ -744,7 +841,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-406]General"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -805,6 +902,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -844,7 +955,7 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -861,7 +972,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -874,6 +984,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Excel Built-in Normal" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -1271,11 +1389,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB5FB9AA-D433-6046-85E1-401DEB18B3FD}">
-  <dimension ref="A1:R84"/>
+  <dimension ref="A1:S97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1286,7 +1404,7 @@
     <col min="4" max="4" width="22" style="14" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.85546875" style="13" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.7109375" style="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="46.28515625" style="17" customWidth="1"/>
+    <col min="7" max="7" width="46.28515625" style="16" customWidth="1"/>
     <col min="8" max="8" width="41" style="13" customWidth="1"/>
     <col min="9" max="9" width="29.85546875" style="13" customWidth="1"/>
     <col min="10" max="10" width="8.7109375" style="13" bestFit="1" customWidth="1"/>
@@ -1298,94 +1416,98 @@
     <col min="16" max="16" width="23.42578125" style="13" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="19.5703125" style="13" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="20.7109375" style="13" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="11.42578125" style="13"/>
+    <col min="19" max="19" width="18.140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="11.42578125" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:19" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Q1" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="R1" s="8" t="s">
+      <c r="R1" s="28" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S1" s="29" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B2" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="G2" s="23"/>
-    </row>
-    <row r="3" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G2" s="22"/>
+    </row>
+    <row r="3" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D3" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="G3" s="17" t="s">
+      <c r="G3" s="16" t="s">
         <v>231</v>
       </c>
       <c r="H3" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="4" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D4" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="G4" s="23" t="s">
+      <c r="G4" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="H4" s="23" t="s">
+      <c r="H4" s="22" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="5" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D5" s="11" t="s">
         <v>35</v>
       </c>
@@ -1396,7 +1518,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="6" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D6" s="11" t="s">
         <v>35</v>
       </c>
@@ -1407,18 +1529,18 @@
         <v>210</v>
       </c>
     </row>
-    <row r="7" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D7" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="G7" s="24" t="s">
+      <c r="G7" s="23" t="s">
         <v>211</v>
       </c>
-      <c r="H7" s="24" t="s">
+      <c r="H7" s="23" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="8" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D8" s="11" t="s">
         <v>35</v>
       </c>
@@ -1429,351 +1551,355 @@
         <v>214</v>
       </c>
     </row>
-    <row r="9" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D9" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="G9" s="23" t="s">
+      <c r="G9" s="22" t="s">
         <v>215</v>
       </c>
-      <c r="H9" s="23" t="s">
+      <c r="H9" s="22" t="s">
         <v>216</v>
       </c>
-      <c r="J9" s="11" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D10" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="G10" s="23" t="s">
+      <c r="G10" s="22" t="s">
         <v>225</v>
       </c>
-      <c r="H10" s="23" t="s">
+      <c r="H10" s="22" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="11" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="11" t="s">
+    <row r="11" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D11" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>265</v>
+      </c>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
+      <c r="S11" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="G11" s="23"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B12" s="13" t="s">
+      <c r="G12" s="22"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B13" s="13" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="D13" s="14" t="s">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="D14" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="G13" s="17" t="s">
+      <c r="G14" s="16" t="s">
         <v>231</v>
       </c>
-      <c r="H13" t="s">
+      <c r="H14" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="D14" s="14" t="s">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="D15" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F15" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="G14" s="17" t="s">
+      <c r="G15" s="16" t="s">
         <v>137</v>
       </c>
-      <c r="H14" s="13" t="s">
+      <c r="H15" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="J14" t="b">
+      <c r="J15" t="b">
         <v>1</v>
       </c>
-      <c r="K14" t="s">
+      <c r="K15" t="s">
         <v>164</v>
       </c>
-      <c r="P14" s="13" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B15" s="13" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="P15" s="13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B16" s="13" t="s">
-        <v>37</v>
-      </c>
+        <v>261</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>264</v>
+      </c>
+      <c r="F16" s="3"/>
+      <c r="H16" s="16"/>
+      <c r="J16"/>
+      <c r="K16"/>
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D17" s="14" t="s">
+        <v>262</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="H17" s="16"/>
+      <c r="I17" s="13" t="s">
+        <v>263</v>
+      </c>
+      <c r="J17"/>
+      <c r="K17"/>
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B18" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="F18" s="3"/>
+      <c r="H18" s="16"/>
+      <c r="J18"/>
+      <c r="K18"/>
+    </row>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B19" s="13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B20" s="13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D21" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="G17" s="17" t="s">
+      <c r="G21" s="16" t="s">
         <v>231</v>
       </c>
-      <c r="H17" t="s">
+      <c r="H21" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D18" s="14" t="s">
+    <row r="22" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D22" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="F18" s="13" t="s">
+      <c r="F22" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="G18" s="17" t="s">
+      <c r="G22" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="H18" s="17" t="s">
+      <c r="H22" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="J18" s="13" t="b">
+      <c r="J22" s="13" t="b">
         <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D19" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="E19" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="F19" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="G19" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="H19" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="J19" s="13" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D20" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="F20" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="G20" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="H20" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="J20" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="K20" s="13" t="s">
-        <v>165</v>
-      </c>
-      <c r="P20" s="13" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B21" s="13" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B22" s="13" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="23" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D23" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="G23" s="17" t="s">
-        <v>231</v>
-      </c>
-      <c r="H23" t="s">
-        <v>232</v>
+        <v>51</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="F23" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="G23" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="H23" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="J23" s="13" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D24" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="E24" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="F24" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="G24" s="22" t="s">
-        <v>90</v>
-      </c>
-      <c r="H24" s="22" t="s">
-        <v>116</v>
+      <c r="D24" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="F24" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="G24" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="H24" s="16" t="s">
+        <v>94</v>
       </c>
       <c r="J24" s="13" t="b">
         <v>1</v>
       </c>
+      <c r="K24" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="P24" s="13" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="25" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B25" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="C25" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="D25" s="13"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="22"/>
-      <c r="H25" s="22"/>
+        <v>38</v>
+      </c>
     </row>
     <row r="26" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D26" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="F26" s="14" t="s">
-        <v>219</v>
-      </c>
-      <c r="G26" t="s">
-        <v>141</v>
-      </c>
-      <c r="H26" t="s">
-        <v>142</v>
-      </c>
-      <c r="K26" t="s">
-        <v>233</v>
-      </c>
-      <c r="P26" s="13" t="b">
-        <v>0</v>
+      <c r="B26" s="13" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="27" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B27" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="D27" s="13"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="22"/>
-      <c r="H27" s="22"/>
+      <c r="D27" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="G27" s="16" t="s">
+        <v>231</v>
+      </c>
+      <c r="H27" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row r="28" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B28" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="D28" s="13"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="22"/>
-      <c r="H28" s="22"/>
+      <c r="D28" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="E28" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="F28" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="G28" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="H28" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="J28" s="13" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="29" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B29" s="13" t="s">
-        <v>37</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="D29" s="13"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="21"/>
+      <c r="H29" s="21"/>
     </row>
     <row r="30" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D30" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="G30" s="17" t="s">
-        <v>231</v>
+      <c r="D30" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="F30" s="14" t="s">
+        <v>219</v>
+      </c>
+      <c r="G30" t="s">
+        <v>141</v>
       </c>
       <c r="H30" t="s">
-        <v>232</v>
+        <v>142</v>
+      </c>
+      <c r="K30" t="s">
+        <v>233</v>
+      </c>
+      <c r="P30" s="13" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D31" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="E31" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="G31" s="22" t="s">
-        <v>107</v>
-      </c>
-      <c r="H31" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="J31" s="13" t="b">
-        <v>1</v>
-      </c>
+      <c r="B31" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="D31" s="13"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="21"/>
     </row>
     <row r="32" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D32" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="E32" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="F32" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="G32" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="H32" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="J32" s="13" t="b">
-        <v>1</v>
-      </c>
+      <c r="B32" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D32" s="13"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="21"/>
+      <c r="H32" s="21"/>
     </row>
     <row r="33" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B33" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="34" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B34" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="C34" s="13" t="s">
-        <v>111</v>
+      <c r="D34" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="G34" s="16" t="s">
+        <v>231</v>
+      </c>
+      <c r="H34" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="35" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B35" s="13" t="s">
-        <v>37</v>
+      <c r="D35" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="E35" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G35" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="H35" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="J35" s="13" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D36" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="G36" s="17" t="s">
-        <v>231</v>
-      </c>
-      <c r="H36" t="s">
-        <v>232</v>
+        <v>51</v>
+      </c>
+      <c r="E36" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="F36" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="G36" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="H36" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="J36" s="13" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D37" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="E37" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="F37" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="G37" s="17" t="s">
-        <v>125</v>
-      </c>
-      <c r="H37" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="K37" s="13" t="s">
-        <v>155</v>
+      <c r="B37" s="13" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="38" spans="2:16" x14ac:dyDescent="0.25">
@@ -1781,32 +1907,23 @@
         <v>68</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
     </row>
     <row r="39" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D39" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="F39" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="G39" s="17" t="s">
-        <v>127</v>
-      </c>
-      <c r="H39" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="K39" s="13" t="s">
-        <v>166</v>
-      </c>
-      <c r="P39" s="13" t="b">
-        <v>0</v>
+      <c r="B39" s="13" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="40" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B40" s="13" t="s">
-        <v>69</v>
+      <c r="D40" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="G40" s="16" t="s">
+        <v>231</v>
+      </c>
+      <c r="H40" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="41" spans="2:16" x14ac:dyDescent="0.25">
@@ -1816,17 +1933,17 @@
       <c r="E41" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="F41" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="G41" s="17" t="s">
-        <v>129</v>
+      <c r="F41" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="G41" s="16" t="s">
+        <v>125</v>
       </c>
       <c r="H41" s="13" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="K41" s="13" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
     </row>
     <row r="42" spans="2:16" x14ac:dyDescent="0.25">
@@ -1834,25 +1951,24 @@
         <v>68</v>
       </c>
       <c r="C42" s="13" t="s">
-        <v>175</v>
-      </c>
-      <c r="F42" s="3"/>
+        <v>126</v>
+      </c>
     </row>
     <row r="43" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D43" s="14" t="s">
         <v>28</v>
       </c>
       <c r="F43" s="13" t="s">
-        <v>173</v>
-      </c>
-      <c r="G43" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="G43" s="16" t="s">
         <v>127</v>
       </c>
       <c r="H43" s="13" t="s">
         <v>128</v>
       </c>
       <c r="K43" s="13" t="s">
-        <v>188</v>
+        <v>166</v>
       </c>
       <c r="P43" s="13" t="b">
         <v>0</v>
@@ -1864,44 +1980,57 @@
       </c>
     </row>
     <row r="45" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B45" s="13" t="s">
-        <v>38</v>
+      <c r="D45" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="E45" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="G45" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="H45" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="K45" s="13" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="46" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B46" s="13" t="s">
-        <v>37</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="C46" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="F46" s="3"/>
     </row>
     <row r="47" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D47" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="G47" s="17" t="s">
-        <v>231</v>
-      </c>
-      <c r="H47" t="s">
-        <v>232</v>
+        <v>28</v>
+      </c>
+      <c r="F47" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="G47" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="H47" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="K47" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="P47" s="13" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D48" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="E48" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="G48" s="22" t="s">
-        <v>144</v>
-      </c>
-      <c r="H48" s="13" t="s">
-        <v>145</v>
-      </c>
-      <c r="K48" s="13" t="s">
-        <v>156</v>
+      <c r="B48" s="13" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="49" spans="2:18" x14ac:dyDescent="0.25">
@@ -1911,372 +2040,497 @@
     </row>
     <row r="50" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B50" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="C50" s="13" t="s">
-        <v>177</v>
+        <v>37</v>
       </c>
     </row>
     <row r="51" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B51" s="13" t="s">
-        <v>37</v>
+      <c r="D51" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="G51" s="16" t="s">
+        <v>231</v>
+      </c>
+      <c r="H51" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="52" spans="2:18" x14ac:dyDescent="0.25">
       <c r="D52" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="G52" s="17" t="s">
-        <v>231</v>
-      </c>
-      <c r="H52" t="s">
-        <v>232</v>
+        <v>51</v>
+      </c>
+      <c r="E52" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="G52" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="H52" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="K52" s="13" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="53" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="D53" s="14" t="s">
-        <v>178</v>
-      </c>
-      <c r="E53" s="13" t="s">
-        <v>179</v>
-      </c>
-      <c r="F53" s="13" t="s">
-        <v>180</v>
-      </c>
-      <c r="G53" s="17" t="s">
-        <v>182</v>
-      </c>
-      <c r="H53" s="13" t="s">
-        <v>183</v>
-      </c>
-      <c r="K53" s="13" t="s">
-        <v>184</v>
+      <c r="B53" s="13" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="54" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="D54" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="F54" s="13" t="s">
-        <v>181</v>
-      </c>
-      <c r="G54" s="17" t="s">
-        <v>185</v>
-      </c>
-      <c r="H54" s="13" t="s">
-        <v>186</v>
-      </c>
-      <c r="K54" s="13" t="s">
-        <v>187</v>
+      <c r="B54" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="C54" s="13" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="55" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B55" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="56" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B56" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="C56" s="13" t="s">
-        <v>176</v>
+      <c r="D56" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="G56" s="16" t="s">
+        <v>231</v>
+      </c>
+      <c r="H56" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="57" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B57" s="13" t="s">
-        <v>37</v>
+      <c r="D57" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="E57" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="F57" s="13" t="s">
+        <v>180</v>
+      </c>
+      <c r="G57" s="16" t="s">
+        <v>182</v>
+      </c>
+      <c r="H57" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="K57" s="13" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="58" spans="2:18" x14ac:dyDescent="0.25">
       <c r="D58" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="G58" s="17" t="s">
-        <v>231</v>
-      </c>
-      <c r="H58" t="s">
-        <v>232</v>
+        <v>28</v>
+      </c>
+      <c r="F58" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="G58" s="16" t="s">
+        <v>185</v>
+      </c>
+      <c r="H58" s="13" t="s">
+        <v>186</v>
+      </c>
+      <c r="K58" s="13" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="59" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="D59" s="14" t="s">
-        <v>146</v>
-      </c>
-      <c r="F59" s="13" t="s">
-        <v>160</v>
-      </c>
-      <c r="G59" s="17" t="s">
-        <v>147</v>
-      </c>
-      <c r="H59" s="13" t="s">
-        <v>148</v>
-      </c>
-      <c r="L59" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="M59" s="13" t="s">
-        <v>154</v>
-      </c>
-      <c r="R59" s="13" t="s">
-        <v>150</v>
+      <c r="B59" s="13" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="60" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B60" s="13" t="s">
-        <v>38</v>
+        <v>68</v>
+      </c>
+      <c r="C60" s="13" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="61" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B61" s="13" t="s">
-        <v>69</v>
+        <v>37</v>
       </c>
     </row>
     <row r="62" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B62" s="13" t="s">
-        <v>69</v>
+      <c r="D62" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="G62" s="16" t="s">
+        <v>231</v>
+      </c>
+      <c r="H62" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="63" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B63" s="13" t="s">
-        <v>69</v>
+      <c r="D63" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="F63" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="G63" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="H63" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="L63" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="M63" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="R63" s="13" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="64" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B64" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="C64" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="D64" s="13"/>
-      <c r="F64" s="14"/>
-      <c r="G64" s="22"/>
-      <c r="H64" s="22"/>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B65" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="D65" s="13"/>
-      <c r="F65" s="14"/>
-      <c r="G65" s="22"/>
-      <c r="H65" s="22"/>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D66" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="G66" s="17" t="s">
-        <v>231</v>
-      </c>
-      <c r="H66" t="s">
-        <v>232</v>
-      </c>
-      <c r="K66"/>
-      <c r="L66"/>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D67" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="F67" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="G67" s="22" t="s">
-        <v>122</v>
-      </c>
-      <c r="H67" s="22" t="s">
-        <v>123</v>
-      </c>
-      <c r="K67" t="s">
-        <v>161</v>
-      </c>
-      <c r="L67" s="13" t="s">
-        <v>162</v>
-      </c>
-      <c r="M67" t="s">
-        <v>163</v>
-      </c>
-      <c r="N67" t="s">
-        <v>157</v>
-      </c>
-      <c r="O67" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B66" s="13" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B67" s="13" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B68" s="13" t="s">
         <v>68</v>
       </c>
       <c r="C68" s="13" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B69" s="13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="D70" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="G70" s="16" t="s">
+        <v>231</v>
+      </c>
+      <c r="H70" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="D71" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="E71" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="F71" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="G71" s="16" t="s">
+        <v>237</v>
+      </c>
+      <c r="H71" s="13" t="s">
+        <v>238</v>
+      </c>
+      <c r="K71" s="13" t="s">
+        <v>243</v>
+      </c>
+      <c r="R71" s="13" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B72" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="C72" s="13" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="D73" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="F73" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="G73" s="16" t="s">
+        <v>239</v>
+      </c>
+      <c r="H73" s="13" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B74" s="13" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B75" s="13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B76" s="13" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B77" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="C77" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="D77" s="13"/>
+      <c r="F77" s="14"/>
+      <c r="G77" s="21"/>
+      <c r="H77" s="21"/>
+    </row>
+    <row r="78" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B78" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D78" s="13"/>
+      <c r="F78" s="14"/>
+      <c r="G78" s="21"/>
+      <c r="H78" s="21"/>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="D79" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="G79" s="16" t="s">
+        <v>231</v>
+      </c>
+      <c r="H79" t="s">
+        <v>232</v>
+      </c>
+      <c r="K79"/>
+      <c r="L79"/>
+    </row>
+    <row r="80" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="D80" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="F80" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="G80" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="H80" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="K80" t="s">
+        <v>161</v>
+      </c>
+      <c r="L80" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="M80" t="s">
+        <v>163</v>
+      </c>
+      <c r="N80" t="s">
+        <v>157</v>
+      </c>
+      <c r="O80" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="81" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B81" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="C81" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="D68" s="13"/>
-      <c r="F68" s="14"/>
-      <c r="G68" s="22"/>
-      <c r="H68" s="22"/>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D69" s="3" t="s">
+      <c r="D81" s="13"/>
+      <c r="F81" s="14"/>
+      <c r="G81" s="21"/>
+      <c r="H81" s="21"/>
+    </row>
+    <row r="82" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D82" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="E69" s="13" t="s">
+      <c r="E82" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="F69" s="3" t="s">
+      <c r="F82" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="G69" s="22" t="s">
+      <c r="G82" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="H69" s="22" t="s">
+      <c r="H82" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="K69" s="13" t="s">
+      <c r="K82" s="13" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B70" s="13" t="s">
+    <row r="83" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B83" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="D70" s="13"/>
-      <c r="G70" s="13"/>
-      <c r="H70" s="22"/>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B71" s="13" t="s">
+      <c r="D83" s="13"/>
+      <c r="G83" s="13"/>
+      <c r="H83" s="21"/>
+    </row>
+    <row r="84" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B84" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="D71" s="13"/>
-      <c r="F71" s="14"/>
-      <c r="G71" s="22"/>
-      <c r="H71" s="22"/>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B72" s="13" t="s">
+      <c r="D84" s="13"/>
+      <c r="F84" s="14"/>
+      <c r="G84" s="21"/>
+      <c r="H84" s="21"/>
+    </row>
+    <row r="85" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B85" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="D72" s="13"/>
-      <c r="F72" s="14"/>
-      <c r="G72" s="22"/>
-      <c r="H72" s="22"/>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B73" s="13" t="s">
+      <c r="D85" s="13"/>
+      <c r="F85" s="14"/>
+      <c r="G85" s="21"/>
+      <c r="H85" s="21"/>
+    </row>
+    <row r="86" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B86" s="13" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D74" s="14" t="s">
+    <row r="87" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D87" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="G74" s="17" t="s">
+      <c r="G87" s="16" t="s">
         <v>231</v>
       </c>
-      <c r="H74" t="s">
+      <c r="H87" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D75" s="14" t="s">
+    <row r="88" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D88" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="E75" s="13" t="s">
+      <c r="E88" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="F75" s="13" t="s">
+      <c r="F88" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="G75" s="17" t="s">
+      <c r="G88" s="16" t="s">
         <v>131</v>
       </c>
-      <c r="H75" s="13" t="s">
+      <c r="H88" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="J75" s="13" t="b">
+      <c r="J88" s="13" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B76" s="13" t="s">
+    <row r="89" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B89" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="C76" s="13" t="s">
+      <c r="C89" s="13" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D77" s="14" t="s">
+    <row r="90" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D90" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="F77" s="13" t="s">
+      <c r="F90" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="G77" s="17" t="s">
+      <c r="G90" s="16" t="s">
         <v>133</v>
       </c>
-      <c r="H77" s="13" t="s">
+      <c r="H90" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="K77" s="13" t="s">
+      <c r="K90" s="13" t="s">
         <v>167</v>
       </c>
-      <c r="P77" s="13" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B78" s="13" t="s">
+      <c r="P90" s="13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B91" s="13" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B79" s="13" t="s">
+    <row r="92" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B92" s="13" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="80" spans="2:16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B80" t="s">
+    <row r="93" spans="2:16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B93" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="81" spans="2:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D81" t="s">
+    <row r="94" spans="2:16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D94" t="s">
         <v>35</v>
       </c>
-      <c r="G81" s="17" t="s">
+      <c r="G94" s="16" t="s">
         <v>231</v>
       </c>
-      <c r="H81" t="s">
+      <c r="H94" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="82" spans="2:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D82" t="s">
+    <row r="95" spans="2:16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D95" t="s">
         <v>35</v>
       </c>
-      <c r="G82" t="s">
+      <c r="G95" t="s">
         <v>203</v>
       </c>
-      <c r="H82" t="s">
+      <c r="H95" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="83" spans="2:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D83" t="s">
+    <row r="96" spans="2:16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D96" t="s">
         <v>35</v>
       </c>
-      <c r="G83" t="s">
+      <c r="G96" t="s">
         <v>205</v>
       </c>
-      <c r="H83" t="s">
+      <c r="H96" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="84" spans="2:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B84" t="s">
+    <row r="97" spans="2:2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B97" t="s">
         <v>38</v>
       </c>
     </row>
@@ -2291,7 +2545,7 @@
   <dimension ref="A1:F137"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -2697,7 +2951,7 @@
       <c r="A34" s="13"/>
       <c r="B34" s="13"/>
       <c r="C34" s="14"/>
-      <c r="D34" s="18"/>
+      <c r="D34" s="17"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="13"/>
@@ -2834,229 +3088,229 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="13"/>
-      <c r="B57" s="19"/>
+      <c r="B57" s="18"/>
       <c r="C57" s="14"/>
       <c r="D57" s="14"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="13"/>
-      <c r="B58" s="19"/>
+      <c r="B58" s="18"/>
       <c r="C58" s="14"/>
       <c r="D58" s="14"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="13"/>
-      <c r="B59" s="20"/>
-      <c r="C59" s="21"/>
-      <c r="D59" s="21"/>
+      <c r="B59" s="19"/>
+      <c r="C59" s="20"/>
+      <c r="D59" s="20"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="13"/>
-      <c r="B60" s="20"/>
-      <c r="C60" s="21"/>
-      <c r="D60" s="21"/>
+      <c r="B60" s="19"/>
+      <c r="C60" s="20"/>
+      <c r="D60" s="20"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="13"/>
-      <c r="B61" s="20"/>
-      <c r="C61" s="21"/>
-      <c r="D61" s="21"/>
+      <c r="B61" s="19"/>
+      <c r="C61" s="20"/>
+      <c r="D61" s="20"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="13"/>
-      <c r="B62" s="20"/>
-      <c r="C62" s="21"/>
-      <c r="D62" s="21"/>
+      <c r="B62" s="19"/>
+      <c r="C62" s="20"/>
+      <c r="D62" s="20"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="13"/>
-      <c r="B63" s="20"/>
-      <c r="C63" s="21"/>
-      <c r="D63" s="21"/>
+      <c r="B63" s="19"/>
+      <c r="C63" s="20"/>
+      <c r="D63" s="20"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="13"/>
-      <c r="B64" s="20"/>
-      <c r="C64" s="21"/>
-      <c r="D64" s="21"/>
+      <c r="B64" s="19"/>
+      <c r="C64" s="20"/>
+      <c r="D64" s="20"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="13"/>
-      <c r="B65" s="20"/>
-      <c r="C65" s="21"/>
-      <c r="D65" s="21"/>
+      <c r="B65" s="19"/>
+      <c r="C65" s="20"/>
+      <c r="D65" s="20"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="13"/>
-      <c r="B66" s="20"/>
-      <c r="C66" s="21"/>
-      <c r="D66" s="21"/>
+      <c r="B66" s="19"/>
+      <c r="C66" s="20"/>
+      <c r="D66" s="20"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="13"/>
-      <c r="B67" s="20"/>
-      <c r="C67" s="21"/>
-      <c r="D67" s="21"/>
+      <c r="B67" s="19"/>
+      <c r="C67" s="20"/>
+      <c r="D67" s="20"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="13"/>
-      <c r="B68" s="20"/>
-      <c r="C68" s="21"/>
-      <c r="D68" s="21"/>
+      <c r="B68" s="19"/>
+      <c r="C68" s="20"/>
+      <c r="D68" s="20"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="13"/>
-      <c r="B69" s="20"/>
-      <c r="C69" s="21"/>
-      <c r="D69" s="21"/>
+      <c r="B69" s="19"/>
+      <c r="C69" s="20"/>
+      <c r="D69" s="20"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="13"/>
-      <c r="B70" s="20"/>
-      <c r="C70" s="21"/>
-      <c r="D70" s="21"/>
+      <c r="B70" s="19"/>
+      <c r="C70" s="20"/>
+      <c r="D70" s="20"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="13"/>
-      <c r="B71" s="20"/>
-      <c r="C71" s="21"/>
-      <c r="D71" s="21"/>
+      <c r="B71" s="19"/>
+      <c r="C71" s="20"/>
+      <c r="D71" s="20"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="13"/>
-      <c r="B72" s="20"/>
-      <c r="C72" s="21"/>
-      <c r="D72" s="21"/>
+      <c r="B72" s="19"/>
+      <c r="C72" s="20"/>
+      <c r="D72" s="20"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="13"/>
-      <c r="B73" s="20"/>
-      <c r="C73" s="21"/>
-      <c r="D73" s="21"/>
+      <c r="B73" s="19"/>
+      <c r="C73" s="20"/>
+      <c r="D73" s="20"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="13"/>
-      <c r="B74" s="20"/>
-      <c r="C74" s="21"/>
-      <c r="D74" s="21"/>
+      <c r="B74" s="19"/>
+      <c r="C74" s="20"/>
+      <c r="D74" s="20"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="13"/>
-      <c r="B75" s="20"/>
-      <c r="C75" s="21"/>
-      <c r="D75" s="21"/>
+      <c r="B75" s="19"/>
+      <c r="C75" s="20"/>
+      <c r="D75" s="20"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="13"/>
-      <c r="B76" s="20"/>
-      <c r="C76" s="21"/>
-      <c r="D76" s="21"/>
+      <c r="B76" s="19"/>
+      <c r="C76" s="20"/>
+      <c r="D76" s="20"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="13"/>
-      <c r="B77" s="20"/>
-      <c r="C77" s="21"/>
-      <c r="D77" s="21"/>
+      <c r="B77" s="19"/>
+      <c r="C77" s="20"/>
+      <c r="D77" s="20"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="13"/>
-      <c r="B78" s="20"/>
-      <c r="C78" s="21"/>
-      <c r="D78" s="21"/>
+      <c r="B78" s="19"/>
+      <c r="C78" s="20"/>
+      <c r="D78" s="20"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="13"/>
-      <c r="B79" s="20"/>
-      <c r="C79" s="21"/>
-      <c r="D79" s="21"/>
+      <c r="B79" s="19"/>
+      <c r="C79" s="20"/>
+      <c r="D79" s="20"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="13"/>
-      <c r="B80" s="20"/>
-      <c r="C80" s="21"/>
-      <c r="D80" s="21"/>
+      <c r="B80" s="19"/>
+      <c r="C80" s="20"/>
+      <c r="D80" s="20"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="13"/>
-      <c r="B81" s="19"/>
+      <c r="B81" s="18"/>
       <c r="C81" s="14"/>
       <c r="D81" s="14"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="13"/>
-      <c r="B82" s="19"/>
+      <c r="B82" s="18"/>
       <c r="C82" s="14"/>
       <c r="D82" s="14"/>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="13"/>
-      <c r="B83" s="19"/>
-      <c r="C83" s="21"/>
-      <c r="D83" s="21"/>
+      <c r="B83" s="18"/>
+      <c r="C83" s="20"/>
+      <c r="D83" s="20"/>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="13"/>
-      <c r="B84" s="19"/>
-      <c r="C84" s="21"/>
+      <c r="B84" s="18"/>
+      <c r="C84" s="20"/>
       <c r="D84" s="14"/>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="13"/>
-      <c r="B85" s="19"/>
-      <c r="C85" s="21"/>
+      <c r="B85" s="18"/>
+      <c r="C85" s="20"/>
       <c r="D85" s="14"/>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="13"/>
-      <c r="B86" s="19"/>
+      <c r="B86" s="18"/>
       <c r="C86" s="15"/>
       <c r="D86" s="14"/>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="13"/>
-      <c r="B87" s="19"/>
+      <c r="B87" s="18"/>
       <c r="C87" s="15"/>
       <c r="D87" s="14"/>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="13"/>
-      <c r="B88" s="19"/>
+      <c r="B88" s="18"/>
       <c r="C88" s="14"/>
       <c r="D88" s="14"/>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="13"/>
-      <c r="B89" s="19"/>
+      <c r="B89" s="18"/>
       <c r="C89" s="15"/>
       <c r="D89" s="14"/>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="13"/>
-      <c r="B90" s="19"/>
+      <c r="B90" s="18"/>
       <c r="C90" s="15"/>
       <c r="D90" s="14"/>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="13"/>
-      <c r="B91" s="19"/>
+      <c r="B91" s="18"/>
       <c r="C91" s="15"/>
       <c r="D91" s="14"/>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="13"/>
-      <c r="B92" s="19"/>
+      <c r="B92" s="18"/>
       <c r="C92" s="15"/>
       <c r="D92" s="14"/>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="13"/>
-      <c r="B93" s="19"/>
+      <c r="B93" s="18"/>
       <c r="C93" s="15"/>
       <c r="D93" s="14"/>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="13"/>
-      <c r="B94" s="19"/>
+      <c r="B94" s="18"/>
       <c r="C94" s="15"/>
       <c r="D94" s="14"/>
     </row>
@@ -3086,13 +3340,13 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="13"/>
-      <c r="B99" s="19"/>
+      <c r="B99" s="18"/>
       <c r="C99" s="15"/>
       <c r="D99" s="14"/>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="13"/>
-      <c r="B100" s="19"/>
+      <c r="B100" s="18"/>
       <c r="C100" s="15"/>
       <c r="D100" s="14"/>
     </row>
@@ -3110,7 +3364,7 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="13"/>
-      <c r="B103" s="19"/>
+      <c r="B103" s="18"/>
       <c r="C103" s="15"/>
       <c r="D103" s="14"/>
     </row>
@@ -3134,7 +3388,7 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="13"/>
-      <c r="B107" s="19"/>
+      <c r="B107" s="18"/>
       <c r="C107" s="15"/>
       <c r="D107" s="14"/>
     </row>
@@ -3158,7 +3412,7 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="13"/>
-      <c r="B111" s="19"/>
+      <c r="B111" s="18"/>
       <c r="C111" s="15"/>
       <c r="D111" s="14"/>
     </row>
@@ -3188,7 +3442,7 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="13"/>
-      <c r="B116" s="19"/>
+      <c r="B116" s="18"/>
       <c r="C116" s="15"/>
       <c r="D116" s="14"/>
     </row>
@@ -3218,7 +3472,7 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="13"/>
-      <c r="B121" s="19"/>
+      <c r="B121" s="18"/>
       <c r="C121" s="14"/>
       <c r="D121" s="14"/>
     </row>
@@ -3306,6 +3560,86 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CF50546-A264-4839-B9D8-711921B9A7B2}">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G7" sqref="G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="36.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="37.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>249</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>250</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>251</v>
+      </c>
+      <c r="F1" s="24" t="s">
+        <v>252</v>
+      </c>
+      <c r="G1" s="24" t="s">
+        <v>253</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="B2" t="s">
+        <v>256</v>
+      </c>
+      <c r="C2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E2" t="s">
+        <v>259</v>
+      </c>
+      <c r="F2" t="s">
+        <v>258</v>
+      </c>
+      <c r="G2" s="25" t="s">
+        <v>257</v>
+      </c>
+      <c r="H2" s="25" t="s">
+        <v>257</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -3338,19 +3672,19 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E29" sqref="E29"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="34.140625" bestFit="1" customWidth="1"/>
   </cols>
@@ -3383,19 +3717,30 @@
         <v>29</v>
       </c>
     </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>245</v>
+      </c>
+      <c r="B3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" t="s">
+        <v>49</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:E51"/>
+  <dimension ref="A1:F55"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:D46"/>
+      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A23" sqref="A23:C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3611,50 +3956,48 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C22" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>230</v>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" s="3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>61</v>
+        <v>265</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>245</v>
       </c>
       <c r="C23" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="D23" s="13"/>
+        <v>1</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>230</v>
+      </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="B24" s="13" t="s">
-        <v>51</v>
+        <v>87</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="C24" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="D24" s="13"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>28</v>
+        <v>61</v>
       </c>
       <c r="C25" s="3" t="b">
         <v>0</v>
@@ -3663,19 +4006,19 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="B26" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B26" s="13" t="s">
         <v>51</v>
       </c>
       <c r="C26" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="D26" s="14"/>
+      <c r="D26" s="13"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>219</v>
+        <v>78</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>28</v>
@@ -3683,11 +4026,11 @@
       <c r="C27" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="D27" s="14"/>
+      <c r="D27" s="13"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>51</v>
@@ -3695,22 +4038,23 @@
       <c r="C28" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="D28" s="14"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>81</v>
+        <v>219</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="C29" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="D29" s="13"/>
+      <c r="D29" s="14"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>51</v>
@@ -3718,14 +4062,13 @@
       <c r="C30" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="D30" s="13"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="C31" s="3" t="b">
         <v>0</v>
@@ -3734,7 +4077,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>143</v>
+        <v>79</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>51</v>
@@ -3742,97 +4085,99 @@
       <c r="C32" s="3" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="13" t="s">
+      <c r="D32" s="13"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C33" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D33" s="13"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C34" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="13" t="s">
         <v>180</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B35" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="C33" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="D33" s="13"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="13" t="s">
+      <c r="C35" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D35" s="13"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="13" t="s">
         <v>181</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B36" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C34" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="E34" s="14"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="13" t="s">
+      <c r="C36" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E36" s="14"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="13" t="s">
         <v>160</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B37" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="C35" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="D35" s="13"/>
-      <c r="E35" s="14"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="3" t="s">
+      <c r="C37" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D37" s="13"/>
+      <c r="E37" s="14"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C38" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D38" s="13"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="13"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C39" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D39" s="13"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="13"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
         <v>172</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C36" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="D36" s="13"/>
-      <c r="E36" s="13"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C37" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="D37" s="13"/>
-      <c r="E37" s="13"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C38" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="D38" s="14"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C39" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="E39" s="13"/>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="3" t="s">
-        <v>85</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>51</v>
@@ -3841,10 +4186,11 @@
         <v>0</v>
       </c>
       <c r="D40" s="13"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="13" t="s">
-        <v>86</v>
+      <c r="E40" s="13"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
+        <v>173</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>28</v>
@@ -3855,89 +4201,138 @@
       <c r="D41" s="13"/>
       <c r="E41" s="13"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E42" s="13"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C42" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D42" s="14"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C43" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E43" s="13"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C44" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D44" s="13"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C45" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D45" s="13"/>
+      <c r="E45" s="13"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E46" s="13"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
         <v>168</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B47" t="s">
         <v>51</v>
       </c>
-      <c r="C43" t="b">
-        <v>0</v>
-      </c>
-      <c r="D43" s="3" t="s">
+      <c r="C47" t="b">
+        <v>0</v>
+      </c>
+      <c r="D47" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="E43" s="13"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+      <c r="E47" s="13"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
         <v>169</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B48" t="s">
         <v>51</v>
       </c>
-      <c r="C44" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+      <c r="C48" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
         <v>170</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B49" t="s">
         <v>51</v>
       </c>
-      <c r="C45" t="b">
-        <v>0</v>
-      </c>
-      <c r="E45" s="13"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+      <c r="C49" t="b">
+        <v>0</v>
+      </c>
+      <c r="E49" s="13"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
         <v>171</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B50" t="s">
         <v>51</v>
       </c>
-      <c r="C46" t="b">
-        <v>0</v>
-      </c>
-      <c r="E46" s="13"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47"/>
-      <c r="B47"/>
-      <c r="C47"/>
-      <c r="E47" s="13"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48"/>
-      <c r="B48"/>
-      <c r="C48"/>
-      <c r="E48" s="13"/>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49"/>
-      <c r="B49"/>
-      <c r="C49"/>
-      <c r="E49" s="14"/>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50"/>
-      <c r="B50"/>
-      <c r="C50"/>
-      <c r="E50" s="14"/>
+      <c r="C50" t="b">
+        <v>0</v>
+      </c>
+      <c r="E50" s="13"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51"/>
+      <c r="B51"/>
+      <c r="C51"/>
       <c r="E51" s="13"/>
     </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52"/>
+      <c r="B52"/>
+      <c r="C52"/>
+      <c r="E52" s="13"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53"/>
+      <c r="B53"/>
+      <c r="C53"/>
+      <c r="E53" s="14"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54"/>
+      <c r="B54"/>
+      <c r="C54"/>
+      <c r="E54" s="14"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E55" s="13"/>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="H4:H23">
-    <sortCondition ref="H4:H23"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="H4:H25">
+    <sortCondition ref="H4:H25"/>
   </sortState>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/app/config/tables/CHILDREN/Forms/CHILDREN/CHILDREN.xlsx
+++ b/app/config/tables/CHILDREN/Forms/CHILDREN/CHILDREN.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{929DAEF2-1567-4843-997D-4B85048205C3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{229F6F76-D617-4C04-BD8A-C018F38B8C88}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="728" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="287">
   <si>
     <t>setting_name</t>
   </si>
@@ -393,21 +393,12 @@
     <t>data("ESTADOCRI") == "1"</t>
   </si>
   <si>
-    <t>data("BCG") == "1"</t>
-  </si>
-  <si>
     <t>Is there a reaction where the child got the BCG vaccine?</t>
   </si>
   <si>
     <t>Existe alguma reação onde a criança tomou a vacina BCG?</t>
   </si>
   <si>
-    <t>Mid-upper-arm circumference</t>
-  </si>
-  <si>
-    <t>Circunferência do meio do braço</t>
-  </si>
-  <si>
     <t>A criança recebeu BCG?</t>
   </si>
   <si>
@@ -513,21 +504,12 @@
     <t>Deve estar entre 50 e 342 e um número par.</t>
   </si>
   <si>
-    <t>data("BCGREACT") != null || data("BCG") != 1</t>
-  </si>
-  <si>
     <t>VACINASIMG</t>
   </si>
   <si>
     <t>(data("MUAC")&gt;49 &amp;&amp; data("MUAC")&lt;343 &amp;&amp; data("MUAC")%2 == 0) || data("MUAC") == 999  || data("MUAC") == "11" || data('ESTADOCRI') != 1</t>
   </si>
   <si>
-    <t>If MUAC is less than 50mm write "11" &lt;/br&gt; Ft is not possible to measure MUAC write "999"</t>
-  </si>
-  <si>
-    <t>Se o braço for menor que 50 mm, escreva "11" &lt;/br&gt; Se não for possível medir o braço, escreva "999"</t>
-  </si>
-  <si>
     <t>not(adate.hasUncertainty(data("DATASEG"))) &amp;&amp; data("DATASEG") != null &amp;&amp; adate.ageInYears(data("DATASEG")) != -9999 &amp;&amp; adate.ageInYears(data("DATASEG")) &lt; 2019</t>
   </si>
   <si>
@@ -564,9 +546,6 @@
     <t>data("POLIO") != "2"</t>
   </si>
   <si>
-    <t xml:space="preserve"> data("VACINFO") != "3"</t>
-  </si>
-  <si>
     <t>data("VACINASOU") == "1"</t>
   </si>
   <si>
@@ -597,9 +576,6 @@
     <t>Data da primeira vacina recebida após a poliomielite ou BCG</t>
   </si>
   <si>
-    <t>data("OUTRODATA") != null || data("VACINASOU") !=1</t>
-  </si>
-  <si>
     <t>(data("POLIODATA") != null &amp;&amp; adate.ageInYears(data("POLIODATA")) != -9999 &amp;&amp; adate.ageInYears(data("POLIODATA")) &lt; 2019) || data("POLIO") != 1</t>
   </si>
   <si>
@@ -747,12 +723,6 @@
     <t>STICKERSIMG</t>
   </si>
   <si>
-    <t>Are there any stickers on the card?</t>
-  </si>
-  <si>
-    <t>Há algum adesivo no cartão?</t>
-  </si>
-  <si>
     <t>Please take a photo of the stickers</t>
   </si>
   <si>
@@ -832,6 +802,99 @@
   </si>
   <si>
     <t>idcount</t>
+  </si>
+  <si>
+    <t>data("BCGREACT") != null || data('ESTADOCRI') != 1</t>
+  </si>
+  <si>
+    <t>If the child has no name write "Bebe" &lt;/br&gt; If the name is unknown write "Não sabe"</t>
+  </si>
+  <si>
+    <t>Se a criança não tiver nome escreva "Bebe" &lt;/br&gt; Se o nome for desconhecido escreva "Não sabe"</t>
+  </si>
+  <si>
+    <t>VACINFOOU</t>
+  </si>
+  <si>
+    <t>Other:</t>
+  </si>
+  <si>
+    <t>Outro:</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Outro</t>
+  </si>
+  <si>
+    <t>data("VACINFO") == "4"</t>
+  </si>
+  <si>
+    <t>data("VACINFOOU") != null || data("VACINFO") != 4</t>
+  </si>
+  <si>
+    <t>The vaccine given in the left arm</t>
+  </si>
+  <si>
+    <t>A vacina dada no braço esquerdo</t>
+  </si>
+  <si>
+    <t>The vaccine given in the mouth</t>
+  </si>
+  <si>
+    <t>A vacina dada na boca</t>
+  </si>
+  <si>
+    <t>(data("OUTRODATA") != null &amp;&amp; adate.ageInYears(data("OUTRODATA")) != -9999 &amp;&amp; adate.ageInYears(data("OUTRODATA")) &lt; 2019) || data("VACINASOU") !=1</t>
+  </si>
+  <si>
+    <t>selected(data("OUTROVAC"),"Other")</t>
+  </si>
+  <si>
+    <t>OUTROVACOU</t>
+  </si>
+  <si>
+    <t>Which other vaccines?</t>
+  </si>
+  <si>
+    <t>Quais outras vacinas?</t>
+  </si>
+  <si>
+    <t>data("OUTROVACOU") != null || not(selected(data("OUTROVAC"),"Other"))</t>
+  </si>
+  <si>
+    <t>Please check the child's arm for scar</t>
+  </si>
+  <si>
+    <t>Por favor, verifique se há cicatriz no braço da criança</t>
+  </si>
+  <si>
+    <t>Are there any stickers or id numbers on the card?</t>
+  </si>
+  <si>
+    <t>Existe algum adesivo ou número de identificação no cartão?</t>
+  </si>
+  <si>
+    <t>Measure of the mid-upper-arm circumference</t>
+  </si>
+  <si>
+    <t>Medida da circunferência do braço</t>
+  </si>
+  <si>
+    <t>If MUAC is less than 50mm write "11" &lt;/br&gt; If it is not possible to measure MUAC write "999"</t>
+  </si>
+  <si>
+    <t>Se o MUAC for menor que 50 mm, escreva "11" &lt;/br&gt; Se não for possível medir o MUAC, escreva "999"</t>
+  </si>
+  <si>
+    <t>OBS</t>
+  </si>
+  <si>
+    <t>&lt;i&gt; If you have any comment or observations about the child, write them here &lt;/i&gt;</t>
+  </si>
+  <si>
+    <t>&lt;i&gt; Se você tiver algum comentário ou observação sobre a criança, escreva aqui &lt;/i&gt;</t>
   </si>
 </sst>
 </file>
@@ -1317,7 +1380,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -1333,7 +1396,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -1342,10 +1405,10 @@
       </c>
       <c r="B5" s="3"/>
       <c r="C5" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D5" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -1372,7 +1435,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="B8" t="s">
         <v>76</v>
@@ -1389,11 +1452,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB5FB9AA-D433-6046-85E1-401DEB18B3FD}">
-  <dimension ref="A1:S97"/>
+  <dimension ref="A1:S100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D19" sqref="D19"/>
+      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E98" sqref="E98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1473,10 +1536,10 @@
         <v>44</v>
       </c>
       <c r="R1" s="28" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="S1" s="29" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
     </row>
     <row r="2" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -1490,10 +1553,10 @@
         <v>35</v>
       </c>
       <c r="G3" s="16" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="H3" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
     </row>
     <row r="4" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -1501,10 +1564,10 @@
         <v>35</v>
       </c>
       <c r="G4" s="22" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="H4" s="22" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="5" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -1512,10 +1575,10 @@
         <v>35</v>
       </c>
       <c r="G5" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="H5" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
     </row>
     <row r="6" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -1523,10 +1586,10 @@
         <v>35</v>
       </c>
       <c r="G6" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="H6" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
     </row>
     <row r="7" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -1534,10 +1597,10 @@
         <v>35</v>
       </c>
       <c r="G7" s="23" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="H7" s="23" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
     </row>
     <row r="8" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -1545,10 +1608,10 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="H8" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
     </row>
     <row r="9" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -1556,10 +1619,10 @@
         <v>35</v>
       </c>
       <c r="G9" s="22" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="H9" s="22" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
     </row>
     <row r="10" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -1567,21 +1630,21 @@
         <v>35</v>
       </c>
       <c r="G10" s="22" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="H10" s="22" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
     </row>
     <row r="11" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D11" s="11" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="G11" s="22"/>
       <c r="H11" s="22"/>
@@ -1605,10 +1668,10 @@
         <v>35</v>
       </c>
       <c r="G14" s="16" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="H14" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
@@ -1619,16 +1682,16 @@
         <v>87</v>
       </c>
       <c r="G15" s="16" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="J15" t="b">
         <v>1</v>
       </c>
       <c r="K15" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="P15" s="13" t="b">
         <v>0</v>
@@ -1636,10 +1699,10 @@
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B16" s="13" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="F16" s="3"/>
       <c r="H16" s="16"/>
@@ -1648,14 +1711,14 @@
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D17" s="14" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="H17" s="16"/>
       <c r="I17" s="13" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="J17"/>
       <c r="K17"/>
@@ -1684,10 +1747,10 @@
         <v>35</v>
       </c>
       <c r="G21" s="16" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="H21" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
     </row>
     <row r="22" spans="2:16" x14ac:dyDescent="0.25">
@@ -1706,6 +1769,12 @@
       <c r="J22" s="13" t="b">
         <v>1</v>
       </c>
+      <c r="L22" s="13" t="s">
+        <v>257</v>
+      </c>
+      <c r="M22" s="13" t="s">
+        <v>258</v>
+      </c>
     </row>
     <row r="23" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D23" s="14" t="s">
@@ -1744,7 +1813,7 @@
         <v>1</v>
       </c>
       <c r="K24" s="13" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="P24" s="13" t="b">
         <v>0</v>
@@ -1765,10 +1834,10 @@
         <v>35</v>
       </c>
       <c r="G27" s="16" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="H27" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
     </row>
     <row r="28" spans="2:16" x14ac:dyDescent="0.25">
@@ -1808,16 +1877,16 @@
         <v>28</v>
       </c>
       <c r="F30" s="14" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="G30" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="H30" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="K30" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="P30" s="13" t="b">
         <v>0</v>
@@ -1851,10 +1920,10 @@
         <v>35</v>
       </c>
       <c r="G34" s="16" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="H34" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
     </row>
     <row r="35" spans="2:16" x14ac:dyDescent="0.25">
@@ -1899,472 +1968,470 @@
     </row>
     <row r="37" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B37" s="13" t="s">
-        <v>38</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="C37" s="13" t="s">
+        <v>264</v>
+      </c>
+      <c r="G37" s="21"/>
     </row>
     <row r="38" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B38" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="C38" s="13" t="s">
-        <v>111</v>
+      <c r="D38" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="F38" s="13" t="s">
+        <v>259</v>
+      </c>
+      <c r="G38" s="21" t="s">
+        <v>260</v>
+      </c>
+      <c r="H38" s="21" t="s">
+        <v>261</v>
+      </c>
+      <c r="K38" s="13" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="39" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B39" s="13" t="s">
-        <v>37</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="G39" s="21"/>
     </row>
     <row r="40" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D40" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="G40" s="16" t="s">
-        <v>231</v>
-      </c>
-      <c r="H40" t="s">
-        <v>232</v>
+      <c r="B40" s="13" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="41" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D41" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="E41" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="F41" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="G41" s="16" t="s">
-        <v>125</v>
-      </c>
-      <c r="H41" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="K41" s="13" t="s">
-        <v>155</v>
+      <c r="B41" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="C41" s="13" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="42" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B42" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="C42" s="13" t="s">
-        <v>126</v>
+        <v>37</v>
       </c>
     </row>
     <row r="43" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D43" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="G43" s="16" t="s">
+        <v>223</v>
+      </c>
+      <c r="H43" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D44" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="E44" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="F44" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="G44" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="H44" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="K44" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="L44" s="13" t="s">
+        <v>266</v>
+      </c>
+      <c r="M44" s="13" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B45" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="C45" s="13" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D46" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="F43" s="13" t="s">
+      <c r="F46" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="G43" s="16" t="s">
+      <c r="G46" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="H46" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="K46" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="P46" s="13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B47" s="13" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D48" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="E48" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="G48" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="H48" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="H43" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="K43" s="13" t="s">
-        <v>166</v>
-      </c>
-      <c r="P43" s="13" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B44" s="13" t="s">
+      <c r="K48" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="L48" s="13" t="s">
+        <v>268</v>
+      </c>
+      <c r="M48" s="13" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="49" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B49" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="C49" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="F49" s="3"/>
+    </row>
+    <row r="50" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D50" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="F50" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="G50" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="H50" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="K50" s="13" t="s">
+        <v>180</v>
+      </c>
+      <c r="P50" s="13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B51" s="13" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D45" s="14" t="s">
+    <row r="52" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B52" s="13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="53" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B53" s="13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="54" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D54" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="G54" s="16" t="s">
+        <v>223</v>
+      </c>
+      <c r="H54" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="55" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D55" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="E45" s="13" t="s">
+      <c r="E55" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="F45" s="3" t="s">
+      <c r="F55" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="G55" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="H55" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="K55" s="13" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="56" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B56" s="13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="57" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B57" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="C57" s="13" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="58" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B58" s="13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="59" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D59" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="G59" s="16" t="s">
+        <v>223</v>
+      </c>
+      <c r="H59" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="60" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D60" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="E60" s="13" t="s">
         <v>172</v>
       </c>
-      <c r="G45" s="16" t="s">
-        <v>129</v>
-      </c>
-      <c r="H45" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="K45" s="13" t="s">
+      <c r="F60" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="G60" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="H60" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="K60" s="13" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="61" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B61" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="C61" s="13" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="62" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D62" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="F62" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="G62" s="16" t="s">
+        <v>273</v>
+      </c>
+      <c r="H62" s="13" t="s">
+        <v>274</v>
+      </c>
+      <c r="K62" s="13" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="63" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B63" s="13" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="64" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D64" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="F64" s="13" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B46" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="C46" s="13" t="s">
-        <v>175</v>
-      </c>
-      <c r="F46" s="3"/>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D47" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="F47" s="13" t="s">
-        <v>173</v>
-      </c>
-      <c r="G47" s="16" t="s">
-        <v>127</v>
-      </c>
-      <c r="H47" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="K47" s="13" t="s">
-        <v>188</v>
-      </c>
-      <c r="P47" s="13" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B48" s="13" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="49" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B49" s="13" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="50" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B50" s="13" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="51" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="D51" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="G51" s="16" t="s">
-        <v>231</v>
-      </c>
-      <c r="H51" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="52" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="D52" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="E52" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="G52" s="21" t="s">
-        <v>144</v>
-      </c>
-      <c r="H52" s="13" t="s">
-        <v>145</v>
-      </c>
-      <c r="K52" s="13" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="53" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B53" s="13" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="54" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B54" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="C54" s="13" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="55" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B55" s="13" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="56" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="D56" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="G56" s="16" t="s">
-        <v>231</v>
-      </c>
-      <c r="H56" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="57" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="D57" s="14" t="s">
+      <c r="G64" s="16" t="s">
         <v>178</v>
       </c>
-      <c r="E57" s="13" t="s">
+      <c r="H64" s="13" t="s">
         <v>179</v>
       </c>
-      <c r="F57" s="13" t="s">
-        <v>180</v>
-      </c>
-      <c r="G57" s="16" t="s">
-        <v>182</v>
-      </c>
-      <c r="H57" s="13" t="s">
-        <v>183</v>
-      </c>
-      <c r="K57" s="13" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="58" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="D58" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="F58" s="13" t="s">
-        <v>181</v>
-      </c>
-      <c r="G58" s="16" t="s">
-        <v>185</v>
-      </c>
-      <c r="H58" s="13" t="s">
-        <v>186</v>
-      </c>
-      <c r="K58" s="13" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="59" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B59" s="13" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="60" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B60" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="C60" s="13" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="61" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B61" s="13" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="62" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="D62" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="G62" s="16" t="s">
-        <v>231</v>
-      </c>
-      <c r="H62" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="63" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="D63" s="14" t="s">
-        <v>146</v>
-      </c>
-      <c r="F63" s="13" t="s">
-        <v>160</v>
-      </c>
-      <c r="G63" s="16" t="s">
-        <v>147</v>
-      </c>
-      <c r="H63" s="13" t="s">
-        <v>148</v>
-      </c>
-      <c r="L63" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="M63" s="13" t="s">
-        <v>154</v>
-      </c>
-      <c r="R63" s="13" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="64" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B64" s="13" t="s">
-        <v>38</v>
+      <c r="K64" s="13" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="65" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B65" s="13" t="s">
-        <v>69</v>
+        <v>38</v>
       </c>
     </row>
     <row r="66" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B66" s="13" t="s">
-        <v>69</v>
+        <v>37</v>
       </c>
     </row>
     <row r="67" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B67" s="13" t="s">
-        <v>69</v>
+      <c r="D67" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="G67" s="16" t="s">
+        <v>223</v>
+      </c>
+      <c r="H67" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="68" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B68" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="C68" s="13" t="s">
-        <v>242</v>
+      <c r="D68" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="F68" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="G68" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="H68" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="L68" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="M68" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="R68" s="13" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="69" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B69" s="13" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="70" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="D70" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="G70" s="16" t="s">
-        <v>231</v>
-      </c>
-      <c r="H70" t="s">
-        <v>232</v>
+      <c r="B70" s="13" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="71" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="D71" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="E71" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="F71" s="13" t="s">
-        <v>234</v>
-      </c>
-      <c r="G71" s="16" t="s">
-        <v>237</v>
-      </c>
-      <c r="H71" s="13" t="s">
-        <v>238</v>
-      </c>
-      <c r="K71" s="13" t="s">
-        <v>243</v>
-      </c>
-      <c r="R71" s="13" t="s">
-        <v>241</v>
+      <c r="B71" s="13" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="72" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B72" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="C72" s="13" t="s">
-        <v>235</v>
+      <c r="C72" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="73" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="D73" s="14" t="s">
-        <v>146</v>
-      </c>
-      <c r="F73" s="13" t="s">
-        <v>236</v>
-      </c>
-      <c r="G73" s="16" t="s">
-        <v>239</v>
-      </c>
-      <c r="H73" s="13" t="s">
-        <v>240</v>
+      <c r="B73" s="13" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="74" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B74" s="13" t="s">
-        <v>69</v>
+      <c r="D74" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="G74" s="16" t="s">
+        <v>223</v>
+      </c>
+      <c r="H74" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="75" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B75" s="13" t="s">
-        <v>38</v>
+      <c r="D75" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="E75" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="F75" s="13" t="s">
+        <v>226</v>
+      </c>
+      <c r="G75" t="s">
+        <v>278</v>
+      </c>
+      <c r="H75" t="s">
+        <v>279</v>
+      </c>
+      <c r="K75" s="13" t="s">
+        <v>233</v>
+      </c>
+      <c r="R75" s="13" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="76" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B76" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
+      </c>
+      <c r="C76" s="13" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="77" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B77" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="C77" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="D77" s="13"/>
-      <c r="F77" s="14"/>
-      <c r="G77" s="21"/>
-      <c r="H77" s="21"/>
+      <c r="D77" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="F77" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="G77" s="16" t="s">
+        <v>229</v>
+      </c>
+      <c r="H77" s="13" t="s">
+        <v>230</v>
+      </c>
     </row>
     <row r="78" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B78" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="D78" s="13"/>
-      <c r="F78" s="14"/>
-      <c r="G78" s="21"/>
-      <c r="H78" s="21"/>
+        <v>69</v>
+      </c>
     </row>
     <row r="79" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="D79" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="G79" s="16" t="s">
-        <v>231</v>
-      </c>
-      <c r="H79" t="s">
-        <v>232</v>
-      </c>
-      <c r="K79"/>
-      <c r="L79"/>
+      <c r="B79" s="13" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="80" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="D80" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="F80" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="G80" s="21" t="s">
-        <v>122</v>
-      </c>
-      <c r="H80" s="21" t="s">
-        <v>123</v>
-      </c>
-      <c r="K80" t="s">
-        <v>161</v>
-      </c>
-      <c r="L80" s="13" t="s">
-        <v>162</v>
-      </c>
-      <c r="M80" t="s">
-        <v>163</v>
-      </c>
-      <c r="N80" t="s">
-        <v>157</v>
-      </c>
-      <c r="O80" t="s">
-        <v>158</v>
+      <c r="B80" s="13" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="81" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B81" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="C81" s="13" t="s">
-        <v>119</v>
+      <c r="C81" t="s">
+        <v>118</v>
       </c>
       <c r="D81" s="13"/>
       <c r="F81" s="14"/>
@@ -2372,167 +2439,242 @@
       <c r="H81" s="21"/>
     </row>
     <row r="82" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D82" s="3" t="s">
+      <c r="B82" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D82" s="13"/>
+      <c r="F82" s="14"/>
+      <c r="G82" s="21"/>
+      <c r="H82" s="21"/>
+    </row>
+    <row r="83" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D83" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="G83" s="16" t="s">
+        <v>223</v>
+      </c>
+      <c r="H83" t="s">
+        <v>224</v>
+      </c>
+      <c r="K83"/>
+      <c r="L83"/>
+    </row>
+    <row r="84" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D84" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="F84" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="G84" t="s">
+        <v>280</v>
+      </c>
+      <c r="H84" t="s">
+        <v>281</v>
+      </c>
+      <c r="I84"/>
+      <c r="J84"/>
+      <c r="K84" t="s">
+        <v>157</v>
+      </c>
+      <c r="L84" t="s">
+        <v>282</v>
+      </c>
+      <c r="M84" t="s">
+        <v>283</v>
+      </c>
+      <c r="N84" t="s">
+        <v>154</v>
+      </c>
+      <c r="O84" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="85" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D85" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="E82" s="13" t="s">
+      <c r="E85" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="F82" s="3" t="s">
+      <c r="F85" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="G82" s="21" t="s">
+      <c r="G85" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="H85" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="H82" s="21" t="s">
-        <v>121</v>
-      </c>
-      <c r="K82" s="13" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="83" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B83" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="D83" s="13"/>
-      <c r="G83" s="13"/>
-      <c r="H83" s="21"/>
-    </row>
-    <row r="84" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B84" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="D84" s="13"/>
-      <c r="F84" s="14"/>
-      <c r="G84" s="21"/>
-      <c r="H84" s="21"/>
-    </row>
-    <row r="85" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B85" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="D85" s="13"/>
-      <c r="F85" s="14"/>
-      <c r="G85" s="21"/>
-      <c r="H85" s="21"/>
+      <c r="K85" t="s">
+        <v>256</v>
+      </c>
+      <c r="L85" s="13" t="s">
+        <v>276</v>
+      </c>
+      <c r="M85" s="13" t="s">
+        <v>277</v>
+      </c>
     </row>
     <row r="86" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B86" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D86" s="13"/>
+      <c r="F86" s="14"/>
+      <c r="G86" s="21"/>
+      <c r="H86" s="21"/>
+    </row>
+    <row r="87" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B87" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="D87" s="13"/>
+      <c r="F87" s="14"/>
+      <c r="G87" s="21"/>
+      <c r="H87" s="21"/>
+    </row>
+    <row r="88" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B88" s="13" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="87" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D87" s="14" t="s">
+    <row r="89" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C89"/>
+      <c r="D89" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="G87" s="16" t="s">
-        <v>231</v>
-      </c>
-      <c r="H87" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="88" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D88" s="14" t="s">
+      <c r="G89" s="16" t="s">
+        <v>223</v>
+      </c>
+      <c r="H89" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="90" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C90"/>
+      <c r="D90" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="E88" s="13" t="s">
+      <c r="E90" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="F88" s="13" t="s">
+      <c r="F90" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="G88" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="H88" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="J88" s="13" t="b">
+      <c r="G90" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="H90" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="J90" s="13" t="b">
         <v>1</v>
-      </c>
-    </row>
-    <row r="89" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B89" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="C89" s="13" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="90" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D90" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="F90" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="G90" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="H90" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="K90" s="13" t="s">
-        <v>167</v>
-      </c>
-      <c r="P90" s="13" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="91" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B91" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="C91" s="13" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="92" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C92"/>
+      <c r="D92" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="F92" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="G92" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="H92" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="K92" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="P92" s="13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B93" s="13" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="92" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B92" s="13" t="s">
+      <c r="C93"/>
+    </row>
+    <row r="94" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B94" s="13" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="93" spans="2:16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B93" t="s">
+    <row r="95" spans="2:16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B95" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="94" spans="2:16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D94" t="s">
-        <v>35</v>
-      </c>
-      <c r="G94" s="16" t="s">
-        <v>231</v>
-      </c>
-      <c r="H94" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="95" spans="2:16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D95" t="s">
-        <v>35</v>
-      </c>
-      <c r="G95" t="s">
-        <v>203</v>
-      </c>
-      <c r="H95" t="s">
-        <v>204</v>
-      </c>
+      <c r="C95" s="13"/>
     </row>
     <row r="96" spans="2:16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C96" s="13"/>
       <c r="D96" t="s">
         <v>35</v>
       </c>
-      <c r="G96" t="s">
-        <v>205</v>
+      <c r="G96" s="16" t="s">
+        <v>223</v>
       </c>
       <c r="H96" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="97" spans="2:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B97" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="97" spans="2:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C97" s="13"/>
+      <c r="D97" t="s">
+        <v>35</v>
+      </c>
+      <c r="G97" t="s">
+        <v>195</v>
+      </c>
+      <c r="H97" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="98" spans="2:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C98" s="13"/>
+      <c r="D98" t="s">
+        <v>35</v>
+      </c>
+      <c r="G98" t="s">
+        <v>197</v>
+      </c>
+      <c r="H98" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="99" spans="2:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C99" s="13"/>
+      <c r="D99" t="s">
+        <v>61</v>
+      </c>
+      <c r="F99" t="s">
+        <v>284</v>
+      </c>
+      <c r="G99" t="s">
+        <v>285</v>
+      </c>
+      <c r="H99" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="100" spans="2:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B100" t="s">
         <v>38</v>
       </c>
+      <c r="C100" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2542,11 +2684,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:F137"/>
+  <dimension ref="A1:F138"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2836,104 +2978,121 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="13"/>
-      <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
+      <c r="A22" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="B22" s="13" t="str">
+        <f>"4"</f>
+        <v>4</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>262</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>263</v>
+      </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="13" t="s">
-        <v>179</v>
-      </c>
-      <c r="B23" s="13" t="s">
+      <c r="A23" s="13"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>182</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="D24" s="13" t="s">
         <v>190</v>
       </c>
-      <c r="C23" s="13" t="s">
-        <v>196</v>
-      </c>
-      <c r="D23" s="13" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="13" t="s">
-        <v>179</v>
-      </c>
-      <c r="B24" s="11" t="s">
-        <v>202</v>
-      </c>
-      <c r="C24" s="13" t="s">
-        <v>189</v>
-      </c>
-      <c r="D24" s="11" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="13" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>191</v>
-      </c>
-      <c r="C25" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>181</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
     </row>
     <row r="26" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="13" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
     </row>
     <row r="27" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="13" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="D27" s="11" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="28" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="13"/>
-      <c r="B28" s="13"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
+      <c r="A28" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>185</v>
+      </c>
     </row>
     <row r="29" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="13"/>
-      <c r="B29" s="13"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="11"/>
+      <c r="A29" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>263</v>
+      </c>
     </row>
     <row r="30" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="11"/>
-      <c r="B30" s="11"/>
+      <c r="A30" s="13"/>
+      <c r="B30" s="13"/>
       <c r="C30" s="11"/>
       <c r="D30" s="11"/>
     </row>
     <row r="31" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="13"/>
-      <c r="B31" s="13"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
+      <c r="A31" s="11"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
     </row>
     <row r="32" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="13"/>
@@ -2947,28 +3106,28 @@
       <c r="C33" s="14"/>
       <c r="D33" s="14"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="13"/>
       <c r="B34" s="13"/>
       <c r="C34" s="14"/>
-      <c r="D34" s="17"/>
+      <c r="D34" s="14"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="13"/>
       <c r="B35" s="13"/>
       <c r="C35" s="14"/>
-      <c r="D35" s="14"/>
-      <c r="F35" s="13"/>
+      <c r="D35" s="17"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="13"/>
       <c r="B36" s="13"/>
       <c r="C36" s="14"/>
       <c r="D36" s="14"/>
+      <c r="F36" s="13"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="13"/>
-      <c r="B37" s="11"/>
+      <c r="B37" s="13"/>
       <c r="C37" s="14"/>
       <c r="D37" s="14"/>
     </row>
@@ -2992,17 +3151,17 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="13"/>
-      <c r="B41" s="13"/>
+      <c r="B41" s="11"/>
       <c r="C41" s="14"/>
       <c r="D41" s="14"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="13"/>
       <c r="B42" s="13"/>
-      <c r="C42" s="13"/>
-      <c r="D42" s="13"/>
-    </row>
-    <row r="43" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="13"/>
       <c r="B43" s="13"/>
       <c r="C43" s="13"/>
@@ -3016,7 +3175,7 @@
     </row>
     <row r="45" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="13"/>
-      <c r="B45" s="11"/>
+      <c r="B45" s="13"/>
       <c r="C45" s="13"/>
       <c r="D45" s="13"/>
     </row>
@@ -3027,16 +3186,16 @@
       <c r="D46" s="13"/>
     </row>
     <row r="47" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="11"/>
+      <c r="A47" s="13"/>
       <c r="B47" s="11"/>
-      <c r="C47" s="11"/>
-      <c r="D47" s="11"/>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="13"/>
-      <c r="B48" s="13"/>
-      <c r="C48" s="14"/>
-      <c r="D48" s="14"/>
+      <c r="C47" s="13"/>
+      <c r="D47" s="13"/>
+    </row>
+    <row r="48" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="11"/>
+      <c r="B48" s="11"/>
+      <c r="C48" s="11"/>
+      <c r="D48" s="11"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="13"/>
@@ -3051,13 +3210,13 @@
       <c r="D50" s="14"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="14"/>
+      <c r="A51" s="13"/>
       <c r="B51" s="13"/>
       <c r="C51" s="14"/>
       <c r="D51" s="14"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="13"/>
+      <c r="A52" s="14"/>
       <c r="B52" s="13"/>
       <c r="C52" s="14"/>
       <c r="D52" s="14"/>
@@ -3088,7 +3247,7 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="13"/>
-      <c r="B57" s="18"/>
+      <c r="B57" s="13"/>
       <c r="C57" s="14"/>
       <c r="D57" s="14"/>
     </row>
@@ -3100,9 +3259,9 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="13"/>
-      <c r="B59" s="19"/>
-      <c r="C59" s="20"/>
-      <c r="D59" s="20"/>
+      <c r="B59" s="18"/>
+      <c r="C59" s="14"/>
+      <c r="D59" s="14"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="13"/>
@@ -3232,9 +3391,9 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="13"/>
-      <c r="B81" s="18"/>
-      <c r="C81" s="14"/>
-      <c r="D81" s="14"/>
+      <c r="B81" s="19"/>
+      <c r="C81" s="20"/>
+      <c r="D81" s="20"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="13"/>
@@ -3245,14 +3404,14 @@
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="13"/>
       <c r="B83" s="18"/>
-      <c r="C83" s="20"/>
-      <c r="D83" s="20"/>
+      <c r="C83" s="14"/>
+      <c r="D83" s="14"/>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="13"/>
       <c r="B84" s="18"/>
       <c r="C84" s="20"/>
-      <c r="D84" s="14"/>
+      <c r="D84" s="20"/>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="13"/>
@@ -3263,7 +3422,7 @@
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="13"/>
       <c r="B86" s="18"/>
-      <c r="C86" s="15"/>
+      <c r="C86" s="20"/>
       <c r="D86" s="14"/>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
@@ -3275,13 +3434,13 @@
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="13"/>
       <c r="B88" s="18"/>
-      <c r="C88" s="14"/>
+      <c r="C88" s="15"/>
       <c r="D88" s="14"/>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="13"/>
       <c r="B89" s="18"/>
-      <c r="C89" s="15"/>
+      <c r="C89" s="14"/>
       <c r="D89" s="14"/>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
@@ -3316,7 +3475,7 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="13"/>
-      <c r="B95" s="13"/>
+      <c r="B95" s="18"/>
       <c r="C95" s="15"/>
       <c r="D95" s="14"/>
     </row>
@@ -3340,7 +3499,7 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="13"/>
-      <c r="B99" s="18"/>
+      <c r="B99" s="13"/>
       <c r="C99" s="15"/>
       <c r="D99" s="14"/>
     </row>
@@ -3352,7 +3511,7 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="13"/>
-      <c r="B101" s="13"/>
+      <c r="B101" s="18"/>
       <c r="C101" s="15"/>
       <c r="D101" s="14"/>
     </row>
@@ -3364,13 +3523,13 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="13"/>
-      <c r="B103" s="18"/>
+      <c r="B103" s="13"/>
       <c r="C103" s="15"/>
       <c r="D103" s="14"/>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="13"/>
-      <c r="B104" s="13"/>
+      <c r="B104" s="18"/>
       <c r="C104" s="15"/>
       <c r="D104" s="14"/>
     </row>
@@ -3388,13 +3547,13 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="13"/>
-      <c r="B107" s="18"/>
+      <c r="B107" s="13"/>
       <c r="C107" s="15"/>
       <c r="D107" s="14"/>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="13"/>
-      <c r="B108" s="13"/>
+      <c r="B108" s="18"/>
       <c r="C108" s="15"/>
       <c r="D108" s="14"/>
     </row>
@@ -3407,18 +3566,18 @@
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="13"/>
       <c r="B110" s="13"/>
-      <c r="C110" s="14"/>
+      <c r="C110" s="15"/>
       <c r="D110" s="14"/>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="13"/>
-      <c r="B111" s="18"/>
-      <c r="C111" s="15"/>
+      <c r="B111" s="13"/>
+      <c r="C111" s="14"/>
       <c r="D111" s="14"/>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="13"/>
-      <c r="B112" s="13"/>
+      <c r="B112" s="18"/>
       <c r="C112" s="15"/>
       <c r="D112" s="14"/>
     </row>
@@ -3442,13 +3601,13 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="13"/>
-      <c r="B116" s="18"/>
+      <c r="B116" s="13"/>
       <c r="C116" s="15"/>
       <c r="D116" s="14"/>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="13"/>
-      <c r="B117" s="13"/>
+      <c r="B117" s="18"/>
       <c r="C117" s="15"/>
       <c r="D117" s="14"/>
     </row>
@@ -3461,7 +3620,7 @@
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="13"/>
       <c r="B119" s="13"/>
-      <c r="C119" s="14"/>
+      <c r="C119" s="15"/>
       <c r="D119" s="14"/>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
@@ -3472,20 +3631,21 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="13"/>
-      <c r="B121" s="18"/>
+      <c r="B121" s="13"/>
       <c r="C121" s="14"/>
       <c r="D121" s="14"/>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B122" s="6"/>
+      <c r="A122" s="13"/>
+      <c r="B122" s="18"/>
+      <c r="C122" s="14"/>
+      <c r="D122" s="14"/>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B123" s="6"/>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B124" s="6"/>
-      <c r="C124"/>
-      <c r="D124"/>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B125" s="6"/>
@@ -3551,6 +3711,11 @@
       <c r="B137" s="6"/>
       <c r="C137"/>
       <c r="D137"/>
+    </row>
+    <row r="138" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B138" s="6"/>
+      <c r="C138"/>
+      <c r="D138"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -3581,57 +3746,57 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="C1" s="24" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="D1" s="24" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="E1" s="24" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="F1" s="24" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="G1" s="24" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="B2" t="s">
         <v>246</v>
       </c>
-      <c r="B2" t="s">
-        <v>256</v>
-      </c>
       <c r="C2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="E2" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="F2" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="G2" s="25" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="H2" s="25" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
     </row>
   </sheetData>
@@ -3719,7 +3884,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="B3" t="s">
         <v>49</v>
@@ -3736,11 +3901,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:F55"/>
+  <dimension ref="A1:F58"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A23" sqref="A23:C23"/>
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3777,7 +3942,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -3870,7 +4035,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>49</v>
@@ -3881,7 +4046,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>61</v>
@@ -3892,7 +4057,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>61</v>
@@ -3914,7 +4079,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>61</v>
@@ -3925,7 +4090,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>51</v>
@@ -3936,7 +4101,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>28</v>
@@ -3947,7 +4112,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>61</v>
@@ -3958,7 +4123,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="B21" s="13" t="s">
         <v>51</v>
@@ -3969,16 +4134,16 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="C23" s="3" t="b">
         <v>1</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -4042,7 +4207,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>28</v>
@@ -4077,10 +4242,10 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>79</v>
+        <v>259</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="C32" s="3" t="b">
         <v>0</v>
@@ -4089,10 +4254,10 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="C33" s="3" t="b">
         <v>0</v>
@@ -4101,83 +4266,79 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>143</v>
+        <v>80</v>
       </c>
       <c r="B34" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C34" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D34" s="13"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B35" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C34" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="13" t="s">
-        <v>180</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>178</v>
-      </c>
       <c r="C35" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="D35" s="13"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="13" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>28</v>
+        <v>171</v>
       </c>
       <c r="C36" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="E36" s="14"/>
+      <c r="D36" s="13"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="13" t="s">
-        <v>160</v>
+        <v>272</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>146</v>
+        <v>61</v>
       </c>
       <c r="C37" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D37" s="13"/>
-      <c r="E37" s="14"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="13" t="s">
-        <v>234</v>
+        <v>174</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="C38" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="D38" s="13"/>
       <c r="E38" s="14"/>
-      <c r="F38" s="13"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="13" t="s">
-        <v>236</v>
+        <v>156</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C39" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D39" s="13"/>
       <c r="E39" s="14"/>
-      <c r="F39" s="13"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="3" t="s">
-        <v>172</v>
+      <c r="A40" s="13" t="s">
+        <v>226</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>51</v>
@@ -4186,114 +4347,117 @@
         <v>0</v>
       </c>
       <c r="D40" s="13"/>
-      <c r="E40" s="13"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="13"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="3" t="s">
-        <v>173</v>
+      <c r="A41" s="13" t="s">
+        <v>228</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>28</v>
+        <v>143</v>
       </c>
       <c r="C41" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D41" s="13"/>
-      <c r="E41" s="13"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="13"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>83</v>
+        <v>166</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C42" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="D42" s="14"/>
+      <c r="D42" s="13"/>
+      <c r="E42" s="13"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>84</v>
+        <v>167</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="C43" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="D43" s="13"/>
       <c r="E43" s="13"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C44" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D44" s="14"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C45" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E45" s="13"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="B44" s="3" t="s">
+      <c r="B46" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C44" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="D44" s="13"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="13" t="s">
+      <c r="C46" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D46" s="13"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="B45" s="3" t="s">
+      <c r="B47" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C45" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="D45" s="13"/>
-      <c r="E45" s="13"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E46" s="13"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>168</v>
-      </c>
-      <c r="B47" t="s">
-        <v>51</v>
-      </c>
-      <c r="C47" t="b">
-        <v>0</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>227</v>
-      </c>
+      <c r="C47" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D47" s="13"/>
       <c r="E47" s="13"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>169</v>
-      </c>
-      <c r="B48" t="s">
-        <v>51</v>
-      </c>
-      <c r="C48" t="b">
-        <v>0</v>
-      </c>
+      <c r="A48" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C48" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D48" s="13"/>
+      <c r="E48" s="13"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>170</v>
-      </c>
-      <c r="B49" t="s">
-        <v>51</v>
-      </c>
-      <c r="C49" t="b">
-        <v>0</v>
-      </c>
       <c r="E49" s="13"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="B50" t="s">
         <v>51</v>
@@ -4301,34 +4465,72 @@
       <c r="C50" t="b">
         <v>0</v>
       </c>
+      <c r="D50" s="3" t="s">
+        <v>219</v>
+      </c>
       <c r="E50" s="13"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51"/>
-      <c r="B51"/>
-      <c r="C51"/>
-      <c r="E51" s="13"/>
+      <c r="A51" t="s">
+        <v>163</v>
+      </c>
+      <c r="B51" t="s">
+        <v>51</v>
+      </c>
+      <c r="C51" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52"/>
-      <c r="B52"/>
-      <c r="C52"/>
+      <c r="A52" t="s">
+        <v>164</v>
+      </c>
+      <c r="B52" t="s">
+        <v>51</v>
+      </c>
+      <c r="C52" t="b">
+        <v>0</v>
+      </c>
       <c r="E52" s="13"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53"/>
-      <c r="B53"/>
-      <c r="C53"/>
-      <c r="E53" s="14"/>
+      <c r="A53" t="s">
+        <v>165</v>
+      </c>
+      <c r="B53" t="s">
+        <v>51</v>
+      </c>
+      <c r="C53" t="b">
+        <v>0</v>
+      </c>
+      <c r="E53" s="13"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54"/>
       <c r="B54"/>
       <c r="C54"/>
-      <c r="E54" s="14"/>
+      <c r="E54" s="13"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55"/>
+      <c r="B55"/>
+      <c r="C55"/>
       <c r="E55" s="13"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56"/>
+      <c r="B56"/>
+      <c r="C56"/>
+      <c r="E56" s="14"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57"/>
+      <c r="B57"/>
+      <c r="C57"/>
+      <c r="E57" s="14"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E58" s="13"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="H4:H25">

--- a/app/config/tables/CHILDREN/Forms/CHILDREN/CHILDREN.xlsx
+++ b/app/config/tables/CHILDREN/Forms/CHILDREN/CHILDREN.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{229F6F76-D617-4C04-BD8A-C018F38B8C88}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{986C9451-43D5-44DA-A76E-88968C5267A6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="728" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -888,13 +888,13 @@
     <t>Se o MUAC for menor que 50 mm, escreva "11" &lt;/br&gt; Se não for possível medir o MUAC, escreva "999"</t>
   </si>
   <si>
-    <t>OBS</t>
-  </si>
-  <si>
     <t>&lt;i&gt; If you have any comment or observations about the child, write them here &lt;/i&gt;</t>
   </si>
   <si>
     <t>&lt;i&gt; Se você tiver algum comentário ou observação sobre a criança, escreva aqui &lt;/i&gt;</t>
+  </si>
+  <si>
+    <t>OBSCRI</t>
   </si>
 </sst>
 </file>
@@ -1456,7 +1456,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E98" sqref="E98"/>
+      <selection pane="bottomLeft" activeCell="F97" sqref="F97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2661,13 +2661,13 @@
         <v>61</v>
       </c>
       <c r="F99" t="s">
+        <v>286</v>
+      </c>
+      <c r="G99" t="s">
         <v>284</v>
       </c>
-      <c r="G99" t="s">
+      <c r="H99" t="s">
         <v>285</v>
-      </c>
-      <c r="H99" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="100" spans="2:8" customFormat="1" x14ac:dyDescent="0.25">
@@ -3904,8 +3904,8 @@
   <dimension ref="A1:F58"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A49" sqref="A49"/>
+      <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4441,7 +4441,7 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="13" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>61</v>

--- a/app/config/tables/CHILDREN/Forms/CHILDREN/CHILDREN.xlsx
+++ b/app/config/tables/CHILDREN/Forms/CHILDREN/CHILDREN.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{986C9451-43D5-44DA-A76E-88968C5267A6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC456B6F-6779-45CE-8FAC-47FEF6EAB6BC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="728" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19320" yWindow="-2100" windowWidth="19440" windowHeight="15000" tabRatio="728" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="325">
   <si>
     <t>setting_name</t>
   </si>
@@ -177,9 +177,6 @@
     <t>HCAREA</t>
   </si>
   <si>
-    <t>SUBAREA</t>
-  </si>
-  <si>
     <t>TAB</t>
   </si>
   <si>
@@ -255,9 +252,6 @@
     <t>HCAREANOME</t>
   </si>
   <si>
-    <t>SUBAREANOME</t>
-  </si>
-  <si>
     <t>TABNOME</t>
   </si>
   <si>
@@ -420,9 +414,6 @@
     <t>A criança recebeu vaccina contra polio (VPO-0)?</t>
   </si>
   <si>
-    <t>Has the child been hospitalised since birth?</t>
-  </si>
-  <si>
     <t>data("HOSP") =="1"</t>
   </si>
   <si>
@@ -432,9 +423,6 @@
     <t>Data da primeira admissão hospitalar</t>
   </si>
   <si>
-    <t>A criança está hospitalizada desde o nascimento?</t>
-  </si>
-  <si>
     <t>CHILDREN</t>
   </si>
   <si>
@@ -513,15 +501,6 @@
     <t>not(adate.hasUncertainty(data("DATASEG"))) &amp;&amp; data("DATASEG") != null &amp;&amp; adate.ageInYears(data("DATASEG")) != -9999 &amp;&amp; adate.ageInYears(data("DATASEG")) &lt; 2019</t>
   </si>
   <si>
-    <t>adate.ageInYears(data("DOB")) != -9999 &amp;&amp; adate.ageInYears(data("DOB")) &lt; 2019</t>
-  </si>
-  <si>
-    <t>(data("BCGDATA") != null &amp;&amp; adate.ageInYears(data("BCGDATA")) != -9999 &amp;&amp; adate.ageInYears(data("BCGDATA")) &lt; 2019) || data("BCG") != 1</t>
-  </si>
-  <si>
-    <t>(data("HOSPDATA") != null &amp;&amp; adate.ageInYears(data("HOSPDATA")) != -9999 &amp;&amp; adate.ageInYears(data("HOSPDATA")) &lt; 2019) || data("HOSP") != 1</t>
-  </si>
-  <si>
     <t>NOMECRICON</t>
   </si>
   <si>
@@ -564,9 +543,6 @@
     <t>What is the first vaccine the child received after polio or BCG?</t>
   </si>
   <si>
-    <t>Qual é a primeira vacina que a criança recebeu após a poliomielite ou BCG?</t>
-  </si>
-  <si>
     <t>data("OUTROVAC") != null || data("VACINASOU") !=1</t>
   </si>
   <si>
@@ -576,9 +552,6 @@
     <t>Data da primeira vacina recebida após a poliomielite ou BCG</t>
   </si>
   <si>
-    <t>(data("POLIODATA") != null &amp;&amp; adate.ageInYears(data("POLIODATA")) != -9999 &amp;&amp; adate.ageInYears(data("POLIODATA")) &lt; 2019) || data("POLIO") != 1</t>
-  </si>
-  <si>
     <t>Polio (1, 2 or 3)</t>
   </si>
   <si>
@@ -645,12 +618,6 @@
     <t>Área sanitárias: &lt;b&gt;{{data.HCAREANOME}}&lt;/b&gt;</t>
   </si>
   <si>
-    <t>Subarea: &lt;b&gt;{{data.SUBAREANOME}}&lt;b&gt;</t>
-  </si>
-  <si>
-    <t>Subarea: &lt;b&gt;{{data.SUBAREANOME}}&lt;/b&gt;</t>
-  </si>
-  <si>
     <t>Village: &lt;b&gt;{{data.TABNOME}}&lt;/b&gt;</t>
   </si>
   <si>
@@ -705,15 +672,6 @@
     <t>First visit</t>
   </si>
   <si>
-    <t>&lt;b&gt;Follow-up on registered pregnancy to {{data.NOMEMUL}}&lt;/b&gt;</t>
-  </si>
-  <si>
-    <t>&lt;b&gt;Seguimento de gravidez registrada para {{data.NOMEMUL}}&lt;/b&gt;</t>
-  </si>
-  <si>
-    <t>(data("ESTADOCRI") != 2 &amp;&amp; data("ESTADOCRI") != 3) || ((data("ESTADOCRI") == 2 || data("ESTADOCRI") == 3) &amp;&amp; data("DATASAICRI") != null &amp;&amp; adate.ageInYears(data("DATASAICRI")) != -9999 &amp;&amp; adate.ageInYears(data("DATASAICRI")) &lt; 2019)</t>
-  </si>
-  <si>
     <t>STICKERS</t>
   </si>
   <si>
@@ -846,9 +804,6 @@
     <t>A vacina dada na boca</t>
   </si>
   <si>
-    <t>(data("OUTRODATA") != null &amp;&amp; adate.ageInYears(data("OUTRODATA")) != -9999 &amp;&amp; adate.ageInYears(data("OUTRODATA")) &lt; 2019) || data("VACINASOU") !=1</t>
-  </si>
-  <si>
     <t>selected(data("OUTROVAC"),"Other")</t>
   </si>
   <si>
@@ -895,6 +850,166 @@
   </si>
   <si>
     <t>OBSCRI</t>
+  </si>
+  <si>
+    <t>Stayed overnight or died</t>
+  </si>
+  <si>
+    <t>Passou a noite ou morreu</t>
+  </si>
+  <si>
+    <t>displayREGDIA</t>
+  </si>
+  <si>
+    <t>adate.display(data("REGDIA"))</t>
+  </si>
+  <si>
+    <t>adate.diffInDays(data("DOB"),data("DATASEG")) &gt;= 0 &amp;&amp; adate.diffInDays(data("REGDIA"),data("DOB")) &gt;= 0 &amp;&amp; adate.ageInYears(data("DOB")) != -9999 &amp;&amp; adate.ageInYears(data("DOB")) &lt; 2019</t>
+  </si>
+  <si>
+    <t>Date of birth is after today or before regdia:</t>
+  </si>
+  <si>
+    <t>A data de nascimento é depois de hoje ou antes do regdia:</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Follow-up on registered pregnancy to {{data.NOMEMUL}} regdia: {{calculates.displayREGDIA}}&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Seguimento de gravidez registrada para {{data.NOMEMUL}} regdia: {{calculates.displayREGDIA}} &lt;/b&gt;</t>
+  </si>
+  <si>
+    <t>Date is after today:</t>
+  </si>
+  <si>
+    <t>A data é depois de hoje:</t>
+  </si>
+  <si>
+    <t>Date is after today or before birth:</t>
+  </si>
+  <si>
+    <t>A data é depois de hoje ou antes do nascimento:</t>
+  </si>
+  <si>
+    <t>Has the child been hospitalised since birth ({{calculates.displayDOB}})?</t>
+  </si>
+  <si>
+    <t>A criança está hospitalizada desde o nascimento ({{calculates.displayDOB}})?</t>
+  </si>
+  <si>
+    <t>displayDOB</t>
+  </si>
+  <si>
+    <t>adate.display(data("DOB"))</t>
+  </si>
+  <si>
+    <t>bcgpolio</t>
+  </si>
+  <si>
+    <t>goto bcgpolio</t>
+  </si>
+  <si>
+    <t>bcgcheck</t>
+  </si>
+  <si>
+    <t>obsbcg</t>
+  </si>
+  <si>
+    <t>&lt;font color = "red"&gt; Date of BCG vaccination is after today or before birth. &lt;/br&gt; Please check vaccine again. &lt;/font&gt;</t>
+  </si>
+  <si>
+    <t>&lt;font color = "red"&gt; A data da vacinação BCG é depois de hoje ou antes do nascimento. &lt;/br&gt; Por favor, verifique a vacina novamente. &lt;/font&gt;</t>
+  </si>
+  <si>
+    <t>poliocheck</t>
+  </si>
+  <si>
+    <t>obspolio</t>
+  </si>
+  <si>
+    <t>&lt;font color = "red"&gt; Date of polio vaccination is after today or before birth. &lt;/br&gt; Please check vaccine again. &lt;/font&gt;</t>
+  </si>
+  <si>
+    <t>&lt;font color = "red"&gt; A data da vacinação contra polio (VPO-0) é depois de hoje ou antes do nascimento. &lt;/br&gt; Por favor, verifique a vacina novamente. &lt;/font&gt;</t>
+  </si>
+  <si>
+    <t>data("bcgcheck") == "1" || data("poliocheck") == "1"</t>
+  </si>
+  <si>
+    <t>data("bcgcheck") == "1"</t>
+  </si>
+  <si>
+    <t>data("poliocheck") == "1"</t>
+  </si>
+  <si>
+    <t>data("BCGDATA") != null || data("BCG") != 1</t>
+  </si>
+  <si>
+    <t>data("POLIODATA") != null  || data("POLIO") != 1</t>
+  </si>
+  <si>
+    <t>data("poliocheck") != "2" &amp;&amp; not(adate.diffInDays(data("POLIODATA"),data("DATASEG")) &gt;= 0 &amp;&amp; adate.diffInDays(data("REGDIA"),data("POLIODATA")) &gt;= 0 &amp;&amp; data("POLIODATA") != null &amp;&amp; adate.ageInYears(data("POLIODATA")) != -9999 &amp;&amp; adate.ageInYears(data("POLIODATA")) &lt; 2019) &amp;&amp; data("POLIO") == 1</t>
+  </si>
+  <si>
+    <t>data("bcgcheck") != "2" &amp;&amp; not(adate.diffInDays(data("BCGDATA"),data("DATASEG")) &gt;= 0 &amp;&amp; adate.diffInDays(data("REGDIA"),data("BCGDATA")) &gt;= 0 &amp;&amp; data("BCGDATA") != null &amp;&amp; adate.ageInYears(data("BCGDATA")) != -9999 &amp;&amp; adate.ageInYears(data("BCGDATA")) &lt; 2019) &amp;&amp; data("BCG") == 1</t>
+  </si>
+  <si>
+    <t>((adate.diffInDays(data("DATASAICRI"),data("DATASEG")) &gt;= 0 || adate.dayUnknown(data("DATASAICRI"))) &amp;&amp; data("DATASAICRI") != null &amp;&amp; adate.ageInYears(data("DATASAICRI")) != -9999 &amp;&amp; adate.ageInYears(data("DATASAICRI")) &lt; 2019) || (data("ESTADOCRI") != 2 &amp;&amp; data("ESTADOCRI") != 3)</t>
+  </si>
+  <si>
+    <t>(((adate.diffInDays(data("HOSPDATA"),data("DATASEG")) &gt;= 0 &amp;&amp; adate.diffInDays(data("DOB"),data("HOSPDATA")) &gt;= 0) || adate.dayUnknown(data("HOSPDATA"))) &amp;&amp;
+data("HOSPDATA") != null &amp;&amp; adate.ageInYears(data("HOSPDATA")) != -9999 &amp;&amp; adate.ageInYears(data("HOSPDATA")) &lt; 2019) || data("HOSP") != 1</t>
+  </si>
+  <si>
+    <t>Qual é a primeira vacina que a criança recebeu após a vaccina contra polio ou BCG?</t>
+  </si>
+  <si>
+    <t>Polio: {{calculates.displayPOLIO}}&lt;/br&gt; BCG: {{calculates.displayBCG}}</t>
+  </si>
+  <si>
+    <t>displayBCG</t>
+  </si>
+  <si>
+    <t>adate.display(data("BCG"))</t>
+  </si>
+  <si>
+    <t>displayPOLIO</t>
+  </si>
+  <si>
+    <t>adate.display(data("POLIO"))</t>
+  </si>
+  <si>
+    <t>data("OUTRODATA") != null || data("VACINASOU") !=1</t>
+  </si>
+  <si>
+    <t>outrovac</t>
+  </si>
+  <si>
+    <t>goto outrovac</t>
+  </si>
+  <si>
+    <t>obsoutro</t>
+  </si>
+  <si>
+    <t>data("outrocheck") == "1"</t>
+  </si>
+  <si>
+    <t>outrocheck</t>
+  </si>
+  <si>
+    <t>&lt;font color = "red"&gt; Date of first vaccination is after today or before birth. &lt;/br&gt; Please check vaccine again. &lt;/font&gt;</t>
+  </si>
+  <si>
+    <t>&lt;font color = "red"&gt; A data da primeira vacina é depois de hoje ou antes do nascimento. &lt;/br&gt; Por favor, verifique a vacina novamente. &lt;/font&gt;</t>
+  </si>
+  <si>
+    <t>data("outrocheck") != "2" &amp;&amp; not(adate.diffInDays(data("OUTRODATA"),data("DATASEG")) &gt;= 0 &amp;&amp; adate.diffInDays(data("REGDIA"),data("OUTRODATA")) &gt;= 0 &amp;&amp; data("OUTRODATA") != null &amp;&amp; adate.ageInYears(data("OUTRODATA")) != -9999 &amp;&amp; adate.ageInYears(data("OUTRODATA")) &lt; 2019) &amp;&amp; data("VACINASOU") == 1</t>
+  </si>
+  <si>
+    <t>reactions.jpg</t>
+  </si>
+  <si>
+    <t>muac.jpg</t>
   </si>
 </sst>
 </file>
@@ -980,18 +1095,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -1018,7 +1127,7 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1046,7 +1155,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1380,7 +1488,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -1396,7 +1504,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -1405,10 +1513,10 @@
       </c>
       <c r="B5" s="3"/>
       <c r="C5" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D5" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -1435,10 +1543,10 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="B8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -1452,11 +1560,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB5FB9AA-D433-6046-85E1-401DEB18B3FD}">
-  <dimension ref="A1:S100"/>
+  <dimension ref="A1:S140"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F97" sqref="F97"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1483,63 +1591,63 @@
     <col min="20" max="16384" width="11.42578125" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:19" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="E1" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="26" t="s">
+      <c r="F1" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="27" t="s">
+      <c r="G1" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="H1" s="26" t="s">
+      <c r="H1" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="26" t="s">
+      <c r="I1" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="26" t="s">
-        <v>71</v>
-      </c>
-      <c r="K1" s="26" t="s">
+      <c r="J1" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="K1" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="L1" s="26" t="s">
+      <c r="L1" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="M1" s="26" t="s">
+      <c r="M1" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="N1" s="26" t="s">
+      <c r="N1" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="O1" s="26" t="s">
+      <c r="O1" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="P1" s="26" t="s">
+      <c r="P1" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="Q1" s="26" t="s">
+      <c r="Q1" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="R1" s="28" t="s">
-        <v>146</v>
-      </c>
-      <c r="S1" s="29" t="s">
-        <v>250</v>
+      <c r="R1" s="27" t="s">
+        <v>142</v>
+      </c>
+      <c r="S1" s="28" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="2" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -1553,10 +1661,10 @@
         <v>35</v>
       </c>
       <c r="G3" s="16" t="s">
-        <v>223</v>
-      </c>
-      <c r="H3" t="s">
-        <v>224</v>
+        <v>279</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="4" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -1564,10 +1672,10 @@
         <v>35</v>
       </c>
       <c r="G4" s="22" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="H4" s="22" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -1575,10 +1683,10 @@
         <v>35</v>
       </c>
       <c r="G5" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="H5" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
     </row>
     <row r="6" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -1586,32 +1694,32 @@
         <v>35</v>
       </c>
       <c r="G6" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="H6" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
     </row>
     <row r="7" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D7" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="G7" s="23" t="s">
-        <v>203</v>
-      </c>
-      <c r="H7" s="23" t="s">
-        <v>204</v>
+      <c r="G7" t="s">
+        <v>194</v>
+      </c>
+      <c r="H7" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="8" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D8" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="G8" t="s">
-        <v>205</v>
-      </c>
-      <c r="H8" t="s">
-        <v>206</v>
+      <c r="G8" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="H8" s="22" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="9" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -1619,172 +1727,178 @@
         <v>35</v>
       </c>
       <c r="G9" s="22" t="s">
+        <v>206</v>
+      </c>
+      <c r="H9" s="22" t="s">
         <v>207</v>
-      </c>
-      <c r="H9" s="22" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="10" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D10" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>241</v>
+      </c>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
+      <c r="S10" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="G11" s="22"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B12" s="13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="D13" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="G10" s="22" t="s">
-        <v>217</v>
-      </c>
-      <c r="H10" s="22" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D11" s="11" t="s">
-        <v>235</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>236</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>255</v>
-      </c>
-      <c r="G11" s="22"/>
-      <c r="H11" s="22"/>
-      <c r="S11" s="11" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="G12" s="22"/>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B13" s="13" t="s">
-        <v>37</v>
+      <c r="G13" s="16" t="s">
+        <v>279</v>
+      </c>
+      <c r="H13" s="13" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="D14" s="14" t="s">
-        <v>35</v>
+        <v>28</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>85</v>
       </c>
       <c r="G14" s="16" t="s">
-        <v>223</v>
-      </c>
-      <c r="H14" t="s">
-        <v>224</v>
+        <v>130</v>
+      </c>
+      <c r="H14" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="J14" t="b">
+        <v>1</v>
+      </c>
+      <c r="K14" t="s">
+        <v>154</v>
+      </c>
+      <c r="P14" s="13" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="D15" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="G15" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="H15" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="J15" t="b">
-        <v>1</v>
-      </c>
-      <c r="K15" t="s">
-        <v>158</v>
-      </c>
-      <c r="P15" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="B15" s="13" t="s">
+        <v>237</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="F15" s="3"/>
+      <c r="H15" s="16"/>
+      <c r="J15"/>
+      <c r="K15"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B16" s="13" t="s">
-        <v>251</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>254</v>
-      </c>
-      <c r="F16" s="3"/>
+      <c r="D16" s="14" t="s">
+        <v>238</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>205</v>
+      </c>
       <c r="H16" s="16"/>
+      <c r="I16" s="13" t="s">
+        <v>239</v>
+      </c>
       <c r="J16"/>
       <c r="K16"/>
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D17" s="14" t="s">
-        <v>252</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>216</v>
-      </c>
+      <c r="B17" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="F17" s="3"/>
       <c r="H17" s="16"/>
-      <c r="I17" s="13" t="s">
-        <v>253</v>
-      </c>
       <c r="J17"/>
       <c r="K17"/>
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B18" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="F18" s="3"/>
-      <c r="H18" s="16"/>
-      <c r="J18"/>
-      <c r="K18"/>
+        <v>38</v>
+      </c>
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B19" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B20" s="13" t="s">
-        <v>37</v>
+      <c r="D20" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="G20" s="16" t="s">
+        <v>279</v>
+      </c>
+      <c r="H20" s="13" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D21" s="14" t="s">
-        <v>35</v>
+        <v>60</v>
+      </c>
+      <c r="F21" s="13" t="s">
+        <v>74</v>
       </c>
       <c r="G21" s="16" t="s">
-        <v>223</v>
-      </c>
-      <c r="H21" t="s">
-        <v>224</v>
+        <v>86</v>
+      </c>
+      <c r="H21" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="J21" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="L21" s="13" t="s">
+        <v>243</v>
+      </c>
+      <c r="M21" s="13" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="22" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D22" s="14" t="s">
-        <v>61</v>
+        <v>50</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>89</v>
       </c>
       <c r="F22" s="13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G22" s="16" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H22" s="16" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J22" s="13" t="b">
         <v>1</v>
       </c>
-      <c r="L22" s="13" t="s">
-        <v>257</v>
-      </c>
-      <c r="M22" s="13" t="s">
-        <v>258</v>
-      </c>
     </row>
     <row r="23" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D23" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="E23" s="13" t="s">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="F23" s="13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G23" s="16" t="s">
         <v>91</v>
@@ -1792,32 +1906,21 @@
       <c r="H23" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="J23" s="13" t="b">
-        <v>1</v>
+      <c r="K23" s="13" t="s">
+        <v>276</v>
+      </c>
+      <c r="N23" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="O23" s="13" t="s">
+        <v>278</v>
+      </c>
+      <c r="P23" s="13" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D24" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="F24" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="G24" s="16" t="s">
-        <v>93</v>
-      </c>
-      <c r="H24" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="J24" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="K24" s="13" t="s">
-        <v>159</v>
-      </c>
-      <c r="P24" s="13" t="b">
-        <v>0</v>
-      </c>
+      <c r="H24" s="16"/>
     </row>
     <row r="25" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B25" s="13" t="s">
@@ -1834,27 +1937,27 @@
         <v>35</v>
       </c>
       <c r="G27" s="16" t="s">
-        <v>223</v>
-      </c>
-      <c r="H27" t="s">
-        <v>224</v>
+        <v>279</v>
+      </c>
+      <c r="H27" s="13" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="28" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D28" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E28" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F28" s="14" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G28" s="21" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H28" s="21" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="J28" s="13" t="b">
         <v>1</v>
@@ -1862,10 +1965,10 @@
     </row>
     <row r="29" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B29" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D29" s="13"/>
       <c r="F29" s="14"/>
@@ -1877,16 +1980,22 @@
         <v>28</v>
       </c>
       <c r="F30" s="14" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="G30" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="H30" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="K30" t="s">
-        <v>225</v>
+        <v>306</v>
+      </c>
+      <c r="N30" t="s">
+        <v>281</v>
+      </c>
+      <c r="O30" t="s">
+        <v>282</v>
       </c>
       <c r="P30" s="13" t="b">
         <v>0</v>
@@ -1894,7 +2003,7 @@
     </row>
     <row r="31" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B31" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D31" s="13"/>
       <c r="F31" s="14"/>
@@ -1910,771 +2019,1153 @@
       <c r="G32" s="21"/>
       <c r="H32" s="21"/>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B33" s="13" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D34" s="14" t="s">
         <v>35</v>
       </c>
       <c r="G34" s="16" t="s">
-        <v>223</v>
-      </c>
-      <c r="H34" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.25">
+        <v>279</v>
+      </c>
+      <c r="H34" s="13" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D35" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E35" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G35" s="21" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="H35" s="13" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="J35" s="13" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D36" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F36" s="13" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G36" s="21" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="H36" s="13" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J36" s="13" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B37" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C37" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="G37" s="21"/>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D38" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="F38" s="13" t="s">
+        <v>245</v>
+      </c>
+      <c r="G38" s="21" t="s">
+        <v>246</v>
+      </c>
+      <c r="H38" s="21" t="s">
+        <v>247</v>
+      </c>
+      <c r="K38" s="13" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B39" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="C37" s="13" t="s">
-        <v>264</v>
-      </c>
-      <c r="G37" s="21"/>
-    </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D38" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="F38" s="13" t="s">
-        <v>259</v>
-      </c>
-      <c r="G38" s="21" t="s">
-        <v>260</v>
-      </c>
-      <c r="H38" s="21" t="s">
-        <v>261</v>
-      </c>
-      <c r="K38" s="13" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B39" s="13" t="s">
-        <v>69</v>
-      </c>
       <c r="G39" s="21"/>
     </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B40" s="13" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B41" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C41" s="13" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A42" s="13" t="s">
+        <v>289</v>
+      </c>
       <c r="B42" s="13" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D43" s="14" t="s">
         <v>35</v>
       </c>
       <c r="G43" s="16" t="s">
-        <v>223</v>
-      </c>
-      <c r="H43" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.25">
+        <v>279</v>
+      </c>
+      <c r="H43" s="13" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D44" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E44" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F44" s="13" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G44" s="16" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="H44" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="K44" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="L44" s="13" t="s">
+        <v>252</v>
+      </c>
+      <c r="M44" s="13" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B45" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C45" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="K44" s="13" t="s">
-        <v>152</v>
-      </c>
-      <c r="L44" s="13" t="s">
-        <v>266</v>
-      </c>
-      <c r="M44" s="13" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B45" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="C45" s="13" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D46" s="14" t="s">
         <v>28</v>
       </c>
       <c r="F46" s="13" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G46" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="H46" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="K46" s="13" t="s">
+        <v>302</v>
+      </c>
+      <c r="P46" s="13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B47" s="13" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D48" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E48" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="G48" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="H46" s="13" t="s">
+      <c r="H48" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="K46" s="13" t="s">
-        <v>160</v>
-      </c>
-      <c r="P46" s="13" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B47" s="13" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D48" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="E48" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="G48" s="16" t="s">
-        <v>126</v>
-      </c>
-      <c r="H48" s="13" t="s">
-        <v>127</v>
-      </c>
       <c r="K48" s="13" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="L48" s="13" t="s">
-        <v>268</v>
+        <v>254</v>
       </c>
       <c r="M48" s="13" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="49" spans="2:16" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B49" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C49" s="13" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="F49" s="3"/>
     </row>
-    <row r="50" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D50" s="14" t="s">
         <v>28</v>
       </c>
       <c r="F50" s="13" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="G50" s="16" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H50" s="13" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="K50" s="13" t="s">
-        <v>180</v>
+        <v>303</v>
       </c>
       <c r="P50" s="13" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B51" s="13" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="52" spans="2:16" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B52" s="13" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="53" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B53" s="13" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="54" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D54" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="G54" s="16" t="s">
-        <v>223</v>
-      </c>
-      <c r="H54" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="55" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D55" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="E55" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="F55" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="G55" s="21" t="s">
-        <v>141</v>
-      </c>
-      <c r="H55" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="K55" s="13" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="56" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B56" s="13" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="57" spans="2:16" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+      <c r="C52" s="13" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D53" s="14" t="s">
+        <v>238</v>
+      </c>
+      <c r="F53" s="13" t="s">
+        <v>291</v>
+      </c>
+      <c r="I53" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B54" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="I54" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B55" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C55" s="13" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D56" s="14" t="s">
+        <v>238</v>
+      </c>
+      <c r="F56" s="13" t="s">
+        <v>295</v>
+      </c>
+      <c r="I56" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B57" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="C57" s="13" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="58" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="I57" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B58" s="13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B59" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C59" s="13" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A60" s="13" t="s">
+        <v>292</v>
+      </c>
+      <c r="B60" s="13" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="59" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D59" s="14" t="s">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D61" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="G59" s="16" t="s">
-        <v>223</v>
-      </c>
-      <c r="H59" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="60" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D60" s="14" t="s">
-        <v>171</v>
-      </c>
-      <c r="E60" s="13" t="s">
-        <v>172</v>
-      </c>
-      <c r="F60" s="13" t="s">
-        <v>173</v>
-      </c>
-      <c r="G60" s="16" t="s">
-        <v>175</v>
-      </c>
-      <c r="H60" s="13" t="s">
-        <v>176</v>
-      </c>
-      <c r="K60" s="13" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="61" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B61" s="13" t="s">
+      <c r="G61" s="16" t="s">
+        <v>279</v>
+      </c>
+      <c r="H61" s="13" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D62" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="G62" s="16" t="s">
+        <v>293</v>
+      </c>
+      <c r="H62" s="13" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D63" s="14" t="s">
+        <v>238</v>
+      </c>
+      <c r="F63" s="13" t="s">
+        <v>291</v>
+      </c>
+      <c r="I63" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B64" s="13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B65" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="C61" s="13" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="62" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D62" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="F62" s="13" t="s">
-        <v>272</v>
-      </c>
-      <c r="G62" s="16" t="s">
-        <v>273</v>
-      </c>
-      <c r="H62" s="13" t="s">
-        <v>274</v>
-      </c>
-      <c r="K62" s="13" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="63" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B63" s="13" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="64" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D64" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="F64" s="13" t="s">
-        <v>174</v>
-      </c>
-      <c r="G64" s="16" t="s">
-        <v>178</v>
-      </c>
-      <c r="H64" s="13" t="s">
-        <v>179</v>
-      </c>
-      <c r="K64" s="13" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B65" s="13" t="s">
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B66" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C66" s="13" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A67" s="13" t="s">
+        <v>296</v>
+      </c>
+      <c r="B67" s="13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D68" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="G68" s="16" t="s">
+        <v>279</v>
+      </c>
+      <c r="H68" s="13" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D69" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="G69" s="16" t="s">
+        <v>297</v>
+      </c>
+      <c r="H69" s="13" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D70" s="14" t="s">
+        <v>238</v>
+      </c>
+      <c r="F70" s="13" t="s">
+        <v>295</v>
+      </c>
+      <c r="I70" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B71" s="13" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B66" s="13" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="D67" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="G67" s="16" t="s">
-        <v>223</v>
-      </c>
-      <c r="H67" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="D68" s="14" t="s">
-        <v>143</v>
-      </c>
-      <c r="F68" s="13" t="s">
-        <v>156</v>
-      </c>
-      <c r="G68" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="H68" s="13" t="s">
-        <v>145</v>
-      </c>
-      <c r="L68" s="13" t="s">
-        <v>150</v>
-      </c>
-      <c r="M68" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="R68" s="13" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B69" s="13" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B70" s="13" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B71" s="13" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B72" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="C72" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B73" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C73" s="13" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B74" s="13" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B75" s="13" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B76" s="13" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="D74" s="14" t="s">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D77" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="G74" s="16" t="s">
-        <v>223</v>
-      </c>
-      <c r="H74" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="D75" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="E75" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="F75" s="13" t="s">
-        <v>226</v>
-      </c>
-      <c r="G75" t="s">
-        <v>278</v>
-      </c>
-      <c r="H75" t="s">
+      <c r="G77" s="16" t="s">
         <v>279</v>
       </c>
-      <c r="K75" s="13" t="s">
-        <v>233</v>
-      </c>
-      <c r="R75" s="13" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B76" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="C76" s="13" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="D77" s="14" t="s">
-        <v>143</v>
-      </c>
-      <c r="F77" s="13" t="s">
-        <v>228</v>
-      </c>
-      <c r="G77" s="16" t="s">
-        <v>229</v>
-      </c>
       <c r="H77" s="13" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="78" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B78" s="13" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.25">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D78" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E78" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="F78" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="G78" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="H78" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="K78" s="13" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B79" s="13" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B80" s="13" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="81" spans="2:16" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+      <c r="C80" s="13" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A81" s="13" t="s">
+        <v>315</v>
+      </c>
       <c r="B81" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="C81" t="s">
-        <v>118</v>
-      </c>
-      <c r="D81" s="13"/>
-      <c r="F81" s="14"/>
-      <c r="G81" s="21"/>
-      <c r="H81" s="21"/>
-    </row>
-    <row r="82" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B82" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="D82" s="13"/>
-      <c r="F82" s="14"/>
-      <c r="G82" s="21"/>
-      <c r="H82" s="21"/>
-    </row>
-    <row r="83" spans="2:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D82" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="G82" s="16" t="s">
+        <v>279</v>
+      </c>
+      <c r="H82" s="13" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D83" s="14" t="s">
         <v>35</v>
       </c>
       <c r="G83" s="16" t="s">
-        <v>223</v>
-      </c>
-      <c r="H83" t="s">
-        <v>224</v>
-      </c>
-      <c r="K83"/>
-      <c r="L83"/>
-    </row>
-    <row r="84" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D84" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="F84" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="G84" t="s">
-        <v>280</v>
-      </c>
-      <c r="H84" t="s">
-        <v>281</v>
-      </c>
-      <c r="I84"/>
-      <c r="J84"/>
-      <c r="K84" t="s">
-        <v>157</v>
-      </c>
-      <c r="L84" t="s">
-        <v>282</v>
-      </c>
-      <c r="M84" t="s">
-        <v>283</v>
-      </c>
-      <c r="N84" t="s">
-        <v>154</v>
-      </c>
-      <c r="O84" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="85" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D85" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E85" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="F85" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="G85" s="21" t="s">
-        <v>119</v>
-      </c>
-      <c r="H85" s="21" t="s">
-        <v>120</v>
-      </c>
-      <c r="K85" t="s">
+        <v>309</v>
+      </c>
+      <c r="H83" s="16" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D84" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="E84" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="F84" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="G84" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="H84" s="13" t="s">
+        <v>308</v>
+      </c>
+      <c r="K84" s="13" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B85" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C85" s="13" t="s">
         <v>256</v>
       </c>
-      <c r="L85" s="13" t="s">
-        <v>276</v>
-      </c>
-      <c r="M85" s="13" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="86" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B86" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="D86" s="13"/>
-      <c r="F86" s="14"/>
-      <c r="G86" s="21"/>
-      <c r="H86" s="21"/>
-    </row>
-    <row r="87" spans="2:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D86" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="F86" s="13" t="s">
+        <v>257</v>
+      </c>
+      <c r="G86" s="16" t="s">
+        <v>258</v>
+      </c>
+      <c r="H86" s="13" t="s">
+        <v>259</v>
+      </c>
+      <c r="K86" s="13" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B87" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="D87" s="13"/>
-      <c r="F87" s="14"/>
-      <c r="G87" s="21"/>
-      <c r="H87" s="21"/>
-    </row>
-    <row r="88" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B88" s="13" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="89" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="C89"/>
-      <c r="D89" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="G89" s="16" t="s">
-        <v>223</v>
-      </c>
-      <c r="H89" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="90" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="C90"/>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D88" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="F88" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="G88" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="H88" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="K88" s="13" t="s">
+        <v>314</v>
+      </c>
+      <c r="P88" s="13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B89" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C89" s="13" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D90" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="E90" s="13" t="s">
-        <v>54</v>
+        <v>238</v>
       </c>
       <c r="F90" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="G90" s="16" t="s">
-        <v>128</v>
-      </c>
-      <c r="H90" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="J90" s="13" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" spans="2:16" x14ac:dyDescent="0.25">
+        <v>319</v>
+      </c>
+      <c r="I90" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B91" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="C91" s="13" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="92" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="C92"/>
-      <c r="D92" s="14" t="s">
+      <c r="I91" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B92" s="13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B93" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C93" s="13" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A94" s="13" t="s">
+        <v>317</v>
+      </c>
+      <c r="B94" s="13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D95" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="G95" s="16" t="s">
+        <v>279</v>
+      </c>
+      <c r="H95" s="13" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D96" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="G96" s="16" t="s">
+        <v>320</v>
+      </c>
+      <c r="H96" s="13" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="97" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="D97" s="14" t="s">
+        <v>238</v>
+      </c>
+      <c r="F97" s="13" t="s">
+        <v>319</v>
+      </c>
+      <c r="I97" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B98" s="13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="99" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B99" s="13" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="100" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B100" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C100" s="13" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="101" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B101" s="13" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="102" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B102" s="13" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="103" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B103" s="13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="104" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="D104" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="G104" s="16" t="s">
+        <v>279</v>
+      </c>
+      <c r="H104" s="13" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="105" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="D105" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="F105" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="G105" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="H105" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="L105" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="M105" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="R105" s="13" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="106" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B106" s="13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="107" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B107" s="13" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="108" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B108" s="13" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="109" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B109" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C109" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="110" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B110" s="13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="111" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="D111" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="G111" s="16" t="s">
+        <v>279</v>
+      </c>
+      <c r="H111" s="13" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="112" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="D112" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E112" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="F112" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="G112" t="s">
+        <v>263</v>
+      </c>
+      <c r="H112" t="s">
+        <v>264</v>
+      </c>
+      <c r="K112" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="R112" s="13" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="113" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B113" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C113" s="13" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="114" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="D114" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="F114" s="13" t="s">
+        <v>214</v>
+      </c>
+      <c r="G114" s="16" t="s">
+        <v>215</v>
+      </c>
+      <c r="H114" s="13" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="115" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B115" s="13" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="116" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B116" s="13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="117" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B117" s="13" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="118" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B118" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C118" t="s">
+        <v>116</v>
+      </c>
+      <c r="D118" s="13"/>
+      <c r="F118" s="14"/>
+      <c r="G118" s="21"/>
+      <c r="H118" s="21"/>
+    </row>
+    <row r="119" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B119" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D119" s="13"/>
+      <c r="F119" s="14"/>
+      <c r="G119" s="21"/>
+      <c r="H119" s="21"/>
+    </row>
+    <row r="120" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="D120" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="G120" s="16" t="s">
+        <v>279</v>
+      </c>
+      <c r="H120" s="13" t="s">
+        <v>280</v>
+      </c>
+      <c r="K120"/>
+      <c r="L120"/>
+    </row>
+    <row r="121" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="D121" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="F121" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="G121" t="s">
+        <v>265</v>
+      </c>
+      <c r="H121" t="s">
+        <v>266</v>
+      </c>
+      <c r="I121"/>
+      <c r="J121"/>
+      <c r="K121" t="s">
+        <v>153</v>
+      </c>
+      <c r="L121" t="s">
+        <v>267</v>
+      </c>
+      <c r="M121" t="s">
+        <v>268</v>
+      </c>
+      <c r="N121" t="s">
+        <v>150</v>
+      </c>
+      <c r="O121" t="s">
+        <v>151</v>
+      </c>
+      <c r="R121" s="13" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="122" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B122" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D122" s="13"/>
+      <c r="F122" s="14"/>
+      <c r="G122"/>
+      <c r="H122"/>
+      <c r="I122"/>
+      <c r="J122"/>
+      <c r="K122"/>
+      <c r="L122"/>
+      <c r="M122"/>
+      <c r="N122"/>
+      <c r="O122"/>
+    </row>
+    <row r="123" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B123" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D123" s="13"/>
+      <c r="F123" s="14"/>
+      <c r="G123"/>
+      <c r="H123"/>
+      <c r="I123"/>
+      <c r="J123"/>
+      <c r="K123"/>
+      <c r="L123"/>
+      <c r="M123"/>
+      <c r="N123"/>
+      <c r="O123"/>
+    </row>
+    <row r="124" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="D124" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="G124" s="16" t="s">
+        <v>279</v>
+      </c>
+      <c r="H124" s="13" t="s">
+        <v>280</v>
+      </c>
+      <c r="I124"/>
+      <c r="J124"/>
+      <c r="K124"/>
+      <c r="L124"/>
+      <c r="M124"/>
+      <c r="N124"/>
+      <c r="O124"/>
+    </row>
+    <row r="125" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="D125" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E125" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="F125" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G125" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="H125" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="K125" t="s">
+        <v>242</v>
+      </c>
+      <c r="L125" s="13" t="s">
+        <v>261</v>
+      </c>
+      <c r="M125" s="13" t="s">
+        <v>262</v>
+      </c>
+      <c r="R125" s="13" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="126" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B126" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D126" s="13"/>
+      <c r="F126" s="14"/>
+      <c r="G126" s="21"/>
+      <c r="H126" s="21"/>
+    </row>
+    <row r="127" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B127" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D127" s="13"/>
+      <c r="F127" s="14"/>
+      <c r="G127" s="21"/>
+      <c r="H127" s="21"/>
+    </row>
+    <row r="128" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B128" s="13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="129" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C129"/>
+      <c r="D129" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="G129" s="16" t="s">
+        <v>279</v>
+      </c>
+      <c r="H129" s="13" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="130" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C130"/>
+      <c r="D130" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E130" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="F130" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="G130" s="16" t="s">
+        <v>285</v>
+      </c>
+      <c r="H130" s="13" t="s">
+        <v>286</v>
+      </c>
+      <c r="J130" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="L130" t="s">
+        <v>272</v>
+      </c>
+      <c r="M130" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="131" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B131" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C131" s="13" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="132" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C132"/>
+      <c r="D132" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="F92" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="G92" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="H92" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="K92" s="13" t="s">
-        <v>161</v>
-      </c>
-      <c r="P92" s="13" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B93" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="C93"/>
-    </row>
-    <row r="94" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B94" s="13" t="s">
+      <c r="F132" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="G132" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="H132" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="K132" s="16" t="s">
+        <v>307</v>
+      </c>
+      <c r="N132" s="13" t="s">
+        <v>283</v>
+      </c>
+      <c r="O132" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="P132" s="13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B133" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="C133"/>
+    </row>
+    <row r="134" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B134" s="13" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="95" spans="2:16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B95" t="s">
+    <row r="135" spans="2:16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B135" t="s">
         <v>37</v>
       </c>
-      <c r="C95" s="13"/>
-    </row>
-    <row r="96" spans="2:16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C96" s="13"/>
-      <c r="D96" t="s">
+      <c r="C135" s="13"/>
+    </row>
+    <row r="136" spans="2:16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C136" s="13"/>
+      <c r="D136" t="s">
         <v>35</v>
       </c>
-      <c r="G96" s="16" t="s">
-        <v>223</v>
-      </c>
-      <c r="H96" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="97" spans="2:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C97" s="13"/>
-      <c r="D97" t="s">
+      <c r="G136" s="16" t="s">
+        <v>279</v>
+      </c>
+      <c r="H136" s="13" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="137" spans="2:16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C137" s="13"/>
+      <c r="D137" t="s">
         <v>35</v>
       </c>
-      <c r="G97" t="s">
-        <v>195</v>
-      </c>
-      <c r="H97" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="98" spans="2:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C98" s="13"/>
-      <c r="D98" t="s">
+      <c r="G137" t="s">
+        <v>186</v>
+      </c>
+      <c r="H137" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="138" spans="2:16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C138" s="13"/>
+      <c r="D138" t="s">
         <v>35</v>
       </c>
-      <c r="G98" t="s">
-        <v>197</v>
-      </c>
-      <c r="H98" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="99" spans="2:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C99" s="13"/>
-      <c r="D99" t="s">
-        <v>61</v>
-      </c>
-      <c r="F99" t="s">
-        <v>286</v>
-      </c>
-      <c r="G99" t="s">
-        <v>284</v>
-      </c>
-      <c r="H99" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="100" spans="2:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B100" t="s">
+      <c r="G138" t="s">
+        <v>188</v>
+      </c>
+      <c r="H138" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="139" spans="2:16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C139" s="13"/>
+      <c r="D139" t="s">
+        <v>60</v>
+      </c>
+      <c r="F139" t="s">
+        <v>271</v>
+      </c>
+      <c r="G139" t="s">
+        <v>269</v>
+      </c>
+      <c r="H139" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="140" spans="2:16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B140" t="s">
         <v>38</v>
       </c>
-      <c r="C100" s="13"/>
+      <c r="C140" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2687,8 +3178,8 @@
   <dimension ref="A1:F138"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C30" sqref="C30"/>
+      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A29" sqref="A29:D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2715,47 +3206,47 @@
     </row>
     <row r="2" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B2" s="11" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C2" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="D2" s="11" t="s">
         <v>95</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B3" s="11" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C3" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="D3" s="11" t="s">
         <v>96</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B4" s="11" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -2766,77 +3257,77 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B6" s="13" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B7" s="13" t="str">
         <f>"4"</f>
         <v>4</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B8" s="13" t="str">
         <f>"5"</f>
         <v>5</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B9" s="13" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B10" s="13" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -2847,32 +3338,32 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B12" s="13" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B13" s="13" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -2883,47 +3374,47 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B15" s="13" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B16" s="13" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B17" s="13" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -2934,62 +3425,62 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B19" s="13" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="13" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B20" s="13" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B21" s="13" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="13" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B22" s="13" t="str">
         <f>"4"</f>
         <v>4</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>262</v>
+        <v>248</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>263</v>
+        <v>249</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -3000,86 +3491,86 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="D24" s="13" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
     </row>
     <row r="25" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="C25" s="13" t="s">
         <v>172</v>
       </c>
-      <c r="B25" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="C25" s="13" t="s">
-        <v>181</v>
-      </c>
       <c r="D25" s="11" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
     </row>
     <row r="26" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="13" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
     </row>
     <row r="27" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="13" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="B27" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="D27" s="11" t="s">
         <v>184</v>
-      </c>
-      <c r="C27" s="11" t="s">
-        <v>189</v>
-      </c>
-      <c r="D27" s="11" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="28" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="13" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
     </row>
     <row r="29" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="13" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>262</v>
+        <v>248</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>262</v>
+        <v>248</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>263</v>
+        <v>249</v>
       </c>
     </row>
     <row r="30" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -3746,57 +4237,57 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>237</v>
+        <v>223</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="C1" s="24" t="s">
-        <v>239</v>
-      </c>
-      <c r="D1" s="24" t="s">
-        <v>240</v>
-      </c>
-      <c r="E1" s="24" t="s">
-        <v>241</v>
-      </c>
-      <c r="F1" s="24" t="s">
-        <v>242</v>
-      </c>
-      <c r="G1" s="24" t="s">
-        <v>243</v>
+        <v>224</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>225</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>226</v>
+      </c>
+      <c r="E1" s="23" t="s">
+        <v>227</v>
+      </c>
+      <c r="F1" s="23" t="s">
+        <v>228</v>
+      </c>
+      <c r="G1" s="23" t="s">
+        <v>229</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>244</v>
+        <v>230</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>245</v>
+        <v>231</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c r="B2" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
       <c r="C2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="E2" t="s">
-        <v>249</v>
+        <v>235</v>
       </c>
       <c r="F2" t="s">
-        <v>248</v>
-      </c>
-      <c r="G2" s="25" t="s">
-        <v>247</v>
-      </c>
-      <c r="H2" s="25" t="s">
-        <v>247</v>
+        <v>234</v>
+      </c>
+      <c r="G2" s="24" t="s">
+        <v>233</v>
+      </c>
+      <c r="H2" s="24" t="s">
+        <v>233</v>
       </c>
     </row>
   </sheetData>
@@ -3806,11 +4297,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3828,8 +4319,36 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
+      <c r="A2" s="10" t="s">
+        <v>274</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>310</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>312</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>313</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3884,13 +4403,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
       <c r="B3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -3901,11 +4420,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:F58"/>
+  <dimension ref="A1:F140"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D49" sqref="D49"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3936,21 +4455,21 @@
         <v>45</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C2" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C3" s="3" t="b">
         <v>0</v>
@@ -3961,7 +4480,7 @@
         <v>46</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C4" s="3" t="b">
         <v>0</v>
@@ -3969,10 +4488,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C5" s="3" t="b">
         <v>0</v>
@@ -3983,7 +4502,7 @@
         <v>47</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C6" s="3" t="b">
         <v>0</v>
@@ -3991,10 +4510,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C7" s="3" t="b">
         <v>0</v>
@@ -4002,10 +4521,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="C8" s="3" t="b">
         <v>0</v>
@@ -4013,10 +4532,10 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>74</v>
+        <v>198</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="C9" s="3" t="b">
         <v>0</v>
@@ -4024,43 +4543,43 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>50</v>
+        <v>202</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C10" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C11" s="3" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C12" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="3" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C14" s="3" t="b">
         <v>0</v>
@@ -4068,10 +4587,10 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>52</v>
+        <v>201</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="C15" s="3" t="b">
         <v>0</v>
@@ -4079,111 +4598,118 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>61</v>
+        <v>28</v>
       </c>
       <c r="C16" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C17" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C18" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="B21" s="11" t="s">
         <v>221</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="C21" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="F21" s="11"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B22" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C20" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="B21" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="C21" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C22" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="B23" s="11" t="s">
-        <v>235</v>
+        <v>74</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>60</v>
       </c>
       <c r="C23" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="D23" s="13"/>
+      <c r="F23" s="13"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>28</v>
+        <v>75</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>50</v>
       </c>
       <c r="C24" s="3" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D24" s="13"/>
+      <c r="F24" s="13"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>76</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>61</v>
+        <v>28</v>
       </c>
       <c r="C25" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D25" s="13"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F25" s="13"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="B26" s="13" t="s">
-        <v>51</v>
+        <v>80</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>50</v>
       </c>
       <c r="C26" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="D26" s="13"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D26" s="14"/>
+      <c r="F26" s="14"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>78</v>
+        <v>200</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>28</v>
@@ -4191,73 +4717,78 @@
       <c r="C27" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="D27" s="13"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D27" s="14"/>
+      <c r="F27" s="14"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C28" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="D28" s="14"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>211</v>
+        <v>79</v>
       </c>
       <c r="B29" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C29" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D29" s="13"/>
+      <c r="F29" s="13"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C30" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D30" s="13"/>
+      <c r="F30" s="13"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C31" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D31" s="13"/>
+      <c r="F31" s="13"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B32" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C29" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="D29" s="14"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C30" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C31" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="D31" s="13"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>61</v>
-      </c>
       <c r="C32" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D32" s="13"/>
+      <c r="F32" s="13"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>79</v>
+        <v>159</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C33" s="3" t="b">
         <v>0</v>
@@ -4266,7 +4797,7 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>28</v>
@@ -4275,36 +4806,40 @@
         <v>0</v>
       </c>
       <c r="D34" s="13"/>
+      <c r="F34" s="13"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="3" t="s">
-        <v>140</v>
+      <c r="A35" s="13" t="s">
+        <v>291</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C35" s="3" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D35" s="13"/>
+      <c r="F35" s="13"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="13" t="s">
-        <v>173</v>
+        <v>295</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>171</v>
+        <v>48</v>
       </c>
       <c r="C36" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D36" s="13"/>
+      <c r="F36" s="13"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="13" t="s">
-        <v>272</v>
+      <c r="A37" s="3" t="s">
+        <v>136</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="C37" s="3" t="b">
         <v>0</v>
@@ -4313,122 +4848,124 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="13" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>28</v>
+        <v>164</v>
       </c>
       <c r="C38" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="E38" s="14"/>
+      <c r="D38" s="13"/>
+      <c r="F38" s="13"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="13" t="s">
-        <v>156</v>
+        <v>257</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>143</v>
+        <v>60</v>
       </c>
       <c r="C39" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D39" s="13"/>
-      <c r="E39" s="14"/>
+      <c r="F39" s="13"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="13" t="s">
-        <v>226</v>
+        <v>167</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="C40" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D40" s="13"/>
-      <c r="E40" s="14"/>
       <c r="F40" s="13"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="13" t="s">
-        <v>228</v>
+        <v>152</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C41" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="D41" s="13"/>
-      <c r="E41" s="14"/>
       <c r="F41" s="13"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="3" t="s">
-        <v>166</v>
+      <c r="A42" s="13" t="s">
+        <v>212</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C42" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D42" s="13"/>
-      <c r="E42" s="13"/>
+      <c r="F42" s="13"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="3" t="s">
-        <v>167</v>
+      <c r="A43" s="13" t="s">
+        <v>214</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>28</v>
+        <v>139</v>
       </c>
       <c r="C43" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D43" s="13"/>
-      <c r="E43" s="13"/>
+      <c r="F43" s="13"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C44" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D44" s="14"/>
+      <c r="E44" s="14"/>
+      <c r="F44" s="14"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C45" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="E45" s="13"/>
+      <c r="E45" s="14"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C46" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D46" s="13"/>
+      <c r="E46" s="14"/>
+      <c r="F46" s="13"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="13" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>28</v>
@@ -4437,104 +4974,163 @@
         <v>0</v>
       </c>
       <c r="D47" s="13"/>
-      <c r="E47" s="13"/>
+      <c r="E47" s="14"/>
+      <c r="F47" s="13"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="13" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C48" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D48" s="13"/>
       <c r="E48" s="13"/>
+      <c r="F48"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E49" s="13"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="B50" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C50" t="b">
         <v>0</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="E50" s="13"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="B51" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C51" t="b">
         <v>0</v>
       </c>
+      <c r="E51" s="13"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="B52" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C52" t="b">
         <v>0</v>
       </c>
-      <c r="E52" s="13"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="B53" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C53" t="b">
         <v>0</v>
       </c>
       <c r="E53" s="13"/>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54"/>
-      <c r="B54"/>
-      <c r="C54"/>
-      <c r="E54" s="13"/>
-    </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55"/>
-      <c r="B55"/>
-      <c r="C55"/>
       <c r="E55" s="13"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56"/>
-      <c r="B56"/>
-      <c r="C56"/>
-      <c r="E56" s="14"/>
+      <c r="E56" s="13"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57"/>
-      <c r="B57"/>
-      <c r="C57"/>
-      <c r="E57" s="14"/>
+      <c r="E57" s="13"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E58" s="13"/>
     </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E60" s="13"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E61" s="13"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62"/>
+      <c r="B62"/>
+      <c r="C62"/>
+      <c r="E62" s="13"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63"/>
+      <c r="B63"/>
+      <c r="C63"/>
+      <c r="E63" s="13"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64"/>
+      <c r="B64"/>
+      <c r="C64"/>
+      <c r="E64" s="14"/>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65"/>
+      <c r="B65"/>
+      <c r="C65"/>
+      <c r="E65" s="14"/>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E66" s="13"/>
+    </row>
+    <row r="84" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F84" s="13"/>
+    </row>
+    <row r="85" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F85" s="13"/>
+    </row>
+    <row r="86" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F86" s="13"/>
+    </row>
+    <row r="87" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F87" s="13"/>
+    </row>
+    <row r="115" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F115" s="13"/>
+    </row>
+    <row r="116" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F116" s="13"/>
+    </row>
+    <row r="125" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F125" s="13"/>
+    </row>
+    <row r="131" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F131" s="13"/>
+    </row>
+    <row r="136" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F136" s="13"/>
+    </row>
+    <row r="137" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F137"/>
+    </row>
+    <row r="138" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F138"/>
+    </row>
+    <row r="139" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F139"/>
+    </row>
+    <row r="140" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F140"/>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="H4:H25">
-    <sortCondition ref="H4:H25"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="H4:H23">
+    <sortCondition ref="H4:H23"/>
   </sortState>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/app/config/tables/CHILDREN/Forms/CHILDREN/CHILDREN.xlsx
+++ b/app/config/tables/CHILDREN/Forms/CHILDREN/CHILDREN.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC456B6F-6779-45CE-8FAC-47FEF6EAB6BC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B50396B4-E788-4978-853C-44C6BF151351}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19320" yWindow="-2100" windowWidth="19440" windowHeight="15000" tabRatio="728" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="728" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="325">
   <si>
     <t>setting_name</t>
   </si>
@@ -817,12 +817,6 @@
   </si>
   <si>
     <t>data("OUTROVACOU") != null || not(selected(data("OUTROVAC"),"Other"))</t>
-  </si>
-  <si>
-    <t>Please check the child's arm for scar</t>
-  </si>
-  <si>
-    <t>Por favor, verifique se há cicatriz no braço da criança</t>
   </si>
   <si>
     <t>Are there any stickers or id numbers on the card?</t>
@@ -1010,6 +1004,12 @@
   </si>
   <si>
     <t>muac.jpg</t>
+  </si>
+  <si>
+    <t>Por favor, verifique o braço da criança para ver uma reação</t>
+  </si>
+  <si>
+    <t>Please check the child's arm for a reaction</t>
   </si>
 </sst>
 </file>
@@ -1560,11 +1560,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB5FB9AA-D433-6046-85E1-401DEB18B3FD}">
-  <dimension ref="A1:S140"/>
+  <dimension ref="A1:S142"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A116" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L127" sqref="L127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1661,10 +1661,10 @@
         <v>35</v>
       </c>
       <c r="G3" s="16" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="H3" s="13" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="4" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -1765,10 +1765,10 @@
         <v>35</v>
       </c>
       <c r="G13" s="16" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="H13" s="13" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
@@ -1844,10 +1844,10 @@
         <v>35</v>
       </c>
       <c r="G20" s="16" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="H20" s="13" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.25">
@@ -1907,13 +1907,13 @@
         <v>92</v>
       </c>
       <c r="K23" s="13" t="s">
+        <v>274</v>
+      </c>
+      <c r="N23" s="13" t="s">
+        <v>275</v>
+      </c>
+      <c r="O23" s="13" t="s">
         <v>276</v>
-      </c>
-      <c r="N23" s="13" t="s">
-        <v>277</v>
-      </c>
-      <c r="O23" s="13" t="s">
-        <v>278</v>
       </c>
       <c r="P23" s="13" t="b">
         <v>0</v>
@@ -1937,10 +1937,10 @@
         <v>35</v>
       </c>
       <c r="G27" s="16" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="H27" s="13" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="28" spans="2:16" x14ac:dyDescent="0.25">
@@ -1989,13 +1989,13 @@
         <v>135</v>
       </c>
       <c r="K30" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="N30" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="O30" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="P30" s="13" t="b">
         <v>0</v>
@@ -2029,10 +2029,10 @@
         <v>35</v>
       </c>
       <c r="G34" s="16" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="H34" s="13" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.25">
@@ -2122,7 +2122,7 @@
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" s="13" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B42" s="13" t="s">
         <v>37</v>
@@ -2133,10 +2133,10 @@
         <v>35</v>
       </c>
       <c r="G43" s="16" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="H43" s="13" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.25">
@@ -2187,7 +2187,7 @@
         <v>123</v>
       </c>
       <c r="K46" s="13" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="P46" s="13" t="b">
         <v>0</v>
@@ -2247,7 +2247,7 @@
         <v>123</v>
       </c>
       <c r="K50" s="13" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="P50" s="13" t="b">
         <v>0</v>
@@ -2263,7 +2263,7 @@
         <v>67</v>
       </c>
       <c r="C52" s="13" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.25">
@@ -2271,7 +2271,7 @@
         <v>238</v>
       </c>
       <c r="F53" s="13" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="I53" s="13">
         <v>2</v>
@@ -2290,7 +2290,7 @@
         <v>67</v>
       </c>
       <c r="C55" s="13" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.25">
@@ -2298,7 +2298,7 @@
         <v>238</v>
       </c>
       <c r="F56" s="13" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="I56" s="13">
         <v>2</v>
@@ -2322,12 +2322,12 @@
         <v>67</v>
       </c>
       <c r="C59" s="13" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A60" s="13" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B60" s="13" t="s">
         <v>37</v>
@@ -2338,10 +2338,10 @@
         <v>35</v>
       </c>
       <c r="G61" s="16" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="H61" s="13" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.25">
@@ -2349,10 +2349,10 @@
         <v>35</v>
       </c>
       <c r="G62" s="16" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="H62" s="13" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.25">
@@ -2360,7 +2360,7 @@
         <v>238</v>
       </c>
       <c r="F63" s="13" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="I63" s="13">
         <v>1</v>
@@ -2381,12 +2381,12 @@
         <v>67</v>
       </c>
       <c r="C66" s="13" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="13" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B67" s="13" t="s">
         <v>37</v>
@@ -2397,10 +2397,10 @@
         <v>35</v>
       </c>
       <c r="G68" s="16" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="H68" s="13" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
@@ -2408,10 +2408,10 @@
         <v>35</v>
       </c>
       <c r="G69" s="16" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="H69" s="13" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
@@ -2419,7 +2419,7 @@
         <v>238</v>
       </c>
       <c r="F70" s="13" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="I70" s="13">
         <v>1</v>
@@ -2440,12 +2440,12 @@
         <v>67</v>
       </c>
       <c r="C73" s="13" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B74" s="13" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
@@ -2463,10 +2463,10 @@
         <v>35</v>
       </c>
       <c r="G77" s="16" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="H77" s="13" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
@@ -2504,7 +2504,7 @@
     </row>
     <row r="81" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A81" s="13" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B81" s="13" t="s">
         <v>37</v>
@@ -2515,10 +2515,10 @@
         <v>35</v>
       </c>
       <c r="G82" s="16" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="H82" s="13" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="83" spans="1:16" x14ac:dyDescent="0.25">
@@ -2526,10 +2526,10 @@
         <v>35</v>
       </c>
       <c r="G83" s="16" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="H83" s="16" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="84" spans="1:16" x14ac:dyDescent="0.25">
@@ -2546,7 +2546,7 @@
         <v>168</v>
       </c>
       <c r="H84" s="13" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="K84" s="13" t="s">
         <v>169</v>
@@ -2596,7 +2596,7 @@
         <v>171</v>
       </c>
       <c r="K88" s="13" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="P88" s="13" t="b">
         <v>0</v>
@@ -2607,7 +2607,7 @@
         <v>67</v>
       </c>
       <c r="C89" s="13" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="90" spans="1:16" x14ac:dyDescent="0.25">
@@ -2615,7 +2615,7 @@
         <v>238</v>
       </c>
       <c r="F90" s="13" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="I90" s="13">
         <v>2</v>
@@ -2639,12 +2639,12 @@
         <v>67</v>
       </c>
       <c r="C93" s="13" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="94" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A94" s="13" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B94" s="13" t="s">
         <v>37</v>
@@ -2655,10 +2655,10 @@
         <v>35</v>
       </c>
       <c r="G95" s="16" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="H95" s="13" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="96" spans="1:16" x14ac:dyDescent="0.25">
@@ -2666,10 +2666,10 @@
         <v>35</v>
       </c>
       <c r="G96" s="16" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="H96" s="13" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="97" spans="2:18" x14ac:dyDescent="0.25">
@@ -2677,7 +2677,7 @@
         <v>238</v>
       </c>
       <c r="F97" s="13" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="I97" s="13">
         <v>1</v>
@@ -2698,12 +2698,12 @@
         <v>67</v>
       </c>
       <c r="C100" s="13" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="101" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B101" s="13" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="102" spans="2:18" x14ac:dyDescent="0.25">
@@ -2713,135 +2713,138 @@
     </row>
     <row r="103" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B103" s="13" t="s">
-        <v>37</v>
+        <v>68</v>
       </c>
     </row>
     <row r="104" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="D104" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="G104" s="16" t="s">
-        <v>279</v>
-      </c>
-      <c r="H104" s="13" t="s">
-        <v>280</v>
+      <c r="B104" s="13" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="105" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="D105" s="14" t="s">
-        <v>139</v>
-      </c>
-      <c r="F105" s="13" t="s">
-        <v>152</v>
-      </c>
-      <c r="G105" s="16" t="s">
-        <v>140</v>
-      </c>
-      <c r="H105" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="L105" s="13" t="s">
-        <v>146</v>
-      </c>
-      <c r="M105" s="13" t="s">
-        <v>147</v>
-      </c>
-      <c r="R105" s="13" t="s">
-        <v>143</v>
+      <c r="B105" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C105" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="106" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B106" s="13" t="s">
-        <v>38</v>
+        <v>67</v>
+      </c>
+      <c r="C106" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="107" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B107" s="13" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
     </row>
     <row r="108" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B108" s="13" t="s">
-        <v>68</v>
+      <c r="D108" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="G108" s="16" t="s">
+        <v>277</v>
+      </c>
+      <c r="H108" s="13" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="109" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B109" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="C109" t="s">
-        <v>218</v>
+      <c r="D109" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="F109" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="G109" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="H109" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="L109" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="M109" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="R109" s="13" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="110" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B110" s="13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="111" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B111" s="13" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="112" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B112" s="13" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="111" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="D111" s="14" t="s">
+    <row r="113" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="D113" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="G111" s="16" t="s">
-        <v>279</v>
-      </c>
-      <c r="H111" s="13" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="112" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="D112" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="E112" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="F112" s="13" t="s">
-        <v>212</v>
-      </c>
-      <c r="G112" t="s">
-        <v>263</v>
-      </c>
-      <c r="H112" t="s">
-        <v>264</v>
-      </c>
-      <c r="K112" s="13" t="s">
-        <v>219</v>
-      </c>
-      <c r="R112" s="13" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="113" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B113" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="C113" s="13" t="s">
-        <v>213</v>
+      <c r="G113" s="16" t="s">
+        <v>277</v>
+      </c>
+      <c r="H113" s="13" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="114" spans="2:18" x14ac:dyDescent="0.25">
       <c r="D114" s="14" t="s">
-        <v>139</v>
+        <v>50</v>
+      </c>
+      <c r="E114" s="13" t="s">
+        <v>52</v>
       </c>
       <c r="F114" s="13" t="s">
-        <v>214</v>
-      </c>
-      <c r="G114" s="16" t="s">
-        <v>215</v>
-      </c>
-      <c r="H114" s="13" t="s">
-        <v>216</v>
+        <v>212</v>
+      </c>
+      <c r="G114" t="s">
+        <v>261</v>
+      </c>
+      <c r="H114" t="s">
+        <v>262</v>
+      </c>
+      <c r="K114" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="R114" s="13" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="115" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B115" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
+      </c>
+      <c r="C115" s="13" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="116" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B116" s="13" t="s">
-        <v>38</v>
+      <c r="D116" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="F116" s="13" t="s">
+        <v>214</v>
+      </c>
+      <c r="G116" s="16" t="s">
+        <v>215</v>
+      </c>
+      <c r="H116" s="13" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="117" spans="2:18" x14ac:dyDescent="0.25">
@@ -2851,114 +2854,90 @@
     </row>
     <row r="118" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B118" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="C118" t="s">
-        <v>116</v>
-      </c>
-      <c r="D118" s="13"/>
-      <c r="F118" s="14"/>
-      <c r="G118" s="21"/>
-      <c r="H118" s="21"/>
+        <v>38</v>
+      </c>
     </row>
     <row r="119" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B119" s="13" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="120" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B120" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C120" t="s">
+        <v>116</v>
+      </c>
+      <c r="D120" s="13"/>
+      <c r="F120" s="14"/>
+      <c r="G120" s="21"/>
+      <c r="H120" s="21"/>
+    </row>
+    <row r="121" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B121" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="D119" s="13"/>
-      <c r="F119" s="14"/>
-      <c r="G119" s="21"/>
-      <c r="H119" s="21"/>
-    </row>
-    <row r="120" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="D120" s="14" t="s">
+      <c r="D121" s="13"/>
+      <c r="F121" s="14"/>
+      <c r="G121" s="21"/>
+      <c r="H121" s="21"/>
+    </row>
+    <row r="122" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="D122" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="G120" s="16" t="s">
-        <v>279</v>
-      </c>
-      <c r="H120" s="13" t="s">
-        <v>280</v>
-      </c>
-      <c r="K120"/>
-      <c r="L120"/>
-    </row>
-    <row r="121" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="D121" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="F121" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="G121" t="s">
-        <v>265</v>
-      </c>
-      <c r="H121" t="s">
-        <v>266</v>
-      </c>
-      <c r="I121"/>
-      <c r="J121"/>
-      <c r="K121" t="s">
-        <v>153</v>
-      </c>
-      <c r="L121" t="s">
-        <v>267</v>
-      </c>
-      <c r="M121" t="s">
-        <v>268</v>
-      </c>
-      <c r="N121" t="s">
-        <v>150</v>
-      </c>
-      <c r="O121" t="s">
-        <v>151</v>
-      </c>
-      <c r="R121" s="13" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="122" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B122" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="D122" s="13"/>
-      <c r="F122" s="14"/>
-      <c r="G122"/>
-      <c r="H122"/>
-      <c r="I122"/>
-      <c r="J122"/>
+      <c r="G122" s="16" t="s">
+        <v>277</v>
+      </c>
+      <c r="H122" s="13" t="s">
+        <v>278</v>
+      </c>
       <c r="K122"/>
       <c r="L122"/>
-      <c r="M122"/>
-      <c r="N122"/>
-      <c r="O122"/>
     </row>
     <row r="123" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B123" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="D123" s="13"/>
-      <c r="F123" s="14"/>
-      <c r="G123"/>
-      <c r="H123"/>
+      <c r="D123" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="F123" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="G123" t="s">
+        <v>263</v>
+      </c>
+      <c r="H123" t="s">
+        <v>264</v>
+      </c>
       <c r="I123"/>
       <c r="J123"/>
-      <c r="K123"/>
-      <c r="L123"/>
-      <c r="M123"/>
-      <c r="N123"/>
-      <c r="O123"/>
+      <c r="K123" t="s">
+        <v>153</v>
+      </c>
+      <c r="L123" t="s">
+        <v>265</v>
+      </c>
+      <c r="M123" t="s">
+        <v>266</v>
+      </c>
+      <c r="N123" t="s">
+        <v>150</v>
+      </c>
+      <c r="O123" t="s">
+        <v>151</v>
+      </c>
+      <c r="R123" s="13" t="s">
+        <v>322</v>
+      </c>
     </row>
     <row r="124" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="D124" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="G124" s="16" t="s">
-        <v>279</v>
-      </c>
-      <c r="H124" s="13" t="s">
-        <v>280</v>
-      </c>
+      <c r="B124" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D124" s="13"/>
+      <c r="F124" s="14"/>
+      <c r="G124"/>
+      <c r="H124"/>
       <c r="I124"/>
       <c r="J124"/>
       <c r="K124"/>
@@ -2968,204 +2947,238 @@
       <c r="O124"/>
     </row>
     <row r="125" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="D125" s="3" t="s">
+      <c r="B125" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D125" s="13"/>
+      <c r="F125" s="14"/>
+      <c r="G125"/>
+      <c r="H125"/>
+      <c r="I125"/>
+      <c r="J125"/>
+      <c r="K125"/>
+      <c r="L125"/>
+      <c r="M125"/>
+      <c r="N125"/>
+      <c r="O125"/>
+    </row>
+    <row r="126" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="D126" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="G126" s="16" t="s">
+        <v>277</v>
+      </c>
+      <c r="H126" s="13" t="s">
+        <v>278</v>
+      </c>
+      <c r="I126"/>
+      <c r="J126"/>
+      <c r="K126"/>
+      <c r="L126"/>
+      <c r="M126"/>
+      <c r="N126"/>
+      <c r="O126"/>
+    </row>
+    <row r="127" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="D127" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="E125" s="13" t="s">
+      <c r="E127" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="F125" s="3" t="s">
+      <c r="F127" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="G125" s="21" t="s">
+      <c r="G127" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="H125" s="21" t="s">
+      <c r="H127" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="K125" t="s">
+      <c r="K127" t="s">
         <v>242</v>
       </c>
-      <c r="L125" s="13" t="s">
-        <v>261</v>
-      </c>
-      <c r="M125" s="13" t="s">
-        <v>262</v>
-      </c>
-      <c r="R125" s="13" t="s">
+      <c r="L127" t="s">
+        <v>324</v>
+      </c>
+      <c r="M127" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="126" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B126" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="D126" s="13"/>
-      <c r="F126" s="14"/>
-      <c r="G126" s="21"/>
-      <c r="H126" s="21"/>
-    </row>
-    <row r="127" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B127" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="D127" s="13"/>
-      <c r="F127" s="14"/>
-      <c r="G127" s="21"/>
-      <c r="H127" s="21"/>
+      <c r="R127" s="13" t="s">
+        <v>321</v>
+      </c>
     </row>
     <row r="128" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B128" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D128" s="13"/>
+      <c r="F128" s="14"/>
+      <c r="G128" s="21"/>
+      <c r="H128" s="21"/>
+    </row>
+    <row r="129" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B129" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D129" s="13"/>
+      <c r="F129" s="14"/>
+      <c r="G129" s="21"/>
+      <c r="H129" s="21"/>
+    </row>
+    <row r="130" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B130" s="13" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="129" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="C129"/>
-      <c r="D129" s="14" t="s">
+    <row r="131" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C131"/>
+      <c r="D131" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="G129" s="16" t="s">
-        <v>279</v>
-      </c>
-      <c r="H129" s="13" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="130" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="C130"/>
-      <c r="D130" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="E130" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="F130" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="G130" s="16" t="s">
-        <v>285</v>
-      </c>
-      <c r="H130" s="13" t="s">
-        <v>286</v>
-      </c>
-      <c r="J130" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="L130" t="s">
-        <v>272</v>
-      </c>
-      <c r="M130" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="131" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B131" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="C131" s="13" t="s">
-        <v>126</v>
+      <c r="G131" s="16" t="s">
+        <v>277</v>
+      </c>
+      <c r="H131" s="13" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="132" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C132"/>
       <c r="D132" s="14" t="s">
-        <v>28</v>
+        <v>50</v>
+      </c>
+      <c r="E132" s="13" t="s">
+        <v>53</v>
       </c>
       <c r="F132" s="13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G132" s="16" t="s">
-        <v>127</v>
+        <v>283</v>
       </c>
       <c r="H132" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="K132" s="16" t="s">
-        <v>307</v>
-      </c>
-      <c r="N132" s="13" t="s">
-        <v>283</v>
-      </c>
-      <c r="O132" s="13" t="s">
         <v>284</v>
       </c>
-      <c r="P132" s="13" t="b">
-        <v>0</v>
+      <c r="J132" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="L132" t="s">
+        <v>270</v>
+      </c>
+      <c r="M132" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="133" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B133" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C133" s="13" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="134" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C134"/>
+      <c r="D134" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="F134" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="G134" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="H134" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="K134" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="N134" s="13" t="s">
+        <v>281</v>
+      </c>
+      <c r="O134" s="13" t="s">
+        <v>282</v>
+      </c>
+      <c r="P134" s="13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B135" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="C133"/>
-    </row>
-    <row r="134" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B134" s="13" t="s">
+      <c r="C135"/>
+    </row>
+    <row r="136" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B136" s="13" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="135" spans="2:16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B135" t="s">
+    <row r="137" spans="2:16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B137" t="s">
         <v>37</v>
       </c>
-      <c r="C135" s="13"/>
-    </row>
-    <row r="136" spans="2:16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C136" s="13"/>
-      <c r="D136" t="s">
-        <v>35</v>
-      </c>
-      <c r="G136" s="16" t="s">
-        <v>279</v>
-      </c>
-      <c r="H136" s="13" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="137" spans="2:16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C137" s="13"/>
-      <c r="D137" t="s">
-        <v>35</v>
-      </c>
-      <c r="G137" t="s">
-        <v>186</v>
-      </c>
-      <c r="H137" t="s">
-        <v>187</v>
-      </c>
     </row>
     <row r="138" spans="2:16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C138" s="13"/>
       <c r="D138" t="s">
         <v>35</v>
       </c>
-      <c r="G138" t="s">
-        <v>188</v>
-      </c>
-      <c r="H138" t="s">
-        <v>189</v>
+      <c r="G138" s="16" t="s">
+        <v>277</v>
+      </c>
+      <c r="H138" s="13" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="139" spans="2:16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C139" s="13"/>
       <c r="D139" t="s">
+        <v>35</v>
+      </c>
+      <c r="G139" t="s">
+        <v>186</v>
+      </c>
+      <c r="H139" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="140" spans="2:16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C140" s="13"/>
+      <c r="D140" t="s">
+        <v>35</v>
+      </c>
+      <c r="G140" t="s">
+        <v>188</v>
+      </c>
+      <c r="H140" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="141" spans="2:16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C141" s="13"/>
+      <c r="D141" t="s">
         <v>60</v>
       </c>
-      <c r="F139" t="s">
-        <v>271</v>
-      </c>
-      <c r="G139" t="s">
+      <c r="F141" t="s">
         <v>269</v>
       </c>
-      <c r="H139" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="140" spans="2:16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B140" t="s">
+      <c r="G141" t="s">
+        <v>267</v>
+      </c>
+      <c r="H141" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="142" spans="2:16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B142" t="s">
         <v>38</v>
       </c>
-      <c r="C140" s="13"/>
+      <c r="C142" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4320,34 +4333,34 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
   </sheetData>
@@ -4420,11 +4433,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:F140"/>
+  <dimension ref="A1:F141"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
+      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4642,6 +4655,7 @@
       <c r="D21" s="3" t="s">
         <v>211</v>
       </c>
+      <c r="E21"/>
       <c r="F21" s="11"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -4654,6 +4668,7 @@
       <c r="C22" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="E22"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
@@ -4666,6 +4681,7 @@
         <v>0</v>
       </c>
       <c r="D23" s="13"/>
+      <c r="E23"/>
       <c r="F23" s="13"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -4679,6 +4695,7 @@
         <v>0</v>
       </c>
       <c r="D24" s="13"/>
+      <c r="E24"/>
       <c r="F24" s="13"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -4692,6 +4709,7 @@
         <v>0</v>
       </c>
       <c r="D25" s="13"/>
+      <c r="E25"/>
       <c r="F25" s="13"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -4705,6 +4723,7 @@
         <v>0</v>
       </c>
       <c r="D26" s="14"/>
+      <c r="E26"/>
       <c r="F26" s="14"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -4718,6 +4737,7 @@
         <v>0</v>
       </c>
       <c r="D27" s="14"/>
+      <c r="E27"/>
       <c r="F27" s="14"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -4730,6 +4750,7 @@
       <c r="C28" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="E28"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
@@ -4742,6 +4763,7 @@
         <v>0</v>
       </c>
       <c r="D29" s="13"/>
+      <c r="E29"/>
       <c r="F29" s="13"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -4755,6 +4777,7 @@
         <v>0</v>
       </c>
       <c r="D30" s="13"/>
+      <c r="E30"/>
       <c r="F30" s="13"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -4768,6 +4791,7 @@
         <v>0</v>
       </c>
       <c r="D31" s="13"/>
+      <c r="E31"/>
       <c r="F31" s="13"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -4781,6 +4805,7 @@
         <v>0</v>
       </c>
       <c r="D32" s="13"/>
+      <c r="E32"/>
       <c r="F32" s="13"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -4794,6 +4819,7 @@
         <v>0</v>
       </c>
       <c r="D33" s="13"/>
+      <c r="E33"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
@@ -4806,11 +4832,12 @@
         <v>0</v>
       </c>
       <c r="D34" s="13"/>
+      <c r="E34"/>
       <c r="F34" s="13"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="13" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>48</v>
@@ -4819,11 +4846,12 @@
         <v>1</v>
       </c>
       <c r="D35" s="13"/>
+      <c r="E35"/>
       <c r="F35" s="13"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="13" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>48</v>
@@ -4832,6 +4860,7 @@
         <v>1</v>
       </c>
       <c r="D36" s="13"/>
+      <c r="E36"/>
       <c r="F36" s="13"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -4845,6 +4874,7 @@
         <v>0</v>
       </c>
       <c r="D37" s="13"/>
+      <c r="E37"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="13" t="s">
@@ -4857,6 +4887,7 @@
         <v>0</v>
       </c>
       <c r="D38" s="13"/>
+      <c r="E38"/>
       <c r="F38" s="13"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -4870,6 +4901,7 @@
         <v>0</v>
       </c>
       <c r="D39" s="13"/>
+      <c r="E39"/>
       <c r="F39" s="13"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -4883,75 +4915,80 @@
         <v>0</v>
       </c>
       <c r="D40" s="13"/>
+      <c r="E40"/>
       <c r="F40" s="13"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="13" t="s">
-        <v>152</v>
+      <c r="A41" t="s">
+        <v>317</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>139</v>
+        <v>48</v>
       </c>
       <c r="C41" s="3" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D41" s="13"/>
       <c r="F41" s="13"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="13" t="s">
-        <v>212</v>
+        <v>152</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>50</v>
+        <v>139</v>
       </c>
       <c r="C42" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="D42" s="13"/>
+      <c r="E42"/>
       <c r="F42" s="13"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C43" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D43" s="13"/>
+      <c r="E43"/>
+      <c r="F43" s="13"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="13" t="s">
         <v>214</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="B44" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="C43" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="D43" s="13"/>
-      <c r="F43" s="13"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>48</v>
-      </c>
       <c r="C44" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="D44" s="14"/>
-      <c r="E44" s="14"/>
-      <c r="F44" s="14"/>
+      <c r="D44" s="13"/>
+      <c r="E44"/>
+      <c r="F44" s="13"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C45" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="E45" s="14"/>
+      <c r="D45" s="14"/>
+      <c r="E45"/>
+      <c r="F45" s="14"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>50</v>
@@ -4959,59 +4996,53 @@
       <c r="C46" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="D46" s="13"/>
-      <c r="E46" s="14"/>
-      <c r="F46" s="13"/>
+      <c r="E46"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="13" t="s">
-        <v>84</v>
+      <c r="A47" s="3" t="s">
+        <v>83</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="C47" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D47" s="13"/>
-      <c r="E47" s="14"/>
+      <c r="E47"/>
       <c r="F47" s="13"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="13" t="s">
-        <v>271</v>
+        <v>84</v>
       </c>
       <c r="B48" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C48" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D48" s="13"/>
+      <c r="E48"/>
+      <c r="F48" s="13"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="13" t="s">
+        <v>269</v>
+      </c>
+      <c r="B49" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C48" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="D48" s="13"/>
-      <c r="E48" s="13"/>
-      <c r="F48"/>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E49" s="13"/>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+      <c r="C49" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D49" s="13"/>
+      <c r="E49"/>
+      <c r="F49"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
         <v>155</v>
-      </c>
-      <c r="B50" t="s">
-        <v>50</v>
-      </c>
-      <c r="C50" t="b">
-        <v>0</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="E50" s="13"/>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>156</v>
       </c>
       <c r="B51" t="s">
         <v>50</v>
@@ -5019,11 +5050,13 @@
       <c r="C51" t="b">
         <v>0</v>
       </c>
-      <c r="E51" s="13"/>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D51" s="3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B52" t="s">
         <v>50</v>
@@ -5031,10 +5064,11 @@
       <c r="C52" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E52" s="13"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B53" t="s">
         <v>50</v>
@@ -5042,43 +5076,48 @@
       <c r="C53" t="b">
         <v>0</v>
       </c>
-      <c r="E53" s="13"/>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E55" s="13"/>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>158</v>
+      </c>
+      <c r="B54" t="s">
+        <v>50</v>
+      </c>
+      <c r="C54" t="b">
+        <v>0</v>
+      </c>
+      <c r="E54" s="13"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E56" s="13"/>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E57" s="13"/>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E58" s="13"/>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E60" s="13"/>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E59" s="13"/>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E61" s="13"/>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62"/>
-      <c r="B62"/>
-      <c r="C62"/>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E62" s="13"/>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63"/>
       <c r="B63"/>
       <c r="C63"/>
       <c r="E63" s="13"/>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64"/>
       <c r="B64"/>
       <c r="C64"/>
-      <c r="E64" s="14"/>
+      <c r="E64" s="13"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65"/>
@@ -5087,10 +5126,13 @@
       <c r="E65" s="14"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E66" s="13"/>
-    </row>
-    <row r="84" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F84" s="13"/>
+      <c r="A66"/>
+      <c r="B66"/>
+      <c r="C66"/>
+      <c r="E66" s="14"/>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E67" s="13"/>
     </row>
     <row r="85" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F85" s="13"/>
@@ -5101,23 +5143,23 @@
     <row r="87" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F87" s="13"/>
     </row>
-    <row r="115" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F115" s="13"/>
+    <row r="88" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F88" s="13"/>
     </row>
     <row r="116" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F116" s="13"/>
     </row>
-    <row r="125" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F125" s="13"/>
-    </row>
-    <row r="131" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F131" s="13"/>
-    </row>
-    <row r="136" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F136" s="13"/>
+    <row r="117" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F117" s="13"/>
+    </row>
+    <row r="126" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F126" s="13"/>
+    </row>
+    <row r="132" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F132" s="13"/>
     </row>
     <row r="137" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F137"/>
+      <c r="F137" s="13"/>
     </row>
     <row r="138" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F138"/>
@@ -5127,6 +5169,9 @@
     </row>
     <row r="140" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F140"/>
+    </row>
+    <row r="141" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F141"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="H4:H23">

--- a/app/config/tables/CHILDREN/Forms/CHILDREN/CHILDREN.xlsx
+++ b/app/config/tables/CHILDREN/Forms/CHILDREN/CHILDREN.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B50396B4-E788-4978-853C-44C6BF151351}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AA0C0C7-5AEB-48C3-9419-10C72B5FE852}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="728" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19320" yWindow="-2100" windowWidth="19440" windowHeight="15000" tabRatio="728" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="677" uniqueCount="343">
   <si>
     <t>setting_name</t>
   </si>
@@ -408,9 +408,6 @@
     <t>Dia de vacinação</t>
   </si>
   <si>
-    <t>Did the child receive polio at birth?</t>
-  </si>
-  <si>
     <t>A criança recebeu vaccina contra polio (VPO-0)?</t>
   </si>
   <si>
@@ -738,12 +735,6 @@
     <t>{}</t>
   </si>
   <si>
-    <t>[data('IDCRI') ]</t>
-  </si>
-  <si>
-    <t>IDCRI = ?</t>
-  </si>
-  <si>
     <t>display.hide_adate</t>
   </si>
   <si>
@@ -753,9 +744,6 @@
     <t>assign</t>
   </si>
   <si>
-    <t>parseInt(data("IDCRI"))+1</t>
-  </si>
-  <si>
     <t>data("idcount") &gt;1</t>
   </si>
   <si>
@@ -846,12 +834,6 @@
     <t>OBSCRI</t>
   </si>
   <si>
-    <t>Stayed overnight or died</t>
-  </si>
-  <si>
-    <t>Passou a noite ou morreu</t>
-  </si>
-  <si>
     <t>displayREGDIA</t>
   </si>
   <si>
@@ -919,9 +901,6 @@
   </si>
   <si>
     <t>obspolio</t>
-  </si>
-  <si>
-    <t>&lt;font color = "red"&gt; Date of polio vaccination is after today or before birth. &lt;/br&gt; Please check vaccine again. &lt;/font&gt;</t>
   </si>
   <si>
     <t>&lt;font color = "red"&gt; A data da vacinação contra polio (VPO-0) é depois de hoje ou antes do nascimento. &lt;/br&gt; Por favor, verifique a vacina novamente. &lt;/font&gt;</t>
@@ -1010,6 +989,81 @@
   </si>
   <si>
     <t>Please check the child's arm for a reaction</t>
+  </si>
+  <si>
+    <t>acknowledge</t>
+  </si>
+  <si>
+    <t>data("VACINFO") == "1"</t>
+  </si>
+  <si>
+    <t>IDTRANSFER</t>
+  </si>
+  <si>
+    <t>data("IDTRANSFER") != null || data("VACINFO") != "1"</t>
+  </si>
+  <si>
+    <t>Did the child receive polio at birth (VPO-0)?</t>
+  </si>
+  <si>
+    <t>&lt;font color = "red"&gt; Date of polio vaccination (VPO-0) is after today or before birth. &lt;/br&gt; Please check vaccine again. &lt;/font&gt;</t>
+  </si>
+  <si>
+    <t>Stayed overnight or died at the hospital / health centre</t>
+  </si>
+  <si>
+    <t>Passou a noite ou morreu no hospital / centro de saúde</t>
+  </si>
+  <si>
+    <t>id_transfer.jpg</t>
+  </si>
+  <si>
+    <t>The ID should be written on the top of the vaccine page</t>
+  </si>
+  <si>
+    <t>O ID deve ser escrito no topo da página da vacina</t>
+  </si>
+  <si>
+    <t>Please copy the child id &lt;b&gt;CS-{{data.IDCRI}}&lt;/b&gt; to the vaccination card</t>
+  </si>
+  <si>
+    <t>Por favor, copie a ID da criança &lt;b&gt;CS-{{data.IDCRI}}&lt;/b&gt; para o cartão de vacinação</t>
+  </si>
+  <si>
+    <t>data("VACINFO") != "1"</t>
+  </si>
+  <si>
+    <t>Has the child received a vaccination card?</t>
+  </si>
+  <si>
+    <t>A criança recebeu cartão de vacinação?</t>
+  </si>
+  <si>
+    <t>HAVECARD</t>
+  </si>
+  <si>
+    <t>data("HAVECARD") == "2"</t>
+  </si>
+  <si>
+    <t>Please give a vaccination card and copy the child id &lt;b&gt;CS-{{data.IDCRI}}&lt;/b&gt; to the vaccination card</t>
+  </si>
+  <si>
+    <t>Por favor, dar um cartão de vacinação e copie a ID da criança &lt;b&gt; CS - {{data.IDCRI}} &lt;/b&gt; para o cartão de vacinação</t>
+  </si>
+  <si>
+    <t>data("IDTRANSFER") != null || data("HAVECARD") != "2"</t>
+  </si>
+  <si>
+    <t>data("HAVECARD") != null || data("ESTADOCRI") != "1" || data("VACINFO") == "1"</t>
+  </si>
+  <si>
+    <t>IDMUL = ?</t>
+  </si>
+  <si>
+    <t>[data('IDMUL') ]</t>
+  </si>
+  <si>
+    <t>parseInt(data("IDCRI"))+parseInt(data("idcount"))-1</t>
   </si>
 </sst>
 </file>
@@ -1450,7 +1504,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C24" sqref="C24"/>
+      <selection pane="bottomLeft" activeCell="C5" sqref="C5:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1488,7 +1542,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -1504,7 +1558,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -1513,10 +1567,10 @@
       </c>
       <c r="B5" s="3"/>
       <c r="C5" t="s">
+        <v>143</v>
+      </c>
+      <c r="D5" t="s">
         <v>144</v>
-      </c>
-      <c r="D5" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -1543,7 +1597,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B8" t="s">
         <v>74</v>
@@ -1560,11 +1614,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB5FB9AA-D433-6046-85E1-401DEB18B3FD}">
-  <dimension ref="A1:S142"/>
+  <dimension ref="A1:S161"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A116" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L127" sqref="L127"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1644,10 +1698,10 @@
         <v>44</v>
       </c>
       <c r="R1" s="27" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="S1" s="28" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="2" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -1661,10 +1715,10 @@
         <v>35</v>
       </c>
       <c r="G3" s="16" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="H3" s="13" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
     </row>
     <row r="4" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -1672,10 +1726,10 @@
         <v>35</v>
       </c>
       <c r="G4" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="H4" s="22" t="s">
         <v>132</v>
-      </c>
-      <c r="H4" s="22" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -1683,10 +1737,10 @@
         <v>35</v>
       </c>
       <c r="G5" t="s">
+        <v>189</v>
+      </c>
+      <c r="H5" t="s">
         <v>190</v>
-      </c>
-      <c r="H5" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="6" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -1694,10 +1748,10 @@
         <v>35</v>
       </c>
       <c r="G6" t="s">
+        <v>191</v>
+      </c>
+      <c r="H6" t="s">
         <v>192</v>
-      </c>
-      <c r="H6" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="7" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -1705,10 +1759,10 @@
         <v>35</v>
       </c>
       <c r="G7" t="s">
+        <v>193</v>
+      </c>
+      <c r="H7" t="s">
         <v>194</v>
-      </c>
-      <c r="H7" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="8" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -1716,10 +1770,10 @@
         <v>35</v>
       </c>
       <c r="G8" s="22" t="s">
+        <v>195</v>
+      </c>
+      <c r="H8" s="22" t="s">
         <v>196</v>
-      </c>
-      <c r="H8" s="22" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="9" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -1727,21 +1781,21 @@
         <v>35</v>
       </c>
       <c r="G9" s="22" t="s">
+        <v>205</v>
+      </c>
+      <c r="H9" s="22" t="s">
         <v>206</v>
-      </c>
-      <c r="H9" s="22" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="10" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D10" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="E10" s="11" t="s">
         <v>221</v>
       </c>
-      <c r="E10" s="11" t="s">
-        <v>222</v>
-      </c>
       <c r="F10" s="11" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="G10" s="22"/>
       <c r="H10" s="22"/>
@@ -1749,270 +1803,272 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="11" t="s">
+    <row r="12" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="G11" s="22"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B12" s="13" t="s">
+      <c r="G12" s="22"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B13" s="13" t="s">
         <v>37</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="D13" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="G13" s="16" t="s">
-        <v>277</v>
-      </c>
-      <c r="H13" s="13" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="D14" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="G14" s="16" t="s">
+        <v>271</v>
+      </c>
+      <c r="H14" s="13" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="D15" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F15" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="G14" s="16" t="s">
+      <c r="G15" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="H15" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="H14" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="J14" t="b">
+      <c r="J15" t="b">
         <v>1</v>
       </c>
-      <c r="K14" t="s">
-        <v>154</v>
-      </c>
-      <c r="P14" s="13" t="b">
+      <c r="K15" t="s">
+        <v>153</v>
+      </c>
+      <c r="P15" s="13" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B15" s="13" t="s">
-        <v>237</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>240</v>
-      </c>
-      <c r="F15" s="3"/>
-      <c r="H15" s="16"/>
-      <c r="J15"/>
-      <c r="K15"/>
-    </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="D16" s="14" t="s">
-        <v>238</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>205</v>
-      </c>
+      <c r="B16" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="F16" s="3"/>
       <c r="H16" s="16"/>
-      <c r="I16" s="13" t="s">
-        <v>239</v>
-      </c>
       <c r="J16"/>
       <c r="K16"/>
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B17" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="F17" s="3"/>
+      <c r="D17" s="14" t="s">
+        <v>235</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>204</v>
+      </c>
       <c r="H17" s="16"/>
+      <c r="I17" s="13" t="s">
+        <v>342</v>
+      </c>
       <c r="J17"/>
       <c r="K17"/>
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B18" s="13" t="s">
-        <v>38</v>
-      </c>
+      <c r="D18" s="14" t="s">
+        <v>235</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>237</v>
+      </c>
+      <c r="H18" s="16"/>
+      <c r="I18" s="13">
+        <v>1</v>
+      </c>
+      <c r="J18"/>
+      <c r="K18"/>
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B19" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="F19" s="3"/>
+      <c r="H19" s="16"/>
+      <c r="J19"/>
+      <c r="K19"/>
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B20" s="13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B21" s="13" t="s">
         <v>37</v>
-      </c>
-    </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D20" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="G20" s="16" t="s">
-        <v>277</v>
-      </c>
-      <c r="H20" s="13" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D21" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="F21" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="G21" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="H21" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="J21" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="L21" s="13" t="s">
-        <v>243</v>
-      </c>
-      <c r="M21" s="13" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="22" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D22" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="E22" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="F22" s="13" t="s">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="G22" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="H22" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="J22" s="13" t="b">
-        <v>1</v>
+        <v>271</v>
+      </c>
+      <c r="H22" s="13" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="23" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D23" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="F23" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="G23" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="H23" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="J23" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="L23" s="13" t="s">
+        <v>239</v>
+      </c>
+      <c r="M23" s="13" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="24" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D24" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="F24" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="G24" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="H24" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="J24" s="13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D25" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="F23" s="13" t="s">
+      <c r="F25" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="G23" s="16" t="s">
+      <c r="G25" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="H23" s="16" t="s">
+      <c r="H25" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="K23" s="13" t="s">
-        <v>274</v>
-      </c>
-      <c r="N23" s="13" t="s">
-        <v>275</v>
-      </c>
-      <c r="O23" s="13" t="s">
-        <v>276</v>
-      </c>
-      <c r="P23" s="13" t="b">
+      <c r="K25" s="13" t="s">
+        <v>268</v>
+      </c>
+      <c r="N25" s="13" t="s">
+        <v>269</v>
+      </c>
+      <c r="O25" s="13" t="s">
+        <v>270</v>
+      </c>
+      <c r="P25" s="13" t="b">
         <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="H24" s="16"/>
-    </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B25" s="13" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="26" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B26" s="13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B27" s="13" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D27" s="14" t="s">
+    <row r="28" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D28" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="G27" s="16" t="s">
-        <v>277</v>
-      </c>
-      <c r="H27" s="13" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="28" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D28" s="13" t="s">
+      <c r="G28" s="16" t="s">
+        <v>271</v>
+      </c>
+      <c r="H28" s="13" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="29" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D29" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="E28" s="13" t="s">
+      <c r="E29" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="F28" s="14" t="s">
+      <c r="F29" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="G28" s="21" t="s">
+      <c r="G29" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="H28" s="21" t="s">
+      <c r="H29" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="J28" s="13" t="b">
+      <c r="J29" s="13" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B29" s="13" t="s">
+    <row r="30" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B30" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="C29" s="13" t="s">
+      <c r="C30" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="D29" s="13"/>
-      <c r="F29" s="14"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="21"/>
-    </row>
-    <row r="30" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D30" s="13" t="s">
+      <c r="D30" s="13"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="21"/>
+      <c r="H30" s="21"/>
+    </row>
+    <row r="31" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D31" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="F30" s="14" t="s">
-        <v>200</v>
-      </c>
-      <c r="G30" t="s">
+      <c r="F31" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="G31" t="s">
+        <v>133</v>
+      </c>
+      <c r="H31" t="s">
         <v>134</v>
       </c>
-      <c r="H30" t="s">
-        <v>135</v>
-      </c>
-      <c r="K30" t="s">
-        <v>304</v>
-      </c>
-      <c r="N30" t="s">
-        <v>279</v>
-      </c>
-      <c r="O30" t="s">
-        <v>280</v>
-      </c>
-      <c r="P30" s="13" t="b">
+      <c r="K31" t="s">
+        <v>297</v>
+      </c>
+      <c r="N31" t="s">
+        <v>273</v>
+      </c>
+      <c r="O31" t="s">
+        <v>274</v>
+      </c>
+      <c r="P31" s="13" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B31" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="D31" s="13"/>
-      <c r="F31" s="14"/>
-      <c r="G31" s="21"/>
-      <c r="H31" s="21"/>
     </row>
     <row r="32" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B32" s="13" t="s">
-        <v>38</v>
+        <v>68</v>
       </c>
       <c r="D32" s="13"/>
       <c r="F32" s="14"/>
@@ -2021,38 +2077,27 @@
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B33" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D33" s="13"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="21"/>
+      <c r="H33" s="21"/>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B34" s="13" t="s">
         <v>37</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="D34" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="G34" s="16" t="s">
-        <v>277</v>
-      </c>
-      <c r="H34" s="13" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D35" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="E35" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="G35" s="21" t="s">
-        <v>105</v>
+        <v>35</v>
+      </c>
+      <c r="G35" s="16" t="s">
+        <v>271</v>
       </c>
       <c r="H35" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="J35" s="13" t="b">
-        <v>1</v>
+        <v>272</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
@@ -2060,226 +2105,238 @@
         <v>50</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="F36" s="13" t="s">
-        <v>79</v>
+        <v>53</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>97</v>
       </c>
       <c r="G36" s="21" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="H36" s="13" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="J36" s="13" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B37" s="13" t="s">
+      <c r="D37" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E37" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="F37" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="G37" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="H37" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="J37" s="13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B38" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="C37" s="13" t="s">
-        <v>250</v>
-      </c>
-      <c r="G37" s="21"/>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="D38" s="14" t="s">
+      <c r="C38" s="13" t="s">
+        <v>246</v>
+      </c>
+      <c r="G38" s="21"/>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D39" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="F38" s="13" t="s">
-        <v>245</v>
-      </c>
-      <c r="G38" s="21" t="s">
-        <v>246</v>
-      </c>
-      <c r="H38" s="21" t="s">
+      <c r="F39" s="13" t="s">
+        <v>241</v>
+      </c>
+      <c r="G39" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="H39" s="21" t="s">
+        <v>243</v>
+      </c>
+      <c r="K39" s="13" t="s">
         <v>247</v>
       </c>
-      <c r="K38" s="13" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B39" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="G39" s="21"/>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B40" s="13" t="s">
-        <v>38</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="G40" s="21"/>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B41" s="13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B42" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="C41" s="13" t="s">
+      <c r="C42" s="13" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A42" s="13" t="s">
-        <v>287</v>
-      </c>
-      <c r="B42" s="13" t="s">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A43" s="13" t="s">
+        <v>281</v>
+      </c>
+      <c r="B43" s="13" t="s">
         <v>37</v>
-      </c>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="D43" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="G43" s="16" t="s">
-        <v>277</v>
-      </c>
-      <c r="H43" s="13" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D44" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="G44" s="16" t="s">
+        <v>271</v>
+      </c>
+      <c r="H44" s="13" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D45" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="E44" s="13" t="s">
+      <c r="E45" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="F44" s="13" t="s">
+      <c r="F45" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="G44" s="16" t="s">
+      <c r="G45" s="16" t="s">
         <v>120</v>
       </c>
-      <c r="H44" s="13" t="s">
+      <c r="H45" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="K44" s="13" t="s">
-        <v>148</v>
-      </c>
-      <c r="L44" s="13" t="s">
-        <v>252</v>
-      </c>
-      <c r="M44" s="13" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B45" s="13" t="s">
+      <c r="K45" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="L45" s="13" t="s">
+        <v>248</v>
+      </c>
+      <c r="M45" s="13" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B46" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="C45" s="13" t="s">
+      <c r="C46" s="13" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="D46" s="14" t="s">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D47" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="F46" s="13" t="s">
+      <c r="F47" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="G46" s="16" t="s">
+      <c r="G47" s="16" t="s">
         <v>122</v>
       </c>
-      <c r="H46" s="13" t="s">
+      <c r="H47" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="K46" s="13" t="s">
-        <v>300</v>
-      </c>
-      <c r="P46" s="13" t="b">
+      <c r="K47" s="13" t="s">
+        <v>293</v>
+      </c>
+      <c r="P47" s="13" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B47" s="13" t="s">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B48" s="13" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="D48" s="14" t="s">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D49" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="E48" s="13" t="s">
+      <c r="E49" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="F48" s="3" t="s">
+      <c r="F49" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="G49" s="16" t="s">
+        <v>322</v>
+      </c>
+      <c r="H49" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="K49" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="L49" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="M49" s="13" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B50" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C50" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="F50" s="3"/>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D51" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="F51" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="G48" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="H48" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="K48" s="13" t="s">
-        <v>161</v>
-      </c>
-      <c r="L48" s="13" t="s">
-        <v>254</v>
-      </c>
-      <c r="M48" s="13" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B49" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="C49" s="13" t="s">
-        <v>162</v>
-      </c>
-      <c r="F49" s="3"/>
-    </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="D50" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="F50" s="13" t="s">
-        <v>160</v>
-      </c>
-      <c r="G50" s="16" t="s">
+      <c r="G51" s="16" t="s">
         <v>122</v>
       </c>
-      <c r="H50" s="13" t="s">
+      <c r="H51" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="K50" s="13" t="s">
-        <v>301</v>
-      </c>
-      <c r="P50" s="13" t="b">
+      <c r="K51" s="13" t="s">
+        <v>294</v>
+      </c>
+      <c r="P51" s="13" t="b">
         <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B51" s="13" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B52" s="13" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B53" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="C52" s="13" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="D53" s="14" t="s">
-        <v>238</v>
-      </c>
-      <c r="F53" s="13" t="s">
-        <v>289</v>
-      </c>
-      <c r="I53" s="13">
-        <v>2</v>
+      <c r="C53" s="13" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B54" s="13" t="s">
-        <v>68</v>
+      <c r="D54" s="14" t="s">
+        <v>235</v>
+      </c>
+      <c r="F54" s="13" t="s">
+        <v>283</v>
       </c>
       <c r="I54" s="13">
         <v>2</v>
@@ -2287,26 +2344,26 @@
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B55" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="I55" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B56" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="C55" s="13" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="D56" s="14" t="s">
-        <v>238</v>
-      </c>
-      <c r="F56" s="13" t="s">
-        <v>293</v>
-      </c>
-      <c r="I56" s="13">
-        <v>2</v>
+      <c r="C56" s="13" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B57" s="13" t="s">
-        <v>68</v>
+      <c r="D57" s="14" t="s">
+        <v>235</v>
+      </c>
+      <c r="F57" s="13" t="s">
+        <v>287</v>
       </c>
       <c r="I57" s="13">
         <v>2</v>
@@ -2314,34 +2371,31 @@
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B58" s="13" t="s">
-        <v>38</v>
+        <v>68</v>
+      </c>
+      <c r="I58" s="13">
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B59" s="13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B60" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="C59" s="13" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A60" s="13" t="s">
-        <v>290</v>
-      </c>
-      <c r="B60" s="13" t="s">
+      <c r="C60" s="13" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A61" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="B61" s="13" t="s">
         <v>37</v>
-      </c>
-    </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="D61" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="G61" s="16" t="s">
-        <v>277</v>
-      </c>
-      <c r="H61" s="13" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.25">
@@ -2349,58 +2403,58 @@
         <v>35</v>
       </c>
       <c r="G62" s="16" t="s">
-        <v>291</v>
+        <v>271</v>
       </c>
       <c r="H62" s="13" t="s">
-        <v>292</v>
+        <v>272</v>
       </c>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D63" s="14" t="s">
-        <v>238</v>
-      </c>
-      <c r="F63" s="13" t="s">
-        <v>289</v>
-      </c>
-      <c r="I63" s="13">
+        <v>35</v>
+      </c>
+      <c r="G63" s="16" t="s">
+        <v>285</v>
+      </c>
+      <c r="H63" s="13" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D64" s="14" t="s">
+        <v>235</v>
+      </c>
+      <c r="F64" s="13" t="s">
+        <v>283</v>
+      </c>
+      <c r="I64" s="13">
         <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B64" s="13" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B65" s="13" t="s">
-        <v>68</v>
+        <v>38</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B66" s="13" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B67" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="C66" s="13" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A67" s="13" t="s">
-        <v>294</v>
-      </c>
-      <c r="B67" s="13" t="s">
+      <c r="C67" s="13" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A68" s="13" t="s">
+        <v>288</v>
+      </c>
+      <c r="B68" s="13" t="s">
         <v>37</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D68" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="G68" s="16" t="s">
-        <v>277</v>
-      </c>
-      <c r="H68" s="13" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
@@ -2408,117 +2462,117 @@
         <v>35</v>
       </c>
       <c r="G69" s="16" t="s">
-        <v>295</v>
+        <v>271</v>
       </c>
       <c r="H69" s="13" t="s">
-        <v>296</v>
+        <v>272</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D70" s="14" t="s">
-        <v>238</v>
-      </c>
-      <c r="F70" s="13" t="s">
-        <v>293</v>
-      </c>
-      <c r="I70" s="13">
+        <v>35</v>
+      </c>
+      <c r="G70" t="s">
+        <v>323</v>
+      </c>
+      <c r="H70" s="13" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D71" s="14" t="s">
+        <v>235</v>
+      </c>
+      <c r="F71" s="13" t="s">
+        <v>287</v>
+      </c>
+      <c r="I71" s="13">
         <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B71" s="13" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B72" s="13" t="s">
-        <v>68</v>
+        <v>38</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B73" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="C73" s="13" t="s">
-        <v>297</v>
+        <v>68</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B74" s="13" t="s">
-        <v>288</v>
+        <v>67</v>
+      </c>
+      <c r="C74" s="13" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B75" s="13" t="s">
-        <v>68</v>
+        <v>282</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B76" s="13" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B77" s="13" t="s">
         <v>37</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D77" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="G77" s="16" t="s">
-        <v>277</v>
-      </c>
-      <c r="H77" s="13" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D78" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="G78" s="16" t="s">
+        <v>271</v>
+      </c>
+      <c r="H78" s="13" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D79" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="E78" s="13" t="s">
+      <c r="E79" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="F78" s="3" t="s">
+      <c r="F79" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="G79" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="G78" s="21" t="s">
+      <c r="H79" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="H78" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="K78" s="13" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B79" s="13" t="s">
-        <v>38</v>
+      <c r="K79" s="13" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B80" s="13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B81" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="C80" s="13" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A81" s="13" t="s">
-        <v>313</v>
-      </c>
-      <c r="B81" s="13" t="s">
+      <c r="C81" s="13" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A82" s="13" t="s">
+        <v>306</v>
+      </c>
+      <c r="B82" s="13" t="s">
         <v>37</v>
-      </c>
-    </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="D82" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="G82" s="16" t="s">
-        <v>277</v>
-      </c>
-      <c r="H82" s="13" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="83" spans="1:16" x14ac:dyDescent="0.25">
@@ -2526,104 +2580,107 @@
         <v>35</v>
       </c>
       <c r="G83" s="16" t="s">
-        <v>307</v>
-      </c>
-      <c r="H83" s="16" t="s">
-        <v>307</v>
+        <v>271</v>
+      </c>
+      <c r="H83" s="13" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="84" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D84" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="G84" s="16" t="s">
+        <v>300</v>
+      </c>
+      <c r="H84" s="16" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D85" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="E85" s="13" t="s">
         <v>164</v>
       </c>
-      <c r="E84" s="13" t="s">
+      <c r="F85" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="F84" s="13" t="s">
+      <c r="G85" s="16" t="s">
+        <v>167</v>
+      </c>
+      <c r="H85" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="K85" s="13" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B86" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C86" s="13" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D87" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="F87" s="13" t="s">
+        <v>253</v>
+      </c>
+      <c r="G87" s="16" t="s">
+        <v>254</v>
+      </c>
+      <c r="H87" s="13" t="s">
+        <v>255</v>
+      </c>
+      <c r="K87" s="13" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B88" s="13" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D89" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="F89" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="G84" s="16" t="s">
-        <v>168</v>
-      </c>
-      <c r="H84" s="13" t="s">
-        <v>306</v>
-      </c>
-      <c r="K84" s="13" t="s">
+      <c r="G89" s="16" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B85" s="13" t="s">
+      <c r="H89" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="K89" s="13" t="s">
+        <v>305</v>
+      </c>
+      <c r="P89" s="13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B90" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="C85" s="13" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="D86" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="F86" s="13" t="s">
-        <v>257</v>
-      </c>
-      <c r="G86" s="16" t="s">
-        <v>258</v>
-      </c>
-      <c r="H86" s="13" t="s">
-        <v>259</v>
-      </c>
-      <c r="K86" s="13" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B87" s="13" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="D88" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="F88" s="13" t="s">
-        <v>167</v>
-      </c>
-      <c r="G88" s="16" t="s">
-        <v>170</v>
-      </c>
-      <c r="H88" s="13" t="s">
-        <v>171</v>
-      </c>
-      <c r="K88" s="13" t="s">
-        <v>312</v>
-      </c>
-      <c r="P88" s="13" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B89" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="C89" s="13" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="D90" s="14" t="s">
-        <v>238</v>
-      </c>
-      <c r="F90" s="13" t="s">
-        <v>317</v>
-      </c>
-      <c r="I90" s="13">
-        <v>2</v>
+      <c r="C90" s="13" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="91" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B91" s="13" t="s">
-        <v>68</v>
+      <c r="D91" s="14" t="s">
+        <v>235</v>
+      </c>
+      <c r="F91" s="13" t="s">
+        <v>310</v>
       </c>
       <c r="I91" s="13">
         <v>2</v>
@@ -2631,34 +2688,31 @@
     </row>
     <row r="92" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B92" s="13" t="s">
-        <v>38</v>
+        <v>68</v>
+      </c>
+      <c r="I92" s="13">
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B93" s="13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B94" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="C93" s="13" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A94" s="13" t="s">
-        <v>315</v>
-      </c>
-      <c r="B94" s="13" t="s">
+      <c r="C94" s="13" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A95" s="13" t="s">
+        <v>308</v>
+      </c>
+      <c r="B95" s="13" t="s">
         <v>37</v>
-      </c>
-    </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="D95" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="G95" s="16" t="s">
-        <v>277</v>
-      </c>
-      <c r="H95" s="13" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="96" spans="1:16" x14ac:dyDescent="0.25">
@@ -2666,49 +2720,55 @@
         <v>35</v>
       </c>
       <c r="G96" s="16" t="s">
-        <v>318</v>
+        <v>271</v>
       </c>
       <c r="H96" s="13" t="s">
-        <v>319</v>
+        <v>272</v>
       </c>
     </row>
     <row r="97" spans="2:18" x14ac:dyDescent="0.25">
       <c r="D97" s="14" t="s">
-        <v>238</v>
-      </c>
-      <c r="F97" s="13" t="s">
-        <v>317</v>
-      </c>
-      <c r="I97" s="13">
+        <v>35</v>
+      </c>
+      <c r="G97" s="16" t="s">
+        <v>311</v>
+      </c>
+      <c r="H97" s="13" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="98" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="D98" s="14" t="s">
+        <v>235</v>
+      </c>
+      <c r="F98" s="13" t="s">
+        <v>310</v>
+      </c>
+      <c r="I98" s="13">
         <v>1</v>
-      </c>
-    </row>
-    <row r="98" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B98" s="13" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="99" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B99" s="13" t="s">
-        <v>68</v>
+        <v>38</v>
       </c>
     </row>
     <row r="100" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B100" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="C100" s="13" t="s">
-        <v>316</v>
+        <v>68</v>
       </c>
     </row>
     <row r="101" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B101" s="13" t="s">
-        <v>314</v>
+        <v>67</v>
+      </c>
+      <c r="C101" s="13" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="102" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B102" s="13" t="s">
-        <v>68</v>
+        <v>307</v>
       </c>
     </row>
     <row r="103" spans="2:18" x14ac:dyDescent="0.25">
@@ -2723,10 +2783,7 @@
     </row>
     <row r="105" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B105" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="C105" t="s">
-        <v>218</v>
+        <v>68</v>
       </c>
     </row>
     <row r="106" spans="2:18" x14ac:dyDescent="0.25">
@@ -2734,451 +2791,681 @@
         <v>67</v>
       </c>
       <c r="C106" t="s">
-        <v>163</v>
+        <v>217</v>
       </c>
     </row>
     <row r="107" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B107" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C107" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="108" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B108" s="13" t="s">
         <v>37</v>
-      </c>
-    </row>
-    <row r="108" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="D108" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="G108" s="16" t="s">
-        <v>277</v>
-      </c>
-      <c r="H108" s="13" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="109" spans="2:18" x14ac:dyDescent="0.25">
       <c r="D109" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="G109" s="16" t="s">
+        <v>271</v>
+      </c>
+      <c r="H109" s="13" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="110" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="D110" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="F110" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="G110" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="F109" s="13" t="s">
-        <v>152</v>
-      </c>
-      <c r="G109" s="16" t="s">
+      <c r="H110" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="H109" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="L109" s="13" t="s">
+      <c r="L110" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="M110" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="M109" s="13" t="s">
-        <v>147</v>
-      </c>
-      <c r="R109" s="13" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="110" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B110" s="13" t="s">
-        <v>38</v>
+      <c r="R110" s="13" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="111" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B111" s="13" t="s">
-        <v>68</v>
+        <v>38</v>
       </c>
     </row>
     <row r="112" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B112" s="13" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="113" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B113" s="13" t="s">
         <v>37</v>
-      </c>
-    </row>
-    <row r="113" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="D113" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="G113" s="16" t="s">
-        <v>277</v>
-      </c>
-      <c r="H113" s="13" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="114" spans="2:18" x14ac:dyDescent="0.25">
       <c r="D114" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="G114" s="16" t="s">
+        <v>271</v>
+      </c>
+      <c r="H114" s="13" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="115" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="D115" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="E114" s="13" t="s">
+      <c r="E115" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="F114" s="13" t="s">
+      <c r="F115" s="13" t="s">
+        <v>211</v>
+      </c>
+      <c r="G115" t="s">
+        <v>257</v>
+      </c>
+      <c r="H115" t="s">
+        <v>258</v>
+      </c>
+      <c r="K115" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="R115" s="13" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="116" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B116" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C116" s="13" t="s">
         <v>212</v>
       </c>
-      <c r="G114" t="s">
-        <v>261</v>
-      </c>
-      <c r="H114" t="s">
-        <v>262</v>
-      </c>
-      <c r="K114" s="13" t="s">
-        <v>219</v>
-      </c>
-      <c r="R114" s="13" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="115" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B115" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="C115" s="13" t="s">
+    </row>
+    <row r="117" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="D117" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="F117" s="13" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="116" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="D116" s="14" t="s">
-        <v>139</v>
-      </c>
-      <c r="F116" s="13" t="s">
+      <c r="G117" s="16" t="s">
         <v>214</v>
       </c>
-      <c r="G116" s="16" t="s">
+      <c r="H117" s="13" t="s">
         <v>215</v>
-      </c>
-      <c r="H116" s="13" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="117" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B117" s="13" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="118" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B118" s="13" t="s">
-        <v>38</v>
+        <v>68</v>
       </c>
     </row>
     <row r="119" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B119" s="13" t="s">
-        <v>68</v>
+        <v>38</v>
       </c>
     </row>
     <row r="120" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B120" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="C120" t="s">
-        <v>116</v>
-      </c>
-      <c r="D120" s="13"/>
-      <c r="F120" s="14"/>
-      <c r="G120" s="21"/>
-      <c r="H120" s="21"/>
+        <v>68</v>
+      </c>
     </row>
     <row r="121" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B121" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C121" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="122" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B122" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="D121" s="13"/>
-      <c r="F121" s="14"/>
-      <c r="G121" s="21"/>
-      <c r="H121" s="21"/>
-    </row>
-    <row r="122" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="D122" s="14" t="s">
+    </row>
+    <row r="123" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="D123" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="G122" s="16" t="s">
-        <v>277</v>
-      </c>
-      <c r="H122" s="13" t="s">
-        <v>278</v>
-      </c>
-      <c r="K122"/>
-      <c r="L122"/>
-    </row>
-    <row r="123" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="D123" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="F123" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="G123" t="s">
-        <v>263</v>
-      </c>
-      <c r="H123" t="s">
-        <v>264</v>
-      </c>
-      <c r="I123"/>
-      <c r="J123"/>
-      <c r="K123" t="s">
-        <v>153</v>
-      </c>
-      <c r="L123" t="s">
-        <v>265</v>
-      </c>
-      <c r="M123" t="s">
-        <v>266</v>
-      </c>
-      <c r="N123" t="s">
-        <v>150</v>
-      </c>
-      <c r="O123" t="s">
-        <v>151</v>
-      </c>
-      <c r="R123" s="13" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="124" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B124" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="D124" s="13"/>
-      <c r="F124" s="14"/>
-      <c r="G124"/>
-      <c r="H124"/>
-      <c r="I124"/>
-      <c r="J124"/>
-      <c r="K124"/>
-      <c r="L124"/>
-      <c r="M124"/>
-      <c r="N124"/>
-      <c r="O124"/>
+      <c r="G123" s="16" t="s">
+        <v>271</v>
+      </c>
+      <c r="H123" s="13" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="124" spans="2:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D124" s="11" t="s">
+        <v>318</v>
+      </c>
+      <c r="F124" s="11" t="s">
+        <v>320</v>
+      </c>
+      <c r="G124" t="s">
+        <v>329</v>
+      </c>
+      <c r="H124" t="s">
+        <v>330</v>
+      </c>
+      <c r="K124" s="13" t="s">
+        <v>321</v>
+      </c>
+      <c r="L124" s="11" t="s">
+        <v>327</v>
+      </c>
+      <c r="M124" s="11" t="s">
+        <v>328</v>
+      </c>
+      <c r="R124" s="11" t="s">
+        <v>326</v>
+      </c>
     </row>
     <row r="125" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B125" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="D125" s="13"/>
-      <c r="F125" s="14"/>
-      <c r="G125"/>
-      <c r="H125"/>
-      <c r="I125"/>
-      <c r="J125"/>
-      <c r="K125"/>
-      <c r="L125"/>
-      <c r="M125"/>
-      <c r="N125"/>
-      <c r="O125"/>
+        <v>38</v>
+      </c>
     </row>
     <row r="126" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="D126" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="G126" s="16" t="s">
-        <v>277</v>
-      </c>
-      <c r="H126" s="13" t="s">
-        <v>278</v>
-      </c>
-      <c r="I126"/>
-      <c r="J126"/>
-      <c r="K126"/>
-      <c r="L126"/>
-      <c r="M126"/>
-      <c r="N126"/>
-      <c r="O126"/>
+      <c r="B126" s="13" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="127" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="D127" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E127" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="F127" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="G127" s="21" t="s">
-        <v>117</v>
-      </c>
-      <c r="H127" s="21" t="s">
-        <v>118</v>
-      </c>
-      <c r="K127" t="s">
-        <v>242</v>
-      </c>
-      <c r="L127" t="s">
-        <v>324</v>
-      </c>
-      <c r="M127" t="s">
-        <v>323</v>
-      </c>
-      <c r="R127" s="13" t="s">
-        <v>321</v>
-      </c>
+      <c r="B127" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C127" t="s">
+        <v>116</v>
+      </c>
+      <c r="D127" s="13"/>
+      <c r="F127" s="14"/>
+      <c r="G127" s="21"/>
+      <c r="H127" s="21"/>
     </row>
     <row r="128" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B128" s="13" t="s">
-        <v>38</v>
+        <v>67</v>
+      </c>
+      <c r="C128" t="s">
+        <v>331</v>
       </c>
       <c r="D128" s="13"/>
       <c r="F128" s="14"/>
       <c r="G128" s="21"/>
       <c r="H128" s="21"/>
     </row>
-    <row r="129" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B129" s="13" t="s">
-        <v>68</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="C129"/>
       <c r="D129" s="13"/>
       <c r="F129" s="14"/>
       <c r="G129" s="21"/>
       <c r="H129" s="21"/>
     </row>
-    <row r="130" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B130" s="13" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="131" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="C130"/>
+      <c r="D130" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="G130" s="16" t="s">
+        <v>271</v>
+      </c>
+      <c r="H130" s="13" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="131" spans="2:18" x14ac:dyDescent="0.25">
       <c r="C131"/>
       <c r="D131" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="G131" s="16" t="s">
-        <v>277</v>
-      </c>
-      <c r="H131" s="13" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="132" spans="2:16" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="E131" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="F131" s="14" t="s">
+        <v>334</v>
+      </c>
+      <c r="G131" s="21" t="s">
+        <v>332</v>
+      </c>
+      <c r="H131" s="21" t="s">
+        <v>333</v>
+      </c>
+      <c r="K131" s="13" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="132" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B132" s="13" t="s">
+        <v>38</v>
+      </c>
       <c r="C132"/>
-      <c r="D132" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="E132" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="F132" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="G132" s="16" t="s">
-        <v>283</v>
-      </c>
-      <c r="H132" s="13" t="s">
-        <v>284</v>
-      </c>
-      <c r="J132" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="L132" t="s">
-        <v>270</v>
-      </c>
-      <c r="M132" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="133" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D132" s="13"/>
+      <c r="F132" s="14"/>
+      <c r="G132" s="21"/>
+      <c r="H132" s="21"/>
+    </row>
+    <row r="133" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B133" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="C133" s="13" t="s">
+      <c r="C133" t="s">
+        <v>335</v>
+      </c>
+      <c r="D133" s="13"/>
+      <c r="F133" s="14"/>
+      <c r="G133" s="21"/>
+      <c r="H133" s="21"/>
+    </row>
+    <row r="134" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B134" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C134"/>
+      <c r="D134" s="13"/>
+      <c r="F134" s="14"/>
+      <c r="G134" s="21"/>
+      <c r="H134" s="21"/>
+    </row>
+    <row r="135" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="C135"/>
+      <c r="D135" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="G135" s="16" t="s">
+        <v>271</v>
+      </c>
+      <c r="H135" s="13" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="136" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="C136"/>
+      <c r="D136" s="11" t="s">
+        <v>318</v>
+      </c>
+      <c r="E136" s="11"/>
+      <c r="F136" s="11" t="s">
+        <v>320</v>
+      </c>
+      <c r="G136" t="s">
+        <v>336</v>
+      </c>
+      <c r="H136" s="21" t="s">
+        <v>337</v>
+      </c>
+      <c r="I136" s="11"/>
+      <c r="J136" s="11"/>
+      <c r="K136" s="13" t="s">
+        <v>338</v>
+      </c>
+      <c r="L136" s="11" t="s">
+        <v>327</v>
+      </c>
+      <c r="M136" s="11" t="s">
+        <v>328</v>
+      </c>
+      <c r="N136" s="11"/>
+      <c r="O136" s="11"/>
+      <c r="P136" s="11"/>
+      <c r="Q136" s="11"/>
+      <c r="R136" s="11" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="137" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B137" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C137"/>
+      <c r="D137" s="13"/>
+      <c r="F137" s="14"/>
+      <c r="G137" s="21"/>
+    </row>
+    <row r="138" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B138" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="C138"/>
+      <c r="D138" s="13"/>
+      <c r="F138" s="14"/>
+      <c r="G138" s="21"/>
+      <c r="H138" s="21"/>
+    </row>
+    <row r="139" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B139" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="C139"/>
+      <c r="D139" s="13"/>
+      <c r="F139" s="14"/>
+      <c r="G139" s="21"/>
+      <c r="H139" s="21"/>
+    </row>
+    <row r="140" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B140" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D140" s="13"/>
+      <c r="F140" s="14"/>
+      <c r="G140" s="21"/>
+      <c r="H140" s="21"/>
+    </row>
+    <row r="141" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="D141" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="G141" s="16" t="s">
+        <v>271</v>
+      </c>
+      <c r="H141" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="K141"/>
+      <c r="L141"/>
+    </row>
+    <row r="142" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="D142" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="F142" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="G142" t="s">
+        <v>259</v>
+      </c>
+      <c r="H142" t="s">
+        <v>260</v>
+      </c>
+      <c r="I142"/>
+      <c r="J142"/>
+      <c r="K142" t="s">
+        <v>152</v>
+      </c>
+      <c r="L142" t="s">
+        <v>261</v>
+      </c>
+      <c r="M142" t="s">
+        <v>262</v>
+      </c>
+      <c r="N142" t="s">
+        <v>149</v>
+      </c>
+      <c r="O142" t="s">
+        <v>150</v>
+      </c>
+      <c r="R142" s="13" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="143" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B143" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D143" s="13"/>
+      <c r="F143" s="14"/>
+      <c r="G143"/>
+      <c r="H143"/>
+      <c r="I143"/>
+      <c r="J143"/>
+      <c r="K143"/>
+      <c r="L143"/>
+      <c r="M143"/>
+      <c r="N143"/>
+      <c r="O143"/>
+    </row>
+    <row r="144" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B144" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D144" s="13"/>
+      <c r="F144" s="14"/>
+      <c r="G144"/>
+      <c r="H144"/>
+      <c r="I144"/>
+      <c r="J144"/>
+      <c r="K144"/>
+      <c r="L144"/>
+      <c r="M144"/>
+      <c r="N144"/>
+      <c r="O144"/>
+    </row>
+    <row r="145" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="D145" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="G145" s="16" t="s">
+        <v>271</v>
+      </c>
+      <c r="H145" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="I145"/>
+      <c r="J145"/>
+      <c r="K145"/>
+      <c r="L145"/>
+      <c r="M145"/>
+      <c r="N145"/>
+      <c r="O145"/>
+    </row>
+    <row r="146" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="D146" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E146" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="F146" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G146" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="H146" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="K146" t="s">
+        <v>238</v>
+      </c>
+      <c r="L146" t="s">
+        <v>317</v>
+      </c>
+      <c r="M146" t="s">
+        <v>316</v>
+      </c>
+      <c r="R146" s="13" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="147" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B147" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D147" s="13"/>
+      <c r="F147" s="14"/>
+      <c r="G147" s="21"/>
+      <c r="H147" s="21"/>
+    </row>
+    <row r="148" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B148" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D148" s="13"/>
+      <c r="F148" s="14"/>
+      <c r="G148" s="21"/>
+      <c r="H148" s="21"/>
+    </row>
+    <row r="149" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B149" s="13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="150" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="C150"/>
+      <c r="D150" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="G150" s="16" t="s">
+        <v>271</v>
+      </c>
+      <c r="H150" s="13" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="151" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="C151"/>
+      <c r="D151" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E151" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="F151" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="G151" s="16" t="s">
+        <v>277</v>
+      </c>
+      <c r="H151" s="13" t="s">
+        <v>278</v>
+      </c>
+      <c r="J151" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="L151" t="s">
+        <v>324</v>
+      </c>
+      <c r="M151" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="152" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B152" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C152" s="13" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="153" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="C153"/>
+      <c r="D153" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="F153" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="G153" s="16" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="134" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="C134"/>
-      <c r="D134" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="F134" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="G134" s="16" t="s">
+      <c r="H153" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="H134" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="K134" s="16" t="s">
-        <v>305</v>
-      </c>
-      <c r="N134" s="13" t="s">
-        <v>281</v>
-      </c>
-      <c r="O134" s="13" t="s">
-        <v>282</v>
-      </c>
-      <c r="P134" s="13" t="b">
+      <c r="K153" s="16" t="s">
+        <v>298</v>
+      </c>
+      <c r="N153" s="13" t="s">
+        <v>275</v>
+      </c>
+      <c r="O153" s="13" t="s">
+        <v>276</v>
+      </c>
+      <c r="P153" s="13" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B135" s="13" t="s">
+    <row r="154" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B154" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="C135"/>
-    </row>
-    <row r="136" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B136" s="13" t="s">
+      <c r="C154"/>
+    </row>
+    <row r="155" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B155" s="13" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="137" spans="2:16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B137" t="s">
+    <row r="156" spans="2:18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B156" t="s">
         <v>37</v>
       </c>
-      <c r="C137" s="13"/>
-    </row>
-    <row r="138" spans="2:16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C138" s="13"/>
-      <c r="D138" t="s">
+      <c r="C156" s="13"/>
+    </row>
+    <row r="157" spans="2:18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C157" s="13"/>
+      <c r="D157" t="s">
         <v>35</v>
       </c>
-      <c r="G138" s="16" t="s">
-        <v>277</v>
-      </c>
-      <c r="H138" s="13" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="139" spans="2:16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C139" s="13"/>
-      <c r="D139" t="s">
+      <c r="G157" s="16" t="s">
+        <v>271</v>
+      </c>
+      <c r="H157" s="13" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="158" spans="2:18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C158" s="13"/>
+      <c r="D158" t="s">
         <v>35</v>
       </c>
-      <c r="G139" t="s">
+      <c r="G158" t="s">
+        <v>185</v>
+      </c>
+      <c r="H158" t="s">
         <v>186</v>
       </c>
-      <c r="H139" t="s">
+    </row>
+    <row r="159" spans="2:18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C159" s="13"/>
+      <c r="D159" t="s">
+        <v>35</v>
+      </c>
+      <c r="G159" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="140" spans="2:16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C140" s="13"/>
-      <c r="D140" t="s">
-        <v>35</v>
-      </c>
-      <c r="G140" t="s">
+      <c r="H159" t="s">
         <v>188</v>
       </c>
-      <c r="H140" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="141" spans="2:16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C141" s="13"/>
-      <c r="D141" t="s">
+    </row>
+    <row r="160" spans="2:18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C160" s="13"/>
+      <c r="D160" t="s">
         <v>60</v>
       </c>
-      <c r="F141" t="s">
-        <v>269</v>
-      </c>
-      <c r="G141" t="s">
-        <v>267</v>
-      </c>
-      <c r="H141" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="142" spans="2:16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B142" t="s">
+      <c r="F160" t="s">
+        <v>265</v>
+      </c>
+      <c r="G160" t="s">
+        <v>263</v>
+      </c>
+      <c r="H160" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="161" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B161" t="s">
         <v>38</v>
       </c>
-      <c r="C142" s="13"/>
+      <c r="C161" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3191,8 +3478,8 @@
   <dimension ref="A1:F138"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A29" sqref="A29:D29"/>
+      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D19" sqref="C19:D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3490,10 +3777,10 @@
         <v>4</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -3504,86 +3791,86 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D24" s="13" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="25" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="13" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="26" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="13" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="27" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="13" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="28" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="13" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="29" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="13" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
     </row>
     <row r="30" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -4234,7 +4521,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G7" sqref="G7"/>
+      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4250,57 +4537,57 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="23" t="s">
         <v>224</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="D1" s="23" t="s">
         <v>225</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="E1" s="23" t="s">
         <v>226</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="F1" s="23" t="s">
         <v>227</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="G1" s="23" t="s">
         <v>228</v>
       </c>
-      <c r="G1" s="23" t="s">
+      <c r="H1" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>230</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B2" t="s">
+        <v>231</v>
+      </c>
+      <c r="C2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E2" t="s">
+        <v>340</v>
+      </c>
+      <c r="F2" t="s">
+        <v>341</v>
+      </c>
+      <c r="G2" s="24" t="s">
         <v>232</v>
       </c>
-      <c r="C2" t="s">
-        <v>129</v>
-      </c>
-      <c r="D2" t="s">
-        <v>129</v>
-      </c>
-      <c r="E2" t="s">
-        <v>235</v>
-      </c>
-      <c r="F2" t="s">
-        <v>234</v>
-      </c>
-      <c r="G2" s="24" t="s">
-        <v>233</v>
-      </c>
       <c r="H2" s="24" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
   </sheetData>
@@ -4333,34 +4620,34 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
     </row>
   </sheetData>
@@ -4416,7 +4703,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B3" t="s">
         <v>48</v>
@@ -4433,11 +4720,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:F141"/>
+  <dimension ref="A1:F142"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
+      <selection pane="bottomLeft" activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4474,7 +4761,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -4545,7 +4832,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>48</v>
@@ -4556,7 +4843,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>60</v>
@@ -4567,7 +4854,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>60</v>
@@ -4589,7 +4876,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>60</v>
@@ -4600,7 +4887,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>50</v>
@@ -4611,7 +4898,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>28</v>
@@ -4622,7 +4909,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>60</v>
@@ -4633,7 +4920,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B19" s="13" t="s">
         <v>50</v>
@@ -4644,16 +4931,16 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C21" s="3" t="b">
         <v>1</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E21"/>
       <c r="F21" s="11"/>
@@ -4728,7 +5015,7 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>28</v>
@@ -4768,7 +5055,7 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>60</v>
@@ -4810,7 +5097,7 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>50</v>
@@ -4823,7 +5110,7 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>28</v>
@@ -4837,7 +5124,7 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="13" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>48</v>
@@ -4851,7 +5138,7 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="13" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>48</v>
@@ -4865,7 +5152,7 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>50</v>
@@ -4878,10 +5165,10 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="13" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C38" s="3" t="b">
         <v>0</v>
@@ -4892,7 +5179,7 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="13" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>60</v>
@@ -4906,7 +5193,7 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="13" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>28</v>
@@ -4920,7 +5207,7 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>48</v>
@@ -4933,10 +5220,10 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="13" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C42" s="3" t="b">
         <v>0</v>
@@ -4946,7 +5233,7 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="13" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>50</v>
@@ -4960,10 +5247,10 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="13" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C44" s="3" t="b">
         <v>0</v>
@@ -4973,22 +5260,20 @@
       <c r="F44" s="13"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>48</v>
+      <c r="A45" s="11" t="s">
+        <v>320</v>
+      </c>
+      <c r="B45" s="11" t="s">
+        <v>318</v>
       </c>
       <c r="C45" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="D45" s="14"/>
-      <c r="E45"/>
-      <c r="F45" s="14"/>
+      <c r="E45" s="13"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="3" t="s">
-        <v>82</v>
+      <c r="A46" s="11" t="s">
+        <v>334</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>50</v>
@@ -4996,79 +5281,79 @@
       <c r="C46" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="E46"/>
+      <c r="E46" s="13"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C47" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="D47" s="13"/>
+      <c r="D47" s="14"/>
       <c r="E47"/>
-      <c r="F47" s="13"/>
+      <c r="F47" s="14"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="13" t="s">
-        <v>84</v>
+      <c r="A48" s="3" t="s">
+        <v>82</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="C48" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="D48" s="13"/>
       <c r="E48"/>
-      <c r="F48" s="13"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="13" t="s">
-        <v>269</v>
+      <c r="A49" s="3" t="s">
+        <v>83</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C49" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D49" s="13"/>
       <c r="E49"/>
-      <c r="F49"/>
+      <c r="F49" s="13"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C50" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D50" s="13"/>
+      <c r="E50"/>
+      <c r="F50" s="13"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>155</v>
-      </c>
-      <c r="B51" t="s">
-        <v>50</v>
-      </c>
-      <c r="C51" t="b">
+      <c r="A51" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C51" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="D51" s="3" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>156</v>
-      </c>
-      <c r="B52" t="s">
-        <v>50</v>
-      </c>
-      <c r="C52" t="b">
-        <v>0</v>
-      </c>
-      <c r="E52" s="13"/>
+      <c r="D51" s="13"/>
+      <c r="E51"/>
+      <c r="F51"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B53" t="s">
         <v>50</v>
@@ -5076,10 +5361,13 @@
       <c r="C53" t="b">
         <v>0</v>
       </c>
+      <c r="D53" s="3" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B54" t="s">
         <v>50</v>
@@ -5089,11 +5377,28 @@
       </c>
       <c r="E54" s="13"/>
     </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>156</v>
+      </c>
+      <c r="B55" t="s">
+        <v>50</v>
+      </c>
+      <c r="C55" t="b">
+        <v>0</v>
+      </c>
+    </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>157</v>
+      </c>
+      <c r="B56" t="s">
+        <v>50</v>
+      </c>
+      <c r="C56" t="b">
+        <v>0</v>
+      </c>
       <c r="E56" s="13"/>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E57" s="13"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E58" s="13"/>
@@ -5101,16 +5406,13 @@
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E59" s="13"/>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E61" s="13"/>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E60" s="13"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E62" s="13"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63"/>
-      <c r="B63"/>
-      <c r="C63"/>
       <c r="E63" s="13"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -5123,7 +5425,7 @@
       <c r="A65"/>
       <c r="B65"/>
       <c r="C65"/>
-      <c r="E65" s="14"/>
+      <c r="E65" s="13"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66"/>
@@ -5132,10 +5434,13 @@
       <c r="E66" s="14"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E67" s="13"/>
-    </row>
-    <row r="85" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F85" s="13"/>
+      <c r="A67"/>
+      <c r="B67"/>
+      <c r="C67"/>
+      <c r="E67" s="14"/>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E68" s="13"/>
     </row>
     <row r="86" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F86" s="13"/>
@@ -5146,23 +5451,23 @@
     <row r="88" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F88" s="13"/>
     </row>
-    <row r="116" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F116" s="13"/>
+    <row r="89" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F89" s="13"/>
     </row>
     <row r="117" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F117" s="13"/>
     </row>
-    <row r="126" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F126" s="13"/>
-    </row>
-    <row r="132" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F132" s="13"/>
-    </row>
-    <row r="137" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F137" s="13"/>
+    <row r="118" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F118" s="13"/>
+    </row>
+    <row r="127" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F127" s="13"/>
+    </row>
+    <row r="133" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F133" s="13"/>
     </row>
     <row r="138" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F138"/>
+      <c r="F138" s="13"/>
     </row>
     <row r="139" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F139"/>
@@ -5172,6 +5477,9 @@
     </row>
     <row r="141" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F141"/>
+    </row>
+    <row r="142" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F142"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="H4:H23">

--- a/app/config/tables/CHILDREN/Forms/CHILDREN/CHILDREN.xlsx
+++ b/app/config/tables/CHILDREN/Forms/CHILDREN/CHILDREN.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AA0C0C7-5AEB-48C3-9419-10C72B5FE852}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38C986FB-1B52-4A16-BA62-91E6AA56C2F1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-19320" yWindow="-2100" windowWidth="19440" windowHeight="15000" tabRatio="728" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="677" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="344">
   <si>
     <t>setting_name</t>
   </si>
@@ -1064,6 +1064,9 @@
   </si>
   <si>
     <t>parseInt(data("IDCRI"))+parseInt(data("idcount"))-1</t>
+  </si>
+  <si>
+    <t>hideInContents</t>
   </si>
 </sst>
 </file>
@@ -1614,11 +1617,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB5FB9AA-D433-6046-85E1-401DEB18B3FD}">
-  <dimension ref="A1:S161"/>
+  <dimension ref="A1:T161"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" topLeftCell="N1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="T1" sqref="T1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1642,10 +1645,11 @@
     <col min="17" max="17" width="19.5703125" style="13" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="20.7109375" style="13" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="18.140625" style="13" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="11.42578125" style="13"/>
+    <col min="20" max="20" width="14.85546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="11.42578125" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
         <v>23</v>
       </c>
@@ -1703,14 +1707,17 @@
       <c r="S1" s="28" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="2" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T1" s="25" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B2" s="11" t="s">
         <v>37</v>
       </c>
       <c r="G2" s="22"/>
     </row>
-    <row r="3" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D3" s="11" t="s">
         <v>35</v>
       </c>
@@ -1720,8 +1727,11 @@
       <c r="H3" s="13" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="4" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T3" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D4" s="11" t="s">
         <v>35</v>
       </c>
@@ -1731,8 +1741,11 @@
       <c r="H4" s="22" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="5" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T4" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D5" s="11" t="s">
         <v>35</v>
       </c>
@@ -1742,8 +1755,11 @@
       <c r="H5" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="6" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T5" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D6" s="11" t="s">
         <v>35</v>
       </c>
@@ -1753,8 +1769,11 @@
       <c r="H6" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="7" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T6" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D7" s="11" t="s">
         <v>35</v>
       </c>
@@ -1764,8 +1783,11 @@
       <c r="H7" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T7" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D8" s="11" t="s">
         <v>35</v>
       </c>
@@ -1775,8 +1797,11 @@
       <c r="H8" s="22" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T8" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D9" s="11" t="s">
         <v>35</v>
       </c>
@@ -1786,8 +1811,11 @@
       <c r="H9" s="22" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T9" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D10" s="11" t="s">
         <v>220</v>
       </c>
@@ -1802,19 +1830,22 @@
       <c r="S10" s="11" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T10" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B12" s="11" t="s">
         <v>38</v>
       </c>
       <c r="G12" s="22"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B13" s="13" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="D14" s="14" t="s">
         <v>35</v>
       </c>
@@ -1824,8 +1855,11 @@
       <c r="H14" s="13" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T14" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="D15" s="14" t="s">
         <v>28</v>
       </c>
@@ -1847,8 +1881,9 @@
       <c r="P15" s="13" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T15" s="11"/>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B16" s="13" t="s">
         <v>234</v>
       </c>
@@ -1860,7 +1895,7 @@
       <c r="J16"/>
       <c r="K16"/>
     </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:20" x14ac:dyDescent="0.25">
       <c r="D17" s="14" t="s">
         <v>235</v>
       </c>
@@ -1873,8 +1908,11 @@
       </c>
       <c r="J17"/>
       <c r="K17"/>
-    </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="T17" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:20" x14ac:dyDescent="0.25">
       <c r="D18" s="14" t="s">
         <v>235</v>
       </c>
@@ -1887,8 +1925,11 @@
       </c>
       <c r="J18"/>
       <c r="K18"/>
-    </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="T18" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B19" s="13" t="s">
         <v>68</v>
       </c>
@@ -1897,17 +1938,17 @@
       <c r="J19"/>
       <c r="K19"/>
     </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B20" s="13" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B21" s="13" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:20" x14ac:dyDescent="0.25">
       <c r="D22" s="14" t="s">
         <v>35</v>
       </c>
@@ -1917,8 +1958,11 @@
       <c r="H22" s="13" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="T22" s="13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:20" x14ac:dyDescent="0.25">
       <c r="D23" s="14" t="s">
         <v>60</v>
       </c>
@@ -1941,7 +1985,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:20" x14ac:dyDescent="0.25">
       <c r="D24" s="14" t="s">
         <v>50</v>
       </c>
@@ -1961,7 +2005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:20" x14ac:dyDescent="0.25">
       <c r="D25" s="14" t="s">
         <v>28</v>
       </c>
@@ -1987,17 +2031,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B26" s="13" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="27" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B27" s="13" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="28" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:20" x14ac:dyDescent="0.25">
       <c r="D28" s="14" t="s">
         <v>35</v>
       </c>
@@ -2007,8 +2051,11 @@
       <c r="H28" s="13" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="29" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="T28" s="13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="2:20" x14ac:dyDescent="0.25">
       <c r="D29" s="13" t="s">
         <v>50</v>
       </c>
@@ -2028,7 +2075,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B30" s="13" t="s">
         <v>67</v>
       </c>
@@ -2040,7 +2087,7 @@
       <c r="G30" s="21"/>
       <c r="H30" s="21"/>
     </row>
-    <row r="31" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:20" x14ac:dyDescent="0.25">
       <c r="D31" s="13" t="s">
         <v>28</v>
       </c>
@@ -2066,7 +2113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B32" s="13" t="s">
         <v>68</v>
       </c>
@@ -2075,7 +2122,7 @@
       <c r="G32" s="21"/>
       <c r="H32" s="21"/>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B33" s="13" t="s">
         <v>38</v>
       </c>
@@ -2084,12 +2131,12 @@
       <c r="G33" s="21"/>
       <c r="H33" s="21"/>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B34" s="13" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="D35" s="14" t="s">
         <v>35</v>
       </c>
@@ -2099,8 +2146,11 @@
       <c r="H35" s="13" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="T35" s="13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="D36" s="14" t="s">
         <v>50</v>
       </c>
@@ -2120,7 +2170,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="D37" s="14" t="s">
         <v>50</v>
       </c>
@@ -2140,7 +2190,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B38" s="13" t="s">
         <v>67</v>
       </c>
@@ -2149,7 +2199,7 @@
       </c>
       <c r="G38" s="21"/>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="D39" s="14" t="s">
         <v>60</v>
       </c>
@@ -2166,18 +2216,18 @@
         <v>247</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B40" s="13" t="s">
         <v>68</v>
       </c>
       <c r="G40" s="21"/>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B41" s="13" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B42" s="13" t="s">
         <v>67</v>
       </c>
@@ -2185,7 +2235,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A43" s="13" t="s">
         <v>281</v>
       </c>
@@ -2193,7 +2243,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
       <c r="D44" s="14" t="s">
         <v>35</v>
       </c>
@@ -2203,8 +2253,11 @@
       <c r="H44" s="13" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="T44" s="13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
       <c r="D45" s="14" t="s">
         <v>50</v>
       </c>
@@ -2230,7 +2283,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B46" s="13" t="s">
         <v>67</v>
       </c>
@@ -2238,7 +2291,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="D47" s="14" t="s">
         <v>28</v>
       </c>
@@ -2258,12 +2311,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B48" s="13" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
       <c r="D49" s="14" t="s">
         <v>50</v>
       </c>
@@ -2289,7 +2342,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B50" s="13" t="s">
         <v>67</v>
       </c>
@@ -2298,7 +2351,7 @@
       </c>
       <c r="F50" s="3"/>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
       <c r="D51" s="14" t="s">
         <v>28</v>
       </c>
@@ -2318,12 +2371,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B52" s="13" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B53" s="13" t="s">
         <v>67</v>
       </c>
@@ -2331,7 +2384,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
       <c r="D54" s="14" t="s">
         <v>235</v>
       </c>
@@ -2341,16 +2394,16 @@
       <c r="I54" s="13">
         <v>2</v>
       </c>
-    </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="T54" s="13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B55" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="I55" s="13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B56" s="13" t="s">
         <v>67</v>
       </c>
@@ -2358,7 +2411,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
       <c r="D57" s="14" t="s">
         <v>235</v>
       </c>
@@ -2368,21 +2421,21 @@
       <c r="I57" s="13">
         <v>2</v>
       </c>
-    </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="T57" s="13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B58" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="I58" s="13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B59" s="13" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B60" s="13" t="s">
         <v>67</v>
       </c>
@@ -2390,7 +2443,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A61" s="13" t="s">
         <v>284</v>
       </c>
@@ -2398,7 +2451,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
       <c r="D62" s="14" t="s">
         <v>35</v>
       </c>
@@ -2408,8 +2461,11 @@
       <c r="H62" s="13" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="T62" s="13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
       <c r="D63" s="14" t="s">
         <v>35</v>
       </c>
@@ -2419,8 +2475,11 @@
       <c r="H63" s="13" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="T63" s="13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
       <c r="D64" s="14" t="s">
         <v>235</v>
       </c>
@@ -2430,18 +2489,21 @@
       <c r="I64" s="13">
         <v>1</v>
       </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="T64" s="13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B65" s="13" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B66" s="13" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B67" s="13" t="s">
         <v>67</v>
       </c>
@@ -2449,7 +2511,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A68" s="13" t="s">
         <v>288</v>
       </c>
@@ -2457,7 +2519,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
       <c r="D69" s="14" t="s">
         <v>35</v>
       </c>
@@ -2467,8 +2529,11 @@
       <c r="H69" s="13" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="T69" s="13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
       <c r="D70" s="14" t="s">
         <v>35</v>
       </c>
@@ -2478,8 +2543,11 @@
       <c r="H70" s="13" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="T70" s="13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
       <c r="D71" s="14" t="s">
         <v>235</v>
       </c>
@@ -2489,18 +2557,21 @@
       <c r="I71" s="13">
         <v>1</v>
       </c>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="T71" s="13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B72" s="13" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B73" s="13" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B74" s="13" t="s">
         <v>67</v>
       </c>
@@ -2508,22 +2579,22 @@
         <v>290</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B75" s="13" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B76" s="13" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B77" s="13" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:20" x14ac:dyDescent="0.25">
       <c r="D78" s="14" t="s">
         <v>35</v>
       </c>
@@ -2533,8 +2604,11 @@
       <c r="H78" s="13" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="T78" s="13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:20" x14ac:dyDescent="0.25">
       <c r="D79" s="14" t="s">
         <v>50</v>
       </c>
@@ -2554,12 +2628,12 @@
         <v>148</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B80" s="13" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B81" s="13" t="s">
         <v>67</v>
       </c>
@@ -2567,7 +2641,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A82" s="13" t="s">
         <v>306</v>
       </c>
@@ -2575,7 +2649,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:20" x14ac:dyDescent="0.25">
       <c r="D83" s="14" t="s">
         <v>35</v>
       </c>
@@ -2585,8 +2659,11 @@
       <c r="H83" s="13" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="T83" s="13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:20" x14ac:dyDescent="0.25">
       <c r="D84" s="14" t="s">
         <v>35</v>
       </c>
@@ -2596,8 +2673,11 @@
       <c r="H84" s="16" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="T84" s="13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:20" x14ac:dyDescent="0.25">
       <c r="D85" s="14" t="s">
         <v>163</v>
       </c>
@@ -2617,7 +2697,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B86" s="13" t="s">
         <v>67</v>
       </c>
@@ -2625,7 +2705,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:20" x14ac:dyDescent="0.25">
       <c r="D87" s="14" t="s">
         <v>60</v>
       </c>
@@ -2642,12 +2722,12 @@
         <v>256</v>
       </c>
     </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B88" s="13" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:20" x14ac:dyDescent="0.25">
       <c r="D89" s="14" t="s">
         <v>28</v>
       </c>
@@ -2667,7 +2747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B90" s="13" t="s">
         <v>67</v>
       </c>
@@ -2675,7 +2755,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:20" x14ac:dyDescent="0.25">
       <c r="D91" s="14" t="s">
         <v>235</v>
       </c>
@@ -2685,21 +2765,21 @@
       <c r="I91" s="13">
         <v>2</v>
       </c>
-    </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="T91" s="13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B92" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="I92" s="13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="93" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B93" s="13" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B94" s="13" t="s">
         <v>67</v>
       </c>
@@ -2707,7 +2787,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A95" s="13" t="s">
         <v>308</v>
       </c>
@@ -2715,7 +2795,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:20" x14ac:dyDescent="0.25">
       <c r="D96" s="14" t="s">
         <v>35</v>
       </c>
@@ -2725,8 +2805,11 @@
       <c r="H96" s="13" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="97" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="T96" s="13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="2:20" x14ac:dyDescent="0.25">
       <c r="D97" s="14" t="s">
         <v>35</v>
       </c>
@@ -2736,8 +2819,11 @@
       <c r="H97" s="13" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="98" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="T97" s="13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="2:20" x14ac:dyDescent="0.25">
       <c r="D98" s="14" t="s">
         <v>235</v>
       </c>
@@ -2747,18 +2833,21 @@
       <c r="I98" s="13">
         <v>1</v>
       </c>
-    </row>
-    <row r="99" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="T98" s="13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B99" s="13" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="100" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B100" s="13" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="101" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B101" s="13" t="s">
         <v>67</v>
       </c>
@@ -2766,27 +2855,27 @@
         <v>309</v>
       </c>
     </row>
-    <row r="102" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B102" s="13" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="103" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B103" s="13" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="104" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B104" s="13" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="105" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B105" s="13" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="106" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B106" s="13" t="s">
         <v>67</v>
       </c>
@@ -2794,7 +2883,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="107" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B107" s="13" t="s">
         <v>67</v>
       </c>
@@ -2802,12 +2891,12 @@
         <v>162</v>
       </c>
     </row>
-    <row r="108" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B108" s="13" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="109" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:20" x14ac:dyDescent="0.25">
       <c r="D109" s="14" t="s">
         <v>35</v>
       </c>
@@ -2817,8 +2906,11 @@
       <c r="H109" s="13" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="110" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="T109" s="13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="2:20" x14ac:dyDescent="0.25">
       <c r="D110" s="14" t="s">
         <v>138</v>
       </c>
@@ -2841,22 +2933,22 @@
         <v>142</v>
       </c>
     </row>
-    <row r="111" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B111" s="13" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="112" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B112" s="13" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="113" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B113" s="13" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="114" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:20" x14ac:dyDescent="0.25">
       <c r="D114" s="14" t="s">
         <v>35</v>
       </c>
@@ -2866,8 +2958,11 @@
       <c r="H114" s="13" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="115" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="T114" s="13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="2:20" x14ac:dyDescent="0.25">
       <c r="D115" s="14" t="s">
         <v>50</v>
       </c>
@@ -2890,7 +2985,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="116" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B116" s="13" t="s">
         <v>67</v>
       </c>
@@ -2898,7 +2993,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="117" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:20" x14ac:dyDescent="0.25">
       <c r="D117" s="14" t="s">
         <v>138</v>
       </c>
@@ -2912,22 +3007,22 @@
         <v>215</v>
       </c>
     </row>
-    <row r="118" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B118" s="13" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="119" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B119" s="13" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="120" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B120" s="13" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="121" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B121" s="13" t="s">
         <v>67</v>
       </c>
@@ -2935,12 +3030,12 @@
         <v>319</v>
       </c>
     </row>
-    <row r="122" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B122" s="13" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="123" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:20" x14ac:dyDescent="0.25">
       <c r="D123" s="14" t="s">
         <v>35</v>
       </c>
@@ -2950,8 +3045,11 @@
       <c r="H123" s="13" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="124" spans="2:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T123" s="13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="2:20" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D124" s="11" t="s">
         <v>318</v>
       </c>
@@ -2977,17 +3075,17 @@
         <v>326</v>
       </c>
     </row>
-    <row r="125" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B125" s="13" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="126" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B126" s="13" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="127" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B127" s="13" t="s">
         <v>67</v>
       </c>
@@ -2999,7 +3097,7 @@
       <c r="G127" s="21"/>
       <c r="H127" s="21"/>
     </row>
-    <row r="128" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B128" s="13" t="s">
         <v>67</v>
       </c>
@@ -3011,7 +3109,7 @@
       <c r="G128" s="21"/>
       <c r="H128" s="21"/>
     </row>
-    <row r="129" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B129" s="13" t="s">
         <v>37</v>
       </c>
@@ -3021,7 +3119,7 @@
       <c r="G129" s="21"/>
       <c r="H129" s="21"/>
     </row>
-    <row r="130" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C130"/>
       <c r="D130" s="14" t="s">
         <v>35</v>
@@ -3032,8 +3130,11 @@
       <c r="H130" s="13" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="131" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="T130" s="13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C131"/>
       <c r="D131" s="14" t="s">
         <v>50</v>
@@ -3054,7 +3155,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="132" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B132" s="13" t="s">
         <v>38</v>
       </c>
@@ -3064,7 +3165,7 @@
       <c r="G132" s="21"/>
       <c r="H132" s="21"/>
     </row>
-    <row r="133" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B133" s="13" t="s">
         <v>67</v>
       </c>
@@ -3076,7 +3177,7 @@
       <c r="G133" s="21"/>
       <c r="H133" s="21"/>
     </row>
-    <row r="134" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B134" s="13" t="s">
         <v>37</v>
       </c>
@@ -3086,7 +3187,7 @@
       <c r="G134" s="21"/>
       <c r="H134" s="21"/>
     </row>
-    <row r="135" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C135"/>
       <c r="D135" s="14" t="s">
         <v>35</v>
@@ -3097,8 +3198,11 @@
       <c r="H135" s="13" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="136" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="T135" s="13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C136"/>
       <c r="D136" s="11" t="s">
         <v>318</v>
@@ -3132,7 +3236,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="137" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B137" s="13" t="s">
         <v>38</v>
       </c>
@@ -3141,7 +3245,7 @@
       <c r="F137" s="14"/>
       <c r="G137" s="21"/>
     </row>
-    <row r="138" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B138" s="13" t="s">
         <v>68</v>
       </c>
@@ -3151,7 +3255,7 @@
       <c r="G138" s="21"/>
       <c r="H138" s="21"/>
     </row>
-    <row r="139" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B139" s="13" t="s">
         <v>68</v>
       </c>
@@ -3161,7 +3265,7 @@
       <c r="G139" s="21"/>
       <c r="H139" s="21"/>
     </row>
-    <row r="140" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B140" s="13" t="s">
         <v>37</v>
       </c>
@@ -3170,7 +3274,7 @@
       <c r="G140" s="21"/>
       <c r="H140" s="21"/>
     </row>
-    <row r="141" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:20" x14ac:dyDescent="0.25">
       <c r="D141" s="14" t="s">
         <v>35</v>
       </c>
@@ -3182,8 +3286,11 @@
       </c>
       <c r="K141"/>
       <c r="L141"/>
-    </row>
-    <row r="142" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="T141" s="13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="2:20" x14ac:dyDescent="0.25">
       <c r="D142" s="13" t="s">
         <v>48</v>
       </c>
@@ -3217,7 +3324,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="143" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B143" s="13" t="s">
         <v>38</v>
       </c>
@@ -3233,7 +3340,7 @@
       <c r="N143"/>
       <c r="O143"/>
     </row>
-    <row r="144" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B144" s="13" t="s">
         <v>37</v>
       </c>
@@ -3249,7 +3356,7 @@
       <c r="N144"/>
       <c r="O144"/>
     </row>
-    <row r="145" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:20" x14ac:dyDescent="0.25">
       <c r="D145" s="14" t="s">
         <v>35</v>
       </c>
@@ -3266,8 +3373,11 @@
       <c r="M145"/>
       <c r="N145"/>
       <c r="O145"/>
-    </row>
-    <row r="146" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="T145" s="13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="2:20" x14ac:dyDescent="0.25">
       <c r="D146" s="3" t="s">
         <v>50</v>
       </c>
@@ -3296,7 +3406,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="147" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B147" s="13" t="s">
         <v>38</v>
       </c>
@@ -3305,7 +3415,7 @@
       <c r="G147" s="21"/>
       <c r="H147" s="21"/>
     </row>
-    <row r="148" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B148" s="13" t="s">
         <v>68</v>
       </c>
@@ -3314,12 +3424,12 @@
       <c r="G148" s="21"/>
       <c r="H148" s="21"/>
     </row>
-    <row r="149" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B149" s="13" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="150" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C150"/>
       <c r="D150" s="14" t="s">
         <v>35</v>
@@ -3330,8 +3440,11 @@
       <c r="H150" s="13" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="151" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="T150" s="13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C151"/>
       <c r="D151" s="14" t="s">
         <v>50</v>
@@ -3358,7 +3471,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="152" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B152" s="13" t="s">
         <v>67</v>
       </c>
@@ -3366,7 +3479,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="153" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C153"/>
       <c r="D153" s="14" t="s">
         <v>28</v>
@@ -3393,24 +3506,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B154" s="13" t="s">
         <v>68</v>
       </c>
       <c r="C154"/>
     </row>
-    <row r="155" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B155" s="13" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="156" spans="2:18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B156" t="s">
         <v>37</v>
       </c>
       <c r="C156" s="13"/>
     </row>
-    <row r="157" spans="2:18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C157" s="13"/>
       <c r="D157" t="s">
         <v>35</v>
@@ -3421,8 +3534,11 @@
       <c r="H157" s="13" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="158" spans="2:18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T157" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="2:20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C158" s="13"/>
       <c r="D158" t="s">
         <v>35</v>
@@ -3433,8 +3549,11 @@
       <c r="H158" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="159" spans="2:18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T158" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="2:20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C159" s="13"/>
       <c r="D159" t="s">
         <v>35</v>
@@ -3445,8 +3564,11 @@
       <c r="H159" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="160" spans="2:18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T159" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="2:20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C160" s="13"/>
       <c r="D160" t="s">
         <v>60</v>

--- a/app/config/tables/CHILDREN/Forms/CHILDREN/CHILDREN.xlsx
+++ b/app/config/tables/CHILDREN/Forms/CHILDREN/CHILDREN.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38C986FB-1B52-4A16-BA62-91E6AA56C2F1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2494C084-9975-49AF-90EE-79F184FA1D9A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19320" yWindow="-2100" windowWidth="19440" windowHeight="15000" tabRatio="728" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="728" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="677" uniqueCount="342">
   <si>
     <t>setting_name</t>
   </si>
@@ -537,18 +537,9 @@
     <t>OUTRODATA</t>
   </si>
   <si>
-    <t>What is the first vaccine the child received after polio or BCG?</t>
-  </si>
-  <si>
     <t>data("OUTROVAC") != null || data("VACINASOU") !=1</t>
   </si>
   <si>
-    <t>Date of first vaccine received after polio or BCG</t>
-  </si>
-  <si>
-    <t>Data da primeira vacina recebida após a poliomielite ou BCG</t>
-  </si>
-  <si>
     <t>Polio (1, 2 or 3)</t>
   </si>
   <si>
@@ -813,18 +804,6 @@
     <t>Existe algum adesivo ou número de identificação no cartão?</t>
   </si>
   <si>
-    <t>Measure of the mid-upper-arm circumference</t>
-  </si>
-  <si>
-    <t>Medida da circunferência do braço</t>
-  </si>
-  <si>
-    <t>If MUAC is less than 50mm write "11" &lt;/br&gt; If it is not possible to measure MUAC write "999"</t>
-  </si>
-  <si>
-    <t>Se o MUAC for menor que 50 mm, escreva "11" &lt;/br&gt; Se não for possível medir o MUAC, escreva "999"</t>
-  </si>
-  <si>
     <t>&lt;i&gt; If you have any comment or observations about the child, write them here &lt;/i&gt;</t>
   </si>
   <si>
@@ -841,12 +820,6 @@
   </si>
   <si>
     <t>adate.diffInDays(data("DOB"),data("DATASEG")) &gt;= 0 &amp;&amp; adate.diffInDays(data("REGDIA"),data("DOB")) &gt;= 0 &amp;&amp; adate.ageInYears(data("DOB")) != -9999 &amp;&amp; adate.ageInYears(data("DOB")) &lt; 2019</t>
-  </si>
-  <si>
-    <t>Date of birth is after today or before regdia:</t>
-  </si>
-  <si>
-    <t>A data de nascimento é depois de hoje ou antes do regdia:</t>
   </si>
   <si>
     <t>&lt;b&gt;Follow-up on registered pregnancy to {{data.NOMEMUL}} regdia: {{calculates.displayREGDIA}}&lt;/b&gt;</t>
@@ -934,24 +907,12 @@
 data("HOSPDATA") != null &amp;&amp; adate.ageInYears(data("HOSPDATA")) != -9999 &amp;&amp; adate.ageInYears(data("HOSPDATA")) &lt; 2019) || data("HOSP") != 1</t>
   </si>
   <si>
-    <t>Qual é a primeira vacina que a criança recebeu após a vaccina contra polio ou BCG?</t>
-  </si>
-  <si>
-    <t>Polio: {{calculates.displayPOLIO}}&lt;/br&gt; BCG: {{calculates.displayBCG}}</t>
-  </si>
-  <si>
     <t>displayBCG</t>
   </si>
   <si>
-    <t>adate.display(data("BCG"))</t>
-  </si>
-  <si>
     <t>displayPOLIO</t>
   </si>
   <si>
-    <t>adate.display(data("POLIO"))</t>
-  </si>
-  <si>
     <t>data("OUTRODATA") != null || data("VACINASOU") !=1</t>
   </si>
   <si>
@@ -1067,6 +1028,39 @@
   </si>
   <si>
     <t>hideInContents</t>
+  </si>
+  <si>
+    <t>adate.display(data("BCGDATA"))</t>
+  </si>
+  <si>
+    <t>adate.display(data("POLIODATA"))</t>
+  </si>
+  <si>
+    <t>Date of birth is after today or before date of pregnancy registration:</t>
+  </si>
+  <si>
+    <t>A data de nascimento é depois de hoje ou antes do data de registro da gravidez:</t>
+  </si>
+  <si>
+    <t>Please use the measuring tape from BHP&lt;/br&gt; If MUAC is less than 50mm write "11" &lt;/br&gt; If it is not possible to measure MUAC write "999"</t>
+  </si>
+  <si>
+    <t>TELE</t>
+  </si>
+  <si>
+    <t>Por favor, use a fita métrica da PSB&lt;/br&gt; Se o MUAC for menor que 50 mm, escreva "11" &lt;/br&gt; Se não for possível medir o MUAC, escreva "999"</t>
+  </si>
+  <si>
+    <t>Measure of the mid-upper-arm circumference (left arm)</t>
+  </si>
+  <si>
+    <t>Medir de perímetro do esquerdo braço</t>
+  </si>
+  <si>
+    <t>What is the first other vaccines the child received?</t>
+  </si>
+  <si>
+    <t>Quais foram as primeiras outras vacinas que a criança recebeu?</t>
   </si>
 </sst>
 </file>
@@ -1600,7 +1594,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B8" t="s">
         <v>74</v>
@@ -1617,11 +1611,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB5FB9AA-D433-6046-85E1-401DEB18B3FD}">
-  <dimension ref="A1:T161"/>
+  <dimension ref="A1:T160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T1" sqref="T1"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A146" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K152" sqref="K152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1705,10 +1699,10 @@
         <v>141</v>
       </c>
       <c r="S1" s="28" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="T1" s="25" t="s">
-        <v>343</v>
+        <v>330</v>
       </c>
     </row>
     <row r="2" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -1722,10 +1716,10 @@
         <v>35</v>
       </c>
       <c r="G3" s="16" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="H3" s="13" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="T3" s="11" t="b">
         <v>1</v>
@@ -1750,10 +1744,10 @@
         <v>35</v>
       </c>
       <c r="G5" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="H5" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="T5" s="11" t="b">
         <v>1</v>
@@ -1764,10 +1758,10 @@
         <v>35</v>
       </c>
       <c r="G6" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="H6" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="T6" s="11" t="b">
         <v>1</v>
@@ -1778,10 +1772,10 @@
         <v>35</v>
       </c>
       <c r="G7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="H7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="T7" s="11" t="b">
         <v>1</v>
@@ -1792,10 +1786,10 @@
         <v>35</v>
       </c>
       <c r="G8" s="22" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="H8" s="22" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="T8" s="11" t="b">
         <v>1</v>
@@ -1806,10 +1800,10 @@
         <v>35</v>
       </c>
       <c r="G9" s="22" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="H9" s="22" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="T9" s="11" t="b">
         <v>1</v>
@@ -1817,13 +1811,13 @@
     </row>
     <row r="10" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D10" s="11" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="G10" s="22"/>
       <c r="H10" s="22"/>
@@ -1850,10 +1844,10 @@
         <v>35</v>
       </c>
       <c r="G14" s="16" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="H14" s="13" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="T14" s="11" t="b">
         <v>1</v>
@@ -1885,10 +1879,10 @@
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B16" s="13" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="F16" s="3"/>
       <c r="H16" s="16"/>
@@ -1897,14 +1891,14 @@
     </row>
     <row r="17" spans="2:20" x14ac:dyDescent="0.25">
       <c r="D17" s="14" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="H17" s="16"/>
       <c r="I17" s="13" t="s">
-        <v>342</v>
+        <v>329</v>
       </c>
       <c r="J17"/>
       <c r="K17"/>
@@ -1914,10 +1908,10 @@
     </row>
     <row r="18" spans="2:20" x14ac:dyDescent="0.25">
       <c r="D18" s="14" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="H18" s="16"/>
       <c r="I18" s="13">
@@ -1953,10 +1947,10 @@
         <v>35</v>
       </c>
       <c r="G22" s="16" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="H22" s="13" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="T22" s="13" t="b">
         <v>1</v>
@@ -1979,10 +1973,10 @@
         <v>1</v>
       </c>
       <c r="L23" s="13" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="M23" s="13" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="24" spans="2:20" x14ac:dyDescent="0.25">
@@ -2019,13 +2013,13 @@
         <v>92</v>
       </c>
       <c r="K25" s="13" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="N25" s="13" t="s">
-        <v>269</v>
+        <v>333</v>
       </c>
       <c r="O25" s="13" t="s">
-        <v>270</v>
+        <v>334</v>
       </c>
       <c r="P25" s="13" t="b">
         <v>0</v>
@@ -2046,10 +2040,10 @@
         <v>35</v>
       </c>
       <c r="G28" s="16" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="H28" s="13" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="T28" s="13" t="b">
         <v>1</v>
@@ -2092,7 +2086,7 @@
         <v>28</v>
       </c>
       <c r="F31" s="14" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="G31" t="s">
         <v>133</v>
@@ -2101,13 +2095,13 @@
         <v>134</v>
       </c>
       <c r="K31" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="N31" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="O31" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="P31" s="13" t="b">
         <v>0</v>
@@ -2141,10 +2135,10 @@
         <v>35</v>
       </c>
       <c r="G35" s="16" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="H35" s="13" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="T35" s="13" t="b">
         <v>1</v>
@@ -2195,7 +2189,7 @@
         <v>67</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G38" s="21"/>
     </row>
@@ -2204,16 +2198,16 @@
         <v>60</v>
       </c>
       <c r="F39" s="13" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="G39" s="21" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="H39" s="21" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="K39" s="13" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.25">
@@ -2237,7 +2231,7 @@
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A43" s="13" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="B43" s="13" t="s">
         <v>37</v>
@@ -2248,10 +2242,10 @@
         <v>35</v>
       </c>
       <c r="G44" s="16" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="H44" s="13" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="T44" s="13" t="b">
         <v>1</v>
@@ -2277,10 +2271,10 @@
         <v>147</v>
       </c>
       <c r="L45" s="13" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="M45" s="13" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.25">
@@ -2305,7 +2299,7 @@
         <v>123</v>
       </c>
       <c r="K47" s="13" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="P47" s="13" t="b">
         <v>0</v>
@@ -2327,7 +2321,7 @@
         <v>158</v>
       </c>
       <c r="G49" s="16" t="s">
-        <v>322</v>
+        <v>309</v>
       </c>
       <c r="H49" s="13" t="s">
         <v>124</v>
@@ -2336,10 +2330,10 @@
         <v>160</v>
       </c>
       <c r="L49" s="13" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="M49" s="13" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.25">
@@ -2365,7 +2359,7 @@
         <v>123</v>
       </c>
       <c r="K51" s="13" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="P51" s="13" t="b">
         <v>0</v>
@@ -2381,15 +2375,15 @@
         <v>67</v>
       </c>
       <c r="C53" s="13" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
     </row>
     <row r="54" spans="1:20" x14ac:dyDescent="0.25">
       <c r="D54" s="14" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="F54" s="13" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="I54" s="13">
         <v>2</v>
@@ -2408,15 +2402,15 @@
         <v>67</v>
       </c>
       <c r="C56" s="13" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
     </row>
     <row r="57" spans="1:20" x14ac:dyDescent="0.25">
       <c r="D57" s="14" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="F57" s="13" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="I57" s="13">
         <v>2</v>
@@ -2440,12 +2434,12 @@
         <v>67</v>
       </c>
       <c r="C60" s="13" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
     </row>
     <row r="61" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A61" s="13" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="B61" s="13" t="s">
         <v>37</v>
@@ -2456,10 +2450,10 @@
         <v>35</v>
       </c>
       <c r="G62" s="16" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="H62" s="13" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="T62" s="13" t="b">
         <v>1</v>
@@ -2470,10 +2464,10 @@
         <v>35</v>
       </c>
       <c r="G63" s="16" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="H63" s="13" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="T63" s="13" t="b">
         <v>1</v>
@@ -2481,10 +2475,10 @@
     </row>
     <row r="64" spans="1:20" x14ac:dyDescent="0.25">
       <c r="D64" s="14" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="F64" s="13" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="I64" s="13">
         <v>1</v>
@@ -2508,12 +2502,12 @@
         <v>67</v>
       </c>
       <c r="C67" s="13" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
     </row>
     <row r="68" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A68" s="13" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="B68" s="13" t="s">
         <v>37</v>
@@ -2524,10 +2518,10 @@
         <v>35</v>
       </c>
       <c r="G69" s="16" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="H69" s="13" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="T69" s="13" t="b">
         <v>1</v>
@@ -2538,10 +2532,10 @@
         <v>35</v>
       </c>
       <c r="G70" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="H70" s="13" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="T70" s="13" t="b">
         <v>1</v>
@@ -2549,10 +2543,10 @@
     </row>
     <row r="71" spans="1:20" x14ac:dyDescent="0.25">
       <c r="D71" s="14" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="F71" s="13" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="I71" s="13">
         <v>1</v>
@@ -2576,12 +2570,12 @@
         <v>67</v>
       </c>
       <c r="C74" s="13" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
     </row>
     <row r="75" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B75" s="13" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
     </row>
     <row r="76" spans="1:20" x14ac:dyDescent="0.25">
@@ -2599,10 +2593,10 @@
         <v>35</v>
       </c>
       <c r="G78" s="16" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="H78" s="13" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="T78" s="13" t="b">
         <v>1</v>
@@ -2643,7 +2637,7 @@
     </row>
     <row r="82" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A82" s="13" t="s">
-        <v>306</v>
+        <v>293</v>
       </c>
       <c r="B82" s="13" t="s">
         <v>37</v>
@@ -2654,10 +2648,10 @@
         <v>35</v>
       </c>
       <c r="G83" s="16" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="H83" s="13" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="T83" s="13" t="b">
         <v>1</v>
@@ -2665,134 +2659,134 @@
     </row>
     <row r="84" spans="1:20" x14ac:dyDescent="0.25">
       <c r="D84" s="14" t="s">
-        <v>35</v>
+        <v>163</v>
+      </c>
+      <c r="E84" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="F84" s="13" t="s">
+        <v>165</v>
       </c>
       <c r="G84" s="16" t="s">
-        <v>300</v>
-      </c>
-      <c r="H84" s="16" t="s">
-        <v>300</v>
-      </c>
-      <c r="T84" s="13" t="b">
-        <v>1</v>
+        <v>340</v>
+      </c>
+      <c r="H84" s="13" t="s">
+        <v>341</v>
+      </c>
+      <c r="K84" s="13" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="85" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="D85" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="E85" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="F85" s="13" t="s">
-        <v>165</v>
-      </c>
-      <c r="G85" s="16" t="s">
-        <v>167</v>
-      </c>
-      <c r="H85" s="13" t="s">
-        <v>299</v>
-      </c>
-      <c r="K85" s="13" t="s">
-        <v>168</v>
+      <c r="B85" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C85" s="13" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="86" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B86" s="13" t="s">
+      <c r="D86" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="F86" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="G86" s="16" t="s">
+        <v>251</v>
+      </c>
+      <c r="H86" s="13" t="s">
+        <v>252</v>
+      </c>
+      <c r="K86" s="13" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="87" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B87" s="13" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="88" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="D88" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="F88" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="G88" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="H88" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="K88" t="s">
+        <v>292</v>
+      </c>
+      <c r="P88" s="13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B89" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="C86" s="13" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="87" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="D87" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="F87" s="13" t="s">
-        <v>253</v>
-      </c>
-      <c r="G87" s="16" t="s">
-        <v>254</v>
-      </c>
-      <c r="H87" s="13" t="s">
-        <v>255</v>
-      </c>
-      <c r="K87" s="13" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="88" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B88" s="13" t="s">
+      <c r="C89" s="13" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="90" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="D90" s="14" t="s">
+        <v>232</v>
+      </c>
+      <c r="F90" s="13" t="s">
+        <v>297</v>
+      </c>
+      <c r="I90" s="13">
+        <v>2</v>
+      </c>
+      <c r="T90" s="13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B91" s="13" t="s">
         <v>68</v>
-      </c>
-    </row>
-    <row r="89" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="D89" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="F89" s="13" t="s">
-        <v>166</v>
-      </c>
-      <c r="G89" s="16" t="s">
-        <v>169</v>
-      </c>
-      <c r="H89" s="13" t="s">
-        <v>170</v>
-      </c>
-      <c r="K89" s="13" t="s">
-        <v>305</v>
-      </c>
-      <c r="P89" s="13" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B90" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="C90" s="13" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="91" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="D91" s="14" t="s">
-        <v>235</v>
-      </c>
-      <c r="F91" s="13" t="s">
-        <v>310</v>
-      </c>
-      <c r="I91" s="13">
-        <v>2</v>
-      </c>
-      <c r="T91" s="13" t="b">
-        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B92" s="13" t="s">
-        <v>68</v>
+        <v>38</v>
       </c>
     </row>
     <row r="93" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B93" s="13" t="s">
-        <v>38</v>
+        <v>67</v>
+      </c>
+      <c r="C93" s="13" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="94" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A94" s="13" t="s">
+        <v>295</v>
+      </c>
       <c r="B94" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="C94" s="13" t="s">
-        <v>313</v>
+        <v>37</v>
       </c>
     </row>
     <row r="95" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A95" s="13" t="s">
-        <v>308</v>
-      </c>
-      <c r="B95" s="13" t="s">
-        <v>37</v>
+      <c r="D95" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="G95" s="16" t="s">
+        <v>262</v>
+      </c>
+      <c r="H95" s="13" t="s">
+        <v>263</v>
+      </c>
+      <c r="T95" s="13" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:20" x14ac:dyDescent="0.25">
@@ -2800,10 +2794,10 @@
         <v>35</v>
       </c>
       <c r="G96" s="16" t="s">
-        <v>271</v>
+        <v>298</v>
       </c>
       <c r="H96" s="13" t="s">
-        <v>272</v>
+        <v>299</v>
       </c>
       <c r="T96" s="13" t="b">
         <v>1</v>
@@ -2811,53 +2805,44 @@
     </row>
     <row r="97" spans="2:20" x14ac:dyDescent="0.25">
       <c r="D97" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="G97" s="16" t="s">
-        <v>311</v>
-      </c>
-      <c r="H97" s="13" t="s">
-        <v>312</v>
+        <v>232</v>
+      </c>
+      <c r="F97" s="13" t="s">
+        <v>297</v>
+      </c>
+      <c r="I97" s="13">
+        <v>1</v>
       </c>
       <c r="T97" s="13" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="98" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="D98" s="14" t="s">
-        <v>235</v>
-      </c>
-      <c r="F98" s="13" t="s">
-        <v>310</v>
-      </c>
-      <c r="I98" s="13">
-        <v>1</v>
-      </c>
-      <c r="T98" s="13" t="b">
-        <v>1</v>
+      <c r="B98" s="13" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="99" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B99" s="13" t="s">
-        <v>38</v>
+        <v>68</v>
       </c>
     </row>
     <row r="100" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B100" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
+      </c>
+      <c r="C100" s="13" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="101" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B101" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="C101" s="13" t="s">
-        <v>309</v>
+        <v>294</v>
       </c>
     </row>
     <row r="102" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B102" s="13" t="s">
-        <v>307</v>
+        <v>68</v>
       </c>
     </row>
     <row r="103" spans="2:20" x14ac:dyDescent="0.25">
@@ -2872,7 +2857,10 @@
     </row>
     <row r="105" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B105" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
+      </c>
+      <c r="C105" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="106" spans="2:20" x14ac:dyDescent="0.25">
@@ -2880,217 +2868,221 @@
         <v>67</v>
       </c>
       <c r="C106" t="s">
-        <v>217</v>
+        <v>162</v>
       </c>
     </row>
     <row r="107" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B107" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="C107" t="s">
-        <v>162</v>
+        <v>37</v>
       </c>
     </row>
     <row r="108" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B108" s="13" t="s">
-        <v>37</v>
+      <c r="D108" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="G108" s="16" t="s">
+        <v>262</v>
+      </c>
+      <c r="H108" s="13" t="s">
+        <v>263</v>
+      </c>
+      <c r="T108" s="13" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="2:20" x14ac:dyDescent="0.25">
       <c r="D109" s="14" t="s">
-        <v>35</v>
+        <v>138</v>
+      </c>
+      <c r="F109" s="13" t="s">
+        <v>151</v>
       </c>
       <c r="G109" s="16" t="s">
-        <v>271</v>
+        <v>139</v>
       </c>
       <c r="H109" s="13" t="s">
-        <v>272</v>
-      </c>
-      <c r="T109" s="13" t="b">
-        <v>1</v>
+        <v>140</v>
+      </c>
+      <c r="L109" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="M109" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="R109" s="13" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="110" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="D110" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="F110" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="G110" s="16" t="s">
-        <v>139</v>
-      </c>
-      <c r="H110" s="13" t="s">
-        <v>140</v>
-      </c>
-      <c r="L110" s="13" t="s">
-        <v>145</v>
-      </c>
-      <c r="M110" s="13" t="s">
-        <v>146</v>
-      </c>
-      <c r="R110" s="13" t="s">
-        <v>142</v>
+      <c r="B110" s="13" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="111" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B111" s="13" t="s">
-        <v>38</v>
+        <v>68</v>
       </c>
     </row>
     <row r="112" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B112" s="13" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
     </row>
     <row r="113" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B113" s="13" t="s">
-        <v>37</v>
+      <c r="D113" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="G113" s="16" t="s">
+        <v>262</v>
+      </c>
+      <c r="H113" s="13" t="s">
+        <v>263</v>
+      </c>
+      <c r="T113" s="13" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="114" spans="2:20" x14ac:dyDescent="0.25">
       <c r="D114" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="G114" s="16" t="s">
-        <v>271</v>
-      </c>
-      <c r="H114" s="13" t="s">
-        <v>272</v>
-      </c>
-      <c r="T114" s="13" t="b">
-        <v>1</v>
+        <v>50</v>
+      </c>
+      <c r="E114" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="F114" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="G114" t="s">
+        <v>254</v>
+      </c>
+      <c r="H114" t="s">
+        <v>255</v>
+      </c>
+      <c r="K114" s="13" t="s">
+        <v>215</v>
+      </c>
+      <c r="R114" s="13" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="115" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="D115" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="E115" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="F115" s="13" t="s">
+      <c r="B115" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C115" s="13" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="116" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="D116" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="F116" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="G116" s="16" t="s">
         <v>211</v>
       </c>
-      <c r="G115" t="s">
-        <v>257</v>
-      </c>
-      <c r="H115" t="s">
-        <v>258</v>
-      </c>
-      <c r="K115" s="13" t="s">
-        <v>218</v>
-      </c>
-      <c r="R115" s="13" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="116" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B116" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="C116" s="13" t="s">
+      <c r="H116" s="13" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="117" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="D117" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="F117" s="13" t="s">
-        <v>213</v>
-      </c>
-      <c r="G117" s="16" t="s">
-        <v>214</v>
-      </c>
-      <c r="H117" s="13" t="s">
-        <v>215</v>
+      <c r="B117" s="13" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="118" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B118" s="13" t="s">
-        <v>68</v>
+        <v>38</v>
       </c>
     </row>
     <row r="119" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B119" s="13" t="s">
-        <v>38</v>
+        <v>68</v>
       </c>
     </row>
     <row r="120" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B120" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
+      </c>
+      <c r="C120" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="121" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B121" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="C121" t="s">
-        <v>319</v>
+        <v>37</v>
       </c>
     </row>
     <row r="122" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B122" s="13" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="123" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="D123" s="14" t="s">
+      <c r="D122" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="G123" s="16" t="s">
-        <v>271</v>
-      </c>
-      <c r="H123" s="13" t="s">
-        <v>272</v>
-      </c>
-      <c r="T123" s="13" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124" spans="2:20" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D124" s="11" t="s">
-        <v>318</v>
-      </c>
-      <c r="F124" s="11" t="s">
-        <v>320</v>
-      </c>
-      <c r="G124" t="s">
-        <v>329</v>
-      </c>
-      <c r="H124" t="s">
-        <v>330</v>
-      </c>
-      <c r="K124" s="13" t="s">
-        <v>321</v>
-      </c>
-      <c r="L124" s="11" t="s">
-        <v>327</v>
-      </c>
-      <c r="M124" s="11" t="s">
-        <v>328</v>
-      </c>
-      <c r="R124" s="11" t="s">
-        <v>326</v>
+      <c r="G122" s="16" t="s">
+        <v>262</v>
+      </c>
+      <c r="H122" s="13" t="s">
+        <v>263</v>
+      </c>
+      <c r="T122" s="13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="2:20" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D123" s="11" t="s">
+        <v>305</v>
+      </c>
+      <c r="F123" s="11" t="s">
+        <v>307</v>
+      </c>
+      <c r="G123" t="s">
+        <v>316</v>
+      </c>
+      <c r="H123" t="s">
+        <v>317</v>
+      </c>
+      <c r="K123" s="13" t="s">
+        <v>308</v>
+      </c>
+      <c r="L123" s="11" t="s">
+        <v>314</v>
+      </c>
+      <c r="M123" s="11" t="s">
+        <v>315</v>
+      </c>
+      <c r="R123" s="11" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="124" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B124" s="13" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="125" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B125" s="13" t="s">
-        <v>38</v>
+        <v>68</v>
       </c>
     </row>
     <row r="126" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B126" s="13" t="s">
-        <v>68</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="C126" t="s">
+        <v>116</v>
+      </c>
+      <c r="D126" s="13"/>
+      <c r="F126" s="14"/>
+      <c r="G126" s="21"/>
+      <c r="H126" s="21"/>
     </row>
     <row r="127" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B127" s="13" t="s">
         <v>67</v>
       </c>
       <c r="C127" t="s">
-        <v>116</v>
+        <v>318</v>
       </c>
       <c r="D127" s="13"/>
       <c r="F127" s="14"/>
@@ -3099,67 +3091,67 @@
     </row>
     <row r="128" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B128" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="C128" t="s">
-        <v>331</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="C128"/>
       <c r="D128" s="13"/>
       <c r="F128" s="14"/>
       <c r="G128" s="21"/>
       <c r="H128" s="21"/>
     </row>
     <row r="129" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B129" s="13" t="s">
-        <v>37</v>
-      </c>
       <c r="C129"/>
-      <c r="D129" s="13"/>
-      <c r="F129" s="14"/>
-      <c r="G129" s="21"/>
-      <c r="H129" s="21"/>
+      <c r="D129" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="G129" s="16" t="s">
+        <v>262</v>
+      </c>
+      <c r="H129" s="13" t="s">
+        <v>263</v>
+      </c>
+      <c r="T129" s="13" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="130" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C130"/>
       <c r="D130" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="G130" s="16" t="s">
-        <v>271</v>
-      </c>
-      <c r="H130" s="13" t="s">
-        <v>272</v>
-      </c>
-      <c r="T130" s="13" t="b">
-        <v>1</v>
+        <v>50</v>
+      </c>
+      <c r="E130" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="F130" s="14" t="s">
+        <v>321</v>
+      </c>
+      <c r="G130" s="21" t="s">
+        <v>319</v>
+      </c>
+      <c r="H130" s="21" t="s">
+        <v>320</v>
+      </c>
+      <c r="K130" s="13" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="131" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B131" s="13" t="s">
+        <v>38</v>
+      </c>
       <c r="C131"/>
-      <c r="D131" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="E131" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="F131" s="14" t="s">
-        <v>334</v>
-      </c>
-      <c r="G131" s="21" t="s">
-        <v>332</v>
-      </c>
-      <c r="H131" s="21" t="s">
-        <v>333</v>
-      </c>
-      <c r="K131" s="13" t="s">
-        <v>339</v>
-      </c>
+      <c r="D131" s="13"/>
+      <c r="F131" s="14"/>
+      <c r="G131" s="21"/>
+      <c r="H131" s="21"/>
     </row>
     <row r="132" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B132" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="C132"/>
+        <v>67</v>
+      </c>
+      <c r="C132" t="s">
+        <v>322</v>
+      </c>
       <c r="D132" s="13"/>
       <c r="F132" s="14"/>
       <c r="G132" s="21"/>
@@ -3167,83 +3159,81 @@
     </row>
     <row r="133" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B133" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="C133" t="s">
-        <v>335</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="C133"/>
       <c r="D133" s="13"/>
       <c r="F133" s="14"/>
       <c r="G133" s="21"/>
       <c r="H133" s="21"/>
     </row>
     <row r="134" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B134" s="13" t="s">
-        <v>37</v>
-      </c>
       <c r="C134"/>
-      <c r="D134" s="13"/>
-      <c r="F134" s="14"/>
-      <c r="G134" s="21"/>
-      <c r="H134" s="21"/>
+      <c r="D134" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="G134" s="16" t="s">
+        <v>262</v>
+      </c>
+      <c r="H134" s="13" t="s">
+        <v>263</v>
+      </c>
+      <c r="T134" s="13" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="135" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C135"/>
-      <c r="D135" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="G135" s="16" t="s">
-        <v>271</v>
-      </c>
-      <c r="H135" s="13" t="s">
-        <v>272</v>
-      </c>
-      <c r="T135" s="13" t="b">
-        <v>1</v>
+      <c r="D135" s="11" t="s">
+        <v>305</v>
+      </c>
+      <c r="E135" s="11"/>
+      <c r="F135" s="11" t="s">
+        <v>307</v>
+      </c>
+      <c r="G135" t="s">
+        <v>323</v>
+      </c>
+      <c r="H135" s="21" t="s">
+        <v>324</v>
+      </c>
+      <c r="I135" s="11"/>
+      <c r="J135" s="11"/>
+      <c r="K135" s="13" t="s">
+        <v>325</v>
+      </c>
+      <c r="L135" s="11" t="s">
+        <v>314</v>
+      </c>
+      <c r="M135" s="11" t="s">
+        <v>315</v>
+      </c>
+      <c r="N135" s="11"/>
+      <c r="O135" s="11"/>
+      <c r="P135" s="11"/>
+      <c r="Q135" s="11"/>
+      <c r="R135" s="11" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="136" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B136" s="13" t="s">
+        <v>38</v>
+      </c>
       <c r="C136"/>
-      <c r="D136" s="11" t="s">
-        <v>318</v>
-      </c>
-      <c r="E136" s="11"/>
-      <c r="F136" s="11" t="s">
-        <v>320</v>
-      </c>
-      <c r="G136" t="s">
-        <v>336</v>
-      </c>
-      <c r="H136" s="21" t="s">
-        <v>337</v>
-      </c>
-      <c r="I136" s="11"/>
-      <c r="J136" s="11"/>
-      <c r="K136" s="13" t="s">
-        <v>338</v>
-      </c>
-      <c r="L136" s="11" t="s">
-        <v>327</v>
-      </c>
-      <c r="M136" s="11" t="s">
-        <v>328</v>
-      </c>
-      <c r="N136" s="11"/>
-      <c r="O136" s="11"/>
-      <c r="P136" s="11"/>
-      <c r="Q136" s="11"/>
-      <c r="R136" s="11" t="s">
-        <v>326</v>
-      </c>
+      <c r="D136" s="13"/>
+      <c r="F136" s="14"/>
+      <c r="G136" s="21"/>
     </row>
     <row r="137" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B137" s="13" t="s">
-        <v>38</v>
+        <v>68</v>
       </c>
       <c r="C137"/>
       <c r="D137" s="13"/>
       <c r="F137" s="14"/>
       <c r="G137" s="21"/>
+      <c r="H137" s="21"/>
     </row>
     <row r="138" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B138" s="13" t="s">
@@ -3257,76 +3247,82 @@
     </row>
     <row r="139" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B139" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="C139"/>
+        <v>37</v>
+      </c>
       <c r="D139" s="13"/>
       <c r="F139" s="14"/>
       <c r="G139" s="21"/>
       <c r="H139" s="21"/>
     </row>
     <row r="140" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B140" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="D140" s="13"/>
-      <c r="F140" s="14"/>
-      <c r="G140" s="21"/>
-      <c r="H140" s="21"/>
+      <c r="D140" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="G140" s="16" t="s">
+        <v>262</v>
+      </c>
+      <c r="H140" s="13" t="s">
+        <v>263</v>
+      </c>
+      <c r="K140"/>
+      <c r="L140"/>
+      <c r="T140" s="13" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="141" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="D141" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="G141" s="16" t="s">
-        <v>271</v>
-      </c>
-      <c r="H141" s="13" t="s">
-        <v>272</v>
-      </c>
-      <c r="K141"/>
-      <c r="L141"/>
-      <c r="T141" s="13" t="b">
-        <v>1</v>
+      <c r="D141" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="F141" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="G141" t="s">
+        <v>338</v>
+      </c>
+      <c r="H141" t="s">
+        <v>339</v>
+      </c>
+      <c r="I141"/>
+      <c r="J141"/>
+      <c r="K141" t="s">
+        <v>152</v>
+      </c>
+      <c r="L141" t="s">
+        <v>335</v>
+      </c>
+      <c r="M141" t="s">
+        <v>337</v>
+      </c>
+      <c r="N141" t="s">
+        <v>149</v>
+      </c>
+      <c r="O141" t="s">
+        <v>150</v>
+      </c>
+      <c r="R141" s="13" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="142" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="D142" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="F142" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="G142" t="s">
-        <v>259</v>
-      </c>
-      <c r="H142" t="s">
-        <v>260</v>
-      </c>
+      <c r="B142" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D142" s="13"/>
+      <c r="F142" s="14"/>
+      <c r="G142"/>
+      <c r="H142"/>
       <c r="I142"/>
       <c r="J142"/>
-      <c r="K142" t="s">
-        <v>152</v>
-      </c>
-      <c r="L142" t="s">
-        <v>261</v>
-      </c>
-      <c r="M142" t="s">
-        <v>262</v>
-      </c>
-      <c r="N142" t="s">
-        <v>149</v>
-      </c>
-      <c r="O142" t="s">
-        <v>150</v>
-      </c>
-      <c r="R142" s="13" t="s">
-        <v>315</v>
-      </c>
+      <c r="K142"/>
+      <c r="L142"/>
+      <c r="M142"/>
+      <c r="N142"/>
+      <c r="O142"/>
     </row>
     <row r="143" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B143" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D143" s="13"/>
       <c r="F143" s="14"/>
@@ -3341,13 +3337,15 @@
       <c r="O143"/>
     </row>
     <row r="144" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B144" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="D144" s="13"/>
-      <c r="F144" s="14"/>
-      <c r="G144"/>
-      <c r="H144"/>
+      <c r="D144" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="G144" s="16" t="s">
+        <v>262</v>
+      </c>
+      <c r="H144" s="13" t="s">
+        <v>263</v>
+      </c>
       <c r="I144"/>
       <c r="J144"/>
       <c r="K144"/>
@@ -3355,60 +3353,51 @@
       <c r="M144"/>
       <c r="N144"/>
       <c r="O144"/>
+      <c r="T144" s="13" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="145" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="D145" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="G145" s="16" t="s">
-        <v>271</v>
-      </c>
-      <c r="H145" s="13" t="s">
-        <v>272</v>
-      </c>
-      <c r="I145"/>
-      <c r="J145"/>
-      <c r="K145"/>
-      <c r="L145"/>
-      <c r="M145"/>
-      <c r="N145"/>
-      <c r="O145"/>
-      <c r="T145" s="13" t="b">
-        <v>1</v>
+      <c r="D145" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E145" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="F145" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G145" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="H145" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="K145" t="s">
+        <v>235</v>
+      </c>
+      <c r="L145" t="s">
+        <v>304</v>
+      </c>
+      <c r="M145" t="s">
+        <v>303</v>
+      </c>
+      <c r="R145" s="13" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="146" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="D146" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E146" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="F146" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="G146" s="21" t="s">
-        <v>117</v>
-      </c>
-      <c r="H146" s="21" t="s">
-        <v>118</v>
-      </c>
-      <c r="K146" t="s">
-        <v>238</v>
-      </c>
-      <c r="L146" t="s">
-        <v>317</v>
-      </c>
-      <c r="M146" t="s">
-        <v>316</v>
-      </c>
-      <c r="R146" s="13" t="s">
-        <v>314</v>
-      </c>
+      <c r="B146" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D146" s="13"/>
+      <c r="F146" s="14"/>
+      <c r="G146" s="21"/>
+      <c r="H146" s="21"/>
     </row>
     <row r="147" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B147" s="13" t="s">
-        <v>38</v>
+        <v>68</v>
       </c>
       <c r="D147" s="13"/>
       <c r="F147" s="14"/>
@@ -3417,122 +3406,128 @@
     </row>
     <row r="148" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B148" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="D148" s="13"/>
-      <c r="F148" s="14"/>
-      <c r="G148" s="21"/>
-      <c r="H148" s="21"/>
+        <v>37</v>
+      </c>
     </row>
     <row r="149" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B149" s="13" t="s">
-        <v>37</v>
+      <c r="C149"/>
+      <c r="D149" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="G149" s="16" t="s">
+        <v>262</v>
+      </c>
+      <c r="H149" s="13" t="s">
+        <v>263</v>
+      </c>
+      <c r="T149" s="13" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="150" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C150"/>
       <c r="D150" s="14" t="s">
-        <v>35</v>
+        <v>50</v>
+      </c>
+      <c r="E150" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="F150" s="13" t="s">
+        <v>83</v>
       </c>
       <c r="G150" s="16" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="H150" s="13" t="s">
-        <v>272</v>
-      </c>
-      <c r="T150" s="13" t="b">
-        <v>1</v>
+        <v>269</v>
+      </c>
+      <c r="J150" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="L150" t="s">
+        <v>311</v>
+      </c>
+      <c r="M150" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="151" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="C151"/>
-      <c r="D151" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="E151" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="F151" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="G151" s="16" t="s">
-        <v>277</v>
-      </c>
-      <c r="H151" s="13" t="s">
-        <v>278</v>
-      </c>
-      <c r="J151" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="L151" t="s">
-        <v>324</v>
-      </c>
-      <c r="M151" t="s">
-        <v>325</v>
+      <c r="B151" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C151" s="13" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="152" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B152" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="C152" s="13" t="s">
-        <v>125</v>
+      <c r="C152"/>
+      <c r="D152" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="F152" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="G152" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="H152" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="K152" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="N152" s="13" t="s">
+        <v>266</v>
+      </c>
+      <c r="O152" s="13" t="s">
+        <v>267</v>
+      </c>
+      <c r="P152" s="13" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B153" s="13" t="s">
+        <v>68</v>
+      </c>
       <c r="C153"/>
-      <c r="D153" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="F153" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="G153" s="16" t="s">
-        <v>126</v>
-      </c>
-      <c r="H153" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="K153" s="16" t="s">
-        <v>298</v>
-      </c>
-      <c r="N153" s="13" t="s">
-        <v>275</v>
-      </c>
-      <c r="O153" s="13" t="s">
-        <v>276</v>
-      </c>
-      <c r="P153" s="13" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="154" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B154" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="C154"/>
-    </row>
-    <row r="155" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B155" s="13" t="s">
         <v>38</v>
       </c>
     </row>
+    <row r="155" spans="2:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B155" t="s">
+        <v>37</v>
+      </c>
+      <c r="C155" s="13"/>
+    </row>
     <row r="156" spans="2:20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B156" t="s">
-        <v>37</v>
-      </c>
       <c r="C156" s="13"/>
+      <c r="D156" t="s">
+        <v>35</v>
+      </c>
+      <c r="G156" s="16" t="s">
+        <v>262</v>
+      </c>
+      <c r="H156" s="13" t="s">
+        <v>263</v>
+      </c>
+      <c r="T156" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="157" spans="2:20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C157" s="13"/>
       <c r="D157" t="s">
         <v>35</v>
       </c>
-      <c r="G157" s="16" t="s">
-        <v>271</v>
-      </c>
-      <c r="H157" s="13" t="s">
-        <v>272</v>
+      <c r="G157" t="s">
+        <v>182</v>
+      </c>
+      <c r="H157" t="s">
+        <v>183</v>
       </c>
       <c r="T157" t="b">
         <v>1</v>
@@ -3544,10 +3539,10 @@
         <v>35</v>
       </c>
       <c r="G158" t="s">
+        <v>184</v>
+      </c>
+      <c r="H158" t="s">
         <v>185</v>
-      </c>
-      <c r="H158" t="s">
-        <v>186</v>
       </c>
       <c r="T158" t="b">
         <v>1</v>
@@ -3556,38 +3551,23 @@
     <row r="159" spans="2:20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C159" s="13"/>
       <c r="D159" t="s">
-        <v>35</v>
+        <v>60</v>
+      </c>
+      <c r="F159" t="s">
+        <v>258</v>
       </c>
       <c r="G159" t="s">
-        <v>187</v>
+        <v>256</v>
       </c>
       <c r="H159" t="s">
-        <v>188</v>
-      </c>
-      <c r="T159" t="b">
-        <v>1</v>
+        <v>257</v>
       </c>
     </row>
     <row r="160" spans="2:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B160" t="s">
+        <v>38</v>
+      </c>
       <c r="C160" s="13"/>
-      <c r="D160" t="s">
-        <v>60</v>
-      </c>
-      <c r="F160" t="s">
-        <v>265</v>
-      </c>
-      <c r="G160" t="s">
-        <v>263</v>
-      </c>
-      <c r="H160" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="161" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B161" t="s">
-        <v>38</v>
-      </c>
-      <c r="C161" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3600,8 +3580,8 @@
   <dimension ref="A1:F138"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D19" sqref="C19:D19"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3899,10 +3879,10 @@
         <v>4</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -3916,13 +3896,13 @@
         <v>164</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D24" s="13" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="25" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -3930,13 +3910,13 @@
         <v>164</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="26" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -3944,13 +3924,13 @@
         <v>164</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="27" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -3958,13 +3938,13 @@
         <v>164</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="28" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -3972,13 +3952,13 @@
         <v>164</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="29" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -3986,13 +3966,13 @@
         <v>164</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="30" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -4659,39 +4639,39 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>221</v>
+      </c>
+      <c r="D1" s="23" t="s">
         <v>222</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="E1" s="23" t="s">
         <v>223</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="F1" s="23" t="s">
         <v>224</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="G1" s="23" t="s">
         <v>225</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="H1" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="I1" s="4" t="s">
         <v>227</v>
-      </c>
-      <c r="G1" s="23" t="s">
-        <v>228</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B2" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C2" t="s">
         <v>128</v>
@@ -4700,16 +4680,16 @@
         <v>128</v>
       </c>
       <c r="E2" t="s">
-        <v>340</v>
+        <v>327</v>
       </c>
       <c r="F2" t="s">
-        <v>341</v>
+        <v>328</v>
       </c>
       <c r="G2" s="24" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="H2" s="24" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
   </sheetData>
@@ -4719,11 +4699,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
+      <selection pane="bottomLeft" activeCell="B5" sqref="B4:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4742,35 +4722,41 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>302</v>
+        <v>331</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>303</v>
+        <v>291</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>304</v>
-      </c>
+        <v>332</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="16"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4825,7 +4811,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B3" t="s">
         <v>48</v>
@@ -4842,11 +4828,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:F142"/>
+  <dimension ref="A1:F143"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E14" sqref="E14"/>
+      <selection pane="bottomLeft" activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4883,7 +4869,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -4954,7 +4940,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>48</v>
@@ -4965,7 +4951,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>60</v>
@@ -4974,23 +4960,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="B12" s="3" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C12" s="3" t="b">
+      <c r="C11" s="3" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>51</v>
+        <v>199</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="C13" s="3" t="b">
         <v>0</v>
@@ -4998,10 +4984,10 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>203</v>
+        <v>51</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="C14" s="3" t="b">
         <v>0</v>
@@ -5012,7 +4998,7 @@
         <v>200</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="C15" s="3" t="b">
         <v>0</v>
@@ -5020,85 +5006,82 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="C16" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C18" s="3" t="b">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="3" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="B19" s="13" t="s">
-        <v>50</v>
+        <v>201</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>60</v>
       </c>
       <c r="C19" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="B21" s="11" t="s">
-        <v>220</v>
-      </c>
-      <c r="C21" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="E21"/>
-      <c r="F21" s="11"/>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>28</v>
+        <v>234</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>217</v>
       </c>
       <c r="C22" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>207</v>
       </c>
       <c r="E22"/>
+      <c r="F22" s="11"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="C23" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="D23" s="13"/>
       <c r="E23"/>
-      <c r="F23" s="13"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B24" s="13" t="s">
-        <v>50</v>
+        <v>74</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>60</v>
       </c>
       <c r="C24" s="3" t="b">
         <v>0</v>
@@ -5109,10 +5092,10 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>28</v>
+        <v>75</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>50</v>
       </c>
       <c r="C25" s="3" t="b">
         <v>0</v>
@@ -5123,24 +5106,24 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="C26" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="D26" s="14"/>
+      <c r="D26" s="13"/>
       <c r="E26"/>
-      <c r="F26" s="14"/>
+      <c r="F26" s="13"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>199</v>
+        <v>80</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="C27" s="3" t="b">
         <v>0</v>
@@ -5151,19 +5134,21 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>97</v>
+        <v>196</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="C28" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="D28" s="14"/>
       <c r="E28"/>
+      <c r="F28" s="14"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>50</v>
@@ -5171,16 +5156,14 @@
       <c r="C29" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="D29" s="13"/>
       <c r="E29"/>
-      <c r="F29" s="13"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>241</v>
+        <v>79</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C30" s="3" t="b">
         <v>0</v>
@@ -5191,10 +5174,10 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>77</v>
+        <v>238</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="C31" s="3" t="b">
         <v>0</v>
@@ -5205,10 +5188,10 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="C32" s="3" t="b">
         <v>0</v>
@@ -5219,40 +5202,40 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>158</v>
+        <v>78</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="C33" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D33" s="13"/>
       <c r="E33"/>
+      <c r="F33" s="13"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="C34" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D34" s="13"/>
       <c r="E34"/>
-      <c r="F34" s="13"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="13" t="s">
-        <v>283</v>
+      <c r="A35" s="3" t="s">
+        <v>159</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="C35" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D35" s="13"/>
       <c r="E35"/>
@@ -5260,7 +5243,7 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="13" t="s">
-        <v>287</v>
+        <v>274</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>48</v>
@@ -5273,38 +5256,38 @@
       <c r="F36" s="13"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="3" t="s">
-        <v>135</v>
+      <c r="A37" s="13" t="s">
+        <v>278</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C37" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D37" s="13"/>
       <c r="E37"/>
+      <c r="F37" s="13"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="13" t="s">
-        <v>165</v>
+      <c r="A38" s="3" t="s">
+        <v>135</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>163</v>
+        <v>50</v>
       </c>
       <c r="C38" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D38" s="13"/>
       <c r="E38"/>
-      <c r="F38" s="13"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="13" t="s">
-        <v>253</v>
+        <v>165</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>60</v>
+        <v>163</v>
       </c>
       <c r="C39" s="3" t="b">
         <v>0</v>
@@ -5315,10 +5298,10 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="13" t="s">
-        <v>166</v>
+        <v>250</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="C40" s="3" t="b">
         <v>0</v>
@@ -5328,51 +5311,51 @@
       <c r="F40" s="13"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>310</v>
+      <c r="A41" s="13" t="s">
+        <v>166</v>
       </c>
       <c r="B41" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C41" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D41" s="13"/>
+      <c r="E41"/>
+      <c r="F41" s="13"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>297</v>
+      </c>
+      <c r="B42" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C41" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="D41" s="13"/>
-      <c r="F41" s="13"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>138</v>
-      </c>
       <c r="C42" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="E42"/>
+        <v>1</v>
+      </c>
+      <c r="D42" s="13"/>
       <c r="F42" s="13"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="13" t="s">
-        <v>211</v>
+        <v>151</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>50</v>
+        <v>138</v>
       </c>
       <c r="C43" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="D43" s="13"/>
       <c r="E43"/>
       <c r="F43" s="13"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="13" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>138</v>
+        <v>50</v>
       </c>
       <c r="C44" s="3" t="b">
         <v>0</v>
@@ -5382,23 +5365,25 @@
       <c r="F44" s="13"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="11" t="s">
-        <v>320</v>
-      </c>
-      <c r="B45" s="11" t="s">
-        <v>318</v>
+      <c r="A45" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>138</v>
       </c>
       <c r="C45" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="E45" s="13"/>
+      <c r="D45" s="13"/>
+      <c r="E45"/>
+      <c r="F45" s="13"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="11" t="s">
-        <v>334</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>50</v>
+        <v>307</v>
+      </c>
+      <c r="B46" s="11" t="s">
+        <v>305</v>
       </c>
       <c r="C46" s="3" t="b">
         <v>0</v>
@@ -5406,34 +5391,34 @@
       <c r="E46" s="13"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="3" t="s">
-        <v>81</v>
+      <c r="A47" s="11" t="s">
+        <v>321</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C47" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="D47" s="14"/>
-      <c r="E47"/>
-      <c r="F47" s="14"/>
+      <c r="E47" s="13"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C48" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="D48" s="14"/>
       <c r="E48"/>
+      <c r="F48" s="14"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>50</v>
@@ -5441,16 +5426,14 @@
       <c r="C49" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="D49" s="13"/>
       <c r="E49"/>
-      <c r="F49" s="13"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="13" t="s">
-        <v>84</v>
+      <c r="A50" s="3" t="s">
+        <v>83</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="C50" s="3" t="b">
         <v>0</v>
@@ -5461,35 +5444,35 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="13" t="s">
-        <v>265</v>
+        <v>84</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="C51" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D51" s="13"/>
       <c r="E51"/>
-      <c r="F51"/>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>154</v>
-      </c>
-      <c r="B53" t="s">
-        <v>50</v>
-      </c>
-      <c r="C53" t="b">
+      <c r="F51" s="13"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="13" t="s">
+        <v>258</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C52" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="D53" s="3" t="s">
-        <v>207</v>
-      </c>
+      <c r="D52" s="13"/>
+      <c r="E52"/>
+      <c r="F52"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B54" t="s">
         <v>50</v>
@@ -5497,11 +5480,13 @@
       <c r="C54" t="b">
         <v>0</v>
       </c>
-      <c r="E54" s="13"/>
+      <c r="D54" s="3" t="s">
+        <v>204</v>
+      </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B55" t="s">
         <v>50</v>
@@ -5509,10 +5494,11 @@
       <c r="C55" t="b">
         <v>0</v>
       </c>
+      <c r="E55" s="13"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B56" t="s">
         <v>50</v>
@@ -5520,10 +5506,18 @@
       <c r="C56" t="b">
         <v>0</v>
       </c>
-      <c r="E56" s="13"/>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E58" s="13"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>157</v>
+      </c>
+      <c r="B57" t="s">
+        <v>50</v>
+      </c>
+      <c r="C57" t="b">
+        <v>0</v>
+      </c>
+      <c r="E57" s="13"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E59" s="13"/>
@@ -5531,16 +5525,13 @@
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E60" s="13"/>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E62" s="13"/>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E61" s="13"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E63" s="13"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64"/>
-      <c r="B64"/>
-      <c r="C64"/>
       <c r="E64" s="13"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
@@ -5553,7 +5544,7 @@
       <c r="A66"/>
       <c r="B66"/>
       <c r="C66"/>
-      <c r="E66" s="14"/>
+      <c r="E66" s="13"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67"/>
@@ -5562,10 +5553,13 @@
       <c r="E67" s="14"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E68" s="13"/>
-    </row>
-    <row r="86" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F86" s="13"/>
+      <c r="A68"/>
+      <c r="B68"/>
+      <c r="C68"/>
+      <c r="E68" s="14"/>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E69" s="13"/>
     </row>
     <row r="87" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F87" s="13"/>
@@ -5576,23 +5570,23 @@
     <row r="89" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F89" s="13"/>
     </row>
-    <row r="117" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F117" s="13"/>
+    <row r="90" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F90" s="13"/>
     </row>
     <row r="118" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F118" s="13"/>
     </row>
-    <row r="127" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F127" s="13"/>
-    </row>
-    <row r="133" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F133" s="13"/>
-    </row>
-    <row r="138" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F138" s="13"/>
+    <row r="119" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F119" s="13"/>
+    </row>
+    <row r="128" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F128" s="13"/>
+    </row>
+    <row r="134" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F134" s="13"/>
     </row>
     <row r="139" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F139"/>
+      <c r="F139" s="13"/>
     </row>
     <row r="140" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F140"/>
@@ -5603,9 +5597,12 @@
     <row r="142" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F142"/>
     </row>
+    <row r="143" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F143"/>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="H4:H23">
-    <sortCondition ref="H4:H23"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="H4:H24">
+    <sortCondition ref="H4:H24"/>
   </sortState>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/app/config/tables/CHILDREN/Forms/CHILDREN/CHILDREN.xlsx
+++ b/app/config/tables/CHILDREN/Forms/CHILDREN/CHILDREN.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2494C084-9975-49AF-90EE-79F184FA1D9A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5F5F770-7D59-4330-8579-2F7FDBDE734A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="728" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19320" yWindow="-2100" windowWidth="19440" windowHeight="15000" tabRatio="728" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="677" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="343">
   <si>
     <t>setting_name</t>
   </si>
@@ -892,12 +892,6 @@
   </si>
   <si>
     <t>data("POLIODATA") != null  || data("POLIO") != 1</t>
-  </si>
-  <si>
-    <t>data("poliocheck") != "2" &amp;&amp; not(adate.diffInDays(data("POLIODATA"),data("DATASEG")) &gt;= 0 &amp;&amp; adate.diffInDays(data("REGDIA"),data("POLIODATA")) &gt;= 0 &amp;&amp; data("POLIODATA") != null &amp;&amp; adate.ageInYears(data("POLIODATA")) != -9999 &amp;&amp; adate.ageInYears(data("POLIODATA")) &lt; 2019) &amp;&amp; data("POLIO") == 1</t>
-  </si>
-  <si>
-    <t>data("bcgcheck") != "2" &amp;&amp; not(adate.diffInDays(data("BCGDATA"),data("DATASEG")) &gt;= 0 &amp;&amp; adate.diffInDays(data("REGDIA"),data("BCGDATA")) &gt;= 0 &amp;&amp; data("BCGDATA") != null &amp;&amp; adate.ageInYears(data("BCGDATA")) != -9999 &amp;&amp; adate.ageInYears(data("BCGDATA")) &lt; 2019) &amp;&amp; data("BCG") == 1</t>
   </si>
   <si>
     <t>((adate.diffInDays(data("DATASAICRI"),data("DATASEG")) &gt;= 0 || adate.dayUnknown(data("DATASAICRI"))) &amp;&amp; data("DATASAICRI") != null &amp;&amp; adate.ageInYears(data("DATASAICRI")) != -9999 &amp;&amp; adate.ageInYears(data("DATASAICRI")) &lt; 2019) || (data("ESTADOCRI") != 2 &amp;&amp; data("ESTADOCRI") != 3)</t>
@@ -937,9 +931,6 @@
     <t>&lt;font color = "red"&gt; A data da primeira vacina é depois de hoje ou antes do nascimento. &lt;/br&gt; Por favor, verifique a vacina novamente. &lt;/font&gt;</t>
   </si>
   <si>
-    <t>data("outrocheck") != "2" &amp;&amp; not(adate.diffInDays(data("OUTRODATA"),data("DATASEG")) &gt;= 0 &amp;&amp; adate.diffInDays(data("REGDIA"),data("OUTRODATA")) &gt;= 0 &amp;&amp; data("OUTRODATA") != null &amp;&amp; adate.ageInYears(data("OUTRODATA")) != -9999 &amp;&amp; adate.ageInYears(data("OUTRODATA")) &lt; 2019) &amp;&amp; data("VACINASOU") == 1</t>
-  </si>
-  <si>
     <t>reactions.jpg</t>
   </si>
   <si>
@@ -1061,6 +1052,18 @@
   </si>
   <si>
     <t>Quais foram as primeiras outras vacinas que a criança recebeu?</t>
+  </si>
+  <si>
+    <t>data("NOMECRI") == null</t>
+  </si>
+  <si>
+    <t>data("bcgcheck") != "2" &amp;&amp; not(adate.diffInDays(data("BCGDATA"),data("DATASEG")) &gt;= 0 &amp;&amp; adate.diffInDays(data("DOB"),data("BCGDATA")) &gt;= 0 &amp;&amp; data("BCGDATA") != null &amp;&amp; adate.ageInYears(data("BCGDATA")) != -9999 &amp;&amp; adate.ageInYears(data("BCGDATA")) &lt; 2019 &amp;&amp; adate.ageInYears(data("DOB")) != -9999 &amp;&amp; adate.ageInYears(data("DOB")) &lt; 2019) &amp;&amp; data("BCG") == 1</t>
+  </si>
+  <si>
+    <t>data("poliocheck") != "2" &amp;&amp; not(adate.diffInDays(data("POLIODATA"),data("DATASEG")) &gt;= 0 &amp;&amp; adate.diffInDays(data("DOB"),data("POLIODATA")) &gt;= 0 &amp;&amp; data("POLIODATA") != null &amp;&amp; adate.ageInYears(data("POLIODATA")) != -9999 &amp;&amp; adate.ageInYears(data("POLIODATA")) &lt; 2019 &amp;&amp; adate.ageInYears(data("DOB")) != -9999 &amp;&amp; adate.ageInYears(data("DOB")) &lt; 2019) &amp;&amp; data("POLIO") == 1</t>
+  </si>
+  <si>
+    <t>data("outrocheck") != "2" &amp;&amp; not(adate.diffInDays(data("OUTRODATA"),data("DATASEG")) &gt;= 0 &amp;&amp; adate.diffInDays(data("DOB"),data("OUTRODATA")) &gt;= 0 &amp;&amp; data("OUTRODATA") != null &amp;&amp; adate.ageInYears(data("OUTRODATA")) != -9999 &amp;&amp; adate.ageInYears(data("OUTRODATA")) &lt; 2019 &amp;&amp; adate.ageInYears(data("DOB")) != -9999 &amp;&amp; adate.ageInYears(data("DOB")) &lt; 2019) &amp;&amp; data("VACINASOU") == 1</t>
   </si>
 </sst>
 </file>
@@ -1611,11 +1614,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB5FB9AA-D433-6046-85E1-401DEB18B3FD}">
-  <dimension ref="A1:T160"/>
+  <dimension ref="A1:T161"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A146" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K152" sqref="K152"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A76" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C94" sqref="C94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1702,7 +1705,7 @@
         <v>230</v>
       </c>
       <c r="T1" s="25" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
     </row>
     <row r="2" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -1810,112 +1813,110 @@
       </c>
     </row>
     <row r="10" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D10" s="11" t="s">
-        <v>217</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>218</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>234</v>
+      <c r="B10" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>339</v>
       </c>
       <c r="G10" s="22"/>
       <c r="H10" s="22"/>
-      <c r="S10" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="T10" s="11" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="11" t="s">
+    </row>
+    <row r="11" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D11" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
+      <c r="S11" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="T11" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B12" s="13" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="G12" s="22"/>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B13" s="13" t="s">
+      <c r="G13" s="22"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B14" s="13" t="s">
         <v>37</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="D14" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="G14" s="16" t="s">
-        <v>262</v>
-      </c>
-      <c r="H14" s="13" t="s">
-        <v>263</v>
-      </c>
-      <c r="T14" s="11" t="b">
-        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="D15" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="G15" s="16" t="s">
+        <v>262</v>
+      </c>
+      <c r="H15" s="13" t="s">
+        <v>263</v>
+      </c>
+      <c r="T15" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="D16" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="F16" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="G15" s="16" t="s">
+      <c r="G16" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="H15" s="13" t="s">
+      <c r="H16" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="J15" t="b">
-        <v>1</v>
-      </c>
-      <c r="K15" t="s">
+      <c r="J16" t="b">
+        <v>1</v>
+      </c>
+      <c r="K16" t="s">
         <v>153</v>
       </c>
-      <c r="P15" s="13" t="b">
+      <c r="P16" s="13" t="b">
         <v>0</v>
       </c>
-      <c r="T15" s="11"/>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B16" s="13" t="s">
+      <c r="T16" s="11"/>
+    </row>
+    <row r="17" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B17" s="13" t="s">
         <v>231</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C17" s="13" t="s">
         <v>233</v>
       </c>
-      <c r="F16" s="3"/>
-      <c r="H16" s="16"/>
-      <c r="J16"/>
-      <c r="K16"/>
-    </row>
-    <row r="17" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="D17" s="14" t="s">
-        <v>232</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>201</v>
-      </c>
+      <c r="F17" s="3"/>
       <c r="H17" s="16"/>
-      <c r="I17" s="13" t="s">
-        <v>329</v>
-      </c>
       <c r="J17"/>
       <c r="K17"/>
-      <c r="T17" s="11" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="18" spans="2:20" x14ac:dyDescent="0.25">
       <c r="D18" s="14" t="s">
         <v>232</v>
       </c>
-      <c r="F18" s="11" t="s">
-        <v>234</v>
+      <c r="F18" s="3" t="s">
+        <v>201</v>
       </c>
       <c r="H18" s="16"/>
-      <c r="I18" s="13">
-        <v>1</v>
+      <c r="I18" s="13" t="s">
+        <v>326</v>
       </c>
       <c r="J18"/>
       <c r="K18"/>
@@ -1924,201 +1925,209 @@
       </c>
     </row>
     <row r="19" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B19" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="F19" s="3"/>
+      <c r="D19" s="14" t="s">
+        <v>232</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>234</v>
+      </c>
       <c r="H19" s="16"/>
+      <c r="I19" s="13">
+        <v>1</v>
+      </c>
       <c r="J19"/>
       <c r="K19"/>
+      <c r="T19" s="11" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="20" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B20" s="13" t="s">
-        <v>38</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="F20" s="3"/>
+      <c r="H20" s="16"/>
+      <c r="J20"/>
+      <c r="K20"/>
     </row>
     <row r="21" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B21" s="13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B22" s="13" t="s">
         <v>37</v>
-      </c>
-    </row>
-    <row r="22" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="D22" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="G22" s="16" t="s">
-        <v>262</v>
-      </c>
-      <c r="H22" s="13" t="s">
-        <v>263</v>
-      </c>
-      <c r="T22" s="13" t="b">
-        <v>1</v>
       </c>
     </row>
     <row r="23" spans="2:20" x14ac:dyDescent="0.25">
       <c r="D23" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="F23" s="13" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="G23" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="H23" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="J23" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="L23" s="13" t="s">
-        <v>236</v>
-      </c>
-      <c r="M23" s="13" t="s">
-        <v>237</v>
+        <v>262</v>
+      </c>
+      <c r="H23" s="13" t="s">
+        <v>263</v>
+      </c>
+      <c r="T23" s="13" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="2:20" x14ac:dyDescent="0.25">
       <c r="D24" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="E24" s="13" t="s">
-        <v>89</v>
+        <v>60</v>
       </c>
       <c r="F24" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G24" s="16" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H24" s="16" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J24" s="13" t="b">
         <v>1</v>
+      </c>
+      <c r="L24" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="M24" s="13" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="25" spans="2:20" x14ac:dyDescent="0.25">
       <c r="D25" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="F25" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="G25" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="H25" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="J25" s="13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="D26" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="F25" s="13" t="s">
+      <c r="F26" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="G25" s="16" t="s">
+      <c r="G26" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="H25" s="16" t="s">
+      <c r="H26" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="K25" s="13" t="s">
+      <c r="K26" s="13" t="s">
         <v>261</v>
       </c>
-      <c r="N25" s="13" t="s">
-        <v>333</v>
-      </c>
-      <c r="O25" s="13" t="s">
-        <v>334</v>
-      </c>
-      <c r="P25" s="13" t="b">
+      <c r="N26" s="13" t="s">
+        <v>330</v>
+      </c>
+      <c r="O26" s="13" t="s">
+        <v>331</v>
+      </c>
+      <c r="P26" s="13" t="b">
         <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B26" s="13" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="27" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B27" s="13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="28" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B28" s="13" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="28" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="D28" s="14" t="s">
+    <row r="29" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="D29" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="G28" s="16" t="s">
+      <c r="G29" s="16" t="s">
         <v>262</v>
       </c>
-      <c r="H28" s="13" t="s">
+      <c r="H29" s="13" t="s">
         <v>263</v>
       </c>
-      <c r="T28" s="13" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="D29" s="13" t="s">
+      <c r="T29" s="13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="D30" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="E29" s="13" t="s">
+      <c r="E30" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="F29" s="14" t="s">
+      <c r="F30" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="G29" s="21" t="s">
+      <c r="G30" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="H29" s="21" t="s">
+      <c r="H30" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="J29" s="13" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B30" s="13" t="s">
+      <c r="J30" s="13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B31" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="C30" s="13" t="s">
+      <c r="C31" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="D30" s="13"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="21"/>
-      <c r="H30" s="21"/>
-    </row>
-    <row r="31" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="D31" s="13" t="s">
+      <c r="D31" s="13"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="21"/>
+    </row>
+    <row r="32" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="D32" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="F31" s="14" t="s">
+      <c r="F32" s="14" t="s">
         <v>196</v>
       </c>
-      <c r="G31" t="s">
+      <c r="G32" t="s">
         <v>133</v>
       </c>
-      <c r="H31" t="s">
+      <c r="H32" t="s">
         <v>134</v>
       </c>
-      <c r="K31" t="s">
-        <v>288</v>
-      </c>
-      <c r="N31" t="s">
+      <c r="K32" t="s">
+        <v>286</v>
+      </c>
+      <c r="N32" t="s">
         <v>264</v>
       </c>
-      <c r="O31" t="s">
+      <c r="O32" t="s">
         <v>265</v>
       </c>
-      <c r="P31" s="13" t="b">
+      <c r="P32" s="13" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B32" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="D32" s="13"/>
-      <c r="F32" s="14"/>
-      <c r="G32" s="21"/>
-      <c r="H32" s="21"/>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B33" s="13" t="s">
-        <v>38</v>
+        <v>68</v>
       </c>
       <c r="D33" s="13"/>
       <c r="F33" s="14"/>
@@ -2127,40 +2136,29 @@
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B34" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D34" s="13"/>
+      <c r="F34" s="14"/>
+      <c r="G34" s="21"/>
+      <c r="H34" s="21"/>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B35" s="13" t="s">
         <v>37</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="D35" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="G35" s="16" t="s">
-        <v>262</v>
-      </c>
-      <c r="H35" s="13" t="s">
-        <v>263</v>
-      </c>
-      <c r="T35" s="13" t="b">
-        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="D36" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="E36" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="G36" s="21" t="s">
-        <v>105</v>
+        <v>35</v>
+      </c>
+      <c r="G36" s="16" t="s">
+        <v>262</v>
       </c>
       <c r="H36" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="J36" s="13" t="b">
+        <v>263</v>
+      </c>
+      <c r="T36" s="13" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2169,294 +2167,300 @@
         <v>50</v>
       </c>
       <c r="E37" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="G37" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="H37" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="J37" s="13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="D38" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E38" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="F37" s="13" t="s">
+      <c r="F38" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="G37" s="21" t="s">
+      <c r="G38" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="H37" s="13" t="s">
+      <c r="H38" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="J37" s="13" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B38" s="13" t="s">
+      <c r="J38" s="13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B39" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="C38" s="13" t="s">
+      <c r="C39" s="13" t="s">
         <v>243</v>
       </c>
-      <c r="G38" s="21"/>
-    </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="D39" s="14" t="s">
+      <c r="G39" s="21"/>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="D40" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="F39" s="13" t="s">
+      <c r="F40" s="13" t="s">
         <v>238</v>
       </c>
-      <c r="G39" s="21" t="s">
+      <c r="G40" s="21" t="s">
         <v>239</v>
       </c>
-      <c r="H39" s="21" t="s">
+      <c r="H40" s="21" t="s">
         <v>240</v>
       </c>
-      <c r="K39" s="13" t="s">
+      <c r="K40" s="13" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B40" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="G40" s="21"/>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B41" s="13" t="s">
-        <v>38</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="G41" s="21"/>
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B42" s="13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B43" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="C42" s="13" t="s">
+      <c r="C43" s="13" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A43" s="13" t="s">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A44" s="13" t="s">
         <v>272</v>
       </c>
-      <c r="B43" s="13" t="s">
+      <c r="B44" s="13" t="s">
         <v>37</v>
-      </c>
-    </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="D44" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="G44" s="16" t="s">
-        <v>262</v>
-      </c>
-      <c r="H44" s="13" t="s">
-        <v>263</v>
-      </c>
-      <c r="T44" s="13" t="b">
-        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.25">
       <c r="D45" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="G45" s="16" t="s">
+        <v>262</v>
+      </c>
+      <c r="H45" s="13" t="s">
+        <v>263</v>
+      </c>
+      <c r="T45" s="13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="D46" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="E45" s="13" t="s">
+      <c r="E46" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="F45" s="13" t="s">
+      <c r="F46" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="G45" s="16" t="s">
+      <c r="G46" s="16" t="s">
         <v>120</v>
       </c>
-      <c r="H45" s="13" t="s">
+      <c r="H46" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="K45" s="13" t="s">
+      <c r="K46" s="13" t="s">
         <v>147</v>
       </c>
-      <c r="L45" s="13" t="s">
+      <c r="L46" s="13" t="s">
         <v>245</v>
       </c>
-      <c r="M45" s="13" t="s">
+      <c r="M46" s="13" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B46" s="13" t="s">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B47" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="C46" s="13" t="s">
+      <c r="C47" s="13" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="D47" s="14" t="s">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="D48" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="F47" s="13" t="s">
+      <c r="F48" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="G47" s="16" t="s">
+      <c r="G48" s="16" t="s">
         <v>122</v>
       </c>
-      <c r="H47" s="13" t="s">
+      <c r="H48" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="K47" s="13" t="s">
+      <c r="K48" s="13" t="s">
         <v>284</v>
       </c>
-      <c r="P47" s="13" t="b">
+      <c r="P48" s="13" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B48" s="13" t="s">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B49" s="13" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="D49" s="14" t="s">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="D50" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="E49" s="13" t="s">
+      <c r="E50" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="F49" s="3" t="s">
+      <c r="F50" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="G49" s="16" t="s">
-        <v>309</v>
-      </c>
-      <c r="H49" s="13" t="s">
+      <c r="G50" s="16" t="s">
+        <v>306</v>
+      </c>
+      <c r="H50" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="K49" s="13" t="s">
+      <c r="K50" s="13" t="s">
         <v>160</v>
       </c>
-      <c r="L49" s="13" t="s">
+      <c r="L50" s="13" t="s">
         <v>247</v>
       </c>
-      <c r="M49" s="13" t="s">
+      <c r="M50" s="13" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B50" s="13" t="s">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B51" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="C50" s="13" t="s">
+      <c r="C51" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="F50" s="3"/>
-    </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="D51" s="14" t="s">
+      <c r="F51" s="3"/>
+    </row>
+    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="D52" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="F51" s="13" t="s">
+      <c r="F52" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="G51" s="16" t="s">
+      <c r="G52" s="16" t="s">
         <v>122</v>
       </c>
-      <c r="H51" s="13" t="s">
+      <c r="H52" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="K51" s="13" t="s">
+      <c r="K52" s="13" t="s">
         <v>285</v>
       </c>
-      <c r="P51" s="13" t="b">
+      <c r="P52" s="13" t="b">
         <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B52" s="13" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="53" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B53" s="13" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B54" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="C53" s="13" t="s">
+      <c r="C54" s="13" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="D54" s="14" t="s">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="D55" s="14" t="s">
         <v>232</v>
       </c>
-      <c r="F54" s="13" t="s">
+      <c r="F55" s="13" t="s">
         <v>274</v>
       </c>
-      <c r="I54" s="13">
+      <c r="I55" s="13">
         <v>2</v>
       </c>
-      <c r="T54" s="13" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B55" s="13" t="s">
-        <v>68</v>
+      <c r="T55" s="13" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B56" s="13" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B57" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="C56" s="13" t="s">
+      <c r="C57" s="13" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="D57" s="14" t="s">
+    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="D58" s="14" t="s">
         <v>232</v>
       </c>
-      <c r="F57" s="13" t="s">
+      <c r="F58" s="13" t="s">
         <v>278</v>
       </c>
-      <c r="I57" s="13">
+      <c r="I58" s="13">
         <v>2</v>
       </c>
-      <c r="T57" s="13" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B58" s="13" t="s">
-        <v>68</v>
+      <c r="T58" s="13" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B59" s="13" t="s">
-        <v>38</v>
+        <v>68</v>
       </c>
     </row>
     <row r="60" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B60" s="13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B61" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="C60" s="13" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A61" s="13" t="s">
+      <c r="C61" s="13" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A62" s="13" t="s">
         <v>275</v>
       </c>
-      <c r="B61" s="13" t="s">
+      <c r="B62" s="13" t="s">
         <v>37</v>
-      </c>
-    </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="D62" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="G62" s="16" t="s">
-        <v>262</v>
-      </c>
-      <c r="H62" s="13" t="s">
-        <v>263</v>
-      </c>
-      <c r="T62" s="13" t="b">
-        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:20" x14ac:dyDescent="0.25">
@@ -2464,10 +2468,10 @@
         <v>35</v>
       </c>
       <c r="G63" s="16" t="s">
-        <v>276</v>
+        <v>262</v>
       </c>
       <c r="H63" s="13" t="s">
-        <v>277</v>
+        <v>263</v>
       </c>
       <c r="T63" s="13" t="b">
         <v>1</v>
@@ -2475,67 +2479,67 @@
     </row>
     <row r="64" spans="1:20" x14ac:dyDescent="0.25">
       <c r="D64" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="G64" s="16" t="s">
+        <v>276</v>
+      </c>
+      <c r="H64" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="T64" s="13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="D65" s="14" t="s">
         <v>232</v>
       </c>
-      <c r="F64" s="13" t="s">
+      <c r="F65" s="13" t="s">
         <v>274</v>
       </c>
-      <c r="I64" s="13">
-        <v>1</v>
-      </c>
-      <c r="T64" s="13" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B65" s="13" t="s">
-        <v>38</v>
+      <c r="I65" s="13">
+        <v>1</v>
+      </c>
+      <c r="T65" s="13" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B66" s="13" t="s">
-        <v>68</v>
+        <v>38</v>
       </c>
     </row>
     <row r="67" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B67" s="13" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B68" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="C67" s="13" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A68" s="13" t="s">
+      <c r="C68" s="13" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A69" s="13" t="s">
         <v>279</v>
       </c>
-      <c r="B68" s="13" t="s">
+      <c r="B69" s="13" t="s">
         <v>37</v>
-      </c>
-    </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="D69" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="G69" s="16" t="s">
-        <v>262</v>
-      </c>
-      <c r="H69" s="13" t="s">
-        <v>263</v>
-      </c>
-      <c r="T69" s="13" t="b">
-        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:20" x14ac:dyDescent="0.25">
       <c r="D70" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="G70" t="s">
-        <v>310</v>
+      <c r="G70" s="16" t="s">
+        <v>262</v>
       </c>
       <c r="H70" s="13" t="s">
-        <v>280</v>
+        <v>263</v>
       </c>
       <c r="T70" s="13" t="b">
         <v>1</v>
@@ -2543,250 +2547,250 @@
     </row>
     <row r="71" spans="1:20" x14ac:dyDescent="0.25">
       <c r="D71" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="G71" t="s">
+        <v>307</v>
+      </c>
+      <c r="H71" s="13" t="s">
+        <v>280</v>
+      </c>
+      <c r="T71" s="13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="D72" s="14" t="s">
         <v>232</v>
       </c>
-      <c r="F71" s="13" t="s">
+      <c r="F72" s="13" t="s">
         <v>278</v>
       </c>
-      <c r="I71" s="13">
-        <v>1</v>
-      </c>
-      <c r="T71" s="13" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B72" s="13" t="s">
-        <v>38</v>
+      <c r="I72" s="13">
+        <v>1</v>
+      </c>
+      <c r="T72" s="13" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B73" s="13" t="s">
-        <v>68</v>
+        <v>38</v>
       </c>
     </row>
     <row r="74" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B74" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="C74" s="13" t="s">
-        <v>281</v>
+        <v>68</v>
       </c>
     </row>
     <row r="75" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B75" s="13" t="s">
-        <v>273</v>
+        <v>67</v>
+      </c>
+      <c r="C75" s="13" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="76" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B76" s="13" t="s">
-        <v>68</v>
+        <v>273</v>
       </c>
     </row>
     <row r="77" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B77" s="13" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="78" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B78" s="13" t="s">
         <v>37</v>
-      </c>
-    </row>
-    <row r="78" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="D78" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="G78" s="16" t="s">
-        <v>262</v>
-      </c>
-      <c r="H78" s="13" t="s">
-        <v>263</v>
-      </c>
-      <c r="T78" s="13" t="b">
-        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:20" x14ac:dyDescent="0.25">
       <c r="D79" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="G79" s="16" t="s">
+        <v>262</v>
+      </c>
+      <c r="H79" s="13" t="s">
+        <v>263</v>
+      </c>
+      <c r="T79" s="13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="D80" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="E79" s="13" t="s">
+      <c r="E80" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="F79" s="3" t="s">
+      <c r="F80" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="G79" s="21" t="s">
+      <c r="G80" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="H79" s="13" t="s">
+      <c r="H80" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="K79" s="13" t="s">
+      <c r="K80" s="13" t="s">
         <v>148</v>
-      </c>
-    </row>
-    <row r="80" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B80" s="13" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="81" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B81" s="13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="82" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B82" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="C81" s="13" t="s">
+      <c r="C82" s="13" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="82" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A82" s="13" t="s">
-        <v>293</v>
-      </c>
-      <c r="B82" s="13" t="s">
+    <row r="83" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A83" s="13" t="s">
+        <v>291</v>
+      </c>
+      <c r="B83" s="13" t="s">
         <v>37</v>
-      </c>
-    </row>
-    <row r="83" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="D83" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="G83" s="16" t="s">
-        <v>262</v>
-      </c>
-      <c r="H83" s="13" t="s">
-        <v>263</v>
-      </c>
-      <c r="T83" s="13" t="b">
-        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:20" x14ac:dyDescent="0.25">
       <c r="D84" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="G84" s="16" t="s">
+        <v>262</v>
+      </c>
+      <c r="H84" s="13" t="s">
+        <v>263</v>
+      </c>
+      <c r="T84" s="13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="D85" s="14" t="s">
         <v>163</v>
       </c>
-      <c r="E84" s="13" t="s">
+      <c r="E85" s="13" t="s">
         <v>164</v>
       </c>
-      <c r="F84" s="13" t="s">
+      <c r="F85" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="G84" s="16" t="s">
-        <v>340</v>
-      </c>
-      <c r="H84" s="13" t="s">
-        <v>341</v>
-      </c>
-      <c r="K84" s="13" t="s">
+      <c r="G85" s="16" t="s">
+        <v>337</v>
+      </c>
+      <c r="H85" s="13" t="s">
+        <v>338</v>
+      </c>
+      <c r="K85" s="13" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="85" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B85" s="13" t="s">
+    <row r="86" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B86" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="C85" s="13" t="s">
+      <c r="C86" s="13" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="86" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="D86" s="14" t="s">
+    <row r="87" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="D87" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="F86" s="13" t="s">
+      <c r="F87" s="13" t="s">
         <v>250</v>
       </c>
-      <c r="G86" s="16" t="s">
+      <c r="G87" s="16" t="s">
         <v>251</v>
       </c>
-      <c r="H86" s="13" t="s">
+      <c r="H87" s="13" t="s">
         <v>252</v>
       </c>
-      <c r="K86" s="13" t="s">
+      <c r="K87" s="13" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="87" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B87" s="13" t="s">
+    <row r="88" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B88" s="13" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="88" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="D88" s="14" t="s">
+    <row r="89" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="D89" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="F88" s="13" t="s">
+      <c r="F89" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="G88" s="16" t="s">
+      <c r="G89" s="16" t="s">
         <v>122</v>
       </c>
-      <c r="H88" s="13" t="s">
+      <c r="H89" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="K88" t="s">
-        <v>292</v>
-      </c>
-      <c r="P88" s="13" t="b">
+      <c r="K89" t="s">
+        <v>290</v>
+      </c>
+      <c r="P89" s="13" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B89" s="13" t="s">
+    <row r="90" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B90" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="C89" s="13" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="90" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="D90" s="14" t="s">
+      <c r="C90" s="13" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="91" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="D91" s="14" t="s">
         <v>232</v>
       </c>
-      <c r="F90" s="13" t="s">
-        <v>297</v>
-      </c>
-      <c r="I90" s="13">
+      <c r="F91" s="13" t="s">
+        <v>295</v>
+      </c>
+      <c r="I91" s="13">
         <v>2</v>
       </c>
-      <c r="T90" s="13" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B91" s="13" t="s">
-        <v>68</v>
+      <c r="T91" s="13" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B92" s="13" t="s">
-        <v>38</v>
+        <v>68</v>
       </c>
     </row>
     <row r="93" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B93" s="13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="94" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B94" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="C93" s="13" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="94" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A94" s="13" t="s">
-        <v>295</v>
-      </c>
-      <c r="B94" s="13" t="s">
+      <c r="C94" s="13" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="95" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A95" s="13" t="s">
+        <v>293</v>
+      </c>
+      <c r="B95" s="13" t="s">
         <v>37</v>
-      </c>
-    </row>
-    <row r="95" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="D95" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="G95" s="16" t="s">
-        <v>262</v>
-      </c>
-      <c r="H95" s="13" t="s">
-        <v>263</v>
-      </c>
-      <c r="T95" s="13" t="b">
-        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:20" x14ac:dyDescent="0.25">
@@ -2794,10 +2798,10 @@
         <v>35</v>
       </c>
       <c r="G96" s="16" t="s">
-        <v>298</v>
+        <v>262</v>
       </c>
       <c r="H96" s="13" t="s">
-        <v>299</v>
+        <v>263</v>
       </c>
       <c r="T96" s="13" t="b">
         <v>1</v>
@@ -2805,44 +2809,53 @@
     </row>
     <row r="97" spans="2:20" x14ac:dyDescent="0.25">
       <c r="D97" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="G97" s="16" t="s">
+        <v>296</v>
+      </c>
+      <c r="H97" s="13" t="s">
+        <v>297</v>
+      </c>
+      <c r="T97" s="13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="D98" s="14" t="s">
         <v>232</v>
       </c>
-      <c r="F97" s="13" t="s">
-        <v>297</v>
-      </c>
-      <c r="I97" s="13">
-        <v>1</v>
-      </c>
-      <c r="T97" s="13" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B98" s="13" t="s">
-        <v>38</v>
+      <c r="F98" s="13" t="s">
+        <v>295</v>
+      </c>
+      <c r="I98" s="13">
+        <v>1</v>
+      </c>
+      <c r="T98" s="13" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B99" s="13" t="s">
-        <v>68</v>
+        <v>38</v>
       </c>
     </row>
     <row r="100" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B100" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="C100" s="13" t="s">
-        <v>296</v>
+        <v>68</v>
       </c>
     </row>
     <row r="101" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B101" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C101" s="13" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="102" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B102" s="13" t="s">
-        <v>68</v>
+        <v>292</v>
       </c>
     </row>
     <row r="103" spans="2:20" x14ac:dyDescent="0.25">
@@ -2857,10 +2870,7 @@
     </row>
     <row r="105" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B105" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="C105" t="s">
-        <v>214</v>
+        <v>68</v>
       </c>
     </row>
     <row r="106" spans="2:20" x14ac:dyDescent="0.25">
@@ -2868,221 +2878,217 @@
         <v>67</v>
       </c>
       <c r="C106" t="s">
-        <v>162</v>
+        <v>214</v>
       </c>
     </row>
     <row r="107" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B107" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C107" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="108" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B108" s="13" t="s">
         <v>37</v>
-      </c>
-    </row>
-    <row r="108" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="D108" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="G108" s="16" t="s">
-        <v>262</v>
-      </c>
-      <c r="H108" s="13" t="s">
-        <v>263</v>
-      </c>
-      <c r="T108" s="13" t="b">
-        <v>1</v>
       </c>
     </row>
     <row r="109" spans="2:20" x14ac:dyDescent="0.25">
       <c r="D109" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="G109" s="16" t="s">
+        <v>262</v>
+      </c>
+      <c r="H109" s="13" t="s">
+        <v>263</v>
+      </c>
+      <c r="T109" s="13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="D110" s="14" t="s">
         <v>138</v>
       </c>
-      <c r="F109" s="13" t="s">
+      <c r="F110" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="G109" s="16" t="s">
+      <c r="G110" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="H109" s="13" t="s">
+      <c r="H110" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="L109" s="13" t="s">
+      <c r="L110" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="M109" s="13" t="s">
+      <c r="M110" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="R109" s="13" t="s">
+      <c r="R110" s="13" t="s">
         <v>142</v>
-      </c>
-    </row>
-    <row r="110" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B110" s="13" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="111" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B111" s="13" t="s">
-        <v>68</v>
+        <v>38</v>
       </c>
     </row>
     <row r="112" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B112" s="13" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="113" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B113" s="13" t="s">
         <v>37</v>
-      </c>
-    </row>
-    <row r="113" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="D113" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="G113" s="16" t="s">
-        <v>262</v>
-      </c>
-      <c r="H113" s="13" t="s">
-        <v>263</v>
-      </c>
-      <c r="T113" s="13" t="b">
-        <v>1</v>
       </c>
     </row>
     <row r="114" spans="2:20" x14ac:dyDescent="0.25">
       <c r="D114" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="G114" s="16" t="s">
+        <v>262</v>
+      </c>
+      <c r="H114" s="13" t="s">
+        <v>263</v>
+      </c>
+      <c r="T114" s="13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="D115" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="E114" s="13" t="s">
+      <c r="E115" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="F114" s="13" t="s">
+      <c r="F115" s="13" t="s">
         <v>208</v>
       </c>
-      <c r="G114" t="s">
+      <c r="G115" t="s">
         <v>254</v>
       </c>
-      <c r="H114" t="s">
+      <c r="H115" t="s">
         <v>255</v>
       </c>
-      <c r="K114" s="13" t="s">
+      <c r="K115" s="13" t="s">
         <v>215</v>
       </c>
-      <c r="R114" s="13" t="s">
+      <c r="R115" s="13" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="115" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B115" s="13" t="s">
+    <row r="116" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B116" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="C115" s="13" t="s">
+      <c r="C116" s="13" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="116" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="D116" s="14" t="s">
+    <row r="117" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="D117" s="14" t="s">
         <v>138</v>
       </c>
-      <c r="F116" s="13" t="s">
+      <c r="F117" s="13" t="s">
         <v>210</v>
       </c>
-      <c r="G116" s="16" t="s">
+      <c r="G117" s="16" t="s">
         <v>211</v>
       </c>
-      <c r="H116" s="13" t="s">
+      <c r="H117" s="13" t="s">
         <v>212</v>
-      </c>
-    </row>
-    <row r="117" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B117" s="13" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="118" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B118" s="13" t="s">
-        <v>38</v>
+        <v>68</v>
       </c>
     </row>
     <row r="119" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B119" s="13" t="s">
-        <v>68</v>
+        <v>38</v>
       </c>
     </row>
     <row r="120" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B120" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="C120" t="s">
-        <v>306</v>
+        <v>68</v>
       </c>
     </row>
     <row r="121" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B121" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C121" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="122" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B122" s="13" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="122" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="D122" s="14" t="s">
+    <row r="123" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="D123" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="G122" s="16" t="s">
+      <c r="G123" s="16" t="s">
         <v>262</v>
       </c>
-      <c r="H122" s="13" t="s">
+      <c r="H123" s="13" t="s">
         <v>263</v>
       </c>
-      <c r="T122" s="13" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123" spans="2:20" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D123" s="11" t="s">
+      <c r="T123" s="13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="2:20" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D124" s="11" t="s">
+        <v>302</v>
+      </c>
+      <c r="F124" s="11" t="s">
+        <v>304</v>
+      </c>
+      <c r="G124" t="s">
+        <v>313</v>
+      </c>
+      <c r="H124" t="s">
+        <v>314</v>
+      </c>
+      <c r="K124" s="13" t="s">
         <v>305</v>
       </c>
-      <c r="F123" s="11" t="s">
-        <v>307</v>
-      </c>
-      <c r="G123" t="s">
-        <v>316</v>
-      </c>
-      <c r="H123" t="s">
-        <v>317</v>
-      </c>
-      <c r="K123" s="13" t="s">
-        <v>308</v>
-      </c>
-      <c r="L123" s="11" t="s">
-        <v>314</v>
-      </c>
-      <c r="M123" s="11" t="s">
-        <v>315</v>
-      </c>
-      <c r="R123" s="11" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="124" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B124" s="13" t="s">
-        <v>38</v>
+      <c r="L124" s="11" t="s">
+        <v>311</v>
+      </c>
+      <c r="M124" s="11" t="s">
+        <v>312</v>
+      </c>
+      <c r="R124" s="11" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="125" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B125" s="13" t="s">
-        <v>68</v>
+        <v>38</v>
       </c>
     </row>
     <row r="126" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B126" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="C126" t="s">
-        <v>116</v>
-      </c>
-      <c r="D126" s="13"/>
-      <c r="F126" s="14"/>
-      <c r="G126" s="21"/>
-      <c r="H126" s="21"/>
+        <v>68</v>
+      </c>
     </row>
     <row r="127" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B127" s="13" t="s">
         <v>67</v>
       </c>
       <c r="C127" t="s">
-        <v>318</v>
+        <v>116</v>
       </c>
       <c r="D127" s="13"/>
       <c r="F127" s="14"/>
@@ -3091,67 +3097,67 @@
     </row>
     <row r="128" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B128" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="C128"/>
+        <v>67</v>
+      </c>
+      <c r="C128" t="s">
+        <v>315</v>
+      </c>
       <c r="D128" s="13"/>
       <c r="F128" s="14"/>
       <c r="G128" s="21"/>
       <c r="H128" s="21"/>
     </row>
     <row r="129" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B129" s="13" t="s">
+        <v>37</v>
+      </c>
       <c r="C129"/>
-      <c r="D129" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="G129" s="16" t="s">
-        <v>262</v>
-      </c>
-      <c r="H129" s="13" t="s">
-        <v>263</v>
-      </c>
-      <c r="T129" s="13" t="b">
-        <v>1</v>
-      </c>
+      <c r="D129" s="13"/>
+      <c r="F129" s="14"/>
+      <c r="G129" s="21"/>
+      <c r="H129" s="21"/>
     </row>
     <row r="130" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C130"/>
       <c r="D130" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="G130" s="16" t="s">
+        <v>262</v>
+      </c>
+      <c r="H130" s="13" t="s">
+        <v>263</v>
+      </c>
+      <c r="T130" s="13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="C131"/>
+      <c r="D131" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="E130" s="13" t="s">
+      <c r="E131" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="F130" s="14" t="s">
-        <v>321</v>
-      </c>
-      <c r="G130" s="21" t="s">
-        <v>319</v>
-      </c>
-      <c r="H130" s="21" t="s">
-        <v>320</v>
-      </c>
-      <c r="K130" s="13" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="131" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B131" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="C131"/>
-      <c r="D131" s="13"/>
-      <c r="F131" s="14"/>
-      <c r="G131" s="21"/>
-      <c r="H131" s="21"/>
+      <c r="F131" s="14" t="s">
+        <v>318</v>
+      </c>
+      <c r="G131" s="21" t="s">
+        <v>316</v>
+      </c>
+      <c r="H131" s="21" t="s">
+        <v>317</v>
+      </c>
+      <c r="K131" s="13" t="s">
+        <v>323</v>
+      </c>
     </row>
     <row r="132" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B132" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="C132" t="s">
-        <v>322</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="C132"/>
       <c r="D132" s="13"/>
       <c r="F132" s="14"/>
       <c r="G132" s="21"/>
@@ -3159,81 +3165,83 @@
     </row>
     <row r="133" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B133" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="C133"/>
+        <v>67</v>
+      </c>
+      <c r="C133" t="s">
+        <v>319</v>
+      </c>
       <c r="D133" s="13"/>
       <c r="F133" s="14"/>
       <c r="G133" s="21"/>
       <c r="H133" s="21"/>
     </row>
     <row r="134" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B134" s="13" t="s">
+        <v>37</v>
+      </c>
       <c r="C134"/>
-      <c r="D134" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="G134" s="16" t="s">
-        <v>262</v>
-      </c>
-      <c r="H134" s="13" t="s">
-        <v>263</v>
-      </c>
-      <c r="T134" s="13" t="b">
-        <v>1</v>
-      </c>
+      <c r="D134" s="13"/>
+      <c r="F134" s="14"/>
+      <c r="G134" s="21"/>
+      <c r="H134" s="21"/>
     </row>
     <row r="135" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C135"/>
-      <c r="D135" s="11" t="s">
-        <v>305</v>
-      </c>
-      <c r="E135" s="11"/>
-      <c r="F135" s="11" t="s">
-        <v>307</v>
-      </c>
-      <c r="G135" t="s">
-        <v>323</v>
-      </c>
-      <c r="H135" s="21" t="s">
-        <v>324</v>
-      </c>
-      <c r="I135" s="11"/>
-      <c r="J135" s="11"/>
-      <c r="K135" s="13" t="s">
-        <v>325</v>
-      </c>
-      <c r="L135" s="11" t="s">
-        <v>314</v>
-      </c>
-      <c r="M135" s="11" t="s">
-        <v>315</v>
-      </c>
-      <c r="N135" s="11"/>
-      <c r="O135" s="11"/>
-      <c r="P135" s="11"/>
-      <c r="Q135" s="11"/>
-      <c r="R135" s="11" t="s">
-        <v>313</v>
+      <c r="D135" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="G135" s="16" t="s">
+        <v>262</v>
+      </c>
+      <c r="H135" s="13" t="s">
+        <v>263</v>
+      </c>
+      <c r="T135" s="13" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="136" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B136" s="13" t="s">
-        <v>38</v>
-      </c>
       <c r="C136"/>
-      <c r="D136" s="13"/>
-      <c r="F136" s="14"/>
-      <c r="G136" s="21"/>
+      <c r="D136" s="11" t="s">
+        <v>302</v>
+      </c>
+      <c r="E136" s="11"/>
+      <c r="F136" s="11" t="s">
+        <v>304</v>
+      </c>
+      <c r="G136" t="s">
+        <v>320</v>
+      </c>
+      <c r="H136" s="21" t="s">
+        <v>321</v>
+      </c>
+      <c r="I136" s="11"/>
+      <c r="J136" s="11"/>
+      <c r="K136" s="13" t="s">
+        <v>322</v>
+      </c>
+      <c r="L136" s="11" t="s">
+        <v>311</v>
+      </c>
+      <c r="M136" s="11" t="s">
+        <v>312</v>
+      </c>
+      <c r="N136" s="11"/>
+      <c r="O136" s="11"/>
+      <c r="P136" s="11"/>
+      <c r="Q136" s="11"/>
+      <c r="R136" s="11" t="s">
+        <v>310</v>
+      </c>
     </row>
     <row r="137" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B137" s="13" t="s">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="C137"/>
       <c r="D137" s="13"/>
       <c r="F137" s="14"/>
       <c r="G137" s="21"/>
-      <c r="H137" s="21"/>
     </row>
     <row r="138" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B138" s="13" t="s">
@@ -3247,82 +3255,76 @@
     </row>
     <row r="139" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B139" s="13" t="s">
-        <v>37</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="C139"/>
       <c r="D139" s="13"/>
       <c r="F139" s="14"/>
       <c r="G139" s="21"/>
       <c r="H139" s="21"/>
     </row>
     <row r="140" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="D140" s="14" t="s">
+      <c r="B140" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D140" s="13"/>
+      <c r="F140" s="14"/>
+      <c r="G140" s="21"/>
+      <c r="H140" s="21"/>
+    </row>
+    <row r="141" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="D141" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="G140" s="16" t="s">
+      <c r="G141" s="16" t="s">
         <v>262</v>
       </c>
-      <c r="H140" s="13" t="s">
+      <c r="H141" s="13" t="s">
         <v>263</v>
       </c>
-      <c r="K140"/>
-      <c r="L140"/>
-      <c r="T140" s="13" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="D141" s="13" t="s">
+      <c r="K141"/>
+      <c r="L141"/>
+      <c r="T141" s="13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="D142" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="F141" s="14" t="s">
+      <c r="F142" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="G141" t="s">
-        <v>338</v>
-      </c>
-      <c r="H141" t="s">
-        <v>339</v>
-      </c>
-      <c r="I141"/>
-      <c r="J141"/>
-      <c r="K141" t="s">
-        <v>152</v>
-      </c>
-      <c r="L141" t="s">
+      <c r="G142" t="s">
         <v>335</v>
       </c>
-      <c r="M141" t="s">
-        <v>337</v>
-      </c>
-      <c r="N141" t="s">
-        <v>149</v>
-      </c>
-      <c r="O141" t="s">
-        <v>150</v>
-      </c>
-      <c r="R141" s="13" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="142" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B142" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="D142" s="13"/>
-      <c r="F142" s="14"/>
-      <c r="G142"/>
-      <c r="H142"/>
+      <c r="H142" t="s">
+        <v>336</v>
+      </c>
       <c r="I142"/>
       <c r="J142"/>
-      <c r="K142"/>
-      <c r="L142"/>
-      <c r="M142"/>
-      <c r="N142"/>
-      <c r="O142"/>
+      <c r="K142" t="s">
+        <v>152</v>
+      </c>
+      <c r="L142" t="s">
+        <v>332</v>
+      </c>
+      <c r="M142" t="s">
+        <v>334</v>
+      </c>
+      <c r="N142" t="s">
+        <v>149</v>
+      </c>
+      <c r="O142" t="s">
+        <v>150</v>
+      </c>
+      <c r="R142" s="13" t="s">
+        <v>299</v>
+      </c>
     </row>
     <row r="143" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B143" s="13" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D143" s="13"/>
       <c r="F143" s="14"/>
@@ -3337,15 +3339,13 @@
       <c r="O143"/>
     </row>
     <row r="144" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="D144" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="G144" s="16" t="s">
-        <v>262</v>
-      </c>
-      <c r="H144" s="13" t="s">
-        <v>263</v>
-      </c>
+      <c r="B144" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D144" s="13"/>
+      <c r="F144" s="14"/>
+      <c r="G144"/>
+      <c r="H144"/>
       <c r="I144"/>
       <c r="J144"/>
       <c r="K144"/>
@@ -3353,51 +3353,60 @@
       <c r="M144"/>
       <c r="N144"/>
       <c r="O144"/>
-      <c r="T144" s="13" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="145" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="D145" s="3" t="s">
+      <c r="D145" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="G145" s="16" t="s">
+        <v>262</v>
+      </c>
+      <c r="H145" s="13" t="s">
+        <v>263</v>
+      </c>
+      <c r="I145"/>
+      <c r="J145"/>
+      <c r="K145"/>
+      <c r="L145"/>
+      <c r="M145"/>
+      <c r="N145"/>
+      <c r="O145"/>
+      <c r="T145" s="13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="D146" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="E145" s="13" t="s">
+      <c r="E146" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="F145" s="3" t="s">
+      <c r="F146" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="G145" s="21" t="s">
+      <c r="G146" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="H145" s="21" t="s">
+      <c r="H146" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="K145" t="s">
+      <c r="K146" t="s">
         <v>235</v>
       </c>
-      <c r="L145" t="s">
-        <v>304</v>
-      </c>
-      <c r="M145" t="s">
-        <v>303</v>
-      </c>
-      <c r="R145" s="13" t="s">
+      <c r="L146" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="146" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B146" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="D146" s="13"/>
-      <c r="F146" s="14"/>
-      <c r="G146" s="21"/>
-      <c r="H146" s="21"/>
+      <c r="M146" t="s">
+        <v>300</v>
+      </c>
+      <c r="R146" s="13" t="s">
+        <v>298</v>
+      </c>
     </row>
     <row r="147" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B147" s="13" t="s">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="D147" s="13"/>
       <c r="F147" s="14"/>
@@ -3406,128 +3415,122 @@
     </row>
     <row r="148" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B148" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D148" s="13"/>
+      <c r="F148" s="14"/>
+      <c r="G148" s="21"/>
+      <c r="H148" s="21"/>
+    </row>
+    <row r="149" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B149" s="13" t="s">
         <v>37</v>
-      </c>
-    </row>
-    <row r="149" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="C149"/>
-      <c r="D149" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="G149" s="16" t="s">
-        <v>262</v>
-      </c>
-      <c r="H149" s="13" t="s">
-        <v>263</v>
-      </c>
-      <c r="T149" s="13" t="b">
-        <v>1</v>
       </c>
     </row>
     <row r="150" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C150"/>
       <c r="D150" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="G150" s="16" t="s">
+        <v>262</v>
+      </c>
+      <c r="H150" s="13" t="s">
+        <v>263</v>
+      </c>
+      <c r="T150" s="13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="C151"/>
+      <c r="D151" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="E150" s="13" t="s">
+      <c r="E151" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="F150" s="13" t="s">
+      <c r="F151" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="G150" s="16" t="s">
+      <c r="G151" s="16" t="s">
         <v>268</v>
       </c>
-      <c r="H150" s="13" t="s">
+      <c r="H151" s="13" t="s">
         <v>269</v>
       </c>
-      <c r="J150" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="L150" t="s">
-        <v>311</v>
-      </c>
-      <c r="M150" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="151" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B151" s="13" t="s">
+      <c r="J151" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="L151" t="s">
+        <v>308</v>
+      </c>
+      <c r="M151" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="152" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B152" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="C151" s="13" t="s">
+      <c r="C152" s="13" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="152" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="C152"/>
-      <c r="D152" s="14" t="s">
+    <row r="153" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="C153"/>
+      <c r="D153" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="F152" s="13" t="s">
+      <c r="F153" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="G152" s="16" t="s">
+      <c r="G153" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="H152" s="13" t="s">
+      <c r="H153" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="K152" s="16" t="s">
-        <v>289</v>
-      </c>
-      <c r="N152" s="13" t="s">
+      <c r="K153" s="16" t="s">
+        <v>287</v>
+      </c>
+      <c r="N153" s="13" t="s">
         <v>266</v>
       </c>
-      <c r="O152" s="13" t="s">
+      <c r="O153" s="13" t="s">
         <v>267</v>
       </c>
-      <c r="P152" s="13" t="b">
+      <c r="P153" s="13" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="153" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B153" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="C153"/>
     </row>
     <row r="154" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B154" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="C154"/>
+    </row>
+    <row r="155" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B155" s="13" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="155" spans="2:20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B155" t="s">
+    <row r="156" spans="2:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B156" t="s">
         <v>37</v>
       </c>
-      <c r="C155" s="13"/>
-    </row>
-    <row r="156" spans="2:20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C156" s="13"/>
-      <c r="D156" t="s">
-        <v>35</v>
-      </c>
-      <c r="G156" s="16" t="s">
-        <v>262</v>
-      </c>
-      <c r="H156" s="13" t="s">
-        <v>263</v>
-      </c>
-      <c r="T156" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="157" spans="2:20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C157" s="13"/>
       <c r="D157" t="s">
         <v>35</v>
       </c>
-      <c r="G157" t="s">
-        <v>182</v>
-      </c>
-      <c r="H157" t="s">
-        <v>183</v>
+      <c r="G157" s="16" t="s">
+        <v>262</v>
+      </c>
+      <c r="H157" s="13" t="s">
+        <v>263</v>
       </c>
       <c r="T157" t="b">
         <v>1</v>
@@ -3539,10 +3542,10 @@
         <v>35</v>
       </c>
       <c r="G158" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="H158" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="T158" t="b">
         <v>1</v>
@@ -3551,23 +3554,38 @@
     <row r="159" spans="2:20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C159" s="13"/>
       <c r="D159" t="s">
+        <v>35</v>
+      </c>
+      <c r="G159" t="s">
+        <v>184</v>
+      </c>
+      <c r="H159" t="s">
+        <v>185</v>
+      </c>
+      <c r="T159" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="2:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C160" s="13"/>
+      <c r="D160" t="s">
         <v>60</v>
       </c>
-      <c r="F159" t="s">
+      <c r="F160" t="s">
         <v>258</v>
       </c>
-      <c r="G159" t="s">
+      <c r="G160" t="s">
         <v>256</v>
       </c>
-      <c r="H159" t="s">
+      <c r="H160" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="160" spans="2:20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B160" t="s">
+    <row r="161" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B161" t="s">
         <v>38</v>
       </c>
-      <c r="C160" s="13"/>
+      <c r="C161" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4680,10 +4698,10 @@
         <v>128</v>
       </c>
       <c r="E2" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="F2" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="G2" s="24" t="s">
         <v>229</v>
@@ -4738,18 +4756,18 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -4962,7 +4980,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>60</v>
@@ -5326,7 +5344,7 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>48</v>
@@ -5380,10 +5398,10 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="11" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C46" s="3" t="b">
         <v>0</v>
@@ -5392,7 +5410,7 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="11" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>50</v>

--- a/app/config/tables/CHILDREN/Forms/CHILDREN/CHILDREN.xlsx
+++ b/app/config/tables/CHILDREN/Forms/CHILDREN/CHILDREN.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5F5F770-7D59-4330-8579-2F7FDBDE734A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D11A79F7-52BE-43EC-AEC5-4C6B004F3785}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19320" yWindow="-2100" windowWidth="19440" windowHeight="15000" tabRatio="728" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="728" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -378,9 +378,6 @@
     <t>Died</t>
   </si>
   <si>
-    <t>Estodo da criança</t>
-  </si>
-  <si>
     <t>data("ESTADOCRI") == "2" || data("ESTADOCRI") == "3"</t>
   </si>
   <si>
@@ -1064,6 +1061,9 @@
   </si>
   <si>
     <t>data("outrocheck") != "2" &amp;&amp; not(adate.diffInDays(data("OUTRODATA"),data("DATASEG")) &gt;= 0 &amp;&amp; adate.diffInDays(data("DOB"),data("OUTRODATA")) &gt;= 0 &amp;&amp; data("OUTRODATA") != null &amp;&amp; adate.ageInYears(data("OUTRODATA")) != -9999 &amp;&amp; adate.ageInYears(data("OUTRODATA")) &lt; 2019 &amp;&amp; adate.ageInYears(data("DOB")) != -9999 &amp;&amp; adate.ageInYears(data("DOB")) &lt; 2019) &amp;&amp; data("VACINASOU") == 1</t>
+  </si>
+  <si>
+    <t>Estado da criança</t>
   </si>
 </sst>
 </file>
@@ -1542,7 +1542,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -1558,7 +1558,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -1567,10 +1567,10 @@
       </c>
       <c r="B5" s="3"/>
       <c r="C5" t="s">
+        <v>142</v>
+      </c>
+      <c r="D5" t="s">
         <v>143</v>
-      </c>
-      <c r="D5" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -1597,7 +1597,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B8" t="s">
         <v>74</v>
@@ -1616,9 +1616,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB5FB9AA-D433-6046-85E1-401DEB18B3FD}">
   <dimension ref="A1:T161"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A76" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C94" sqref="C94"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1699,13 +1699,13 @@
         <v>44</v>
       </c>
       <c r="R1" s="27" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="S1" s="28" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="T1" s="25" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="2" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -1719,10 +1719,10 @@
         <v>35</v>
       </c>
       <c r="G3" s="16" t="s">
+        <v>261</v>
+      </c>
+      <c r="H3" s="13" t="s">
         <v>262</v>
-      </c>
-      <c r="H3" s="13" t="s">
-        <v>263</v>
       </c>
       <c r="T3" s="11" t="b">
         <v>1</v>
@@ -1733,10 +1733,10 @@
         <v>35</v>
       </c>
       <c r="G4" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="H4" s="22" t="s">
         <v>131</v>
-      </c>
-      <c r="H4" s="22" t="s">
-        <v>132</v>
       </c>
       <c r="T4" s="11" t="b">
         <v>1</v>
@@ -1747,10 +1747,10 @@
         <v>35</v>
       </c>
       <c r="G5" t="s">
+        <v>185</v>
+      </c>
+      <c r="H5" t="s">
         <v>186</v>
-      </c>
-      <c r="H5" t="s">
-        <v>187</v>
       </c>
       <c r="T5" s="11" t="b">
         <v>1</v>
@@ -1761,10 +1761,10 @@
         <v>35</v>
       </c>
       <c r="G6" t="s">
+        <v>187</v>
+      </c>
+      <c r="H6" t="s">
         <v>188</v>
-      </c>
-      <c r="H6" t="s">
-        <v>189</v>
       </c>
       <c r="T6" s="11" t="b">
         <v>1</v>
@@ -1775,10 +1775,10 @@
         <v>35</v>
       </c>
       <c r="G7" t="s">
+        <v>189</v>
+      </c>
+      <c r="H7" t="s">
         <v>190</v>
-      </c>
-      <c r="H7" t="s">
-        <v>191</v>
       </c>
       <c r="T7" s="11" t="b">
         <v>1</v>
@@ -1789,10 +1789,10 @@
         <v>35</v>
       </c>
       <c r="G8" s="22" t="s">
+        <v>191</v>
+      </c>
+      <c r="H8" s="22" t="s">
         <v>192</v>
-      </c>
-      <c r="H8" s="22" t="s">
-        <v>193</v>
       </c>
       <c r="T8" s="11" t="b">
         <v>1</v>
@@ -1803,10 +1803,10 @@
         <v>35</v>
       </c>
       <c r="G9" s="22" t="s">
+        <v>201</v>
+      </c>
+      <c r="H9" s="22" t="s">
         <v>202</v>
-      </c>
-      <c r="H9" s="22" t="s">
-        <v>203</v>
       </c>
       <c r="T9" s="11" t="b">
         <v>1</v>
@@ -1817,20 +1817,20 @@
         <v>67</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G10" s="22"/>
       <c r="H10" s="22"/>
     </row>
     <row r="11" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D11" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="E11" s="11" t="s">
         <v>217</v>
       </c>
-      <c r="E11" s="11" t="s">
-        <v>218</v>
-      </c>
       <c r="F11" s="11" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G11" s="22"/>
       <c r="H11" s="22"/>
@@ -1862,10 +1862,10 @@
         <v>35</v>
       </c>
       <c r="G15" s="16" t="s">
+        <v>261</v>
+      </c>
+      <c r="H15" s="13" t="s">
         <v>262</v>
-      </c>
-      <c r="H15" s="13" t="s">
-        <v>263</v>
       </c>
       <c r="T15" s="11" t="b">
         <v>1</v>
@@ -1879,16 +1879,16 @@
         <v>85</v>
       </c>
       <c r="G16" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="H16" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="H16" s="13" t="s">
-        <v>130</v>
-      </c>
       <c r="J16" t="b">
         <v>1</v>
       </c>
       <c r="K16" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="P16" s="13" t="b">
         <v>0</v>
@@ -1897,10 +1897,10 @@
     </row>
     <row r="17" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B17" s="13" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F17" s="3"/>
       <c r="H17" s="16"/>
@@ -1909,14 +1909,14 @@
     </row>
     <row r="18" spans="2:20" x14ac:dyDescent="0.25">
       <c r="D18" s="14" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H18" s="16"/>
       <c r="I18" s="13" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J18"/>
       <c r="K18"/>
@@ -1926,10 +1926,10 @@
     </row>
     <row r="19" spans="2:20" x14ac:dyDescent="0.25">
       <c r="D19" s="14" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H19" s="16"/>
       <c r="I19" s="13">
@@ -1965,10 +1965,10 @@
         <v>35</v>
       </c>
       <c r="G23" s="16" t="s">
+        <v>261</v>
+      </c>
+      <c r="H23" s="13" t="s">
         <v>262</v>
-      </c>
-      <c r="H23" s="13" t="s">
-        <v>263</v>
       </c>
       <c r="T23" s="13" t="b">
         <v>1</v>
@@ -1991,10 +1991,10 @@
         <v>1</v>
       </c>
       <c r="L24" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="M24" s="13" t="s">
         <v>236</v>
-      </c>
-      <c r="M24" s="13" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="25" spans="2:20" x14ac:dyDescent="0.25">
@@ -2031,13 +2031,13 @@
         <v>92</v>
       </c>
       <c r="K26" s="13" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="N26" s="13" t="s">
+        <v>329</v>
+      </c>
+      <c r="O26" s="13" t="s">
         <v>330</v>
-      </c>
-      <c r="O26" s="13" t="s">
-        <v>331</v>
       </c>
       <c r="P26" s="13" t="b">
         <v>0</v>
@@ -2058,10 +2058,10 @@
         <v>35</v>
       </c>
       <c r="G29" s="16" t="s">
+        <v>261</v>
+      </c>
+      <c r="H29" s="13" t="s">
         <v>262</v>
-      </c>
-      <c r="H29" s="13" t="s">
-        <v>263</v>
       </c>
       <c r="T29" s="13" t="b">
         <v>1</v>
@@ -2081,7 +2081,7 @@
         <v>88</v>
       </c>
       <c r="H30" s="21" t="s">
-        <v>114</v>
+        <v>342</v>
       </c>
       <c r="J30" s="13" t="b">
         <v>1</v>
@@ -2092,7 +2092,7 @@
         <v>67</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D31" s="13"/>
       <c r="F31" s="14"/>
@@ -2104,22 +2104,22 @@
         <v>28</v>
       </c>
       <c r="F32" s="14" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G32" t="s">
+        <v>132</v>
+      </c>
+      <c r="H32" t="s">
         <v>133</v>
       </c>
-      <c r="H32" t="s">
-        <v>134</v>
-      </c>
       <c r="K32" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="N32" t="s">
+        <v>263</v>
+      </c>
+      <c r="O32" t="s">
         <v>264</v>
-      </c>
-      <c r="O32" t="s">
-        <v>265</v>
       </c>
       <c r="P32" s="13" t="b">
         <v>0</v>
@@ -2153,10 +2153,10 @@
         <v>35</v>
       </c>
       <c r="G36" s="16" t="s">
+        <v>261</v>
+      </c>
+      <c r="H36" s="13" t="s">
         <v>262</v>
-      </c>
-      <c r="H36" s="13" t="s">
-        <v>263</v>
       </c>
       <c r="T36" s="13" t="b">
         <v>1</v>
@@ -2207,7 +2207,7 @@
         <v>67</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G39" s="21"/>
     </row>
@@ -2216,16 +2216,16 @@
         <v>60</v>
       </c>
       <c r="F40" s="13" t="s">
+        <v>237</v>
+      </c>
+      <c r="G40" s="21" t="s">
         <v>238</v>
       </c>
-      <c r="G40" s="21" t="s">
+      <c r="H40" s="21" t="s">
         <v>239</v>
       </c>
-      <c r="H40" s="21" t="s">
-        <v>240</v>
-      </c>
       <c r="K40" s="13" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.25">
@@ -2249,7 +2249,7 @@
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A44" s="13" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B44" s="13" t="s">
         <v>37</v>
@@ -2260,10 +2260,10 @@
         <v>35</v>
       </c>
       <c r="G45" s="16" t="s">
+        <v>261</v>
+      </c>
+      <c r="H45" s="13" t="s">
         <v>262</v>
-      </c>
-      <c r="H45" s="13" t="s">
-        <v>263</v>
       </c>
       <c r="T45" s="13" t="b">
         <v>1</v>
@@ -2280,19 +2280,19 @@
         <v>77</v>
       </c>
       <c r="G46" s="16" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H46" s="13" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K46" s="13" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="L46" s="13" t="s">
+        <v>244</v>
+      </c>
+      <c r="M46" s="13" t="s">
         <v>245</v>
-      </c>
-      <c r="M46" s="13" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.25">
@@ -2300,7 +2300,7 @@
         <v>67</v>
       </c>
       <c r="C47" s="13" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.25">
@@ -2311,13 +2311,13 @@
         <v>78</v>
       </c>
       <c r="G48" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="H48" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="H48" s="13" t="s">
-        <v>123</v>
-      </c>
       <c r="K48" s="13" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="P48" s="13" t="b">
         <v>0</v>
@@ -2336,22 +2336,22 @@
         <v>52</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G50" s="16" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H50" s="13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K50" s="13" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="L50" s="13" t="s">
+        <v>246</v>
+      </c>
+      <c r="M50" s="13" t="s">
         <v>247</v>
-      </c>
-      <c r="M50" s="13" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="51" spans="1:20" x14ac:dyDescent="0.25">
@@ -2359,7 +2359,7 @@
         <v>67</v>
       </c>
       <c r="C51" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F51" s="3"/>
     </row>
@@ -2368,16 +2368,16 @@
         <v>28</v>
       </c>
       <c r="F52" s="13" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G52" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="H52" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="H52" s="13" t="s">
-        <v>123</v>
-      </c>
       <c r="K52" s="13" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="P52" s="13" t="b">
         <v>0</v>
@@ -2393,15 +2393,15 @@
         <v>67</v>
       </c>
       <c r="C54" s="13" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="55" spans="1:20" x14ac:dyDescent="0.25">
       <c r="D55" s="14" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F55" s="13" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I55" s="13">
         <v>2</v>
@@ -2420,15 +2420,15 @@
         <v>67</v>
       </c>
       <c r="C57" s="13" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.25">
       <c r="D58" s="14" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F58" s="13" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="I58" s="13">
         <v>2</v>
@@ -2452,12 +2452,12 @@
         <v>67</v>
       </c>
       <c r="C61" s="13" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="62" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A62" s="13" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B62" s="13" t="s">
         <v>37</v>
@@ -2468,10 +2468,10 @@
         <v>35</v>
       </c>
       <c r="G63" s="16" t="s">
+        <v>261</v>
+      </c>
+      <c r="H63" s="13" t="s">
         <v>262</v>
-      </c>
-      <c r="H63" s="13" t="s">
-        <v>263</v>
       </c>
       <c r="T63" s="13" t="b">
         <v>1</v>
@@ -2482,10 +2482,10 @@
         <v>35</v>
       </c>
       <c r="G64" s="16" t="s">
+        <v>275</v>
+      </c>
+      <c r="H64" s="13" t="s">
         <v>276</v>
-      </c>
-      <c r="H64" s="13" t="s">
-        <v>277</v>
       </c>
       <c r="T64" s="13" t="b">
         <v>1</v>
@@ -2493,10 +2493,10 @@
     </row>
     <row r="65" spans="1:20" x14ac:dyDescent="0.25">
       <c r="D65" s="14" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F65" s="13" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I65" s="13">
         <v>1</v>
@@ -2520,12 +2520,12 @@
         <v>67</v>
       </c>
       <c r="C68" s="13" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="69" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A69" s="13" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B69" s="13" t="s">
         <v>37</v>
@@ -2536,10 +2536,10 @@
         <v>35</v>
       </c>
       <c r="G70" s="16" t="s">
+        <v>261</v>
+      </c>
+      <c r="H70" s="13" t="s">
         <v>262</v>
-      </c>
-      <c r="H70" s="13" t="s">
-        <v>263</v>
       </c>
       <c r="T70" s="13" t="b">
         <v>1</v>
@@ -2550,10 +2550,10 @@
         <v>35</v>
       </c>
       <c r="G71" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H71" s="13" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="T71" s="13" t="b">
         <v>1</v>
@@ -2561,10 +2561,10 @@
     </row>
     <row r="72" spans="1:20" x14ac:dyDescent="0.25">
       <c r="D72" s="14" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F72" s="13" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="I72" s="13">
         <v>1</v>
@@ -2588,12 +2588,12 @@
         <v>67</v>
       </c>
       <c r="C75" s="13" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="76" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B76" s="13" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="77" spans="1:20" x14ac:dyDescent="0.25">
@@ -2611,10 +2611,10 @@
         <v>35</v>
       </c>
       <c r="G79" s="16" t="s">
+        <v>261</v>
+      </c>
+      <c r="H79" s="13" t="s">
         <v>262</v>
-      </c>
-      <c r="H79" s="13" t="s">
-        <v>263</v>
       </c>
       <c r="T79" s="13" t="b">
         <v>1</v>
@@ -2628,16 +2628,16 @@
         <v>52</v>
       </c>
       <c r="F80" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="G80" s="21" t="s">
         <v>135</v>
       </c>
-      <c r="G80" s="21" t="s">
+      <c r="H80" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="H80" s="13" t="s">
-        <v>137</v>
-      </c>
       <c r="K80" s="13" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="81" spans="1:20" x14ac:dyDescent="0.25">
@@ -2650,12 +2650,12 @@
         <v>67</v>
       </c>
       <c r="C82" s="13" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="83" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A83" s="13" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B83" s="13" t="s">
         <v>37</v>
@@ -2666,10 +2666,10 @@
         <v>35</v>
       </c>
       <c r="G84" s="16" t="s">
+        <v>261</v>
+      </c>
+      <c r="H84" s="13" t="s">
         <v>262</v>
-      </c>
-      <c r="H84" s="13" t="s">
-        <v>263</v>
       </c>
       <c r="T84" s="13" t="b">
         <v>1</v>
@@ -2677,22 +2677,22 @@
     </row>
     <row r="85" spans="1:20" x14ac:dyDescent="0.25">
       <c r="D85" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="E85" s="13" t="s">
         <v>163</v>
       </c>
-      <c r="E85" s="13" t="s">
+      <c r="F85" s="13" t="s">
         <v>164</v>
       </c>
-      <c r="F85" s="13" t="s">
-        <v>165</v>
-      </c>
       <c r="G85" s="16" t="s">
+        <v>336</v>
+      </c>
+      <c r="H85" s="13" t="s">
         <v>337</v>
       </c>
-      <c r="H85" s="13" t="s">
-        <v>338</v>
-      </c>
       <c r="K85" s="13" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="86" spans="1:20" x14ac:dyDescent="0.25">
@@ -2700,7 +2700,7 @@
         <v>67</v>
       </c>
       <c r="C86" s="13" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="87" spans="1:20" x14ac:dyDescent="0.25">
@@ -2708,16 +2708,16 @@
         <v>60</v>
       </c>
       <c r="F87" s="13" t="s">
+        <v>249</v>
+      </c>
+      <c r="G87" s="16" t="s">
         <v>250</v>
       </c>
-      <c r="G87" s="16" t="s">
+      <c r="H87" s="13" t="s">
         <v>251</v>
       </c>
-      <c r="H87" s="13" t="s">
+      <c r="K87" s="13" t="s">
         <v>252</v>
-      </c>
-      <c r="K87" s="13" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="88" spans="1:20" x14ac:dyDescent="0.25">
@@ -2730,16 +2730,16 @@
         <v>28</v>
       </c>
       <c r="F89" s="13" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G89" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="H89" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="H89" s="13" t="s">
-        <v>123</v>
-      </c>
       <c r="K89" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="P89" s="13" t="b">
         <v>0</v>
@@ -2750,15 +2750,15 @@
         <v>67</v>
       </c>
       <c r="C90" s="13" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="91" spans="1:20" x14ac:dyDescent="0.25">
       <c r="D91" s="14" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F91" s="13" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="I91" s="13">
         <v>2</v>
@@ -2782,12 +2782,12 @@
         <v>67</v>
       </c>
       <c r="C94" s="13" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="95" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A95" s="13" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B95" s="13" t="s">
         <v>37</v>
@@ -2798,10 +2798,10 @@
         <v>35</v>
       </c>
       <c r="G96" s="16" t="s">
+        <v>261</v>
+      </c>
+      <c r="H96" s="13" t="s">
         <v>262</v>
-      </c>
-      <c r="H96" s="13" t="s">
-        <v>263</v>
       </c>
       <c r="T96" s="13" t="b">
         <v>1</v>
@@ -2812,10 +2812,10 @@
         <v>35</v>
       </c>
       <c r="G97" s="16" t="s">
+        <v>295</v>
+      </c>
+      <c r="H97" s="13" t="s">
         <v>296</v>
-      </c>
-      <c r="H97" s="13" t="s">
-        <v>297</v>
       </c>
       <c r="T97" s="13" t="b">
         <v>1</v>
@@ -2823,10 +2823,10 @@
     </row>
     <row r="98" spans="2:20" x14ac:dyDescent="0.25">
       <c r="D98" s="14" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F98" s="13" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="I98" s="13">
         <v>1</v>
@@ -2850,12 +2850,12 @@
         <v>67</v>
       </c>
       <c r="C101" s="13" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="102" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B102" s="13" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="103" spans="2:20" x14ac:dyDescent="0.25">
@@ -2878,7 +2878,7 @@
         <v>67</v>
       </c>
       <c r="C106" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="107" spans="2:20" x14ac:dyDescent="0.25">
@@ -2886,7 +2886,7 @@
         <v>67</v>
       </c>
       <c r="C107" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="108" spans="2:20" x14ac:dyDescent="0.25">
@@ -2899,10 +2899,10 @@
         <v>35</v>
       </c>
       <c r="G109" s="16" t="s">
+        <v>261</v>
+      </c>
+      <c r="H109" s="13" t="s">
         <v>262</v>
-      </c>
-      <c r="H109" s="13" t="s">
-        <v>263</v>
       </c>
       <c r="T109" s="13" t="b">
         <v>1</v>
@@ -2910,25 +2910,25 @@
     </row>
     <row r="110" spans="2:20" x14ac:dyDescent="0.25">
       <c r="D110" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="F110" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="G110" s="16" t="s">
         <v>138</v>
       </c>
-      <c r="F110" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="G110" s="16" t="s">
+      <c r="H110" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="H110" s="13" t="s">
-        <v>140</v>
-      </c>
       <c r="L110" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="M110" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="M110" s="13" t="s">
-        <v>146</v>
-      </c>
       <c r="R110" s="13" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="111" spans="2:20" x14ac:dyDescent="0.25">
@@ -2951,10 +2951,10 @@
         <v>35</v>
       </c>
       <c r="G114" s="16" t="s">
+        <v>261</v>
+      </c>
+      <c r="H114" s="13" t="s">
         <v>262</v>
-      </c>
-      <c r="H114" s="13" t="s">
-        <v>263</v>
       </c>
       <c r="T114" s="13" t="b">
         <v>1</v>
@@ -2968,19 +2968,19 @@
         <v>52</v>
       </c>
       <c r="F115" s="13" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G115" t="s">
+        <v>253</v>
+      </c>
+      <c r="H115" t="s">
         <v>254</v>
       </c>
-      <c r="H115" t="s">
-        <v>255</v>
-      </c>
       <c r="K115" s="13" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="R115" s="13" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="116" spans="2:20" x14ac:dyDescent="0.25">
@@ -2988,21 +2988,21 @@
         <v>67</v>
       </c>
       <c r="C116" s="13" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="117" spans="2:20" x14ac:dyDescent="0.25">
       <c r="D117" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F117" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="G117" s="16" t="s">
         <v>210</v>
       </c>
-      <c r="G117" s="16" t="s">
+      <c r="H117" s="13" t="s">
         <v>211</v>
-      </c>
-      <c r="H117" s="13" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="118" spans="2:20" x14ac:dyDescent="0.25">
@@ -3025,7 +3025,7 @@
         <v>67</v>
       </c>
       <c r="C121" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="122" spans="2:20" x14ac:dyDescent="0.25">
@@ -3038,10 +3038,10 @@
         <v>35</v>
       </c>
       <c r="G123" s="16" t="s">
+        <v>261</v>
+      </c>
+      <c r="H123" s="13" t="s">
         <v>262</v>
-      </c>
-      <c r="H123" s="13" t="s">
-        <v>263</v>
       </c>
       <c r="T123" s="13" t="b">
         <v>1</v>
@@ -3049,28 +3049,28 @@
     </row>
     <row r="124" spans="2:20" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D124" s="11" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F124" s="11" t="s">
+        <v>303</v>
+      </c>
+      <c r="G124" t="s">
+        <v>312</v>
+      </c>
+      <c r="H124" t="s">
+        <v>313</v>
+      </c>
+      <c r="K124" s="13" t="s">
         <v>304</v>
       </c>
-      <c r="G124" t="s">
-        <v>313</v>
-      </c>
-      <c r="H124" t="s">
-        <v>314</v>
-      </c>
-      <c r="K124" s="13" t="s">
-        <v>305</v>
-      </c>
       <c r="L124" s="11" t="s">
+        <v>310</v>
+      </c>
+      <c r="M124" s="11" t="s">
         <v>311</v>
       </c>
-      <c r="M124" s="11" t="s">
-        <v>312</v>
-      </c>
       <c r="R124" s="11" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="125" spans="2:20" x14ac:dyDescent="0.25">
@@ -3088,7 +3088,7 @@
         <v>67</v>
       </c>
       <c r="C127" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D127" s="13"/>
       <c r="F127" s="14"/>
@@ -3100,7 +3100,7 @@
         <v>67</v>
       </c>
       <c r="C128" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D128" s="13"/>
       <c r="F128" s="14"/>
@@ -3123,10 +3123,10 @@
         <v>35</v>
       </c>
       <c r="G130" s="16" t="s">
+        <v>261</v>
+      </c>
+      <c r="H130" s="13" t="s">
         <v>262</v>
-      </c>
-      <c r="H130" s="13" t="s">
-        <v>263</v>
       </c>
       <c r="T130" s="13" t="b">
         <v>1</v>
@@ -3141,16 +3141,16 @@
         <v>53</v>
       </c>
       <c r="F131" s="14" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="G131" s="21" t="s">
+        <v>315</v>
+      </c>
+      <c r="H131" s="21" t="s">
         <v>316</v>
       </c>
-      <c r="H131" s="21" t="s">
-        <v>317</v>
-      </c>
       <c r="K131" s="13" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="132" spans="2:20" x14ac:dyDescent="0.25">
@@ -3168,7 +3168,7 @@
         <v>67</v>
       </c>
       <c r="C133" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D133" s="13"/>
       <c r="F133" s="14"/>
@@ -3191,10 +3191,10 @@
         <v>35</v>
       </c>
       <c r="G135" s="16" t="s">
+        <v>261</v>
+      </c>
+      <c r="H135" s="13" t="s">
         <v>262</v>
-      </c>
-      <c r="H135" s="13" t="s">
-        <v>263</v>
       </c>
       <c r="T135" s="13" t="b">
         <v>1</v>
@@ -3203,35 +3203,35 @@
     <row r="136" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C136"/>
       <c r="D136" s="11" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E136" s="11"/>
       <c r="F136" s="11" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G136" t="s">
+        <v>319</v>
+      </c>
+      <c r="H136" s="21" t="s">
         <v>320</v>
-      </c>
-      <c r="H136" s="21" t="s">
-        <v>321</v>
       </c>
       <c r="I136" s="11"/>
       <c r="J136" s="11"/>
       <c r="K136" s="13" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="L136" s="11" t="s">
+        <v>310</v>
+      </c>
+      <c r="M136" s="11" t="s">
         <v>311</v>
-      </c>
-      <c r="M136" s="11" t="s">
-        <v>312</v>
       </c>
       <c r="N136" s="11"/>
       <c r="O136" s="11"/>
       <c r="P136" s="11"/>
       <c r="Q136" s="11"/>
       <c r="R136" s="11" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="137" spans="2:20" x14ac:dyDescent="0.25">
@@ -3277,10 +3277,10 @@
         <v>35</v>
       </c>
       <c r="G141" s="16" t="s">
+        <v>261</v>
+      </c>
+      <c r="H141" s="13" t="s">
         <v>262</v>
-      </c>
-      <c r="H141" s="13" t="s">
-        <v>263</v>
       </c>
       <c r="K141"/>
       <c r="L141"/>
@@ -3296,30 +3296,30 @@
         <v>81</v>
       </c>
       <c r="G142" t="s">
+        <v>334</v>
+      </c>
+      <c r="H142" t="s">
         <v>335</v>
-      </c>
-      <c r="H142" t="s">
-        <v>336</v>
       </c>
       <c r="I142"/>
       <c r="J142"/>
       <c r="K142" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="L142" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="M142" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="N142" t="s">
+        <v>148</v>
+      </c>
+      <c r="O142" t="s">
         <v>149</v>
       </c>
-      <c r="O142" t="s">
-        <v>150</v>
-      </c>
       <c r="R142" s="13" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="143" spans="2:20" x14ac:dyDescent="0.25">
@@ -3359,10 +3359,10 @@
         <v>35</v>
       </c>
       <c r="G145" s="16" t="s">
+        <v>261</v>
+      </c>
+      <c r="H145" s="13" t="s">
         <v>262</v>
-      </c>
-      <c r="H145" s="13" t="s">
-        <v>263</v>
       </c>
       <c r="I145"/>
       <c r="J145"/>
@@ -3386,22 +3386,22 @@
         <v>82</v>
       </c>
       <c r="G146" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="H146" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="H146" s="21" t="s">
-        <v>118</v>
-      </c>
       <c r="K146" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="L146" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="M146" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="R146" s="13" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="147" spans="2:20" x14ac:dyDescent="0.25">
@@ -3433,10 +3433,10 @@
         <v>35</v>
       </c>
       <c r="G150" s="16" t="s">
+        <v>261</v>
+      </c>
+      <c r="H150" s="13" t="s">
         <v>262</v>
-      </c>
-      <c r="H150" s="13" t="s">
-        <v>263</v>
       </c>
       <c r="T150" s="13" t="b">
         <v>1</v>
@@ -3454,19 +3454,19 @@
         <v>83</v>
       </c>
       <c r="G151" s="16" t="s">
+        <v>267</v>
+      </c>
+      <c r="H151" s="13" t="s">
         <v>268</v>
       </c>
-      <c r="H151" s="13" t="s">
-        <v>269</v>
-      </c>
       <c r="J151" s="13" t="b">
         <v>1</v>
       </c>
       <c r="L151" t="s">
+        <v>307</v>
+      </c>
+      <c r="M151" t="s">
         <v>308</v>
-      </c>
-      <c r="M151" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="152" spans="2:20" x14ac:dyDescent="0.25">
@@ -3474,7 +3474,7 @@
         <v>67</v>
       </c>
       <c r="C152" s="13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="153" spans="2:20" x14ac:dyDescent="0.25">
@@ -3486,19 +3486,19 @@
         <v>84</v>
       </c>
       <c r="G153" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="H153" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="H153" s="13" t="s">
-        <v>127</v>
-      </c>
       <c r="K153" s="16" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="N153" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="O153" s="13" t="s">
         <v>266</v>
-      </c>
-      <c r="O153" s="13" t="s">
-        <v>267</v>
       </c>
       <c r="P153" s="13" t="b">
         <v>0</v>
@@ -3527,10 +3527,10 @@
         <v>35</v>
       </c>
       <c r="G157" s="16" t="s">
+        <v>261</v>
+      </c>
+      <c r="H157" s="13" t="s">
         <v>262</v>
-      </c>
-      <c r="H157" s="13" t="s">
-        <v>263</v>
       </c>
       <c r="T157" t="b">
         <v>1</v>
@@ -3542,10 +3542,10 @@
         <v>35</v>
       </c>
       <c r="G158" t="s">
+        <v>181</v>
+      </c>
+      <c r="H158" t="s">
         <v>182</v>
-      </c>
-      <c r="H158" t="s">
-        <v>183</v>
       </c>
       <c r="T158" t="b">
         <v>1</v>
@@ -3557,10 +3557,10 @@
         <v>35</v>
       </c>
       <c r="G159" t="s">
+        <v>183</v>
+      </c>
+      <c r="H159" t="s">
         <v>184</v>
-      </c>
-      <c r="H159" t="s">
-        <v>185</v>
       </c>
       <c r="T159" t="b">
         <v>1</v>
@@ -3572,13 +3572,13 @@
         <v>60</v>
       </c>
       <c r="F160" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G160" t="s">
+        <v>255</v>
+      </c>
+      <c r="H160" t="s">
         <v>256</v>
-      </c>
-      <c r="H160" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="161" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
@@ -3897,10 +3897,10 @@
         <v>4</v>
       </c>
       <c r="C22" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="D22" s="13" t="s">
         <v>241</v>
-      </c>
-      <c r="D22" s="13" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -3911,86 +3911,86 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D24" s="13" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="25" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="13" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="26" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="13" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="27" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="13" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="28" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="13" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="29" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="13" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B29" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="D29" s="11" t="s">
         <v>241</v>
-      </c>
-      <c r="C29" s="11" t="s">
-        <v>241</v>
-      </c>
-      <c r="D29" s="11" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="30" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -4657,57 +4657,57 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="23" t="s">
         <v>220</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="D1" s="23" t="s">
         <v>221</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="E1" s="23" t="s">
         <v>222</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="F1" s="23" t="s">
         <v>223</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="G1" s="23" t="s">
         <v>224</v>
       </c>
-      <c r="G1" s="23" t="s">
+      <c r="H1" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>226</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B2" t="s">
+        <v>227</v>
+      </c>
+      <c r="C2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E2" t="s">
+        <v>323</v>
+      </c>
+      <c r="F2" t="s">
+        <v>324</v>
+      </c>
+      <c r="G2" s="24" t="s">
         <v>228</v>
       </c>
-      <c r="C2" t="s">
-        <v>128</v>
-      </c>
-      <c r="D2" t="s">
-        <v>128</v>
-      </c>
-      <c r="E2" t="s">
-        <v>324</v>
-      </c>
-      <c r="F2" t="s">
-        <v>325</v>
-      </c>
-      <c r="G2" s="24" t="s">
-        <v>229</v>
-      </c>
       <c r="H2" s="24" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>
@@ -4740,34 +4740,34 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="B2" s="10" t="s">
         <v>259</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
+        <v>269</v>
+      </c>
+      <c r="B3" s="10" t="s">
         <v>270</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -4829,7 +4829,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B3" t="s">
         <v>48</v>
@@ -4887,7 +4887,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -4958,7 +4958,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>48</v>
@@ -4969,7 +4969,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>60</v>
@@ -4980,7 +4980,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>60</v>
@@ -4991,7 +4991,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>60</v>
@@ -5013,7 +5013,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>60</v>
@@ -5024,7 +5024,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>50</v>
@@ -5035,7 +5035,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>28</v>
@@ -5046,7 +5046,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>60</v>
@@ -5057,7 +5057,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B20" s="13" t="s">
         <v>50</v>
@@ -5068,16 +5068,16 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C22" s="3" t="b">
         <v>1</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E22"/>
       <c r="F22" s="11"/>
@@ -5152,7 +5152,7 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>28</v>
@@ -5192,7 +5192,7 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>60</v>
@@ -5234,7 +5234,7 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>50</v>
@@ -5247,7 +5247,7 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>28</v>
@@ -5261,7 +5261,7 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="13" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>48</v>
@@ -5275,7 +5275,7 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="13" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>48</v>
@@ -5289,7 +5289,7 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>50</v>
@@ -5302,10 +5302,10 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="13" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C39" s="3" t="b">
         <v>0</v>
@@ -5316,7 +5316,7 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="13" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>60</v>
@@ -5330,7 +5330,7 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="13" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>28</v>
@@ -5344,7 +5344,7 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>48</v>
@@ -5357,10 +5357,10 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="13" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C43" s="3" t="b">
         <v>0</v>
@@ -5370,7 +5370,7 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="13" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>50</v>
@@ -5384,10 +5384,10 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="13" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C45" s="3" t="b">
         <v>0</v>
@@ -5398,10 +5398,10 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="11" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C46" s="3" t="b">
         <v>0</v>
@@ -5410,7 +5410,7 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="11" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>50</v>
@@ -5476,7 +5476,7 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="13" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>60</v>
@@ -5490,7 +5490,7 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B54" t="s">
         <v>50</v>
@@ -5499,12 +5499,12 @@
         <v>0</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B55" t="s">
         <v>50</v>
@@ -5516,7 +5516,7 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B56" t="s">
         <v>50</v>
@@ -5527,7 +5527,7 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B57" t="s">
         <v>50</v>

--- a/app/config/tables/CHILDREN/Forms/CHILDREN/CHILDREN.xlsx
+++ b/app/config/tables/CHILDREN/Forms/CHILDREN/CHILDREN.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D11A79F7-52BE-43EC-AEC5-4C6B004F3785}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{235D27BB-08C2-4E5F-9189-04A8C092B1CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="728" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19320" yWindow="-2100" windowWidth="19440" windowHeight="15000" tabRatio="728" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -15,6 +15,7 @@
     <sheet name="calculates" sheetId="7" r:id="rId5"/>
     <sheet name="prompt_types" sheetId="6" r:id="rId6"/>
     <sheet name="model" sheetId="4" r:id="rId7"/>
+    <sheet name="properties" sheetId="14" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="353">
   <si>
     <t>setting_name</t>
   </si>
@@ -1064,6 +1065,36 @@
   </si>
   <si>
     <t>Estado da criança</t>
+  </si>
+  <si>
+    <t>partition</t>
+  </si>
+  <si>
+    <t>aspect</t>
+  </si>
+  <si>
+    <t>key</t>
+  </si>
+  <si>
+    <t>Table</t>
+  </si>
+  <si>
+    <t>security</t>
+  </si>
+  <si>
+    <t>locked</t>
+  </si>
+  <si>
+    <t>boolean</t>
+  </si>
+  <si>
+    <t>unverifiedUserCanCreate</t>
+  </si>
+  <si>
+    <t>defaultAccessOnCreation</t>
+  </si>
+  <si>
+    <t>HIDDEN</t>
   </si>
 </sst>
 </file>
@@ -1616,7 +1647,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB5FB9AA-D433-6046-85E1-401DEB18B3FD}">
   <dimension ref="A1:T161"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="H30" sqref="H30"/>
     </sheetView>
@@ -5625,4 +5656,97 @@
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20ACF115-0936-4F5A-8A74-965B4D967D9F}">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>346</v>
+      </c>
+      <c r="B2" t="s">
+        <v>347</v>
+      </c>
+      <c r="C2" t="s">
+        <v>348</v>
+      </c>
+      <c r="D2" t="s">
+        <v>349</v>
+      </c>
+      <c r="E2" t="str">
+        <f>"FALSE"</f>
+        <v>FALSE</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>346</v>
+      </c>
+      <c r="B3" t="s">
+        <v>347</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>350</v>
+      </c>
+      <c r="D3" t="s">
+        <v>349</v>
+      </c>
+      <c r="E3" t="str">
+        <f>"TRUE"</f>
+        <v>TRUE</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>346</v>
+      </c>
+      <c r="B4" t="s">
+        <v>347</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>351</v>
+      </c>
+      <c r="D4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" t="s">
+        <v>352</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/app/config/tables/CHILDREN/Forms/CHILDREN/CHILDREN.xlsx
+++ b/app/config/tables/CHILDREN/Forms/CHILDREN/CHILDREN.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{235D27BB-08C2-4E5F-9189-04A8C092B1CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68B4C8A6-EF2B-4489-9666-06277DF89A4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19320" yWindow="-2100" windowWidth="19440" windowHeight="15000" tabRatio="728" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="728" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="357">
   <si>
     <t>setting_name</t>
   </si>
@@ -1095,6 +1095,18 @@
   </si>
   <si>
     <t>HIDDEN</t>
+  </si>
+  <si>
+    <t>HOSPREASON</t>
+  </si>
+  <si>
+    <t>What happened? / Why did the child get hospitalised?</t>
+  </si>
+  <si>
+    <t>O que aconteceu? / Por que a criança foi hospitalizada?</t>
+  </si>
+  <si>
+    <t>data("HOSPREASON") != null || data("HOSP") != 1</t>
   </si>
 </sst>
 </file>
@@ -1645,11 +1657,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB5FB9AA-D433-6046-85E1-401DEB18B3FD}">
-  <dimension ref="A1:T161"/>
+  <dimension ref="A1:T162"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H30" sqref="H30"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A143" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K154" sqref="K154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3536,47 +3548,50 @@
       </c>
     </row>
     <row r="154" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B154" s="13" t="s">
-        <v>68</v>
-      </c>
       <c r="C154"/>
+      <c r="D154" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="F154" s="13" t="s">
+        <v>353</v>
+      </c>
+      <c r="G154" s="16" t="s">
+        <v>354</v>
+      </c>
+      <c r="H154" s="13" t="s">
+        <v>355</v>
+      </c>
+      <c r="K154" t="s">
+        <v>356</v>
+      </c>
     </row>
     <row r="155" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B155" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="C155"/>
+    </row>
+    <row r="156" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B156" s="13" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="156" spans="2:20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B156" t="s">
+    <row r="157" spans="2:20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B157" t="s">
         <v>37</v>
       </c>
-      <c r="C156" s="13"/>
-    </row>
-    <row r="157" spans="2:20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C157" s="13"/>
-      <c r="D157" t="s">
-        <v>35</v>
-      </c>
-      <c r="G157" s="16" t="s">
-        <v>261</v>
-      </c>
-      <c r="H157" s="13" t="s">
-        <v>262</v>
-      </c>
-      <c r="T157" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="158" spans="2:20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C158" s="13"/>
       <c r="D158" t="s">
         <v>35</v>
       </c>
-      <c r="G158" t="s">
-        <v>181</v>
-      </c>
-      <c r="H158" t="s">
-        <v>182</v>
+      <c r="G158" s="16" t="s">
+        <v>261</v>
+      </c>
+      <c r="H158" s="13" t="s">
+        <v>262</v>
       </c>
       <c r="T158" t="b">
         <v>1</v>
@@ -3588,10 +3603,10 @@
         <v>35</v>
       </c>
       <c r="G159" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="H159" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="T159" t="b">
         <v>1</v>
@@ -3600,23 +3615,38 @@
     <row r="160" spans="2:20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C160" s="13"/>
       <c r="D160" t="s">
+        <v>35</v>
+      </c>
+      <c r="G160" t="s">
+        <v>183</v>
+      </c>
+      <c r="H160" t="s">
+        <v>184</v>
+      </c>
+      <c r="T160" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="2:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C161" s="13"/>
+      <c r="D161" t="s">
         <v>60</v>
       </c>
-      <c r="F160" t="s">
+      <c r="F161" t="s">
         <v>257</v>
       </c>
-      <c r="G160" t="s">
+      <c r="G161" t="s">
         <v>255</v>
       </c>
-      <c r="H160" t="s">
+      <c r="H161" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="161" spans="2:3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B161" t="s">
+    <row r="162" spans="2:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B162" t="s">
         <v>38</v>
       </c>
-      <c r="C161" s="13"/>
+      <c r="C162" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4877,11 +4907,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:F143"/>
+  <dimension ref="A1:F144"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C18" sqref="C18"/>
+      <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A52" sqref="A52:C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5507,7 +5537,7 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="13" t="s">
-        <v>257</v>
+        <v>353</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>60</v>
@@ -5517,25 +5547,25 @@
       </c>
       <c r="D52" s="13"/>
       <c r="E52"/>
-      <c r="F52"/>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>153</v>
-      </c>
-      <c r="B54" t="s">
-        <v>50</v>
-      </c>
-      <c r="C54" t="b">
+      <c r="F52" s="13"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="13" t="s">
+        <v>257</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C53" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="D54" s="3" t="s">
-        <v>203</v>
-      </c>
+      <c r="D53" s="13"/>
+      <c r="E53"/>
+      <c r="F53"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B55" t="s">
         <v>50</v>
@@ -5543,11 +5573,13 @@
       <c r="C55" t="b">
         <v>0</v>
       </c>
-      <c r="E55" s="13"/>
+      <c r="D55" s="3" t="s">
+        <v>203</v>
+      </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B56" t="s">
         <v>50</v>
@@ -5555,10 +5587,11 @@
       <c r="C56" t="b">
         <v>0</v>
       </c>
+      <c r="E56" s="13"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B57" t="s">
         <v>50</v>
@@ -5566,10 +5599,18 @@
       <c r="C57" t="b">
         <v>0</v>
       </c>
-      <c r="E57" s="13"/>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E59" s="13"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>156</v>
+      </c>
+      <c r="B58" t="s">
+        <v>50</v>
+      </c>
+      <c r="C58" t="b">
+        <v>0</v>
+      </c>
+      <c r="E58" s="13"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E60" s="13"/>
@@ -5577,16 +5618,13 @@
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E61" s="13"/>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E63" s="13"/>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E62" s="13"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E64" s="13"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65"/>
-      <c r="B65"/>
-      <c r="C65"/>
       <c r="E65" s="13"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
@@ -5599,7 +5637,7 @@
       <c r="A67"/>
       <c r="B67"/>
       <c r="C67"/>
-      <c r="E67" s="14"/>
+      <c r="E67" s="13"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68"/>
@@ -5608,10 +5646,13 @@
       <c r="E68" s="14"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E69" s="13"/>
-    </row>
-    <row r="87" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F87" s="13"/>
+      <c r="A69"/>
+      <c r="B69"/>
+      <c r="C69"/>
+      <c r="E69" s="14"/>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E70" s="13"/>
     </row>
     <row r="88" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F88" s="13"/>
@@ -5622,23 +5663,23 @@
     <row r="90" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F90" s="13"/>
     </row>
-    <row r="118" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F118" s="13"/>
+    <row r="91" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F91" s="13"/>
     </row>
     <row r="119" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F119" s="13"/>
     </row>
-    <row r="128" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F128" s="13"/>
-    </row>
-    <row r="134" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F134" s="13"/>
-    </row>
-    <row r="139" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F139" s="13"/>
+    <row r="120" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F120" s="13"/>
+    </row>
+    <row r="129" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F129" s="13"/>
+    </row>
+    <row r="135" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F135" s="13"/>
     </row>
     <row r="140" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F140"/>
+      <c r="F140" s="13"/>
     </row>
     <row r="141" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F141"/>
@@ -5648,6 +5689,9 @@
     </row>
     <row r="143" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F143"/>
+    </row>
+    <row r="144" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F144"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="H4:H24">
@@ -5662,7 +5706,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20ACF115-0936-4F5A-8A74-965B4D967D9F}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
     </sheetView>

--- a/app/config/tables/CHILDREN/Forms/CHILDREN/CHILDREN.xlsx
+++ b/app/config/tables/CHILDREN/Forms/CHILDREN/CHILDREN.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68B4C8A6-EF2B-4489-9666-06277DF89A4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBD35DC7-953B-40AD-8091-0E81DD7B816D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="728" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="728" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="356">
   <si>
     <t>setting_name</t>
   </si>
@@ -503,9 +503,6 @@
   </si>
   <si>
     <t>DOBCON</t>
-  </si>
-  <si>
-    <t>POBCON</t>
   </si>
   <si>
     <t>POLIO</t>
@@ -1640,7 +1637,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B8" t="s">
         <v>74</v>
@@ -1659,9 +1656,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB5FB9AA-D433-6046-85E1-401DEB18B3FD}">
   <dimension ref="A1:T162"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A143" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K154" sqref="K154"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A146" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D149" sqref="D149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1745,10 +1742,10 @@
         <v>140</v>
       </c>
       <c r="S1" s="28" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="T1" s="25" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="2" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -1762,10 +1759,10 @@
         <v>35</v>
       </c>
       <c r="G3" s="16" t="s">
+        <v>260</v>
+      </c>
+      <c r="H3" s="13" t="s">
         <v>261</v>
-      </c>
-      <c r="H3" s="13" t="s">
-        <v>262</v>
       </c>
       <c r="T3" s="11" t="b">
         <v>1</v>
@@ -1790,10 +1787,10 @@
         <v>35</v>
       </c>
       <c r="G5" t="s">
+        <v>184</v>
+      </c>
+      <c r="H5" t="s">
         <v>185</v>
-      </c>
-      <c r="H5" t="s">
-        <v>186</v>
       </c>
       <c r="T5" s="11" t="b">
         <v>1</v>
@@ -1804,10 +1801,10 @@
         <v>35</v>
       </c>
       <c r="G6" t="s">
+        <v>186</v>
+      </c>
+      <c r="H6" t="s">
         <v>187</v>
-      </c>
-      <c r="H6" t="s">
-        <v>188</v>
       </c>
       <c r="T6" s="11" t="b">
         <v>1</v>
@@ -1818,10 +1815,10 @@
         <v>35</v>
       </c>
       <c r="G7" t="s">
+        <v>188</v>
+      </c>
+      <c r="H7" t="s">
         <v>189</v>
-      </c>
-      <c r="H7" t="s">
-        <v>190</v>
       </c>
       <c r="T7" s="11" t="b">
         <v>1</v>
@@ -1832,10 +1829,10 @@
         <v>35</v>
       </c>
       <c r="G8" s="22" t="s">
+        <v>190</v>
+      </c>
+      <c r="H8" s="22" t="s">
         <v>191</v>
-      </c>
-      <c r="H8" s="22" t="s">
-        <v>192</v>
       </c>
       <c r="T8" s="11" t="b">
         <v>1</v>
@@ -1846,10 +1843,10 @@
         <v>35</v>
       </c>
       <c r="G9" s="22" t="s">
+        <v>200</v>
+      </c>
+      <c r="H9" s="22" t="s">
         <v>201</v>
-      </c>
-      <c r="H9" s="22" t="s">
-        <v>202</v>
       </c>
       <c r="T9" s="11" t="b">
         <v>1</v>
@@ -1860,20 +1857,20 @@
         <v>67</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="G10" s="22"/>
       <c r="H10" s="22"/>
     </row>
     <row r="11" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D11" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="E11" s="11" t="s">
         <v>216</v>
       </c>
-      <c r="E11" s="11" t="s">
-        <v>217</v>
-      </c>
       <c r="F11" s="11" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G11" s="22"/>
       <c r="H11" s="22"/>
@@ -1905,10 +1902,10 @@
         <v>35</v>
       </c>
       <c r="G15" s="16" t="s">
+        <v>260</v>
+      </c>
+      <c r="H15" s="13" t="s">
         <v>261</v>
-      </c>
-      <c r="H15" s="13" t="s">
-        <v>262</v>
       </c>
       <c r="T15" s="11" t="b">
         <v>1</v>
@@ -1940,10 +1937,10 @@
     </row>
     <row r="17" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B17" s="13" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F17" s="3"/>
       <c r="H17" s="16"/>
@@ -1952,14 +1949,14 @@
     </row>
     <row r="18" spans="2:20" x14ac:dyDescent="0.25">
       <c r="D18" s="14" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H18" s="16"/>
       <c r="I18" s="13" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="J18"/>
       <c r="K18"/>
@@ -1969,10 +1966,10 @@
     </row>
     <row r="19" spans="2:20" x14ac:dyDescent="0.25">
       <c r="D19" s="14" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H19" s="16"/>
       <c r="I19" s="13">
@@ -2008,10 +2005,10 @@
         <v>35</v>
       </c>
       <c r="G23" s="16" t="s">
+        <v>260</v>
+      </c>
+      <c r="H23" s="13" t="s">
         <v>261</v>
-      </c>
-      <c r="H23" s="13" t="s">
-        <v>262</v>
       </c>
       <c r="T23" s="13" t="b">
         <v>1</v>
@@ -2034,10 +2031,10 @@
         <v>1</v>
       </c>
       <c r="L24" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="M24" s="13" t="s">
         <v>235</v>
-      </c>
-      <c r="M24" s="13" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="25" spans="2:20" x14ac:dyDescent="0.25">
@@ -2074,13 +2071,13 @@
         <v>92</v>
       </c>
       <c r="K26" s="13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="N26" s="13" t="s">
+        <v>328</v>
+      </c>
+      <c r="O26" s="13" t="s">
         <v>329</v>
-      </c>
-      <c r="O26" s="13" t="s">
-        <v>330</v>
       </c>
       <c r="P26" s="13" t="b">
         <v>0</v>
@@ -2101,10 +2098,10 @@
         <v>35</v>
       </c>
       <c r="G29" s="16" t="s">
+        <v>260</v>
+      </c>
+      <c r="H29" s="13" t="s">
         <v>261</v>
-      </c>
-      <c r="H29" s="13" t="s">
-        <v>262</v>
       </c>
       <c r="T29" s="13" t="b">
         <v>1</v>
@@ -2124,7 +2121,7 @@
         <v>88</v>
       </c>
       <c r="H30" s="21" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="J30" s="13" t="b">
         <v>1</v>
@@ -2147,7 +2144,7 @@
         <v>28</v>
       </c>
       <c r="F32" s="14" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G32" t="s">
         <v>132</v>
@@ -2156,13 +2153,13 @@
         <v>133</v>
       </c>
       <c r="K32" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="N32" t="s">
+        <v>262</v>
+      </c>
+      <c r="O32" t="s">
         <v>263</v>
-      </c>
-      <c r="O32" t="s">
-        <v>264</v>
       </c>
       <c r="P32" s="13" t="b">
         <v>0</v>
@@ -2196,10 +2193,10 @@
         <v>35</v>
       </c>
       <c r="G36" s="16" t="s">
+        <v>260</v>
+      </c>
+      <c r="H36" s="13" t="s">
         <v>261</v>
-      </c>
-      <c r="H36" s="13" t="s">
-        <v>262</v>
       </c>
       <c r="T36" s="13" t="b">
         <v>1</v>
@@ -2250,7 +2247,7 @@
         <v>67</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G39" s="21"/>
     </row>
@@ -2259,16 +2256,16 @@
         <v>60</v>
       </c>
       <c r="F40" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="G40" s="21" t="s">
         <v>237</v>
       </c>
-      <c r="G40" s="21" t="s">
+      <c r="H40" s="21" t="s">
         <v>238</v>
       </c>
-      <c r="H40" s="21" t="s">
-        <v>239</v>
-      </c>
       <c r="K40" s="13" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.25">
@@ -2292,7 +2289,7 @@
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A44" s="13" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B44" s="13" t="s">
         <v>37</v>
@@ -2303,10 +2300,10 @@
         <v>35</v>
       </c>
       <c r="G45" s="16" t="s">
+        <v>260</v>
+      </c>
+      <c r="H45" s="13" t="s">
         <v>261</v>
-      </c>
-      <c r="H45" s="13" t="s">
-        <v>262</v>
       </c>
       <c r="T45" s="13" t="b">
         <v>1</v>
@@ -2332,10 +2329,10 @@
         <v>146</v>
       </c>
       <c r="L46" s="13" t="s">
+        <v>243</v>
+      </c>
+      <c r="M46" s="13" t="s">
         <v>244</v>
-      </c>
-      <c r="M46" s="13" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.25">
@@ -2360,7 +2357,7 @@
         <v>122</v>
       </c>
       <c r="K48" s="13" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="P48" s="13" t="b">
         <v>0</v>
@@ -2379,22 +2376,22 @@
         <v>52</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G50" s="16" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H50" s="13" t="s">
         <v>123</v>
       </c>
       <c r="K50" s="13" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="L50" s="13" t="s">
+        <v>245</v>
+      </c>
+      <c r="M50" s="13" t="s">
         <v>246</v>
-      </c>
-      <c r="M50" s="13" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="51" spans="1:20" x14ac:dyDescent="0.25">
@@ -2402,7 +2399,7 @@
         <v>67</v>
       </c>
       <c r="C51" s="13" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F51" s="3"/>
     </row>
@@ -2411,7 +2408,7 @@
         <v>28</v>
       </c>
       <c r="F52" s="13" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G52" s="16" t="s">
         <v>121</v>
@@ -2420,7 +2417,7 @@
         <v>122</v>
       </c>
       <c r="K52" s="13" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="P52" s="13" t="b">
         <v>0</v>
@@ -2436,15 +2433,15 @@
         <v>67</v>
       </c>
       <c r="C54" s="13" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="55" spans="1:20" x14ac:dyDescent="0.25">
       <c r="D55" s="14" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F55" s="13" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="I55" s="13">
         <v>2</v>
@@ -2463,15 +2460,15 @@
         <v>67</v>
       </c>
       <c r="C57" s="13" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.25">
       <c r="D58" s="14" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F58" s="13" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="I58" s="13">
         <v>2</v>
@@ -2495,12 +2492,12 @@
         <v>67</v>
       </c>
       <c r="C61" s="13" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="62" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A62" s="13" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B62" s="13" t="s">
         <v>37</v>
@@ -2511,10 +2508,10 @@
         <v>35</v>
       </c>
       <c r="G63" s="16" t="s">
+        <v>260</v>
+      </c>
+      <c r="H63" s="13" t="s">
         <v>261</v>
-      </c>
-      <c r="H63" s="13" t="s">
-        <v>262</v>
       </c>
       <c r="T63" s="13" t="b">
         <v>1</v>
@@ -2525,10 +2522,10 @@
         <v>35</v>
       </c>
       <c r="G64" s="16" t="s">
+        <v>274</v>
+      </c>
+      <c r="H64" s="13" t="s">
         <v>275</v>
-      </c>
-      <c r="H64" s="13" t="s">
-        <v>276</v>
       </c>
       <c r="T64" s="13" t="b">
         <v>1</v>
@@ -2536,10 +2533,10 @@
     </row>
     <row r="65" spans="1:20" x14ac:dyDescent="0.25">
       <c r="D65" s="14" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F65" s="13" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="I65" s="13">
         <v>1</v>
@@ -2563,12 +2560,12 @@
         <v>67</v>
       </c>
       <c r="C68" s="13" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="69" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A69" s="13" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B69" s="13" t="s">
         <v>37</v>
@@ -2579,10 +2576,10 @@
         <v>35</v>
       </c>
       <c r="G70" s="16" t="s">
+        <v>260</v>
+      </c>
+      <c r="H70" s="13" t="s">
         <v>261</v>
-      </c>
-      <c r="H70" s="13" t="s">
-        <v>262</v>
       </c>
       <c r="T70" s="13" t="b">
         <v>1</v>
@@ -2593,10 +2590,10 @@
         <v>35</v>
       </c>
       <c r="G71" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H71" s="13" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="T71" s="13" t="b">
         <v>1</v>
@@ -2604,10 +2601,10 @@
     </row>
     <row r="72" spans="1:20" x14ac:dyDescent="0.25">
       <c r="D72" s="14" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F72" s="13" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="I72" s="13">
         <v>1</v>
@@ -2631,12 +2628,12 @@
         <v>67</v>
       </c>
       <c r="C75" s="13" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="76" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B76" s="13" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="77" spans="1:20" x14ac:dyDescent="0.25">
@@ -2654,10 +2651,10 @@
         <v>35</v>
       </c>
       <c r="G79" s="16" t="s">
+        <v>260</v>
+      </c>
+      <c r="H79" s="13" t="s">
         <v>261</v>
-      </c>
-      <c r="H79" s="13" t="s">
-        <v>262</v>
       </c>
       <c r="T79" s="13" t="b">
         <v>1</v>
@@ -2693,12 +2690,12 @@
         <v>67</v>
       </c>
       <c r="C82" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="83" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A83" s="13" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B83" s="13" t="s">
         <v>37</v>
@@ -2709,10 +2706,10 @@
         <v>35</v>
       </c>
       <c r="G84" s="16" t="s">
+        <v>260</v>
+      </c>
+      <c r="H84" s="13" t="s">
         <v>261</v>
-      </c>
-      <c r="H84" s="13" t="s">
-        <v>262</v>
       </c>
       <c r="T84" s="13" t="b">
         <v>1</v>
@@ -2720,22 +2717,22 @@
     </row>
     <row r="85" spans="1:20" x14ac:dyDescent="0.25">
       <c r="D85" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="E85" s="13" t="s">
         <v>162</v>
       </c>
-      <c r="E85" s="13" t="s">
+      <c r="F85" s="13" t="s">
         <v>163</v>
       </c>
-      <c r="F85" s="13" t="s">
-        <v>164</v>
-      </c>
       <c r="G85" s="16" t="s">
+        <v>335</v>
+      </c>
+      <c r="H85" s="13" t="s">
         <v>336</v>
       </c>
-      <c r="H85" s="13" t="s">
-        <v>337</v>
-      </c>
       <c r="K85" s="13" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="86" spans="1:20" x14ac:dyDescent="0.25">
@@ -2743,7 +2740,7 @@
         <v>67</v>
       </c>
       <c r="C86" s="13" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="87" spans="1:20" x14ac:dyDescent="0.25">
@@ -2751,16 +2748,16 @@
         <v>60</v>
       </c>
       <c r="F87" s="13" t="s">
+        <v>248</v>
+      </c>
+      <c r="G87" s="16" t="s">
         <v>249</v>
       </c>
-      <c r="G87" s="16" t="s">
+      <c r="H87" s="13" t="s">
         <v>250</v>
       </c>
-      <c r="H87" s="13" t="s">
+      <c r="K87" s="13" t="s">
         <v>251</v>
-      </c>
-      <c r="K87" s="13" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="88" spans="1:20" x14ac:dyDescent="0.25">
@@ -2773,7 +2770,7 @@
         <v>28</v>
       </c>
       <c r="F89" s="13" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G89" s="16" t="s">
         <v>121</v>
@@ -2782,7 +2779,7 @@
         <v>122</v>
       </c>
       <c r="K89" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="P89" s="13" t="b">
         <v>0</v>
@@ -2793,15 +2790,15 @@
         <v>67</v>
       </c>
       <c r="C90" s="13" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="91" spans="1:20" x14ac:dyDescent="0.25">
       <c r="D91" s="14" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F91" s="13" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="I91" s="13">
         <v>2</v>
@@ -2825,12 +2822,12 @@
         <v>67</v>
       </c>
       <c r="C94" s="13" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="95" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A95" s="13" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B95" s="13" t="s">
         <v>37</v>
@@ -2841,10 +2838,10 @@
         <v>35</v>
       </c>
       <c r="G96" s="16" t="s">
+        <v>260</v>
+      </c>
+      <c r="H96" s="13" t="s">
         <v>261</v>
-      </c>
-      <c r="H96" s="13" t="s">
-        <v>262</v>
       </c>
       <c r="T96" s="13" t="b">
         <v>1</v>
@@ -2855,10 +2852,10 @@
         <v>35</v>
       </c>
       <c r="G97" s="16" t="s">
+        <v>294</v>
+      </c>
+      <c r="H97" s="13" t="s">
         <v>295</v>
-      </c>
-      <c r="H97" s="13" t="s">
-        <v>296</v>
       </c>
       <c r="T97" s="13" t="b">
         <v>1</v>
@@ -2866,10 +2863,10 @@
     </row>
     <row r="98" spans="2:20" x14ac:dyDescent="0.25">
       <c r="D98" s="14" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F98" s="13" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="I98" s="13">
         <v>1</v>
@@ -2893,12 +2890,12 @@
         <v>67</v>
       </c>
       <c r="C101" s="13" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="102" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B102" s="13" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="103" spans="2:20" x14ac:dyDescent="0.25">
@@ -2921,7 +2918,7 @@
         <v>67</v>
       </c>
       <c r="C106" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="107" spans="2:20" x14ac:dyDescent="0.25">
@@ -2929,7 +2926,7 @@
         <v>67</v>
       </c>
       <c r="C107" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="108" spans="2:20" x14ac:dyDescent="0.25">
@@ -2942,10 +2939,10 @@
         <v>35</v>
       </c>
       <c r="G109" s="16" t="s">
+        <v>260</v>
+      </c>
+      <c r="H109" s="13" t="s">
         <v>261</v>
-      </c>
-      <c r="H109" s="13" t="s">
-        <v>262</v>
       </c>
       <c r="T109" s="13" t="b">
         <v>1</v>
@@ -2994,10 +2991,10 @@
         <v>35</v>
       </c>
       <c r="G114" s="16" t="s">
+        <v>260</v>
+      </c>
+      <c r="H114" s="13" t="s">
         <v>261</v>
-      </c>
-      <c r="H114" s="13" t="s">
-        <v>262</v>
       </c>
       <c r="T114" s="13" t="b">
         <v>1</v>
@@ -3011,19 +3008,19 @@
         <v>52</v>
       </c>
       <c r="F115" s="13" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G115" t="s">
+        <v>252</v>
+      </c>
+      <c r="H115" t="s">
         <v>253</v>
       </c>
-      <c r="H115" t="s">
-        <v>254</v>
-      </c>
       <c r="K115" s="13" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="R115" s="13" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="116" spans="2:20" x14ac:dyDescent="0.25">
@@ -3031,7 +3028,7 @@
         <v>67</v>
       </c>
       <c r="C116" s="13" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="117" spans="2:20" x14ac:dyDescent="0.25">
@@ -3039,13 +3036,13 @@
         <v>137</v>
       </c>
       <c r="F117" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="G117" s="16" t="s">
         <v>209</v>
       </c>
-      <c r="G117" s="16" t="s">
+      <c r="H117" s="13" t="s">
         <v>210</v>
-      </c>
-      <c r="H117" s="13" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="118" spans="2:20" x14ac:dyDescent="0.25">
@@ -3068,7 +3065,7 @@
         <v>67</v>
       </c>
       <c r="C121" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="122" spans="2:20" x14ac:dyDescent="0.25">
@@ -3081,10 +3078,10 @@
         <v>35</v>
       </c>
       <c r="G123" s="16" t="s">
+        <v>260</v>
+      </c>
+      <c r="H123" s="13" t="s">
         <v>261</v>
-      </c>
-      <c r="H123" s="13" t="s">
-        <v>262</v>
       </c>
       <c r="T123" s="13" t="b">
         <v>1</v>
@@ -3092,28 +3089,28 @@
     </row>
     <row r="124" spans="2:20" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D124" s="11" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F124" s="11" t="s">
+        <v>302</v>
+      </c>
+      <c r="G124" t="s">
+        <v>311</v>
+      </c>
+      <c r="H124" t="s">
+        <v>312</v>
+      </c>
+      <c r="K124" s="13" t="s">
         <v>303</v>
       </c>
-      <c r="G124" t="s">
-        <v>312</v>
-      </c>
-      <c r="H124" t="s">
-        <v>313</v>
-      </c>
-      <c r="K124" s="13" t="s">
-        <v>304</v>
-      </c>
       <c r="L124" s="11" t="s">
+        <v>309</v>
+      </c>
+      <c r="M124" s="11" t="s">
         <v>310</v>
       </c>
-      <c r="M124" s="11" t="s">
-        <v>311</v>
-      </c>
       <c r="R124" s="11" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="125" spans="2:20" x14ac:dyDescent="0.25">
@@ -3143,7 +3140,7 @@
         <v>67</v>
       </c>
       <c r="C128" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D128" s="13"/>
       <c r="F128" s="14"/>
@@ -3166,10 +3163,10 @@
         <v>35</v>
       </c>
       <c r="G130" s="16" t="s">
+        <v>260</v>
+      </c>
+      <c r="H130" s="13" t="s">
         <v>261</v>
-      </c>
-      <c r="H130" s="13" t="s">
-        <v>262</v>
       </c>
       <c r="T130" s="13" t="b">
         <v>1</v>
@@ -3184,16 +3181,16 @@
         <v>53</v>
       </c>
       <c r="F131" s="14" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G131" s="21" t="s">
+        <v>314</v>
+      </c>
+      <c r="H131" s="21" t="s">
         <v>315</v>
       </c>
-      <c r="H131" s="21" t="s">
-        <v>316</v>
-      </c>
       <c r="K131" s="13" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="132" spans="2:20" x14ac:dyDescent="0.25">
@@ -3211,7 +3208,7 @@
         <v>67</v>
       </c>
       <c r="C133" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D133" s="13"/>
       <c r="F133" s="14"/>
@@ -3234,10 +3231,10 @@
         <v>35</v>
       </c>
       <c r="G135" s="16" t="s">
+        <v>260</v>
+      </c>
+      <c r="H135" s="13" t="s">
         <v>261</v>
-      </c>
-      <c r="H135" s="13" t="s">
-        <v>262</v>
       </c>
       <c r="T135" s="13" t="b">
         <v>1</v>
@@ -3246,35 +3243,35 @@
     <row r="136" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C136"/>
       <c r="D136" s="11" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E136" s="11"/>
       <c r="F136" s="11" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G136" t="s">
+        <v>318</v>
+      </c>
+      <c r="H136" s="21" t="s">
         <v>319</v>
-      </c>
-      <c r="H136" s="21" t="s">
-        <v>320</v>
       </c>
       <c r="I136" s="11"/>
       <c r="J136" s="11"/>
       <c r="K136" s="13" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="L136" s="11" t="s">
+        <v>309</v>
+      </c>
+      <c r="M136" s="11" t="s">
         <v>310</v>
-      </c>
-      <c r="M136" s="11" t="s">
-        <v>311</v>
       </c>
       <c r="N136" s="11"/>
       <c r="O136" s="11"/>
       <c r="P136" s="11"/>
       <c r="Q136" s="11"/>
       <c r="R136" s="11" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="137" spans="2:20" x14ac:dyDescent="0.25">
@@ -3320,10 +3317,10 @@
         <v>35</v>
       </c>
       <c r="G141" s="16" t="s">
+        <v>260</v>
+      </c>
+      <c r="H141" s="13" t="s">
         <v>261</v>
-      </c>
-      <c r="H141" s="13" t="s">
-        <v>262</v>
       </c>
       <c r="K141"/>
       <c r="L141"/>
@@ -3339,10 +3336,10 @@
         <v>81</v>
       </c>
       <c r="G142" t="s">
+        <v>333</v>
+      </c>
+      <c r="H142" t="s">
         <v>334</v>
-      </c>
-      <c r="H142" t="s">
-        <v>335</v>
       </c>
       <c r="I142"/>
       <c r="J142"/>
@@ -3350,10 +3347,10 @@
         <v>151</v>
       </c>
       <c r="L142" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="M142" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="N142" t="s">
         <v>148</v>
@@ -3362,7 +3359,7 @@
         <v>149</v>
       </c>
       <c r="R142" s="13" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="143" spans="2:20" x14ac:dyDescent="0.25">
@@ -3402,10 +3399,10 @@
         <v>35</v>
       </c>
       <c r="G145" s="16" t="s">
+        <v>260</v>
+      </c>
+      <c r="H145" s="13" t="s">
         <v>261</v>
-      </c>
-      <c r="H145" s="13" t="s">
-        <v>262</v>
       </c>
       <c r="I145"/>
       <c r="J145"/>
@@ -3435,16 +3432,16 @@
         <v>117</v>
       </c>
       <c r="K146" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="L146" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="M146" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="R146" s="13" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="147" spans="2:20" x14ac:dyDescent="0.25">
@@ -3476,10 +3473,10 @@
         <v>35</v>
       </c>
       <c r="G150" s="16" t="s">
+        <v>260</v>
+      </c>
+      <c r="H150" s="13" t="s">
         <v>261</v>
-      </c>
-      <c r="H150" s="13" t="s">
-        <v>262</v>
       </c>
       <c r="T150" s="13" t="b">
         <v>1</v>
@@ -3497,19 +3494,19 @@
         <v>83</v>
       </c>
       <c r="G151" s="16" t="s">
+        <v>266</v>
+      </c>
+      <c r="H151" s="13" t="s">
         <v>267</v>
       </c>
-      <c r="H151" s="13" t="s">
-        <v>268</v>
-      </c>
       <c r="J151" s="13" t="b">
         <v>1</v>
       </c>
       <c r="L151" t="s">
+        <v>306</v>
+      </c>
+      <c r="M151" t="s">
         <v>307</v>
-      </c>
-      <c r="M151" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="152" spans="2:20" x14ac:dyDescent="0.25">
@@ -3535,13 +3532,13 @@
         <v>126</v>
       </c>
       <c r="K153" s="16" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="N153" s="13" t="s">
+        <v>264</v>
+      </c>
+      <c r="O153" s="13" t="s">
         <v>265</v>
-      </c>
-      <c r="O153" s="13" t="s">
-        <v>266</v>
       </c>
       <c r="P153" s="13" t="b">
         <v>0</v>
@@ -3553,16 +3550,16 @@
         <v>60</v>
       </c>
       <c r="F154" s="13" t="s">
+        <v>352</v>
+      </c>
+      <c r="G154" s="16" t="s">
         <v>353</v>
       </c>
-      <c r="G154" s="16" t="s">
+      <c r="H154" s="13" t="s">
         <v>354</v>
       </c>
-      <c r="H154" s="13" t="s">
+      <c r="K154" t="s">
         <v>355</v>
-      </c>
-      <c r="K154" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="155" spans="2:20" x14ac:dyDescent="0.25">
@@ -3588,10 +3585,10 @@
         <v>35</v>
       </c>
       <c r="G158" s="16" t="s">
+        <v>260</v>
+      </c>
+      <c r="H158" s="13" t="s">
         <v>261</v>
-      </c>
-      <c r="H158" s="13" t="s">
-        <v>262</v>
       </c>
       <c r="T158" t="b">
         <v>1</v>
@@ -3603,10 +3600,10 @@
         <v>35</v>
       </c>
       <c r="G159" t="s">
+        <v>180</v>
+      </c>
+      <c r="H159" t="s">
         <v>181</v>
-      </c>
-      <c r="H159" t="s">
-        <v>182</v>
       </c>
       <c r="T159" t="b">
         <v>1</v>
@@ -3618,10 +3615,10 @@
         <v>35</v>
       </c>
       <c r="G160" t="s">
+        <v>182</v>
+      </c>
+      <c r="H160" t="s">
         <v>183</v>
-      </c>
-      <c r="H160" t="s">
-        <v>184</v>
       </c>
       <c r="T160" t="b">
         <v>1</v>
@@ -3633,13 +3630,13 @@
         <v>60</v>
       </c>
       <c r="F161" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G161" t="s">
+        <v>254</v>
+      </c>
+      <c r="H161" t="s">
         <v>255</v>
-      </c>
-      <c r="H161" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="162" spans="2:8" customFormat="1" x14ac:dyDescent="0.25">
@@ -3958,10 +3955,10 @@
         <v>4</v>
       </c>
       <c r="C22" s="13" t="s">
+        <v>239</v>
+      </c>
+      <c r="D22" s="13" t="s">
         <v>240</v>
-      </c>
-      <c r="D22" s="13" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -3972,86 +3969,86 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D24" s="13" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="25" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="13" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="26" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="13" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="27" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="13" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="28" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="13" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="29" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="13" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B29" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="D29" s="11" t="s">
         <v>240</v>
-      </c>
-      <c r="C29" s="11" t="s">
-        <v>240</v>
-      </c>
-      <c r="D29" s="11" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="30" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -4718,39 +4715,39 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="23" t="s">
         <v>219</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="D1" s="23" t="s">
         <v>220</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="E1" s="23" t="s">
         <v>221</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="F1" s="23" t="s">
         <v>222</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="G1" s="23" t="s">
         <v>223</v>
       </c>
-      <c r="G1" s="23" t="s">
+      <c r="H1" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>225</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C2" t="s">
         <v>127</v>
@@ -4759,16 +4756,16 @@
         <v>127</v>
       </c>
       <c r="E2" t="s">
+        <v>322</v>
+      </c>
+      <c r="F2" t="s">
         <v>323</v>
       </c>
-      <c r="F2" t="s">
-        <v>324</v>
-      </c>
       <c r="G2" s="24" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H2" s="24" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
   </sheetData>
@@ -4801,34 +4798,34 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="B2" s="10" t="s">
         <v>258</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
+        <v>268</v>
+      </c>
+      <c r="B3" s="10" t="s">
         <v>269</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -4890,7 +4887,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B3" t="s">
         <v>48</v>
@@ -4909,9 +4906,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:F144"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A52" sqref="A52:C52"/>
+      <selection pane="bottomLeft" activeCell="E50" sqref="E50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4948,7 +4945,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -5019,7 +5016,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>48</v>
@@ -5030,7 +5027,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>60</v>
@@ -5041,7 +5038,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>60</v>
@@ -5052,7 +5049,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>60</v>
@@ -5074,7 +5071,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>60</v>
@@ -5085,7 +5082,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>50</v>
@@ -5096,7 +5093,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>28</v>
@@ -5107,7 +5104,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>60</v>
@@ -5118,7 +5115,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B20" s="13" t="s">
         <v>50</v>
@@ -5129,16 +5126,16 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C22" s="3" t="b">
         <v>1</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E22"/>
       <c r="F22" s="11"/>
@@ -5213,7 +5210,7 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>28</v>
@@ -5253,7 +5250,7 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>60</v>
@@ -5295,7 +5292,7 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>50</v>
@@ -5308,7 +5305,7 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>28</v>
@@ -5322,7 +5319,7 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="13" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>48</v>
@@ -5336,7 +5333,7 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="13" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>48</v>
@@ -5363,10 +5360,10 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="13" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C39" s="3" t="b">
         <v>0</v>
@@ -5377,7 +5374,7 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="13" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>60</v>
@@ -5391,7 +5388,7 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="13" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>28</v>
@@ -5405,7 +5402,7 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>48</v>
@@ -5431,7 +5428,7 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="13" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>50</v>
@@ -5445,7 +5442,7 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="13" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>137</v>
@@ -5459,10 +5456,10 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="11" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C46" s="3" t="b">
         <v>0</v>
@@ -5471,7 +5468,7 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="11" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>50</v>
@@ -5537,7 +5534,7 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="13" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>60</v>
@@ -5551,7 +5548,7 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="13" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>60</v>
@@ -5574,7 +5571,7 @@
         <v>0</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -5601,15 +5598,9 @@
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>156</v>
-      </c>
-      <c r="B58" t="s">
-        <v>50</v>
-      </c>
-      <c r="C58" t="b">
-        <v>0</v>
-      </c>
+      <c r="A58"/>
+      <c r="B58"/>
+      <c r="C58"/>
       <c r="E58" s="13"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -5722,13 +5713,13 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>343</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="C1" s="5" t="s">
         <v>344</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>345</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>8</v>
@@ -5739,16 +5730,16 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>345</v>
+      </c>
+      <c r="B2" t="s">
         <v>346</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>347</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>348</v>
-      </c>
-      <c r="D2" t="s">
-        <v>349</v>
       </c>
       <c r="E2" t="str">
         <f>"FALSE"</f>
@@ -5757,16 +5748,16 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>345</v>
+      </c>
+      <c r="B3" t="s">
         <v>346</v>
       </c>
-      <c r="B3" t="s">
-        <v>347</v>
-      </c>
       <c r="C3" s="10" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D3" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E3" t="str">
         <f>"TRUE"</f>
@@ -5775,19 +5766,19 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>345</v>
+      </c>
+      <c r="B4" t="s">
         <v>346</v>
       </c>
-      <c r="B4" t="s">
-        <v>347</v>
-      </c>
       <c r="C4" s="10" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D4" t="s">
         <v>27</v>
       </c>
       <c r="E4" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
   </sheetData>

--- a/app/config/tables/CHILDREN/Forms/CHILDREN/CHILDREN.xlsx
+++ b/app/config/tables/CHILDREN/Forms/CHILDREN/CHILDREN.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBD35DC7-953B-40AD-8091-0E81DD7B816D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7B9FA11-3748-4579-92C2-9FBC88E9E0EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="728" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="728" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -980,12 +980,6 @@
     <t>data("VACINFO") != "1"</t>
   </si>
   <si>
-    <t>Has the child received a vaccination card?</t>
-  </si>
-  <si>
-    <t>A criança recebeu cartão de vacinação?</t>
-  </si>
-  <si>
     <t>HAVECARD</t>
   </si>
   <si>
@@ -1104,6 +1098,12 @@
   </si>
   <si>
     <t>data("HOSPREASON") != null || data("HOSP") != 1</t>
+  </si>
+  <si>
+    <t>Has the child received a vaccination card from the health centre?</t>
+  </si>
+  <si>
+    <t>A criança recebeu cartão de vacinação do centro de saúde?</t>
   </si>
 </sst>
 </file>
@@ -1656,9 +1656,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB5FB9AA-D433-6046-85E1-401DEB18B3FD}">
   <dimension ref="A1:T162"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A146" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D149" sqref="D149"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A119" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G131" sqref="G131:H131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1745,7 +1745,7 @@
         <v>228</v>
       </c>
       <c r="T1" s="25" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="2" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -1857,7 +1857,7 @@
         <v>67</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="G10" s="22"/>
       <c r="H10" s="22"/>
@@ -1956,7 +1956,7 @@
       </c>
       <c r="H18" s="16"/>
       <c r="I18" s="13" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="J18"/>
       <c r="K18"/>
@@ -2074,10 +2074,10 @@
         <v>259</v>
       </c>
       <c r="N26" s="13" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="O26" s="13" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="P26" s="13" t="b">
         <v>0</v>
@@ -2121,7 +2121,7 @@
         <v>88</v>
       </c>
       <c r="H30" s="21" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="J30" s="13" t="b">
         <v>1</v>
@@ -2492,7 +2492,7 @@
         <v>67</v>
       </c>
       <c r="C61" s="13" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="62" spans="1:20" x14ac:dyDescent="0.25">
@@ -2560,7 +2560,7 @@
         <v>67</v>
       </c>
       <c r="C68" s="13" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="69" spans="1:20" x14ac:dyDescent="0.25">
@@ -2726,10 +2726,10 @@
         <v>163</v>
       </c>
       <c r="G85" s="16" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="H85" s="13" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="K85" s="13" t="s">
         <v>165</v>
@@ -2822,7 +2822,7 @@
         <v>67</v>
       </c>
       <c r="C94" s="13" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="95" spans="1:20" x14ac:dyDescent="0.25">
@@ -3181,16 +3181,16 @@
         <v>53</v>
       </c>
       <c r="F131" s="14" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="G131" s="21" t="s">
-        <v>314</v>
+        <v>354</v>
       </c>
       <c r="H131" s="21" t="s">
-        <v>315</v>
+        <v>355</v>
       </c>
       <c r="K131" s="13" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="132" spans="2:20" x14ac:dyDescent="0.25">
@@ -3208,7 +3208,7 @@
         <v>67</v>
       </c>
       <c r="C133" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D133" s="13"/>
       <c r="F133" s="14"/>
@@ -3250,15 +3250,15 @@
         <v>302</v>
       </c>
       <c r="G136" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="H136" s="21" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="I136" s="11"/>
       <c r="J136" s="11"/>
       <c r="K136" s="13" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="L136" s="11" t="s">
         <v>309</v>
@@ -3336,10 +3336,10 @@
         <v>81</v>
       </c>
       <c r="G142" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="H142" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="I142"/>
       <c r="J142"/>
@@ -3347,10 +3347,10 @@
         <v>151</v>
       </c>
       <c r="L142" t="s">
+        <v>328</v>
+      </c>
+      <c r="M142" t="s">
         <v>330</v>
-      </c>
-      <c r="M142" t="s">
-        <v>332</v>
       </c>
       <c r="N142" t="s">
         <v>148</v>
@@ -3550,16 +3550,16 @@
         <v>60</v>
       </c>
       <c r="F154" s="13" t="s">
+        <v>350</v>
+      </c>
+      <c r="G154" s="16" t="s">
+        <v>351</v>
+      </c>
+      <c r="H154" s="13" t="s">
         <v>352</v>
       </c>
-      <c r="G154" s="16" t="s">
+      <c r="K154" t="s">
         <v>353</v>
-      </c>
-      <c r="H154" s="13" t="s">
-        <v>354</v>
-      </c>
-      <c r="K154" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="155" spans="2:20" x14ac:dyDescent="0.25">
@@ -4756,10 +4756,10 @@
         <v>127</v>
       </c>
       <c r="E2" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="F2" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G2" s="24" t="s">
         <v>227</v>
@@ -4817,7 +4817,7 @@
         <v>286</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -4825,7 +4825,7 @@
         <v>287</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -4906,7 +4906,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:F144"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E50" sqref="E50"/>
     </sheetView>
@@ -5038,7 +5038,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>60</v>
@@ -5468,7 +5468,7 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="11" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>50</v>
@@ -5534,7 +5534,7 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="13" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>60</v>
@@ -5713,13 +5713,13 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>342</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>343</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>344</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>8</v>
@@ -5730,16 +5730,16 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>343</v>
+      </c>
+      <c r="B2" t="s">
+        <v>344</v>
+      </c>
+      <c r="C2" t="s">
         <v>345</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
         <v>346</v>
-      </c>
-      <c r="C2" t="s">
-        <v>347</v>
-      </c>
-      <c r="D2" t="s">
-        <v>348</v>
       </c>
       <c r="E2" t="str">
         <f>"FALSE"</f>
@@ -5748,16 +5748,16 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B3" t="s">
+        <v>344</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>347</v>
+      </c>
+      <c r="D3" t="s">
         <v>346</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>349</v>
-      </c>
-      <c r="D3" t="s">
-        <v>348</v>
       </c>
       <c r="E3" t="str">
         <f>"TRUE"</f>
@@ -5766,19 +5766,19 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B4" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="D4" t="s">
         <v>27</v>
       </c>
       <c r="E4" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
   </sheetData>

--- a/app/config/tables/CHILDREN/Forms/CHILDREN/CHILDREN.xlsx
+++ b/app/config/tables/CHILDREN/Forms/CHILDREN/CHILDREN.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7B9FA11-3748-4579-92C2-9FBC88E9E0EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCE2C65C-88C5-4952-9FB9-2E68FB060FFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="728" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -814,9 +814,6 @@
     <t>adate.display(data("REGDIA"))</t>
   </si>
   <si>
-    <t>adate.diffInDays(data("DOB"),data("DATASEG")) &gt;= 0 &amp;&amp; adate.diffInDays(data("REGDIA"),data("DOB")) &gt;= 0 &amp;&amp; adate.ageInYears(data("DOB")) != -9999 &amp;&amp; adate.ageInYears(data("DOB")) &lt; 2019</t>
-  </si>
-  <si>
     <t>&lt;b&gt;Follow-up on registered pregnancy to {{data.NOMEMUL}} regdia: {{calculates.displayREGDIA}}&lt;/b&gt;</t>
   </si>
   <si>
@@ -1104,6 +1101,9 @@
   </si>
   <si>
     <t>A criança recebeu cartão de vacinação do centro de saúde?</t>
+  </si>
+  <si>
+    <t>adate.diffInDays(data("DOB"),data("DATASEG")) &gt;= 0  &amp;&amp; adate.ageInYears(data("DOB")) != -9999 &amp;&amp; adate.ageInYears(data("DOB")) &lt; 2019</t>
   </si>
 </sst>
 </file>
@@ -1656,9 +1656,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB5FB9AA-D433-6046-85E1-401DEB18B3FD}">
   <dimension ref="A1:T162"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A119" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G131" sqref="G131:H131"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1745,7 +1745,7 @@
         <v>228</v>
       </c>
       <c r="T1" s="25" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="2" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -1759,10 +1759,10 @@
         <v>35</v>
       </c>
       <c r="G3" s="16" t="s">
+        <v>259</v>
+      </c>
+      <c r="H3" s="13" t="s">
         <v>260</v>
-      </c>
-      <c r="H3" s="13" t="s">
-        <v>261</v>
       </c>
       <c r="T3" s="11" t="b">
         <v>1</v>
@@ -1857,7 +1857,7 @@
         <v>67</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G10" s="22"/>
       <c r="H10" s="22"/>
@@ -1902,10 +1902,10 @@
         <v>35</v>
       </c>
       <c r="G15" s="16" t="s">
+        <v>259</v>
+      </c>
+      <c r="H15" s="13" t="s">
         <v>260</v>
-      </c>
-      <c r="H15" s="13" t="s">
-        <v>261</v>
       </c>
       <c r="T15" s="11" t="b">
         <v>1</v>
@@ -1956,7 +1956,7 @@
       </c>
       <c r="H18" s="16"/>
       <c r="I18" s="13" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="J18"/>
       <c r="K18"/>
@@ -2005,10 +2005,10 @@
         <v>35</v>
       </c>
       <c r="G23" s="16" t="s">
+        <v>259</v>
+      </c>
+      <c r="H23" s="13" t="s">
         <v>260</v>
-      </c>
-      <c r="H23" s="13" t="s">
-        <v>261</v>
       </c>
       <c r="T23" s="13" t="b">
         <v>1</v>
@@ -2071,13 +2071,13 @@
         <v>92</v>
       </c>
       <c r="K26" s="13" t="s">
-        <v>259</v>
+        <v>355</v>
       </c>
       <c r="N26" s="13" t="s">
+        <v>325</v>
+      </c>
+      <c r="O26" s="13" t="s">
         <v>326</v>
-      </c>
-      <c r="O26" s="13" t="s">
-        <v>327</v>
       </c>
       <c r="P26" s="13" t="b">
         <v>0</v>
@@ -2098,10 +2098,10 @@
         <v>35</v>
       </c>
       <c r="G29" s="16" t="s">
+        <v>259</v>
+      </c>
+      <c r="H29" s="13" t="s">
         <v>260</v>
-      </c>
-      <c r="H29" s="13" t="s">
-        <v>261</v>
       </c>
       <c r="T29" s="13" t="b">
         <v>1</v>
@@ -2121,7 +2121,7 @@
         <v>88</v>
       </c>
       <c r="H30" s="21" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="J30" s="13" t="b">
         <v>1</v>
@@ -2153,13 +2153,13 @@
         <v>133</v>
       </c>
       <c r="K32" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="N32" t="s">
+        <v>261</v>
+      </c>
+      <c r="O32" t="s">
         <v>262</v>
-      </c>
-      <c r="O32" t="s">
-        <v>263</v>
       </c>
       <c r="P32" s="13" t="b">
         <v>0</v>
@@ -2193,10 +2193,10 @@
         <v>35</v>
       </c>
       <c r="G36" s="16" t="s">
+        <v>259</v>
+      </c>
+      <c r="H36" s="13" t="s">
         <v>260</v>
-      </c>
-      <c r="H36" s="13" t="s">
-        <v>261</v>
       </c>
       <c r="T36" s="13" t="b">
         <v>1</v>
@@ -2289,7 +2289,7 @@
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A44" s="13" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B44" s="13" t="s">
         <v>37</v>
@@ -2300,10 +2300,10 @@
         <v>35</v>
       </c>
       <c r="G45" s="16" t="s">
+        <v>259</v>
+      </c>
+      <c r="H45" s="13" t="s">
         <v>260</v>
-      </c>
-      <c r="H45" s="13" t="s">
-        <v>261</v>
       </c>
       <c r="T45" s="13" t="b">
         <v>1</v>
@@ -2357,7 +2357,7 @@
         <v>122</v>
       </c>
       <c r="K48" s="13" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="P48" s="13" t="b">
         <v>0</v>
@@ -2379,7 +2379,7 @@
         <v>156</v>
       </c>
       <c r="G50" s="16" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H50" s="13" t="s">
         <v>123</v>
@@ -2417,7 +2417,7 @@
         <v>122</v>
       </c>
       <c r="K52" s="13" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="P52" s="13" t="b">
         <v>0</v>
@@ -2433,7 +2433,7 @@
         <v>67</v>
       </c>
       <c r="C54" s="13" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="55" spans="1:20" x14ac:dyDescent="0.25">
@@ -2441,7 +2441,7 @@
         <v>230</v>
       </c>
       <c r="F55" s="13" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="I55" s="13">
         <v>2</v>
@@ -2460,7 +2460,7 @@
         <v>67</v>
       </c>
       <c r="C57" s="13" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.25">
@@ -2468,7 +2468,7 @@
         <v>230</v>
       </c>
       <c r="F58" s="13" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="I58" s="13">
         <v>2</v>
@@ -2492,12 +2492,12 @@
         <v>67</v>
       </c>
       <c r="C61" s="13" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="62" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A62" s="13" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B62" s="13" t="s">
         <v>37</v>
@@ -2508,10 +2508,10 @@
         <v>35</v>
       </c>
       <c r="G63" s="16" t="s">
+        <v>259</v>
+      </c>
+      <c r="H63" s="13" t="s">
         <v>260</v>
-      </c>
-      <c r="H63" s="13" t="s">
-        <v>261</v>
       </c>
       <c r="T63" s="13" t="b">
         <v>1</v>
@@ -2522,10 +2522,10 @@
         <v>35</v>
       </c>
       <c r="G64" s="16" t="s">
+        <v>273</v>
+      </c>
+      <c r="H64" s="13" t="s">
         <v>274</v>
-      </c>
-      <c r="H64" s="13" t="s">
-        <v>275</v>
       </c>
       <c r="T64" s="13" t="b">
         <v>1</v>
@@ -2536,7 +2536,7 @@
         <v>230</v>
       </c>
       <c r="F65" s="13" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="I65" s="13">
         <v>1</v>
@@ -2560,12 +2560,12 @@
         <v>67</v>
       </c>
       <c r="C68" s="13" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="69" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A69" s="13" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B69" s="13" t="s">
         <v>37</v>
@@ -2576,10 +2576,10 @@
         <v>35</v>
       </c>
       <c r="G70" s="16" t="s">
+        <v>259</v>
+      </c>
+      <c r="H70" s="13" t="s">
         <v>260</v>
-      </c>
-      <c r="H70" s="13" t="s">
-        <v>261</v>
       </c>
       <c r="T70" s="13" t="b">
         <v>1</v>
@@ -2590,10 +2590,10 @@
         <v>35</v>
       </c>
       <c r="G71" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H71" s="13" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="T71" s="13" t="b">
         <v>1</v>
@@ -2604,7 +2604,7 @@
         <v>230</v>
       </c>
       <c r="F72" s="13" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="I72" s="13">
         <v>1</v>
@@ -2628,12 +2628,12 @@
         <v>67</v>
       </c>
       <c r="C75" s="13" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="76" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B76" s="13" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="77" spans="1:20" x14ac:dyDescent="0.25">
@@ -2651,10 +2651,10 @@
         <v>35</v>
       </c>
       <c r="G79" s="16" t="s">
+        <v>259</v>
+      </c>
+      <c r="H79" s="13" t="s">
         <v>260</v>
-      </c>
-      <c r="H79" s="13" t="s">
-        <v>261</v>
       </c>
       <c r="T79" s="13" t="b">
         <v>1</v>
@@ -2695,7 +2695,7 @@
     </row>
     <row r="83" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A83" s="13" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B83" s="13" t="s">
         <v>37</v>
@@ -2706,10 +2706,10 @@
         <v>35</v>
       </c>
       <c r="G84" s="16" t="s">
+        <v>259</v>
+      </c>
+      <c r="H84" s="13" t="s">
         <v>260</v>
-      </c>
-      <c r="H84" s="13" t="s">
-        <v>261</v>
       </c>
       <c r="T84" s="13" t="b">
         <v>1</v>
@@ -2726,10 +2726,10 @@
         <v>163</v>
       </c>
       <c r="G85" s="16" t="s">
+        <v>332</v>
+      </c>
+      <c r="H85" s="13" t="s">
         <v>333</v>
-      </c>
-      <c r="H85" s="13" t="s">
-        <v>334</v>
       </c>
       <c r="K85" s="13" t="s">
         <v>165</v>
@@ -2779,7 +2779,7 @@
         <v>122</v>
       </c>
       <c r="K89" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="P89" s="13" t="b">
         <v>0</v>
@@ -2790,7 +2790,7 @@
         <v>67</v>
       </c>
       <c r="C90" s="13" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="91" spans="1:20" x14ac:dyDescent="0.25">
@@ -2798,7 +2798,7 @@
         <v>230</v>
       </c>
       <c r="F91" s="13" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="I91" s="13">
         <v>2</v>
@@ -2822,12 +2822,12 @@
         <v>67</v>
       </c>
       <c r="C94" s="13" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="95" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A95" s="13" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B95" s="13" t="s">
         <v>37</v>
@@ -2838,10 +2838,10 @@
         <v>35</v>
       </c>
       <c r="G96" s="16" t="s">
+        <v>259</v>
+      </c>
+      <c r="H96" s="13" t="s">
         <v>260</v>
-      </c>
-      <c r="H96" s="13" t="s">
-        <v>261</v>
       </c>
       <c r="T96" s="13" t="b">
         <v>1</v>
@@ -2852,10 +2852,10 @@
         <v>35</v>
       </c>
       <c r="G97" s="16" t="s">
+        <v>293</v>
+      </c>
+      <c r="H97" s="13" t="s">
         <v>294</v>
-      </c>
-      <c r="H97" s="13" t="s">
-        <v>295</v>
       </c>
       <c r="T97" s="13" t="b">
         <v>1</v>
@@ -2866,7 +2866,7 @@
         <v>230</v>
       </c>
       <c r="F98" s="13" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="I98" s="13">
         <v>1</v>
@@ -2890,12 +2890,12 @@
         <v>67</v>
       </c>
       <c r="C101" s="13" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="102" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B102" s="13" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="103" spans="2:20" x14ac:dyDescent="0.25">
@@ -2939,10 +2939,10 @@
         <v>35</v>
       </c>
       <c r="G109" s="16" t="s">
+        <v>259</v>
+      </c>
+      <c r="H109" s="13" t="s">
         <v>260</v>
-      </c>
-      <c r="H109" s="13" t="s">
-        <v>261</v>
       </c>
       <c r="T109" s="13" t="b">
         <v>1</v>
@@ -2991,10 +2991,10 @@
         <v>35</v>
       </c>
       <c r="G114" s="16" t="s">
+        <v>259</v>
+      </c>
+      <c r="H114" s="13" t="s">
         <v>260</v>
-      </c>
-      <c r="H114" s="13" t="s">
-        <v>261</v>
       </c>
       <c r="T114" s="13" t="b">
         <v>1</v>
@@ -3065,7 +3065,7 @@
         <v>67</v>
       </c>
       <c r="C121" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="122" spans="2:20" x14ac:dyDescent="0.25">
@@ -3078,10 +3078,10 @@
         <v>35</v>
       </c>
       <c r="G123" s="16" t="s">
+        <v>259</v>
+      </c>
+      <c r="H123" s="13" t="s">
         <v>260</v>
-      </c>
-      <c r="H123" s="13" t="s">
-        <v>261</v>
       </c>
       <c r="T123" s="13" t="b">
         <v>1</v>
@@ -3089,28 +3089,28 @@
     </row>
     <row r="124" spans="2:20" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D124" s="11" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F124" s="11" t="s">
+        <v>301</v>
+      </c>
+      <c r="G124" t="s">
+        <v>310</v>
+      </c>
+      <c r="H124" t="s">
+        <v>311</v>
+      </c>
+      <c r="K124" s="13" t="s">
         <v>302</v>
       </c>
-      <c r="G124" t="s">
-        <v>311</v>
-      </c>
-      <c r="H124" t="s">
-        <v>312</v>
-      </c>
-      <c r="K124" s="13" t="s">
-        <v>303</v>
-      </c>
       <c r="L124" s="11" t="s">
+        <v>308</v>
+      </c>
+      <c r="M124" s="11" t="s">
         <v>309</v>
       </c>
-      <c r="M124" s="11" t="s">
-        <v>310</v>
-      </c>
       <c r="R124" s="11" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="125" spans="2:20" x14ac:dyDescent="0.25">
@@ -3140,7 +3140,7 @@
         <v>67</v>
       </c>
       <c r="C128" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D128" s="13"/>
       <c r="F128" s="14"/>
@@ -3163,10 +3163,10 @@
         <v>35</v>
       </c>
       <c r="G130" s="16" t="s">
+        <v>259</v>
+      </c>
+      <c r="H130" s="13" t="s">
         <v>260</v>
-      </c>
-      <c r="H130" s="13" t="s">
-        <v>261</v>
       </c>
       <c r="T130" s="13" t="b">
         <v>1</v>
@@ -3181,16 +3181,16 @@
         <v>53</v>
       </c>
       <c r="F131" s="14" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G131" s="21" t="s">
+        <v>353</v>
+      </c>
+      <c r="H131" s="21" t="s">
         <v>354</v>
       </c>
-      <c r="H131" s="21" t="s">
-        <v>355</v>
-      </c>
       <c r="K131" s="13" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="132" spans="2:20" x14ac:dyDescent="0.25">
@@ -3208,7 +3208,7 @@
         <v>67</v>
       </c>
       <c r="C133" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D133" s="13"/>
       <c r="F133" s="14"/>
@@ -3231,10 +3231,10 @@
         <v>35</v>
       </c>
       <c r="G135" s="16" t="s">
+        <v>259</v>
+      </c>
+      <c r="H135" s="13" t="s">
         <v>260</v>
-      </c>
-      <c r="H135" s="13" t="s">
-        <v>261</v>
       </c>
       <c r="T135" s="13" t="b">
         <v>1</v>
@@ -3243,35 +3243,35 @@
     <row r="136" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C136"/>
       <c r="D136" s="11" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E136" s="11"/>
       <c r="F136" s="11" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G136" t="s">
+        <v>315</v>
+      </c>
+      <c r="H136" s="21" t="s">
         <v>316</v>
-      </c>
-      <c r="H136" s="21" t="s">
-        <v>317</v>
       </c>
       <c r="I136" s="11"/>
       <c r="J136" s="11"/>
       <c r="K136" s="13" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="L136" s="11" t="s">
+        <v>308</v>
+      </c>
+      <c r="M136" s="11" t="s">
         <v>309</v>
-      </c>
-      <c r="M136" s="11" t="s">
-        <v>310</v>
       </c>
       <c r="N136" s="11"/>
       <c r="O136" s="11"/>
       <c r="P136" s="11"/>
       <c r="Q136" s="11"/>
       <c r="R136" s="11" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="137" spans="2:20" x14ac:dyDescent="0.25">
@@ -3317,10 +3317,10 @@
         <v>35</v>
       </c>
       <c r="G141" s="16" t="s">
+        <v>259</v>
+      </c>
+      <c r="H141" s="13" t="s">
         <v>260</v>
-      </c>
-      <c r="H141" s="13" t="s">
-        <v>261</v>
       </c>
       <c r="K141"/>
       <c r="L141"/>
@@ -3336,10 +3336,10 @@
         <v>81</v>
       </c>
       <c r="G142" t="s">
+        <v>330</v>
+      </c>
+      <c r="H142" t="s">
         <v>331</v>
-      </c>
-      <c r="H142" t="s">
-        <v>332</v>
       </c>
       <c r="I142"/>
       <c r="J142"/>
@@ -3347,10 +3347,10 @@
         <v>151</v>
       </c>
       <c r="L142" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="M142" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="N142" t="s">
         <v>148</v>
@@ -3359,7 +3359,7 @@
         <v>149</v>
       </c>
       <c r="R142" s="13" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="143" spans="2:20" x14ac:dyDescent="0.25">
@@ -3399,10 +3399,10 @@
         <v>35</v>
       </c>
       <c r="G145" s="16" t="s">
+        <v>259</v>
+      </c>
+      <c r="H145" s="13" t="s">
         <v>260</v>
-      </c>
-      <c r="H145" s="13" t="s">
-        <v>261</v>
       </c>
       <c r="I145"/>
       <c r="J145"/>
@@ -3435,13 +3435,13 @@
         <v>233</v>
       </c>
       <c r="L146" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="M146" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="R146" s="13" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="147" spans="2:20" x14ac:dyDescent="0.25">
@@ -3473,10 +3473,10 @@
         <v>35</v>
       </c>
       <c r="G150" s="16" t="s">
+        <v>259</v>
+      </c>
+      <c r="H150" s="13" t="s">
         <v>260</v>
-      </c>
-      <c r="H150" s="13" t="s">
-        <v>261</v>
       </c>
       <c r="T150" s="13" t="b">
         <v>1</v>
@@ -3494,19 +3494,19 @@
         <v>83</v>
       </c>
       <c r="G151" s="16" t="s">
+        <v>265</v>
+      </c>
+      <c r="H151" s="13" t="s">
         <v>266</v>
       </c>
-      <c r="H151" s="13" t="s">
-        <v>267</v>
-      </c>
       <c r="J151" s="13" t="b">
         <v>1</v>
       </c>
       <c r="L151" t="s">
+        <v>305</v>
+      </c>
+      <c r="M151" t="s">
         <v>306</v>
-      </c>
-      <c r="M151" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="152" spans="2:20" x14ac:dyDescent="0.25">
@@ -3532,13 +3532,13 @@
         <v>126</v>
       </c>
       <c r="K153" s="16" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="N153" s="13" t="s">
+        <v>263</v>
+      </c>
+      <c r="O153" s="13" t="s">
         <v>264</v>
-      </c>
-      <c r="O153" s="13" t="s">
-        <v>265</v>
       </c>
       <c r="P153" s="13" t="b">
         <v>0</v>
@@ -3550,16 +3550,16 @@
         <v>60</v>
       </c>
       <c r="F154" s="13" t="s">
+        <v>349</v>
+      </c>
+      <c r="G154" s="16" t="s">
         <v>350</v>
       </c>
-      <c r="G154" s="16" t="s">
+      <c r="H154" s="13" t="s">
         <v>351</v>
       </c>
-      <c r="H154" s="13" t="s">
+      <c r="K154" t="s">
         <v>352</v>
-      </c>
-      <c r="K154" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="155" spans="2:20" x14ac:dyDescent="0.25">
@@ -3585,10 +3585,10 @@
         <v>35</v>
       </c>
       <c r="G158" s="16" t="s">
+        <v>259</v>
+      </c>
+      <c r="H158" s="13" t="s">
         <v>260</v>
-      </c>
-      <c r="H158" s="13" t="s">
-        <v>261</v>
       </c>
       <c r="T158" t="b">
         <v>1</v>
@@ -4756,10 +4756,10 @@
         <v>127</v>
       </c>
       <c r="E2" t="s">
+        <v>319</v>
+      </c>
+      <c r="F2" t="s">
         <v>320</v>
-      </c>
-      <c r="F2" t="s">
-        <v>321</v>
       </c>
       <c r="G2" s="24" t="s">
         <v>227</v>
@@ -4806,26 +4806,26 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="B3" s="10" t="s">
         <v>268</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -5038,7 +5038,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>60</v>
@@ -5319,7 +5319,7 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="13" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>48</v>
@@ -5333,7 +5333,7 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="13" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>48</v>
@@ -5402,7 +5402,7 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>48</v>
@@ -5456,10 +5456,10 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="11" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C46" s="3" t="b">
         <v>0</v>
@@ -5468,7 +5468,7 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="11" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>50</v>
@@ -5534,7 +5534,7 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="13" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>60</v>
@@ -5713,13 +5713,13 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>340</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="C1" s="5" t="s">
         <v>341</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>342</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>8</v>
@@ -5730,16 +5730,16 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>342</v>
+      </c>
+      <c r="B2" t="s">
         <v>343</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>344</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>345</v>
-      </c>
-      <c r="D2" t="s">
-        <v>346</v>
       </c>
       <c r="E2" t="str">
         <f>"FALSE"</f>
@@ -5748,16 +5748,16 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>342</v>
+      </c>
+      <c r="B3" t="s">
         <v>343</v>
       </c>
-      <c r="B3" t="s">
-        <v>344</v>
-      </c>
       <c r="C3" s="10" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E3" t="str">
         <f>"TRUE"</f>
@@ -5766,19 +5766,19 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>342</v>
+      </c>
+      <c r="B4" t="s">
         <v>343</v>
       </c>
-      <c r="B4" t="s">
-        <v>344</v>
-      </c>
       <c r="C4" s="10" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D4" t="s">
         <v>27</v>
       </c>
       <c r="E4" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
   </sheetData>
